--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5978EBD3-7FB4-4E9B-9AA0-359E4C656D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27099A4C-1EB9-4E9F-A789-75EFD2342685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="108">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -329,6 +329,18 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_034</t>
+  </si>
+  <si>
+    <t>One Way</t>
+  </si>
+  <si>
+    <t>Leverage</t>
+  </si>
+  <si>
+    <t>Margin Type</t>
+  </si>
+  <si>
+    <t>CROSSED</t>
   </si>
 </sst>
 </file>
@@ -421,7 +433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -437,6 +449,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -889,10 +904,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -903,13 +918,15 @@
     <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -935,34 +952,40 @@
         <v>10</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -984,11 +1007,13 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -1008,11 +1033,13 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -1032,11 +1059,13 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1056,11 +1085,13 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -1082,11 +1113,13 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1106,11 +1139,13 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -1132,11 +1167,13 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -1162,11 +1199,13 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -1192,11 +1231,13 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1214,23 +1255,25 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2">
-        <v>1</v>
-      </c>
+      <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -1251,20 +1294,22 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2">
-        <v>1</v>
-      </c>
+      <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2">
-        <v>1</v>
-      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q12" s="2">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
@@ -1282,23 +1327,25 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2">
-        <v>1</v>
-      </c>
+      <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
@@ -1316,23 +1363,25 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2">
-        <v>1</v>
-      </c>
+      <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -1350,23 +1399,25 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2">
-        <v>1</v>
-      </c>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="N15" s="2">
+        <v>1</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -1384,21 +1435,23 @@
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>40</v>
       </c>
@@ -1417,23 +1470,25 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7">
-        <v>1</v>
-      </c>
+      <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
+      <c r="N17" s="7">
+        <v>1</v>
+      </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>103</v>
       </c>
@@ -1446,14 +1501,29 @@
       <c r="F18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O18" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="H18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" s="9">
+        <v>25</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>1</v>
+      </c>
+      <c r="S18" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27099A4C-1EB9-4E9F-A789-75EFD2342685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FE7A52-1D26-4AAE-9F1B-3F21D9998BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NitroXLogin" sheetId="13" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="109">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -341,12 +341,18 @@
   </si>
   <si>
     <t>CROSSED</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_035</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -379,7 +385,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -415,25 +421,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -448,8 +441,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -906,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1482,8 +1480,12 @@
       </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
+      <c r="Q17" s="7">
+        <v>1</v>
+      </c>
+      <c r="R17" s="7">
+        <v>1</v>
+      </c>
       <c r="S17" s="7" t="b">
         <v>0</v>
       </c>
@@ -1504,7 +1506,7 @@
       <c r="H18" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <v>25</v>
       </c>
       <c r="J18" s="2" t="s">
@@ -1519,12 +1521,50 @@
       <c r="Q18" s="2">
         <v>1</v>
       </c>
+      <c r="R18" s="2">
+        <v>1</v>
+      </c>
       <c r="S18" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="F19" s="8"/>
+    <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="8">
+        <v>25</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2">
+        <v>1</v>
+      </c>
+      <c r="S19" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
@@ -1537,10 +1577,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:AP8"/>
+  <dimension ref="A1:AP9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2205,6 +2245,50 @@
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
     </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FE7A52-1D26-4AAE-9F1B-3F21D9998BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B843ED74-5CA3-4F6C-B469-D3C6C5EA5F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="112">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -344,6 +344,15 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_035</t>
+  </si>
+  <si>
+    <t>twap_bot</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>1m</t>
   </si>
 </sst>
 </file>
@@ -1577,10 +1586,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:AP9"/>
+  <dimension ref="A1:AR9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1589,7 +1598,7 @@
     <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1618,106 +1627,112 @@
         <v>43</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>71</v>
       </c>
@@ -1744,62 +1759,64 @@
         <v>1</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="2">
+      <c r="N2" s="2">
         <v>20</v>
       </c>
-      <c r="M2" s="2">
+      <c r="O2" s="2">
         <v>50</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2">
         <v>1E-3</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2">
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2">
         <v>3000</v>
       </c>
-      <c r="T2" s="2">
+      <c r="V2" s="2">
         <v>4000</v>
       </c>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
-      <c r="AI2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
+      <c r="AK2" s="2">
+        <v>1</v>
+      </c>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
-      <c r="AN2" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="AN2" s="2"/>
       <c r="AO2" s="2"/>
-      <c r="AP2" s="2" t="s">
+      <c r="AP2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>77</v>
       </c>
@@ -1826,60 +1843,62 @@
         <v>1</v>
       </c>
       <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="2">
+      <c r="N3" s="2">
         <v>20</v>
       </c>
-      <c r="M3" s="2">
+      <c r="O3" s="2">
         <v>50</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2">
         <v>1E-3</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2">
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2">
         <v>3100</v>
       </c>
-      <c r="T3" s="2">
+      <c r="V3" s="2">
         <v>3900</v>
       </c>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2" t="s">
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
-      <c r="AI3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
+      <c r="AK3" s="2">
+        <v>1</v>
+      </c>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
-      <c r="AN3" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="AN3" s="2"/>
       <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AP3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>79</v>
       </c>
@@ -1925,33 +1944,35 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
-      <c r="AD4" s="2" t="s">
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AG4" s="2">
         <v>0.1</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AH4" s="2">
         <v>3000</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AI4" s="2">
         <v>4000</v>
       </c>
-      <c r="AH4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
+      <c r="AJ4" s="2">
+        <v>1</v>
+      </c>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
-      <c r="AN4" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="AN4" s="2"/>
       <c r="AO4" s="2"/>
-      <c r="AP4" s="2"/>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AP4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>81</v>
       </c>
@@ -1997,33 +2018,35 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
-      <c r="AD5" s="2" t="s">
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AG5" s="2">
         <v>0.1</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AH5" s="2">
         <v>3000</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AI5" s="2">
         <v>4000</v>
       </c>
-      <c r="AH5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
+      <c r="AJ5" s="2">
+        <v>1</v>
+      </c>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
-      <c r="AN5" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>
-      <c r="AP5" s="2"/>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AP5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>82</v>
       </c>
@@ -2044,13 +2067,17 @@
         <v>72</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1234</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -2069,33 +2096,37 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
-      <c r="AD6" s="2" t="s">
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AG6" s="2">
         <v>0.1</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AH6" s="2">
         <v>3000</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AI6" s="2">
         <v>4000</v>
       </c>
-      <c r="AH6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
+      <c r="AJ6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>1</v>
+      </c>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
-      <c r="AN6" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="AN6" s="2"/>
       <c r="AO6" s="2"/>
-      <c r="AP6" s="2"/>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AP6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>83</v>
       </c>
@@ -2141,33 +2172,35 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
-      <c r="AD7" s="2" t="s">
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AG7" s="2">
         <v>0.1</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AH7" s="2">
         <v>3000</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AI7" s="2">
         <v>4000</v>
       </c>
-      <c r="AH7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
+      <c r="AJ7" s="2">
+        <v>1</v>
+      </c>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
-      <c r="AN7" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>
-      <c r="AP7" s="2"/>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AP7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>84</v>
       </c>
@@ -2213,39 +2246,41 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
-      <c r="AD8" s="2" t="s">
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AG8" s="2">
         <v>0.1</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AH8" s="2">
         <v>3000</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AI8" s="2">
         <v>4000</v>
       </c>
-      <c r="AH8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="2">
+      <c r="AJ8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="2">
         <v>200</v>
       </c>
-      <c r="AJ8" s="2">
+      <c r="AL8" s="2">
         <v>10</v>
       </c>
-      <c r="AK8" s="2" t="s">
+      <c r="AM8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AL8" s="2"/>
-      <c r="AM8" s="2"/>
-      <c r="AN8" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
-      <c r="AP8" s="2"/>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="AP8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -2255,8 +2290,8 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2275,21 +2310,24 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="9"/>
       <c r="AH9" s="10"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
-      <c r="AM9" s="6"/>
-      <c r="AN9" s="6"/>
-      <c r="AO9" s="2"/>
-      <c r="AP9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="6"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B843ED74-5CA3-4F6C-B469-D3C6C5EA5F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0137F1-B5AA-4E49-B480-66CD6CDB585B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="113">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>1m</t>
+  </si>
+  <si>
+    <t>TSIDE</t>
   </si>
 </sst>
 </file>
@@ -1586,10 +1589,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:AR9"/>
+  <dimension ref="A1:AS9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AL6" sqref="AL6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1598,7 +1601,7 @@
     <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1630,109 +1633,112 @@
         <v>110</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>71</v>
       </c>
@@ -1761,62 +1767,63 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
         <v>20</v>
       </c>
-      <c r="O2" s="2">
+      <c r="P2" s="2">
         <v>50</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2">
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2">
         <v>1E-3</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="2">
+      <c r="U2" s="2"/>
+      <c r="V2" s="2">
         <v>3000</v>
       </c>
-      <c r="V2" s="2">
+      <c r="W2" s="2">
         <v>4000</v>
       </c>
-      <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
-      <c r="AK2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2">
+        <v>1</v>
+      </c>
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="2"/>
-      <c r="AP2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2" t="s">
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>77</v>
       </c>
@@ -1845,60 +1852,61 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <v>20</v>
       </c>
-      <c r="O3" s="2">
+      <c r="P3" s="2">
         <v>50</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2">
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2">
         <v>1E-3</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S3" s="2"/>
       <c r="T3" s="2"/>
-      <c r="U3" s="2">
+      <c r="U3" s="2"/>
+      <c r="V3" s="2">
         <v>3100</v>
       </c>
-      <c r="V3" s="2">
+      <c r="W3" s="2">
         <v>3900</v>
       </c>
-      <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
-      <c r="AC3" s="2" t="s">
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
-      <c r="AK3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2">
+        <v>1</v>
+      </c>
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
       <c r="AO3" s="2"/>
-      <c r="AP3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="AR3" s="2"/>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="AS3" s="2"/>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>79</v>
       </c>
@@ -1946,33 +1954,34 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
-      <c r="AF4" s="2" t="s">
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AH4" s="2">
         <v>0.1</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AI4" s="2">
         <v>3000</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AJ4" s="2">
         <v>4000</v>
       </c>
-      <c r="AJ4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="2"/>
+      <c r="AK4" s="2">
+        <v>1</v>
+      </c>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" s="2"/>
       <c r="AO4" s="2"/>
-      <c r="AP4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="AR4" s="2"/>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="AS4" s="2"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>81</v>
       </c>
@@ -2020,33 +2029,34 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
-      <c r="AF5" s="2" t="s">
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AH5" s="2">
         <v>0.1</v>
       </c>
-      <c r="AH5" s="2">
+      <c r="AI5" s="2">
         <v>3000</v>
       </c>
-      <c r="AI5" s="2">
+      <c r="AJ5" s="2">
         <v>4000</v>
       </c>
-      <c r="AJ5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK5" s="2"/>
+      <c r="AK5" s="2">
+        <v>1</v>
+      </c>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>
-      <c r="AP5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="AR5" s="2"/>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="AS5" s="2"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>82</v>
       </c>
@@ -2075,10 +2085,12 @@
       <c r="J6" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="2">
         <v>1234</v>
       </c>
-      <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -2098,35 +2110,36 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
-      <c r="AF6" s="2" t="s">
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AH6" s="2">
         <v>0.1</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AI6" s="2">
         <v>3000</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AJ6" s="2">
         <v>4000</v>
       </c>
-      <c r="AJ6" s="2">
-        <v>1</v>
-      </c>
       <c r="AK6" s="2">
         <v>1</v>
       </c>
-      <c r="AL6" s="2"/>
+      <c r="AL6" s="2">
+        <v>1</v>
+      </c>
       <c r="AM6" s="2"/>
       <c r="AN6" s="2"/>
       <c r="AO6" s="2"/>
-      <c r="AP6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="AR6" s="2"/>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="AS6" s="2"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>83</v>
       </c>
@@ -2174,33 +2187,34 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
-      <c r="AF7" s="2" t="s">
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AH7" s="2">
         <v>0.1</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AI7" s="2">
         <v>3000</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="AJ7" s="2">
         <v>4000</v>
       </c>
-      <c r="AJ7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK7" s="2"/>
+      <c r="AK7" s="2">
+        <v>1</v>
+      </c>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>
-      <c r="AP7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="AR7" s="2"/>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="AS7" s="2"/>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>84</v>
       </c>
@@ -2248,39 +2262,40 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
-      <c r="AF8" s="2" t="s">
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AH8" s="2">
         <v>0.1</v>
       </c>
-      <c r="AH8" s="2">
+      <c r="AI8" s="2">
         <v>3000</v>
       </c>
-      <c r="AI8" s="2">
+      <c r="AJ8" s="2">
         <v>4000</v>
       </c>
-      <c r="AJ8" s="2">
-        <v>1</v>
-      </c>
       <c r="AK8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="2">
         <v>200</v>
       </c>
-      <c r="AL8" s="2">
+      <c r="AM8" s="2">
         <v>10</v>
       </c>
-      <c r="AM8" s="2" t="s">
+      <c r="AN8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
-      <c r="AP8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="AR8" s="2"/>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="AS8" s="2"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -2292,7 +2307,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="2"/>
+      <c r="L9" s="5"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2312,19 +2327,20 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="10"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="9"/>
       <c r="AI9" s="10"/>
       <c r="AJ9" s="10"/>
-      <c r="AK9" s="2"/>
+      <c r="AK9" s="10"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
-      <c r="AO9" s="6"/>
+      <c r="AO9" s="2"/>
       <c r="AP9" s="6"/>
-      <c r="AQ9" s="2"/>
+      <c r="AQ9" s="6"/>
       <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0137F1-B5AA-4E49-B480-66CD6CDB585B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DDE9D7-EA0E-4715-92EB-C63416AB6723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="113">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1591,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
   <dimension ref="A1:AS9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AI17" sqref="AI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1959,7 +1959,7 @@
         <v>33</v>
       </c>
       <c r="AH4" s="2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AI4" s="2">
         <v>3000</v>
@@ -2034,7 +2034,7 @@
         <v>78</v>
       </c>
       <c r="AH5" s="2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AI5" s="2">
         <v>3000</v>
@@ -2086,11 +2086,9 @@
         <v>111</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1234</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -2112,7 +2110,7 @@
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="AH6" s="2">
         <v>0.1</v>
@@ -2160,13 +2158,17 @@
         <v>72</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -2203,7 +2205,9 @@
       <c r="AK7" s="2">
         <v>1</v>
       </c>
-      <c r="AL7" s="2"/>
+      <c r="AL7" s="2">
+        <v>1</v>
+      </c>
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DDE9D7-EA0E-4715-92EB-C63416AB6723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AF18E4-EDC9-4D55-AE2F-3F237AE568AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NitroXLogin" sheetId="13" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="114">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>TSIDE</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_036</t>
   </si>
 </sst>
 </file>
@@ -916,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1578,6 +1581,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" s="8">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2">
+        <v>1</v>
+      </c>
+      <c r="S20" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
     </row>
@@ -1591,14 +1632,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
   <dimension ref="A1:AS9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AI17" sqref="AI17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.35">
@@ -1765,7 +1809,9 @@
         <v>1</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
@@ -1803,7 +1849,9 @@
       </c>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
+      <c r="AG2" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
@@ -1813,7 +1861,9 @@
       </c>
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
+      <c r="AO2" s="2">
+        <v>1</v>
+      </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2" t="b">
         <v>0</v>
@@ -1850,7 +1900,9 @@
         <v>1</v>
       </c>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
@@ -1898,7 +1950,9 @@
       </c>
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
+      <c r="AO3" s="2">
+        <v>1</v>
+      </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2" t="b">
         <v>0</v>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AF18E4-EDC9-4D55-AE2F-3F237AE568AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8838CE2D-DAD3-41B1-8FCC-39D42838752B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -919,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1598,7 +1598,7 @@
         <v>104</v>
       </c>
       <c r="I20" s="8">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>107</v>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8838CE2D-DAD3-41B1-8FCC-39D42838752B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8567D0-1BD5-4735-9A18-B7B042A2EC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="115">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -359,6 +359,9 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_036</t>
+  </si>
+  <si>
+    <t>LTC/USDT Perpetual USDT</t>
   </si>
 </sst>
 </file>
@@ -920,7 +923,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1592,7 +1595,7 @@
         <v>102</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>104</v>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8567D0-1BD5-4735-9A18-B7B042A2EC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F4BC02-0875-4679-9190-0DC65C3E0FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NitroXLogin" sheetId="13" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="116">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -100,9 +100,6 @@
     <t>QA_TestCase_Auto_NitroX_009</t>
   </si>
   <si>
-    <t>Trader01@Tinyex</t>
-  </si>
-  <si>
     <t>QA_TestCase_Auto_NitroX_010</t>
   </si>
   <si>
@@ -362,6 +359,12 @@
   </si>
   <si>
     <t>LTC/USDT Perpetual USDT</t>
+  </si>
+  <si>
+    <t>Automation_Bot@Tinyex</t>
+  </si>
+  <si>
+    <t>Automation_OrderBook@Tinyex</t>
   </si>
 </sst>
 </file>
@@ -825,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -845,16 +848,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
@@ -866,19 +869,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="6" t="b">
@@ -887,19 +890,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="6" t="b">
@@ -922,14 +925,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.81640625" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="2" bestFit="1" customWidth="1"/>
@@ -959,7 +962,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>9</v>
@@ -968,10 +971,10 @@
         <v>10</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>11</v>
@@ -1141,7 +1144,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1163,13 +1166,13 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1191,16 +1194,16 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>2</v>
@@ -1223,16 +1226,16 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>2</v>
@@ -1255,16 +1258,16 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>2</v>
@@ -1274,7 +1277,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1291,16 +1294,16 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>2</v>
@@ -1327,16 +1330,16 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>2</v>
@@ -1346,7 +1349,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1363,16 +1366,16 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>2</v>
@@ -1382,7 +1385,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1399,16 +1402,16 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>2</v>
@@ -1418,7 +1421,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1435,16 +1438,16 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>2</v>
@@ -1454,7 +1457,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1469,16 +1472,16 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>27</v>
+      <c r="C17" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>2</v>
@@ -1489,7 +1492,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
@@ -1510,28 +1513,28 @@
     </row>
     <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I18" s="8">
         <v>25</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N18" s="2">
         <v>1</v>
@@ -1548,28 +1551,28 @@
     </row>
     <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I19" s="8">
         <v>25</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N19" s="2">
         <v>1</v>
@@ -1586,28 +1589,28 @@
     </row>
     <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I20" s="8">
         <v>25</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N20" s="2">
         <v>1</v>
@@ -1626,8 +1629,12 @@
       <c r="B34" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{FD3BAB66-20EF-4340-AAA8-8DC0A130EAC4}"/>
+    <hyperlink ref="C8:C17" r:id="rId2" display="Automation_OrderBook@Tinyex" xr:uid="{AA208809-3E4A-405C-823F-E40F535E6767}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1635,14 +1642,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
   <dimension ref="A1:AS9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.26953125" customWidth="1"/>
     <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="10.90625" bestFit="1" customWidth="1"/>
@@ -1668,106 +1675,106 @@
         <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="AG1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="AH1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="AL1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AO1" s="2" t="s">
         <v>17</v>
@@ -1779,46 +1786,46 @@
         <v>3</v>
       </c>
       <c r="AR1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS1" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O2" s="2">
         <v>20</v>
@@ -1831,7 +1838,7 @@
         <v>1E-3</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
@@ -1848,12 +1855,12 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
@@ -1873,43 +1880,43 @@
       </c>
       <c r="AR2" s="2"/>
       <c r="AS2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O3" s="2">
         <v>20</v>
@@ -1922,7 +1929,7 @@
         <v>1E-3</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -1939,7 +1946,7 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
@@ -1965,26 +1972,26 @@
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -2013,7 +2020,7 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AH4" s="2">
         <v>1</v>
@@ -2040,26 +2047,26 @@
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
@@ -2088,7 +2095,7 @@
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH5" s="2">
         <v>1</v>
@@ -2115,35 +2122,35 @@
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -2167,7 +2174,7 @@
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AH6" s="2">
         <v>0.1</v>
@@ -2196,35 +2203,35 @@
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -2248,7 +2255,7 @@
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH7" s="2">
         <v>0.1</v>
@@ -2277,26 +2284,26 @@
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
@@ -2325,7 +2332,7 @@
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AH8" s="2">
         <v>0.1</v>
@@ -2346,7 +2353,7 @@
         <v>10</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -2404,7 +2411,11 @@
       <c r="AS9" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{8D3AFE74-93CB-4B51-8F82-1315FE188304}"/>
+    <hyperlink ref="C3:C8" r:id="rId2" display="Automation_Bot@Tinyex" xr:uid="{CDDD482D-E149-413F-BF8F-1FA68756936E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F4BC02-0875-4679-9190-0DC65C3E0FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3015A245-9A53-4137-80C4-013B338F32B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NitroXLogin" sheetId="13" r:id="rId1"/>
@@ -447,7 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -471,6 +471,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -925,7 +926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1643,15 +1644,29 @@
   <dimension ref="A1:AS9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.26953125" customWidth="1"/>
+    <col min="8" max="8" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.08984375" customWidth="1"/>
+    <col min="24" max="24" width="14.7265625" customWidth="1"/>
+    <col min="25" max="25" width="23.7265625" customWidth="1"/>
+    <col min="26" max="26" width="8.7265625" customWidth="1"/>
+    <col min="27" max="27" width="19.1796875" customWidth="1"/>
+    <col min="28" max="28" width="14.08984375" customWidth="1"/>
+    <col min="29" max="29" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1834,8 +1849,8 @@
         <v>50</v>
       </c>
       <c r="Q2" s="2"/>
-      <c r="R2" s="2">
-        <v>1E-3</v>
+      <c r="R2" s="11">
+        <v>0.1</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>73</v>
@@ -1925,8 +1940,8 @@
         <v>50</v>
       </c>
       <c r="Q3" s="2"/>
-      <c r="R3" s="2">
-        <v>1E-3</v>
+      <c r="R3" s="11">
+        <v>0.1</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>73</v>
@@ -2037,7 +2052,9 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" s="2"/>
-      <c r="AO4" s="2"/>
+      <c r="AO4" s="2">
+        <v>1</v>
+      </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2" t="b">
         <v>0</v>
@@ -2112,7 +2129,9 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
-      <c r="AO5" s="2"/>
+      <c r="AO5" s="2">
+        <v>1</v>
+      </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2" t="b">
         <v>0</v>
@@ -2193,7 +2212,9 @@
       </c>
       <c r="AM6" s="2"/>
       <c r="AN6" s="2"/>
-      <c r="AO6" s="2"/>
+      <c r="AO6" s="2">
+        <v>1</v>
+      </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2" t="b">
         <v>0</v>
@@ -2274,7 +2295,9 @@
       </c>
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
-      <c r="AO7" s="2"/>
+      <c r="AO7" s="2">
+        <v>1</v>
+      </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2" t="b">
         <v>0</v>
@@ -2355,7 +2378,9 @@
       <c r="AN8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AO8" s="2"/>
+      <c r="AO8" s="2">
+        <v>1</v>
+      </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2" t="b">
         <v>0</v>
@@ -2412,10 +2437,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{8D3AFE74-93CB-4B51-8F82-1315FE188304}"/>
-    <hyperlink ref="C3:C8" r:id="rId2" display="Automation_Bot@Tinyex" xr:uid="{CDDD482D-E149-413F-BF8F-1FA68756936E}"/>
+    <hyperlink ref="C3:C8" r:id="rId1" display="Automation_Bot@Tinyex" xr:uid="{CDDD482D-E149-413F-BF8F-1FA68756936E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3015A245-9A53-4137-80C4-013B338F32B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3BAB8C-4757-4E88-99A3-5EF5BAE888C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="644" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NitroXLogin" sheetId="13" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="117">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -358,13 +358,16 @@
     <t>QA_TestCase_Auto_NitroX_036</t>
   </si>
   <si>
-    <t>LTC/USDT Perpetual USDT</t>
-  </si>
-  <si>
     <t>Automation_Bot@Tinyex</t>
   </si>
   <si>
     <t>Automation_OrderBook@Tinyex</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_036_01</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_037</t>
   </si>
 </sst>
 </file>
@@ -374,7 +377,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,13 +400,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -447,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -472,6 +488,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -811,39 +828,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878D5118-86AA-443A-B8A4-36B93CD796C0}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.7265625" customWidth="1"/>
     <col min="2" max="2" width="48.7265625" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
     <col min="7" max="7" width="66.1796875" customWidth="1"/>
+    <col min="8" max="26" width="8.7265625" customWidth="1"/>
+    <col min="27" max="16384" width="8.7265625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -924,84 +948,97 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:XFC34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" customWidth="1"/>
     <col min="3" max="3" width="28.81640625" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.7265625" customWidth="1"/>
     <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.7265625" customWidth="1"/>
+    <col min="17" max="17" width="34.1796875" customWidth="1"/>
+    <col min="18" max="18" width="8.7265625" customWidth="1"/>
+    <col min="19" max="19" width="8.08984375" customWidth="1"/>
+    <col min="20" max="26" width="8.7265625" customWidth="1"/>
+    <col min="27" max="16379" width="8.7265625" hidden="1"/>
+    <col min="16380" max="16380" width="25.26953125" hidden="1"/>
+    <col min="16381" max="16381" width="16.90625" hidden="1"/>
+    <col min="16382" max="16382" width="26.6328125" hidden="1"/>
+    <col min="16383" max="16383" width="15.453125" hidden="1"/>
+    <col min="16384" max="16384" width="2.90625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1145,7 +1182,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1173,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1201,7 +1238,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>29</v>
@@ -1233,7 +1270,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>29</v>
@@ -1265,7 +1302,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>29</v>
@@ -1301,7 +1338,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>29</v>
@@ -1337,7 +1374,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>29</v>
@@ -1373,7 +1410,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>29</v>
@@ -1409,7 +1446,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>29</v>
@@ -1445,7 +1482,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>29</v>
@@ -1479,7 +1516,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>29</v>
@@ -1599,7 +1636,7 @@
         <v>101</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>103</v>
@@ -1623,6 +1660,82 @@
         <v>1</v>
       </c>
       <c r="S20" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="8">
+        <v>25</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2">
+        <v>1</v>
+      </c>
+      <c r="S21" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="8">
+        <v>25</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>1</v>
+      </c>
+      <c r="R22" s="2">
+        <v>1</v>
+      </c>
+      <c r="S22" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1641,25 +1754,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:AS9"/>
+  <dimension ref="A1:AV9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" customWidth="1"/>
     <col min="3" max="3" width="22.26953125" customWidth="1"/>
+    <col min="4" max="7" width="8.7265625" customWidth="1"/>
     <col min="8" max="8" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="8.7265625" customWidth="1"/>
     <col min="14" max="14" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7265625" customWidth="1"/>
     <col min="16" max="16" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.7265625" customWidth="1"/>
     <col min="23" max="23" width="20.08984375" customWidth="1"/>
     <col min="24" max="24" width="14.7265625" customWidth="1"/>
     <col min="25" max="25" width="23.7265625" customWidth="1"/>
@@ -1667,143 +1786,146 @@
     <col min="27" max="27" width="19.1796875" customWidth="1"/>
     <col min="28" max="28" width="14.08984375" customWidth="1"/>
     <col min="29" max="29" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="44" width="8.7265625" customWidth="1"/>
     <col min="45" max="45" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="46" max="48" width="8.7265625" customWidth="1"/>
+    <col min="49" max="16384" width="8.7265625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:45" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="12" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1815,7 +1937,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -1906,7 +2028,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -1993,7 +2115,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
@@ -2070,7 +2192,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
@@ -2147,7 +2269,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
@@ -2230,7 +2352,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>29</v>
@@ -2313,7 +2435,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>29</v>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3BAB8C-4757-4E88-99A3-5EF5BAE888C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE272DD-4B10-46E5-8FF4-0898D0BABFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NitroXLogin" sheetId="13" r:id="rId1"/>
@@ -950,9 +950,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:XFC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I25" sqref="I25"/>
+      <selection pane="topRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE272DD-4B10-46E5-8FF4-0898D0BABFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA3E38F-90D2-4388-B5FD-C95B67C96949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NitroXLogin" sheetId="13" r:id="rId1"/>
@@ -950,9 +950,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:XFC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C12" sqref="C12"/>
+      <selection pane="topRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1718,7 +1718,7 @@
         <v>103</v>
       </c>
       <c r="I22" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>106</v>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA3E38F-90D2-4388-B5FD-C95B67C96949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C4CA2D-E9F2-4BD5-8A2E-D48C7B371341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="121">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -368,6 +368,18 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_037</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_038</t>
+  </si>
+  <si>
+    <t>Mside</t>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>LTC/USDT Perpetual USDT</t>
   </si>
 </sst>
 </file>
@@ -377,7 +389,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +418,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -463,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -489,6 +507,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -950,9 +969,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:XFC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -962,28 +981,28 @@
     <col min="3" max="3" width="28.81640625" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.7265625" customWidth="1"/>
     <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.7265625" customWidth="1"/>
-    <col min="17" max="17" width="34.1796875" customWidth="1"/>
-    <col min="18" max="18" width="8.7265625" customWidth="1"/>
-    <col min="19" max="19" width="8.08984375" customWidth="1"/>
-    <col min="20" max="26" width="8.7265625" customWidth="1"/>
-    <col min="27" max="16379" width="8.7265625" hidden="1"/>
-    <col min="16380" max="16380" width="25.26953125" hidden="1"/>
-    <col min="16381" max="16381" width="16.90625" hidden="1"/>
-    <col min="16382" max="16382" width="26.6328125" hidden="1"/>
-    <col min="16383" max="16383" width="15.453125" hidden="1"/>
-    <col min="16384" max="16384" width="2.90625" hidden="1"/>
+    <col min="12" max="12" width="10.453125" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.7265625" customWidth="1"/>
+    <col min="18" max="18" width="34.1796875" customWidth="1"/>
+    <col min="19" max="19" width="8.7265625" customWidth="1"/>
+    <col min="20" max="20" width="8.08984375" customWidth="1"/>
+    <col min="21" max="27" width="8.7265625" customWidth="1"/>
+    <col min="28" max="16380" width="8.7265625" hidden="1"/>
+    <col min="16381" max="16381" width="25.26953125" hidden="1"/>
+    <col min="16382" max="16382" width="16.90625" hidden="1"/>
+    <col min="16383" max="16383" width="26.6328125" hidden="1"/>
+    <col min="16384" max="16384" width="15.453125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1018,31 +1037,34 @@
         <v>11</v>
       </c>
       <c r="L1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1054,6 +1076,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1066,11 +1089,12 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S2" s="2"/>
+      <c r="T2" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -1080,6 +1104,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1092,11 +1117,12 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S3" s="2"/>
+      <c r="T3" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -1106,6 +1132,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1118,11 +1145,12 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S4" s="2"/>
+      <c r="T4" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1132,6 +1160,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1144,11 +1173,12 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S5" s="2"/>
+      <c r="T5" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -1160,6 +1190,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1172,11 +1203,12 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S6" s="2"/>
+      <c r="T6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1186,6 +1218,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1198,11 +1231,12 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S7" s="2"/>
+      <c r="T7" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1214,6 +1248,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1226,11 +1261,12 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S8" s="2"/>
+      <c r="T8" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -1246,6 +1282,7 @@
       <c r="E9" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1258,11 +1295,12 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S9" s="2"/>
+      <c r="T9" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -1278,6 +1316,7 @@
       <c r="E10" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1290,11 +1329,12 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S10" s="2"/>
+      <c r="T10" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -1310,6 +1350,7 @@
       <c r="E11" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1319,18 +1360,19 @@
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="2">
-        <v>1</v>
-      </c>
-      <c r="O11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S11" s="2"/>
+      <c r="T11" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -1346,6 +1388,7 @@
       <c r="E12" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1353,20 +1396,21 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="2">
-        <v>1</v>
-      </c>
-      <c r="O12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
       <c r="P12" s="2"/>
-      <c r="Q12" s="2">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2">
+        <v>1</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -1382,6 +1426,7 @@
       <c r="E13" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1391,18 +1436,19 @@
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="2">
-        <v>1</v>
-      </c>
-      <c r="O13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S13" s="2"/>
+      <c r="T13" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -1418,6 +1464,7 @@
       <c r="E14" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1427,18 +1474,19 @@
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="2">
-        <v>1</v>
-      </c>
-      <c r="O14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S14" s="2"/>
+      <c r="T14" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -1454,6 +1502,7 @@
       <c r="E15" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1463,18 +1512,19 @@
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2">
-        <v>1</v>
-      </c>
-      <c r="O15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S15" s="2"/>
+      <c r="T15" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
@@ -1490,6 +1540,7 @@
       <c r="E16" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1504,11 +1555,12 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S16" s="2"/>
+      <c r="T16" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>39</v>
       </c>
@@ -1534,22 +1586,23 @@
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="7">
-        <v>1</v>
-      </c>
-      <c r="O17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7">
+        <v>1</v>
+      </c>
       <c r="P17" s="7"/>
-      <c r="Q17" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q17" s="7"/>
       <c r="R17" s="7">
         <v>1</v>
       </c>
-      <c r="S17" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="S17" s="7">
+        <v>1</v>
+      </c>
+      <c r="T17" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>102</v>
       </c>
@@ -1574,20 +1627,27 @@
       <c r="K18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N18" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="2">
+      <c r="O18" s="2">
         <v>1</v>
       </c>
       <c r="R18" s="2">
         <v>1</v>
       </c>
-      <c r="S18" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="S18" s="2">
+        <v>1</v>
+      </c>
+      <c r="T18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+    </row>
+    <row r="19" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>107</v>
       </c>
@@ -1612,20 +1672,27 @@
       <c r="K19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N19" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="2">
+      <c r="O19" s="2">
         <v>1</v>
       </c>
       <c r="R19" s="2">
         <v>1</v>
       </c>
-      <c r="S19" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="S19" s="2">
+        <v>1</v>
+      </c>
+      <c r="T19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+    </row>
+    <row r="20" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>112</v>
       </c>
@@ -1636,7 +1703,7 @@
         <v>101</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>103</v>
@@ -1650,20 +1717,30 @@
       <c r="K20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N20" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="2">
+      <c r="L20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="O20" s="2">
         <v>1</v>
       </c>
       <c r="R20" s="2">
         <v>1</v>
       </c>
-      <c r="S20" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="S20" s="2">
+        <v>1</v>
+      </c>
+      <c r="T20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+    </row>
+    <row r="21" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>115</v>
       </c>
@@ -1674,7 +1751,7 @@
         <v>101</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>103</v>
@@ -1688,20 +1765,30 @@
       <c r="K21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N21" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="2">
+      <c r="L21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="O21" s="2">
         <v>1</v>
       </c>
       <c r="R21" s="2">
         <v>1</v>
       </c>
-      <c r="S21" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="S21" s="2">
+        <v>1</v>
+      </c>
+      <c r="T21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+    </row>
+    <row r="22" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>116</v>
       </c>
@@ -1726,18 +1813,71 @@
       <c r="K22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N22" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="2">
+      <c r="L22" s="13"/>
+      <c r="O22" s="2">
         <v>1</v>
       </c>
       <c r="R22" s="2">
         <v>1</v>
       </c>
-      <c r="S22" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="S22" s="2">
+        <v>1</v>
+      </c>
+      <c r="T22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+    </row>
+    <row r="23" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="8">
+        <v>25</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1</v>
+      </c>
+      <c r="R23" s="2">
+        <v>1</v>
+      </c>
+      <c r="S23" s="2">
+        <v>1</v>
+      </c>
+      <c r="T23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C4CA2D-E9F2-4BD5-8A2E-D48C7B371341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A766D5-D50F-4D13-98E5-1393B6A9862A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="122">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -379,7 +379,10 @@
     <t>LONG</t>
   </si>
   <si>
-    <t>LTC/USDT Perpetual USDT</t>
+    <t>QA_TestCase_Auto_NitroX_039</t>
+  </si>
+  <si>
+    <t>XRP/USDT Perpetual USDT</t>
   </si>
 </sst>
 </file>
@@ -969,9 +972,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:XFC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1085,7 +1088,9 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -1113,7 +1118,9 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -1141,7 +1148,9 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -1169,7 +1178,9 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -1199,7 +1210,9 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -1227,7 +1240,9 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -1257,7 +1272,9 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -1291,7 +1308,9 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -1325,7 +1344,9 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -1551,7 +1572,9 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -1703,7 +1726,7 @@
         <v>101</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>103</v>
@@ -1721,7 +1744,7 @@
         <v>119</v>
       </c>
       <c r="O20" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R20" s="2">
         <v>1</v>
@@ -1751,7 +1774,7 @@
         <v>101</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>103</v>
@@ -1769,7 +1792,7 @@
         <v>119</v>
       </c>
       <c r="O21" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R21" s="2">
         <v>1</v>
@@ -1799,7 +1822,7 @@
         <v>101</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>103</v>
@@ -1815,7 +1838,7 @@
       </c>
       <c r="L22" s="13"/>
       <c r="O22" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R22" s="2">
         <v>1</v>
@@ -1878,6 +1901,51 @@
       <c r="Y23"/>
       <c r="Z23"/>
       <c r="AA23"/>
+    </row>
+    <row r="24" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="8">
+        <v>25</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O24" s="2">
+        <v>1</v>
+      </c>
+      <c r="R24" s="2">
+        <v>1</v>
+      </c>
+      <c r="S24" s="2">
+        <v>1</v>
+      </c>
+      <c r="T24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A766D5-D50F-4D13-98E5-1393B6A9862A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693EC02D-3D75-4CD0-A5E2-C05780D1F3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="123">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>XRP/USDT Perpetual USDT</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_040</t>
   </si>
 </sst>
 </file>
@@ -973,8 +976,8 @@
   <dimension ref="A1:XFC34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M24" sqref="M24"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1946,6 +1949,51 @@
       <c r="Y24"/>
       <c r="Z24"/>
       <c r="AA24"/>
+    </row>
+    <row r="25" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="8">
+        <v>25</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O25" s="2">
+        <v>20</v>
+      </c>
+      <c r="R25" s="2">
+        <v>1</v>
+      </c>
+      <c r="S25" s="2">
+        <v>1</v>
+      </c>
+      <c r="T25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693EC02D-3D75-4CD0-A5E2-C05780D1F3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18066BBE-606E-4F69-A65A-44FEF38AAF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="124">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -292,9 +292,6 @@
     <t>QA_TestCase_Auto_NitroX_001</t>
   </si>
   <si>
-    <t>https://test-nitrox.altono.app/</t>
-  </si>
-  <si>
     <t>system.qa</t>
   </si>
   <si>
@@ -386,6 +383,12 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_040</t>
+  </si>
+  <si>
+    <t>https://staging-nitrox.altono.app</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_041</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -514,6 +516,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -857,7 +860,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD1"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -873,26 +876,26 @@
     <col min="27" max="16384" width="8.7265625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -900,62 +903,62 @@
       <c r="A2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6" t="b">
+      <c r="F2" s="4"/>
+      <c r="G2" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6" t="b">
+      <c r="F3" s="4"/>
+      <c r="G3" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6" t="b">
+      <c r="F4" s="4"/>
+      <c r="G4" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -966,8 +969,12 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://system.qa/" xr:uid="{ADDE2EEE-F6B9-40ED-AA61-6A610598917E}"/>
     <hyperlink ref="C4" r:id="rId2" display="http://system.qa/" xr:uid="{94FF34FB-97BA-43C4-9AF6-736D81B5AAA4}"/>
+    <hyperlink ref="B2" r:id="rId3" display="https://staging-nitrox.altono.app/" xr:uid="{5BB33F06-A9FD-4B13-8234-AA3309C42662}"/>
+    <hyperlink ref="B3" r:id="rId4" display="https://staging-nitrox.altono.app/" xr:uid="{826BA71D-F9AC-43A2-BF34-2F92209214A7}"/>
+    <hyperlink ref="B4" r:id="rId5" display="https://staging-nitrox.altono.app/" xr:uid="{6950D2D8-FD65-4EAD-9B9E-0ED7C491D8BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -975,9 +982,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:XFC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A25" sqref="A25"/>
+      <selection pane="topRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1008,65 +1015,65 @@
     <col min="16384" max="16384" width="15.453125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="M1" s="12" t="s">
+      <c r="L1" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1230,7 +1237,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1262,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1294,7 +1301,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>29</v>
@@ -1330,7 +1337,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>29</v>
@@ -1366,7 +1373,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>29</v>
@@ -1404,7 +1411,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>29</v>
@@ -1442,7 +1449,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>29</v>
@@ -1480,7 +1487,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>29</v>
@@ -1518,7 +1525,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>29</v>
@@ -1556,7 +1563,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>29</v>
@@ -1587,68 +1594,68 @@
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7" t="s">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7">
-        <v>1</v>
-      </c>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7">
-        <v>1</v>
-      </c>
-      <c r="S17" s="7">
-        <v>1</v>
-      </c>
-      <c r="T17" s="7" t="b">
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6">
+        <v>1</v>
+      </c>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6">
+        <v>1</v>
+      </c>
+      <c r="S17" s="6">
+        <v>1</v>
+      </c>
+      <c r="T17" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I18" s="8">
+        <v>102</v>
+      </c>
+      <c r="I18" s="7">
         <v>25</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>32</v>
@@ -1675,25 +1682,25 @@
     </row>
     <row r="19" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I19" s="8">
+        <v>102</v>
+      </c>
+      <c r="I19" s="7">
         <v>25</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>32</v>
@@ -1720,31 +1727,31 @@
     </row>
     <row r="20" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I20" s="8">
+        <v>102</v>
+      </c>
+      <c r="I20" s="7">
         <v>25</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O20" s="2">
         <v>20</v>
@@ -1768,31 +1775,31 @@
     </row>
     <row r="21" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I21" s="8">
+        <v>102</v>
+      </c>
+      <c r="I21" s="7">
         <v>25</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O21" s="2">
         <v>20</v>
@@ -1816,30 +1823,30 @@
     </row>
     <row r="22" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I22" s="8">
+        <v>102</v>
+      </c>
+      <c r="I22" s="7">
         <v>10</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L22" s="13"/>
+      <c r="L22" s="12"/>
       <c r="O22" s="2">
         <v>20</v>
       </c>
@@ -1862,25 +1869,25 @@
     </row>
     <row r="23" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I23" s="8">
+        <v>102</v>
+      </c>
+      <c r="I23" s="7">
         <v>25</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>37</v>
@@ -1907,25 +1914,25 @@
     </row>
     <row r="24" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I24" s="8">
+        <v>102</v>
+      </c>
+      <c r="I24" s="7">
         <v>25</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>37</v>
@@ -1952,25 +1959,25 @@
     </row>
     <row r="25" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I25" s="8">
+        <v>102</v>
+      </c>
+      <c r="I25" s="7">
         <v>25</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>37</v>
@@ -1994,6 +2001,51 @@
       <c r="Y25"/>
       <c r="Z25"/>
       <c r="AA25"/>
+    </row>
+    <row r="26" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I26" s="7">
+        <v>25</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O26" s="2">
+        <v>20</v>
+      </c>
+      <c r="R26" s="2">
+        <v>1</v>
+      </c>
+      <c r="S26" s="2">
+        <v>1</v>
+      </c>
+      <c r="T26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
@@ -2013,8 +2065,8 @@
   <dimension ref="A1:AV9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD1" sqref="AD1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2048,140 +2100,140 @@
     <col min="49" max="16384" width="8.7265625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="L1" s="12" t="s">
+      <c r="J1" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AD1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AE1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AF1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AG1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AH1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AI1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AK1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AL1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AM1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AN1" s="12" t="s">
+      <c r="AN1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AO1" s="12" t="s">
+      <c r="AO1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AP1" s="12" t="s">
+      <c r="AP1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="AQ1" s="12" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="12" t="s">
+      <c r="AR1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AS1" s="12" t="s">
+      <c r="AS1" s="11" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2193,7 +2245,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -2227,7 +2279,7 @@
         <v>50</v>
       </c>
       <c r="Q2" s="2"/>
-      <c r="R2" s="11">
+      <c r="R2" s="10">
         <v>0.1</v>
       </c>
       <c r="S2" s="2" t="s">
@@ -2284,7 +2336,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -2318,7 +2370,7 @@
         <v>50</v>
       </c>
       <c r="Q3" s="2"/>
-      <c r="R3" s="11">
+      <c r="R3" s="10">
         <v>0.1</v>
       </c>
       <c r="S3" s="2" t="s">
@@ -2371,7 +2423,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
@@ -2448,7 +2500,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
@@ -2525,7 +2577,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
@@ -2538,13 +2590,13 @@
         <v>71</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>32</v>
@@ -2608,7 +2660,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>29</v>
@@ -2621,13 +2673,13 @@
         <v>71</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>77</v>
@@ -2691,7 +2743,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>29</v>
@@ -2767,18 +2819,18 @@
       <c r="AS8" s="2"/>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2799,17 +2851,17 @@
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="9"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
-      <c r="AP9" s="6"/>
-      <c r="AQ9" s="6"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
       <c r="AR9" s="2"/>
       <c r="AS9" s="2"/>
     </row>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18066BBE-606E-4F69-A65A-44FEF38AAF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9494F1-73E8-4814-911C-212FF1A44FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NitroXLogin" sheetId="13" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="128">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -389,6 +389,18 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_041</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_046</t>
+  </si>
+  <si>
+    <t>XRPUSDT Long</t>
+  </si>
+  <si>
+    <t>AssetName</t>
   </si>
 </sst>
 </file>
@@ -490,13 +502,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -507,16 +516,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -876,26 +880,26 @@
     <col min="27" max="16384" width="8.7265625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -903,7 +907,7 @@
       <c r="A2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -915,8 +919,8 @@
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5" t="b">
+      <c r="F2" s="3"/>
+      <c r="G2" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -924,7 +928,7 @@
       <c r="A3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>122</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -936,8 +940,8 @@
       <c r="E3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5" t="b">
+      <c r="F3" s="3"/>
+      <c r="G3" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -945,7 +949,7 @@
       <c r="A4" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>122</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -957,8 +961,8 @@
       <c r="E4" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5" t="b">
+      <c r="F4" s="3"/>
+      <c r="G4" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -982,9 +986,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:XFC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -999,85 +1003,87 @@
     <col min="8" max="9" width="8.7265625" customWidth="1"/>
     <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.453125" customWidth="1"/>
-    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.7265625" customWidth="1"/>
-    <col min="18" max="18" width="34.1796875" customWidth="1"/>
-    <col min="19" max="19" width="8.7265625" customWidth="1"/>
-    <col min="20" max="20" width="8.08984375" customWidth="1"/>
-    <col min="21" max="27" width="8.7265625" customWidth="1"/>
-    <col min="28" max="16380" width="8.7265625" hidden="1"/>
-    <col min="16381" max="16381" width="25.26953125" hidden="1"/>
-    <col min="16382" max="16382" width="16.90625" hidden="1"/>
-    <col min="16383" max="16383" width="26.6328125" hidden="1"/>
-    <col min="16384" max="16384" width="15.453125" hidden="1"/>
+    <col min="12" max="13" width="10.453125" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.7265625" customWidth="1"/>
+    <col min="19" max="19" width="34.1796875" customWidth="1"/>
+    <col min="20" max="20" width="8.7265625" customWidth="1"/>
+    <col min="21" max="21" width="8.08984375" customWidth="1"/>
+    <col min="22" max="28" width="8.7265625" customWidth="1"/>
+    <col min="29" max="16381" width="8.7265625" hidden="1"/>
+    <col min="16382" max="16382" width="25.26953125" hidden="1"/>
+    <col min="16383" max="16383" width="16.90625" hidden="1"/>
+    <col min="16384" max="16384" width="26.6328125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1098,18 +1104,19 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="2">
-        <v>1</v>
-      </c>
-      <c r="P2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T2" s="2"/>
+      <c r="U2" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -1128,18 +1135,19 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="2">
-        <v>1</v>
-      </c>
-      <c r="P3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-      <c r="T3" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T3" s="2"/>
+      <c r="U3" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -1158,18 +1166,19 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="2">
-        <v>1</v>
-      </c>
-      <c r="P4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-      <c r="T4" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T4" s="2"/>
+      <c r="U4" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1188,18 +1197,19 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="2">
-        <v>1</v>
-      </c>
-      <c r="P5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
-      <c r="T5" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T5" s="2"/>
+      <c r="U5" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -1220,18 +1230,19 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="2">
-        <v>1</v>
-      </c>
-      <c r="P6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T6" s="2"/>
+      <c r="U6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1250,18 +1261,19 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="2">
-        <v>1</v>
-      </c>
-      <c r="P7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
-      <c r="T7" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T7" s="2"/>
+      <c r="U7" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1282,18 +1294,19 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="2">
-        <v>1</v>
-      </c>
-      <c r="P8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
-      <c r="T8" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T8" s="2"/>
+      <c r="U8" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -1318,18 +1331,19 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="2">
-        <v>1</v>
-      </c>
-      <c r="P9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
-      <c r="T9" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T9" s="2"/>
+      <c r="U9" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -1354,18 +1368,19 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="2">
-        <v>1</v>
-      </c>
-      <c r="P10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
-      <c r="T10" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T10" s="2"/>
+      <c r="U10" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -1392,18 +1407,19 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="2">
-        <v>1</v>
-      </c>
-      <c r="P11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T11" s="2"/>
+      <c r="U11" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -1428,20 +1444,21 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="2">
-        <v>1</v>
-      </c>
-      <c r="P12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
       <c r="Q12" s="2"/>
-      <c r="R12" s="2">
-        <v>1</v>
-      </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="R12" s="2"/>
+      <c r="S12" s="2">
+        <v>1</v>
+      </c>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -1468,18 +1485,19 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="2">
-        <v>1</v>
-      </c>
-      <c r="P13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T13" s="2"/>
+      <c r="U13" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -1506,18 +1524,19 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="2">
-        <v>1</v>
-      </c>
-      <c r="P14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
-      <c r="T14" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T14" s="2"/>
+      <c r="U14" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -1544,18 +1563,19 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="2">
-        <v>1</v>
-      </c>
-      <c r="P15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T15" s="2"/>
+      <c r="U15" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
@@ -1582,60 +1602,62 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="2">
-        <v>1</v>
-      </c>
-      <c r="P16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-      <c r="T16" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+      <c r="T16" s="2"/>
+      <c r="U16" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6">
-        <v>1</v>
-      </c>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6">
-        <v>1</v>
-      </c>
-      <c r="S17" s="6">
-        <v>1</v>
-      </c>
-      <c r="T17" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5">
+        <v>1</v>
+      </c>
+      <c r="T17" s="5">
+        <v>1</v>
+      </c>
+      <c r="U17" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>101</v>
       </c>
@@ -1651,7 +1673,7 @@
       <c r="H18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>25</v>
       </c>
       <c r="J18" s="2" t="s">
@@ -1660,27 +1682,27 @@
       <c r="K18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O18" s="2">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2">
+      <c r="P18" s="2">
         <v>1</v>
       </c>
       <c r="S18" s="2">
         <v>1</v>
       </c>
-      <c r="T18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U18"/>
+      <c r="T18" s="2">
+        <v>1</v>
+      </c>
+      <c r="U18" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="V18"/>
       <c r="W18"/>
       <c r="X18"/>
       <c r="Y18"/>
       <c r="Z18"/>
       <c r="AA18"/>
-    </row>
-    <row r="19" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AB18"/>
+    </row>
+    <row r="19" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>106</v>
       </c>
@@ -1696,7 +1718,7 @@
       <c r="H19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>25</v>
       </c>
       <c r="J19" s="2" t="s">
@@ -1705,27 +1727,27 @@
       <c r="K19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O19" s="2">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2">
+      <c r="P19" s="2">
         <v>1</v>
       </c>
       <c r="S19" s="2">
         <v>1</v>
       </c>
-      <c r="T19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U19"/>
+      <c r="T19" s="2">
+        <v>1</v>
+      </c>
+      <c r="U19" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="V19"/>
       <c r="W19"/>
       <c r="X19"/>
       <c r="Y19"/>
       <c r="Z19"/>
       <c r="AA19"/>
-    </row>
-    <row r="20" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AB19"/>
+    </row>
+    <row r="20" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>111</v>
       </c>
@@ -1741,7 +1763,7 @@
       <c r="H20" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>25</v>
       </c>
       <c r="J20" s="2" t="s">
@@ -1750,30 +1772,30 @@
       <c r="K20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="O20" s="2">
+      <c r="P20" s="2">
         <v>20</v>
       </c>
-      <c r="R20" s="2">
-        <v>1</v>
-      </c>
       <c r="S20" s="2">
         <v>1</v>
       </c>
-      <c r="T20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U20"/>
+      <c r="T20" s="2">
+        <v>1</v>
+      </c>
+      <c r="U20" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="V20"/>
       <c r="W20"/>
       <c r="X20"/>
       <c r="Y20"/>
       <c r="Z20"/>
       <c r="AA20"/>
-    </row>
-    <row r="21" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AB20"/>
+    </row>
+    <row r="21" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>114</v>
       </c>
@@ -1789,7 +1811,7 @@
       <c r="H21" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>25</v>
       </c>
       <c r="J21" s="2" t="s">
@@ -1798,30 +1820,30 @@
       <c r="K21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="O21" s="2">
+      <c r="P21" s="2">
         <v>20</v>
       </c>
-      <c r="R21" s="2">
-        <v>1</v>
-      </c>
       <c r="S21" s="2">
         <v>1</v>
       </c>
-      <c r="T21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U21"/>
+      <c r="T21" s="2">
+        <v>1</v>
+      </c>
+      <c r="U21" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="V21"/>
       <c r="W21"/>
       <c r="X21"/>
       <c r="Y21"/>
       <c r="Z21"/>
       <c r="AA21"/>
-    </row>
-    <row r="22" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AB21"/>
+    </row>
+    <row r="22" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>115</v>
       </c>
@@ -1837,7 +1859,7 @@
       <c r="H22" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <v>10</v>
       </c>
       <c r="J22" s="2" t="s">
@@ -1846,28 +1868,29 @@
       <c r="K22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L22" s="12"/>
-      <c r="O22" s="2">
+      <c r="L22" s="11"/>
+      <c r="M22" s="9"/>
+      <c r="P22" s="2">
         <v>20</v>
       </c>
-      <c r="R22" s="2">
-        <v>1</v>
-      </c>
       <c r="S22" s="2">
         <v>1</v>
       </c>
-      <c r="T22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U22"/>
+      <c r="T22" s="2">
+        <v>1</v>
+      </c>
+      <c r="U22" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="V22"/>
       <c r="W22"/>
       <c r="X22"/>
       <c r="Y22"/>
       <c r="Z22"/>
       <c r="AA22"/>
-    </row>
-    <row r="23" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AB22"/>
+    </row>
+    <row r="23" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>116</v>
       </c>
@@ -1883,7 +1906,7 @@
       <c r="H23" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <v>25</v>
       </c>
       <c r="J23" s="2" t="s">
@@ -1892,27 +1915,27 @@
       <c r="K23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O23" s="2">
-        <v>1</v>
-      </c>
-      <c r="R23" s="2">
+      <c r="P23" s="2">
         <v>1</v>
       </c>
       <c r="S23" s="2">
         <v>1</v>
       </c>
-      <c r="T23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U23"/>
+      <c r="T23" s="2">
+        <v>1</v>
+      </c>
+      <c r="U23" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="V23"/>
       <c r="W23"/>
       <c r="X23"/>
       <c r="Y23"/>
       <c r="Z23"/>
       <c r="AA23"/>
-    </row>
-    <row r="24" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AB23"/>
+    </row>
+    <row r="24" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>119</v>
       </c>
@@ -1928,7 +1951,7 @@
       <c r="H24" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <v>25</v>
       </c>
       <c r="J24" s="2" t="s">
@@ -1937,27 +1960,27 @@
       <c r="K24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O24" s="2">
-        <v>1</v>
-      </c>
-      <c r="R24" s="2">
+      <c r="P24" s="2">
         <v>1</v>
       </c>
       <c r="S24" s="2">
         <v>1</v>
       </c>
-      <c r="T24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U24"/>
+      <c r="T24" s="2">
+        <v>1</v>
+      </c>
+      <c r="U24" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="V24"/>
       <c r="W24"/>
       <c r="X24"/>
       <c r="Y24"/>
       <c r="Z24"/>
       <c r="AA24"/>
-    </row>
-    <row r="25" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AB24"/>
+    </row>
+    <row r="25" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>121</v>
       </c>
@@ -1973,7 +1996,7 @@
       <c r="H25" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <v>25</v>
       </c>
       <c r="J25" s="2" t="s">
@@ -1982,27 +2005,27 @@
       <c r="K25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O25" s="2">
+      <c r="P25" s="2">
         <v>20</v>
       </c>
-      <c r="R25" s="2">
-        <v>1</v>
-      </c>
       <c r="S25" s="2">
         <v>1</v>
       </c>
-      <c r="T25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U25"/>
+      <c r="T25" s="2">
+        <v>1</v>
+      </c>
+      <c r="U25" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="V25"/>
       <c r="W25"/>
       <c r="X25"/>
       <c r="Y25"/>
       <c r="Z25"/>
       <c r="AA25"/>
-    </row>
-    <row r="26" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AB25"/>
+    </row>
+    <row r="26" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>123</v>
       </c>
@@ -2018,7 +2041,7 @@
       <c r="H26" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <v>25</v>
       </c>
       <c r="J26" s="2" t="s">
@@ -2027,25 +2050,35 @@
       <c r="K26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O26" s="2">
+      <c r="P26" s="2">
         <v>20</v>
       </c>
-      <c r="R26" s="2">
-        <v>1</v>
-      </c>
       <c r="S26" s="2">
         <v>1</v>
       </c>
-      <c r="T26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U26"/>
+      <c r="T26" s="2">
+        <v>1</v>
+      </c>
+      <c r="U26" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="V26"/>
       <c r="W26"/>
       <c r="X26"/>
       <c r="Y26"/>
       <c r="Z26"/>
       <c r="AA26"/>
+      <c r="AB26"/>
+    </row>
+    <row r="27" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I27" s="6"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
@@ -2062,11 +2095,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:AV9"/>
+  <dimension ref="A1:BA27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB15" sqref="AB15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2074,170 +2107,190 @@
     <col min="1" max="1" width="27.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7265625" customWidth="1"/>
     <col min="3" max="3" width="22.26953125" customWidth="1"/>
-    <col min="4" max="7" width="8.7265625" customWidth="1"/>
-    <col min="8" max="8" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="8.7265625" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7265625" customWidth="1"/>
-    <col min="16" max="16" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.7265625" customWidth="1"/>
-    <col min="23" max="23" width="20.08984375" customWidth="1"/>
-    <col min="24" max="24" width="14.7265625" customWidth="1"/>
-    <col min="25" max="25" width="23.7265625" customWidth="1"/>
-    <col min="26" max="26" width="8.7265625" customWidth="1"/>
-    <col min="27" max="27" width="19.1796875" customWidth="1"/>
-    <col min="28" max="28" width="14.08984375" customWidth="1"/>
-    <col min="29" max="29" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="44" width="8.7265625" customWidth="1"/>
-    <col min="45" max="45" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="46" max="48" width="8.7265625" customWidth="1"/>
-    <col min="49" max="16384" width="8.7265625" hidden="1"/>
+    <col min="4" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.7265625" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" customWidth="1"/>
+    <col min="12" max="12" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="8.7265625" customWidth="1"/>
+    <col min="18" max="18" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.7265625" customWidth="1"/>
+    <col min="20" max="20" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.1796875" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.7265625" customWidth="1"/>
+    <col min="28" max="28" width="20.08984375" customWidth="1"/>
+    <col min="29" max="29" width="14.7265625" customWidth="1"/>
+    <col min="30" max="30" width="23.7265625" customWidth="1"/>
+    <col min="31" max="31" width="8.7265625" customWidth="1"/>
+    <col min="32" max="32" width="19.1796875" customWidth="1"/>
+    <col min="33" max="33" width="14.08984375" customWidth="1"/>
+    <col min="34" max="34" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="35" max="49" width="8.7265625" customWidth="1"/>
+    <col min="50" max="50" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="51" max="53" width="8.7265625" customWidth="1"/>
+    <col min="54" max="16384" width="8.7265625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:50" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="L1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="M1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="N1" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="O1" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="P1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="Q1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="R1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="S1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="T1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="U1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="V1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="W1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="X1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="Z1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="AA1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="AB1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="AC1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="AD1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AE1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AF1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AG1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AH1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AI1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AK1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AL1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AM1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AN1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AO1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AP1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AR1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AS1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AT1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AU1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AV1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AW1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="AX1" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
@@ -2254,81 +2307,86 @@
         <v>2</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="2">
+      <c r="S2" s="2">
         <v>20</v>
       </c>
-      <c r="P2" s="2">
+      <c r="T2" s="2">
         <v>50</v>
       </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="10">
+      <c r="U2" s="2"/>
+      <c r="V2" s="7">
         <v>0.1</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2">
-        <v>3000</v>
-      </c>
-      <c r="W2" s="2">
-        <v>4000</v>
       </c>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
+      <c r="AA2" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>4000</v>
+      </c>
       <c r="AC2" s="2"/>
-      <c r="AD2" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
-      <c r="AG2" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
+      <c r="AI2" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
-      <c r="AL2" s="2">
-        <v>1</v>
+      <c r="AL2" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
-      <c r="AO2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
-      <c r="AQ2" s="2" t="b">
-        <v>0</v>
+      <c r="AQ2" s="2">
+        <v>1</v>
       </c>
       <c r="AR2" s="2"/>
-      <c r="AS2" s="2" t="s">
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>76</v>
       </c>
@@ -2345,77 +2403,82 @@
         <v>2</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O3" s="2">
+      <c r="S3" s="2">
         <v>20</v>
       </c>
-      <c r="P3" s="2">
+      <c r="T3" s="2">
         <v>50</v>
       </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="10">
+      <c r="U3" s="2"/>
+      <c r="V3" s="7">
         <v>0.1</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2">
-        <v>3100</v>
-      </c>
-      <c r="W3" s="2">
-        <v>3900</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
+      <c r="AA3" s="2">
+        <v>3100</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>3900</v>
+      </c>
       <c r="AC3" s="2"/>
-      <c r="AD3" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
+      <c r="AI3" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
-      <c r="AL3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
-      <c r="AO3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
-      <c r="AQ3" s="2" t="b">
-        <v>0</v>
+      <c r="AQ3" s="2">
+        <v>1</v>
       </c>
       <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AT3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>78</v>
       </c>
@@ -2432,19 +2495,19 @@
         <v>2</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -2464,35 +2527,40 @@
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
-      <c r="AG4" s="2" t="s">
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="2">
+      <c r="AM4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="2">
         <v>3000</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AO4" s="2">
         <v>4000</v>
       </c>
-      <c r="AK4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="AP4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="2"/>
       <c r="AR4" s="2"/>
       <c r="AS4" s="2"/>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AT4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>80</v>
       </c>
@@ -2509,19 +2577,19 @@
         <v>2</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -2541,35 +2609,40 @@
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
-      <c r="AG5" s="2" t="s">
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AH5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="2">
+      <c r="AM5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="2">
         <v>3000</v>
       </c>
-      <c r="AJ5" s="2">
+      <c r="AO5" s="2">
         <v>4000</v>
       </c>
-      <c r="AK5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="2"/>
-      <c r="AO5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP5" s="2"/>
-      <c r="AQ5" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="AP5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
       <c r="AS5" s="2"/>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AT5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>81</v>
       </c>
@@ -2585,26 +2658,25 @@
       <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -2622,37 +2694,42 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
-      <c r="AG6" s="2" t="s">
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AM6" s="2">
         <v>0.1</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AN6" s="2">
         <v>3000</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AO6" s="2">
         <v>4000</v>
       </c>
-      <c r="AK6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="2"/>
-      <c r="AN6" s="2"/>
-      <c r="AO6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="2"/>
-      <c r="AQ6" s="2" t="b">
-        <v>0</v>
+      <c r="AP6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>1</v>
       </c>
       <c r="AR6" s="2"/>
       <c r="AS6" s="2"/>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AT6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>82</v>
       </c>
@@ -2669,25 +2746,25 @@
         <v>2</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -2705,37 +2782,42 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
-      <c r="AG7" s="2" t="s">
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AM7" s="2">
         <v>0.1</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="AN7" s="2">
         <v>3000</v>
       </c>
-      <c r="AJ7" s="2">
+      <c r="AO7" s="2">
         <v>4000</v>
       </c>
-      <c r="AK7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="2"/>
-      <c r="AN7" s="2"/>
-      <c r="AO7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP7" s="2"/>
-      <c r="AQ7" s="2" t="b">
-        <v>0</v>
+      <c r="AP7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>1</v>
       </c>
       <c r="AR7" s="2"/>
       <c r="AS7" s="2"/>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="AT7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>83</v>
       </c>
@@ -2752,19 +2834,19 @@
         <v>2</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -2784,86 +2866,152 @@
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
-      <c r="AG8" s="2" t="s">
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH8" s="2">
+      <c r="AM8" s="2">
         <v>0.1</v>
       </c>
-      <c r="AI8" s="2">
+      <c r="AN8" s="2">
         <v>3000</v>
       </c>
-      <c r="AJ8" s="2">
+      <c r="AO8" s="2">
         <v>4000</v>
       </c>
-      <c r="AK8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL8" s="2">
+      <c r="AP8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="2">
         <v>200</v>
       </c>
-      <c r="AM8" s="2">
+      <c r="AR8" s="2">
         <v>10</v>
       </c>
-      <c r="AN8" s="2" t="s">
+      <c r="AS8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AO8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP8" s="2"/>
-      <c r="AQ8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="2"/>
-      <c r="AS8" s="2"/>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="2"/>
+      <c r="AT8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="6">
+        <v>25</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
       <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="O9" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="R9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" s="2">
+        <v>20</v>
+      </c>
+      <c r="T9" s="2">
+        <v>50</v>
+      </c>
       <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
+      <c r="V9" s="7">
+        <v>50</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
+      <c r="AA9" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>0.4</v>
+      </c>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="9"/>
-      <c r="AJ9" s="9"/>
-      <c r="AK9" s="9"/>
-      <c r="AL9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
-      <c r="AP9" s="5"/>
-      <c r="AQ9" s="5"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2">
+        <v>1</v>
+      </c>
       <c r="AR9" s="2"/>
       <c r="AS9" s="2"/>
+      <c r="AT9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9494F1-73E8-4814-911C-212FF1A44FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8FB162-4DE5-4B41-9029-7B497D9FE607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="130">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -401,6 +401,12 @@
   </si>
   <si>
     <t>AssetName</t>
+  </si>
+  <si>
+    <t>Target Account Position</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_047</t>
   </si>
 </sst>
 </file>
@@ -2095,11 +2101,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BA27"/>
+  <dimension ref="A1:BB27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA11" sqref="AA11"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2122,23 +2128,24 @@
     <col min="22" max="22" width="13" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.1796875" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7265625" customWidth="1"/>
-    <col min="28" max="28" width="20.08984375" customWidth="1"/>
-    <col min="29" max="29" width="14.7265625" customWidth="1"/>
-    <col min="30" max="30" width="23.7265625" customWidth="1"/>
-    <col min="31" max="31" width="8.7265625" customWidth="1"/>
-    <col min="32" max="32" width="19.1796875" customWidth="1"/>
-    <col min="33" max="33" width="14.08984375" customWidth="1"/>
-    <col min="34" max="34" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="35" max="49" width="8.7265625" customWidth="1"/>
-    <col min="50" max="50" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="51" max="53" width="8.7265625" customWidth="1"/>
-    <col min="54" max="16384" width="8.7265625" hidden="1"/>
+    <col min="25" max="25" width="20.54296875" customWidth="1"/>
+    <col min="26" max="26" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.7265625" customWidth="1"/>
+    <col min="29" max="29" width="20.08984375" customWidth="1"/>
+    <col min="30" max="30" width="14.7265625" customWidth="1"/>
+    <col min="31" max="31" width="23.7265625" customWidth="1"/>
+    <col min="32" max="32" width="8.7265625" customWidth="1"/>
+    <col min="33" max="33" width="19.1796875" customWidth="1"/>
+    <col min="34" max="34" width="14.08984375" customWidth="1"/>
+    <col min="35" max="35" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="50" width="8.7265625" customWidth="1"/>
+    <col min="51" max="51" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="52" max="54" width="8.7265625" customWidth="1"/>
+    <col min="55" max="16384" width="8.7265625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2212,85 +2219,88 @@
         <v>127</v>
       </c>
       <c r="Y1" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AL1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AM1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AN1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AO1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AP1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AR1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AS1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AT1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AU1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AV1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AW1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="AW1" s="8" t="s">
+      <c r="AX1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="AY1" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
@@ -2345,48 +2355,49 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2">
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2">
         <v>3000</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AC2" s="2">
         <v>4000</v>
       </c>
-      <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
-      <c r="AI2" s="2" t="s">
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
-      <c r="AL2" s="2" t="s">
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
-      <c r="AQ2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2">
+        <v>1</v>
+      </c>
       <c r="AS2" s="2"/>
-      <c r="AT2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2" t="s">
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>76</v>
       </c>
@@ -2441,44 +2452,45 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2">
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2">
         <v>3100</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AC3" s="2">
         <v>3900</v>
       </c>
-      <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
-      <c r="AI3" s="2" t="s">
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
-      <c r="AQ3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2">
+        <v>1</v>
+      </c>
       <c r="AS3" s="2"/>
-      <c r="AT3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="AX3" s="2"/>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="AY3" s="2"/>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>78</v>
       </c>
@@ -2532,35 +2544,36 @@
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
-      <c r="AL4" s="2" t="s">
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AM4" s="2">
-        <v>1</v>
-      </c>
       <c r="AN4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="2">
         <v>3000</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AP4" s="2">
         <v>4000</v>
       </c>
-      <c r="AP4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="2"/>
+      <c r="AQ4" s="2">
+        <v>1</v>
+      </c>
       <c r="AR4" s="2"/>
       <c r="AS4" s="2"/>
-      <c r="AT4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="AX4" s="2"/>
-    </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="AY4" s="2"/>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>80</v>
       </c>
@@ -2614,35 +2627,36 @@
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
-      <c r="AL5" s="2" t="s">
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AM5" s="2">
-        <v>1</v>
-      </c>
       <c r="AN5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="2">
         <v>3000</v>
       </c>
-      <c r="AO5" s="2">
+      <c r="AP5" s="2">
         <v>4000</v>
       </c>
-      <c r="AP5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="2"/>
+      <c r="AQ5" s="2">
+        <v>1</v>
+      </c>
       <c r="AR5" s="2"/>
       <c r="AS5" s="2"/>
-      <c r="AT5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="2"/>
-      <c r="AV5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="AX5" s="2"/>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="AY5" s="2"/>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>81</v>
       </c>
@@ -2699,37 +2713,38 @@
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
-      <c r="AL6" s="2" t="s">
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AN6" s="2">
         <v>0.1</v>
       </c>
-      <c r="AN6" s="2">
+      <c r="AO6" s="2">
         <v>3000</v>
       </c>
-      <c r="AO6" s="2">
+      <c r="AP6" s="2">
         <v>4000</v>
       </c>
-      <c r="AP6" s="2">
-        <v>1</v>
-      </c>
       <c r="AQ6" s="2">
         <v>1</v>
       </c>
-      <c r="AR6" s="2"/>
+      <c r="AR6" s="2">
+        <v>1</v>
+      </c>
       <c r="AS6" s="2"/>
-      <c r="AT6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="2"/>
-      <c r="AV6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="AX6" s="2"/>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="AY6" s="2"/>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>82</v>
       </c>
@@ -2787,37 +2802,38 @@
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
-      <c r="AL7" s="2" t="s">
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AM7" s="2">
+      <c r="AN7" s="2">
         <v>0.1</v>
       </c>
-      <c r="AN7" s="2">
+      <c r="AO7" s="2">
         <v>3000</v>
       </c>
-      <c r="AO7" s="2">
+      <c r="AP7" s="2">
         <v>4000</v>
       </c>
-      <c r="AP7" s="2">
-        <v>1</v>
-      </c>
       <c r="AQ7" s="2">
         <v>1</v>
       </c>
-      <c r="AR7" s="2"/>
+      <c r="AR7" s="2">
+        <v>1</v>
+      </c>
       <c r="AS7" s="2"/>
-      <c r="AT7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="2"/>
-      <c r="AV7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="2"/>
+      <c r="AW7" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="AX7" s="2"/>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="AY7" s="2"/>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>83</v>
       </c>
@@ -2871,41 +2887,42 @@
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
-      <c r="AL8" s="2" t="s">
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AM8" s="2">
+      <c r="AN8" s="2">
         <v>0.1</v>
       </c>
-      <c r="AN8" s="2">
+      <c r="AO8" s="2">
         <v>3000</v>
       </c>
-      <c r="AO8" s="2">
+      <c r="AP8" s="2">
         <v>4000</v>
       </c>
-      <c r="AP8" s="2">
-        <v>1</v>
-      </c>
       <c r="AQ8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="2">
         <v>200</v>
       </c>
-      <c r="AR8" s="2">
+      <c r="AS8" s="2">
         <v>10</v>
       </c>
-      <c r="AS8" s="2" t="s">
+      <c r="AT8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AT8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU8" s="2"/>
-      <c r="AV8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="2"/>
+      <c r="AU8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="AX8" s="2"/>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="AY8" s="2"/>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>125</v>
       </c>
@@ -2964,46 +2981,154 @@
       <c r="X9" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="Y9" s="2"/>
+      <c r="Y9" s="2">
+        <v>3000</v>
+      </c>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2">
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2">
         <v>0.3</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AC9" s="2">
         <v>0.4</v>
       </c>
-      <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
-      <c r="AI9" s="2" t="s">
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AJ9" s="2"/>
       <c r="AK9" s="2"/>
-      <c r="AL9" s="2" t="s">
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
-      <c r="AQ9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2">
+        <v>1</v>
+      </c>
       <c r="AS9" s="2"/>
-      <c r="AT9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU9" s="2"/>
-      <c r="AV9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="2"/>
-      <c r="AX9" s="2" t="s">
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="6">
+        <v>25</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S10" s="2">
+        <v>20</v>
+      </c>
+      <c r="T10" s="2">
+        <v>50</v>
+      </c>
+      <c r="U10" s="2"/>
+      <c r="V10" s="7">
+        <v>50</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2" t="s">
         <v>75</v>
       </c>
     </row>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8FB162-4DE5-4B41-9029-7B497D9FE607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1601F64A-8578-41C5-B8E8-AA74F037B044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="131">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -407,6 +407,9 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_047</t>
+  </si>
+  <si>
+    <t>PairSide</t>
   </si>
 </sst>
 </file>
@@ -2101,11 +2104,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BB27"/>
+  <dimension ref="A1:BC27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A10" sqref="A10"/>
+      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AM1" sqref="AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2139,13 +2142,13 @@
     <col min="33" max="33" width="19.1796875" customWidth="1"/>
     <col min="34" max="34" width="14.08984375" customWidth="1"/>
     <col min="35" max="35" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="36" max="50" width="8.7265625" customWidth="1"/>
-    <col min="51" max="51" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="52" max="54" width="8.7265625" customWidth="1"/>
-    <col min="55" max="16384" width="8.7265625" hidden="1"/>
+    <col min="36" max="51" width="8.7265625" customWidth="1"/>
+    <col min="52" max="52" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="53" max="55" width="8.7265625" customWidth="1"/>
+    <col min="56" max="16384" width="8.7265625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2261,46 +2264,49 @@
         <v>62</v>
       </c>
       <c r="AM1" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AO1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AP1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AR1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AS1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AT1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AU1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AV1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AW1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AW1" s="8" t="s">
+      <c r="AX1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="AY1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
@@ -2373,31 +2379,32 @@
       </c>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
-      <c r="AM2" s="2" t="s">
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AN2" s="2"/>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
-      <c r="AR2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2">
+        <v>1</v>
+      </c>
       <c r="AT2" s="2"/>
-      <c r="AU2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2" t="s">
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>76</v>
       </c>
@@ -2475,22 +2482,23 @@
       <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2"/>
-      <c r="AR3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2">
+        <v>1</v>
+      </c>
       <c r="AT3" s="2"/>
-      <c r="AU3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="AY3" s="2"/>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="AZ3" s="2"/>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>78</v>
       </c>
@@ -2545,35 +2553,36 @@
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
-      <c r="AM4" s="2" t="s">
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AN4" s="2">
-        <v>1</v>
-      </c>
       <c r="AO4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="2">
         <v>3000</v>
       </c>
-      <c r="AP4" s="2">
+      <c r="AQ4" s="2">
         <v>4000</v>
       </c>
-      <c r="AQ4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="2"/>
+      <c r="AR4" s="2">
+        <v>1</v>
+      </c>
       <c r="AS4" s="2"/>
       <c r="AT4" s="2"/>
-      <c r="AU4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="AY4" s="2"/>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="AZ4" s="2"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>80</v>
       </c>
@@ -2628,35 +2637,36 @@
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
-      <c r="AM5" s="2" t="s">
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AN5" s="2">
-        <v>1</v>
-      </c>
       <c r="AO5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="2">
         <v>3000</v>
       </c>
-      <c r="AP5" s="2">
+      <c r="AQ5" s="2">
         <v>4000</v>
       </c>
-      <c r="AQ5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="2"/>
+      <c r="AR5" s="2">
+        <v>1</v>
+      </c>
       <c r="AS5" s="2"/>
       <c r="AT5" s="2"/>
-      <c r="AU5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV5" s="2"/>
-      <c r="AW5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="AY5" s="2"/>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="AZ5" s="2"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>81</v>
       </c>
@@ -2714,37 +2724,38 @@
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
-      <c r="AM6" s="2" t="s">
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AN6" s="2">
+      <c r="AO6" s="2">
         <v>0.1</v>
       </c>
-      <c r="AO6" s="2">
+      <c r="AP6" s="2">
         <v>3000</v>
       </c>
-      <c r="AP6" s="2">
+      <c r="AQ6" s="2">
         <v>4000</v>
       </c>
-      <c r="AQ6" s="2">
-        <v>1</v>
-      </c>
       <c r="AR6" s="2">
         <v>1</v>
       </c>
-      <c r="AS6" s="2"/>
+      <c r="AS6" s="2">
+        <v>1</v>
+      </c>
       <c r="AT6" s="2"/>
-      <c r="AU6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="2"/>
-      <c r="AW6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="AY6" s="2"/>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="AZ6" s="2"/>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>82</v>
       </c>
@@ -2803,37 +2814,38 @@
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
-      <c r="AM7" s="2" t="s">
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AN7" s="2">
+      <c r="AO7" s="2">
         <v>0.1</v>
       </c>
-      <c r="AO7" s="2">
+      <c r="AP7" s="2">
         <v>3000</v>
       </c>
-      <c r="AP7" s="2">
+      <c r="AQ7" s="2">
         <v>4000</v>
       </c>
-      <c r="AQ7" s="2">
-        <v>1</v>
-      </c>
       <c r="AR7" s="2">
         <v>1</v>
       </c>
-      <c r="AS7" s="2"/>
+      <c r="AS7" s="2">
+        <v>1</v>
+      </c>
       <c r="AT7" s="2"/>
-      <c r="AU7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="2"/>
-      <c r="AW7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="2"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="AY7" s="2"/>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="AZ7" s="2"/>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>83</v>
       </c>
@@ -2889,40 +2901,43 @@
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AN8" s="2">
+      <c r="AO8" s="2">
         <v>0.1</v>
       </c>
-      <c r="AO8" s="2">
+      <c r="AP8" s="2">
         <v>3000</v>
       </c>
-      <c r="AP8" s="2">
+      <c r="AQ8" s="2">
         <v>4000</v>
       </c>
-      <c r="AQ8" s="2">
-        <v>1</v>
-      </c>
       <c r="AR8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="2">
         <v>200</v>
       </c>
-      <c r="AS8" s="2">
+      <c r="AT8" s="2">
         <v>10</v>
       </c>
-      <c r="AT8" s="2" t="s">
+      <c r="AU8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AU8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV8" s="2"/>
-      <c r="AW8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="2"/>
+      <c r="AV8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="AY8" s="2"/>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.35">
+      <c r="AZ8" s="2"/>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>125</v>
       </c>
@@ -3003,31 +3018,32 @@
       </c>
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
-      <c r="AM9" s="2" t="s">
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2"/>
-      <c r="AR9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2">
+        <v>1</v>
+      </c>
       <c r="AT9" s="2"/>
-      <c r="AU9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV9" s="2"/>
-      <c r="AW9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="2"/>
-      <c r="AY9" s="2" t="s">
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>129</v>
       </c>
@@ -3108,27 +3124,28 @@
       </c>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
-      <c r="AM10" s="2" t="s">
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AN10" s="2"/>
       <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2"/>
-      <c r="AR10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2">
+        <v>1</v>
+      </c>
       <c r="AT10" s="2"/>
-      <c r="AU10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV10" s="2"/>
-      <c r="AW10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="2"/>
-      <c r="AY10" s="2" t="s">
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2" t="s">
         <v>75</v>
       </c>
     </row>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1601F64A-8578-41C5-B8E8-AA74F037B044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A70091-6550-4C35-80D8-C3FFDA296767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NitroXLogin" sheetId="13" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="129">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -277,9 +277,6 @@
     <t>SPOT</t>
   </si>
   <si>
-    <t>URL</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -383,9 +380,6 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_040</t>
-  </si>
-  <si>
-    <t>https://staging-nitrox.altono.app</t>
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_041</t>
@@ -419,7 +413,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,14 +424,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -507,11 +493,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -526,13 +511,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -871,25 +854,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878D5118-86AA-443A-B8A4-36B93CD796C0}">
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.7265625" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
-    <col min="7" max="7" width="66.1796875" customWidth="1"/>
-    <col min="8" max="26" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="66.1796875" customWidth="1"/>
+    <col min="7" max="25" width="8.7265625" customWidth="1"/>
     <col min="27" max="16384" width="8.7265625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -903,91 +885,76 @@
         <v>88</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>122</v>
-      </c>
       <c r="C3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E4" s="3"/>
+      <c r="F4" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://system.qa/" xr:uid="{ADDE2EEE-F6B9-40ED-AA61-6A610598917E}"/>
-    <hyperlink ref="C4" r:id="rId2" display="http://system.qa/" xr:uid="{94FF34FB-97BA-43C4-9AF6-736D81B5AAA4}"/>
-    <hyperlink ref="B2" r:id="rId3" display="https://staging-nitrox.altono.app/" xr:uid="{5BB33F06-A9FD-4B13-8234-AA3309C42662}"/>
-    <hyperlink ref="B3" r:id="rId4" display="https://staging-nitrox.altono.app/" xr:uid="{826BA71D-F9AC-43A2-BF34-2F92209214A7}"/>
-    <hyperlink ref="B4" r:id="rId5" display="https://staging-nitrox.altono.app/" xr:uid="{6950D2D8-FD65-4EAD-9B9E-0ED7C491D8BB}"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://system.qa/" xr:uid="{ADDE2EEE-F6B9-40ED-AA61-6A610598917E}"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://system.qa/" xr:uid="{94FF34FB-97BA-43C4-9AF6-736D81B5AAA4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1044,7 +1011,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>9</v>
@@ -1053,19 +1020,19 @@
         <v>10</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>11</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>12</v>
@@ -1257,7 +1224,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1290,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1323,7 +1290,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>29</v>
@@ -1360,7 +1327,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>29</v>
@@ -1397,7 +1364,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>29</v>
@@ -1436,7 +1403,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>29</v>
@@ -1475,7 +1442,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>29</v>
@@ -1514,7 +1481,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>29</v>
@@ -1553,7 +1520,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>29</v>
@@ -1592,7 +1559,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>29</v>
@@ -1631,7 +1598,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>29</v>
@@ -1668,25 +1635,25 @@
     </row>
     <row r="18" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I18" s="6">
         <v>25</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>32</v>
@@ -1713,25 +1680,25 @@
     </row>
     <row r="19" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I19" s="6">
         <v>25</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>32</v>
@@ -1758,31 +1725,31 @@
     </row>
     <row r="20" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I20" s="6">
         <v>25</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P20" s="2">
         <v>20</v>
@@ -1806,31 +1773,31 @@
     </row>
     <row r="21" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I21" s="6">
         <v>25</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P21" s="2">
         <v>20</v>
@@ -1854,30 +1821,30 @@
     </row>
     <row r="22" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I22" s="6">
         <v>10</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L22" s="11"/>
+      <c r="L22" s="10"/>
       <c r="M22" s="9"/>
       <c r="P22" s="2">
         <v>20</v>
@@ -1901,25 +1868,25 @@
     </row>
     <row r="23" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I23" s="6">
         <v>25</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>37</v>
@@ -1946,25 +1913,25 @@
     </row>
     <row r="24" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I24" s="6">
         <v>25</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>37</v>
@@ -1991,25 +1958,25 @@
     </row>
     <row r="25" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I25" s="6">
         <v>25</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>37</v>
@@ -2036,25 +2003,25 @@
     </row>
     <row r="26" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I26" s="6">
         <v>25</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>37</v>
@@ -2106,7 +2073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
   <dimension ref="A1:BC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AM1" sqref="AM1"/>
     </sheetView>
@@ -2165,7 +2132,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>9</v>
@@ -2174,10 +2141,10 @@
         <v>10</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>40</v>
@@ -2189,10 +2156,10 @@
         <v>42</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>62</v>
@@ -2219,10 +2186,10 @@
         <v>49</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Z1" s="8" t="s">
         <v>50</v>
@@ -2264,7 +2231,7 @@
         <v>62</v>
       </c>
       <c r="AM1" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AN1" s="8" t="s">
         <v>11</v>
@@ -2314,7 +2281,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -2412,7 +2379,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -2506,7 +2473,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
@@ -2590,7 +2557,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
@@ -2674,7 +2641,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
@@ -2690,13 +2657,13 @@
         <v>71</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M6" s="2">
         <v>1</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>32</v>
@@ -2763,7 +2730,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>29</v>
@@ -2780,13 +2747,13 @@
         <v>71</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M7" s="2">
         <v>1</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>77</v>
@@ -2853,7 +2820,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>29</v>
@@ -2939,28 +2906,28 @@
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I9" s="6">
         <v>25</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>71</v>
@@ -2994,7 +2961,7 @@
         <v>73</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Y9" s="2">
         <v>3000</v>
@@ -3045,28 +3012,28 @@
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I10" s="6">
         <v>25</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>71</v>
@@ -3100,7 +3067,7 @@
         <v>73</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Y10" s="2">
         <v>1</v>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A70091-6550-4C35-80D8-C3FFDA296767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5387AB-D31E-4069-BB15-0DE4EC80793C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NitroXLogin" sheetId="13" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="130">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>PairSide</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_048</t>
   </si>
 </sst>
 </file>
@@ -854,9 +857,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878D5118-86AA-443A-B8A4-36B93CD796C0}">
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C10" sqref="C10"/>
+      <selection pane="topRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -868,6 +871,7 @@
     <col min="5" max="5" width="8.7265625" customWidth="1"/>
     <col min="6" max="6" width="66.1796875" customWidth="1"/>
     <col min="7" max="25" width="8.7265625" customWidth="1"/>
+    <col min="26" max="26" width="0" hidden="1" customWidth="1"/>
     <col min="27" max="16384" width="8.7265625" hidden="1"/>
   </cols>
   <sheetData>
@@ -962,7 +966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:XFC34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Y1" sqref="Y1"/>
     </sheetView>
@@ -2073,9 +2077,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
   <dimension ref="A1:BC27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM1" sqref="AM1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2278,7 +2282,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>111</v>
@@ -2376,7 +2380,7 @@
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>111</v>
@@ -2470,7 +2474,7 @@
         <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>111</v>
@@ -2554,7 +2558,7 @@
         <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>111</v>
@@ -2638,7 +2642,7 @@
         <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>111</v>
@@ -2727,7 +2731,7 @@
         <v>82</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>111</v>
@@ -2817,7 +2821,7 @@
         <v>83</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>111</v>
@@ -3116,6 +3120,90 @@
         <v>75</v>
       </c>
     </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>20</v>
+      </c>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2"/>
+    </row>
     <row r="27" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F27" s="2"/>
       <c r="H27" s="2"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5387AB-D31E-4069-BB15-0DE4EC80793C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70273DA8-468B-4E55-871E-11D2364E0CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NitroXLogin" sheetId="13" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="131">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -407,6 +407,9 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_048</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_016</t>
   </si>
 </sst>
 </file>
@@ -966,9 +969,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:XFC34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y1" sqref="Y1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2050,15 +2053,42 @@
       <c r="AA26"/>
       <c r="AB26"/>
     </row>
-    <row r="27" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="I27" s="6"/>
-      <c r="V27"/>
-      <c r="W27"/>
-      <c r="X27"/>
-      <c r="Y27"/>
-      <c r="Z27"/>
-      <c r="AA27"/>
-      <c r="AB27"/>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
@@ -2067,9 +2097,10 @@
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" xr:uid="{FD3BAB66-20EF-4340-AAA8-8DC0A130EAC4}"/>
     <hyperlink ref="C8:C17" r:id="rId2" display="Automation_OrderBook@Tinyex" xr:uid="{AA208809-3E4A-405C-823F-E40F535E6767}"/>
+    <hyperlink ref="C27" r:id="rId3" xr:uid="{09B5D5BE-8887-4E65-BD2C-23B629D5AD27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2077,7 +2108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
   <dimension ref="A1:BC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="F12" sqref="F12"/>
     </sheetView>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70273DA8-468B-4E55-871E-11D2364E0CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387B183F-BD4A-461E-B450-243CA7E766D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NitroXLogin" sheetId="13" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="133">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -410,6 +410,12 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_016</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_049</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_056</t>
   </si>
 </sst>
 </file>
@@ -969,9 +975,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:XFC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B32" sqref="B32"/>
+      <selection pane="topRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2108,9 +2114,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
   <dimension ref="A1:BC27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2990,7 +2996,7 @@
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>73</v>
@@ -2999,15 +3005,15 @@
         <v>124</v>
       </c>
       <c r="Y9" s="2">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AC9" s="2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
@@ -3110,10 +3116,10 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AC10" s="2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -3235,6 +3241,174 @@
       <c r="AY11" s="2"/>
       <c r="AZ11" s="2"/>
     </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AR12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="2">
+        <v>20</v>
+      </c>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AR13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="2">
+        <v>20</v>
+      </c>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+    </row>
     <row r="27" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F27" s="2"/>
       <c r="H27" s="2"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387B183F-BD4A-461E-B450-243CA7E766D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AD8CC3-3B17-493E-AFA2-B146AA9050C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="134">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -416,14 +416,18 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_056</t>
+  </si>
+  <si>
+    <t>QUANT_BINANCE_25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -508,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -526,6 +530,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -975,9 +980,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:XFC34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A24" sqref="A24"/>
+      <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2115,8 +2120,8 @@
   <dimension ref="A1:BC27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z9" sqref="Z9"/>
+      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AR14" sqref="AR14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2150,7 +2155,9 @@
     <col min="33" max="33" width="19.1796875" customWidth="1"/>
     <col min="34" max="34" width="14.08984375" customWidth="1"/>
     <col min="35" max="35" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="36" max="51" width="8.7265625" customWidth="1"/>
+    <col min="36" max="45" width="8.7265625" customWidth="1"/>
+    <col min="46" max="46" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="47" max="51" width="8.7265625" customWidth="1"/>
     <col min="52" max="52" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="53" max="55" width="8.7265625" customWidth="1"/>
     <col min="56" max="16384" width="8.7265625" hidden="1"/>
@@ -2861,7 +2868,7 @@
         <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>29</v>
@@ -2909,7 +2916,7 @@
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="AN8" s="2" t="s">
         <v>32</v>
@@ -2927,10 +2934,10 @@
         <v>1</v>
       </c>
       <c r="AS8" s="2">
-        <v>200</v>
-      </c>
-      <c r="AT8" s="2">
-        <v>10</v>
+        <v>0.01</v>
+      </c>
+      <c r="AT8" s="11">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AU8" s="2" t="s">
         <v>85</v>
@@ -3416,10 +3423,7 @@
       <c r="J27" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3:C8" r:id="rId1" display="Automation_Bot@Tinyex" xr:uid="{CDDD482D-E149-413F-BF8F-1FA68756936E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AD8CC3-3B17-493E-AFA2-B146AA9050C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C5035B-4BF2-4917-9AF3-C985A2197764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="136">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -419,6 +419,12 @@
   </si>
   <si>
     <t>QUANT_BINANCE_25</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_031</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_057</t>
   </si>
 </sst>
 </file>
@@ -2117,11 +2123,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BC27"/>
+  <dimension ref="A1:BC28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR14" sqref="AR14"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2954,98 +2960,86 @@
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I9" s="6">
-        <v>25</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
         <v>71</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M9" s="2">
         <v>1</v>
       </c>
       <c r="N9" s="2"/>
-      <c r="O9" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S9" s="2">
-        <v>20</v>
-      </c>
-      <c r="T9" s="2">
-        <v>50</v>
-      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="7">
-        <v>20</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>1000</v>
-      </c>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
-      <c r="AJ9" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AJ9" s="2"/>
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
-      <c r="AM9" s="2"/>
+      <c r="AM9" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="AN9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AO9" s="2"/>
-      <c r="AP9" s="2"/>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
+      <c r="AO9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>1</v>
+      </c>
       <c r="AS9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT9" s="2"/>
-      <c r="AU9" s="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="AT9" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AU9" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AV9" s="2">
         <v>1</v>
       </c>
@@ -3054,13 +3048,11 @@
         <v>0</v>
       </c>
       <c r="AY9" s="2"/>
-      <c r="AZ9" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="AZ9" s="2"/>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -3099,7 +3091,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="S10" s="2">
         <v>20</v>
@@ -3109,7 +3101,7 @@
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>73</v>
@@ -3118,7 +3110,7 @@
         <v>124</v>
       </c>
       <c r="Y10" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
@@ -3166,7 +3158,7 @@
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -3174,67 +3166,87 @@
       <c r="C11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="2" t="s">
         <v>119</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="6">
+        <v>25</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="K11" s="2" t="s">
         <v>71</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M11" s="2">
         <v>1</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="O11" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="R11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S11" s="2">
+        <v>20</v>
+      </c>
+      <c r="T11" s="2">
+        <v>50</v>
+      </c>
       <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+      <c r="V11" s="7">
+        <v>50</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
+      <c r="AB11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>0.5</v>
+      </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
+      <c r="AJ11" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AO11" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP11" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AQ11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AR11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
       <c r="AS11" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2"/>
@@ -3246,11 +3258,13 @@
         <v>0</v>
       </c>
       <c r="AY11" s="2"/>
-      <c r="AZ11" s="2"/>
+      <c r="AZ11" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -3303,7 +3317,7 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="AO12" s="2">
         <v>20</v>
@@ -3334,7 +3348,7 @@
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -3416,11 +3430,179 @@
       <c r="AY13" s="2"/>
       <c r="AZ13" s="2"/>
     </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="F27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="2"/>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AQ14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AR14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS14" s="2">
+        <v>20</v>
+      </c>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AQ15" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AR15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2"/>
+    </row>
+    <row r="28" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C5035B-4BF2-4917-9AF3-C985A2197764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F63DE74-B2CF-43CC-98D9-DD6EEB9E6B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="140">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -425,6 +425,18 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_057</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_032</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_033</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_058</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_060</t>
   </si>
 </sst>
 </file>
@@ -986,7 +998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:XFC34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
@@ -2123,11 +2135,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BC28"/>
+  <dimension ref="A1:BC30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C14" sqref="C14"/>
+      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ9" sqref="AJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3052,98 +3064,86 @@
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I10" s="6">
-        <v>25</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
         <v>71</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M10" s="2">
         <v>1</v>
       </c>
       <c r="N10" s="2"/>
-      <c r="O10" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="2">
-        <v>20</v>
-      </c>
-      <c r="T10" s="2">
-        <v>50</v>
-      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-      <c r="V10" s="7">
-        <v>20</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>1000</v>
-      </c>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
-      <c r="AB10" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
-      <c r="AJ10" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
-      <c r="AM10" s="2"/>
+      <c r="AM10" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="AN10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO10" s="2"/>
-      <c r="AP10" s="2"/>
-      <c r="AQ10" s="2"/>
-      <c r="AR10" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>1</v>
+      </c>
       <c r="AS10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT10" s="2"/>
-      <c r="AU10" s="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="AT10" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AU10" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AV10" s="2">
         <v>1</v>
       </c>
@@ -3152,104 +3152,90 @@
         <v>0</v>
       </c>
       <c r="AY10" s="2"/>
-      <c r="AZ10" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="AZ10" s="2"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I11" s="6">
-        <v>25</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
         <v>71</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M11" s="2">
         <v>1</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="S11" s="2">
-        <v>20</v>
-      </c>
-      <c r="T11" s="2">
-        <v>50</v>
-      </c>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="7">
-        <v>50</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>1</v>
-      </c>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
-      <c r="AB11" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AC11" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
-      <c r="AJ11" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
-      <c r="AM11" s="2"/>
+      <c r="AM11" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AN11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO11" s="2"/>
-      <c r="AP11" s="2"/>
-      <c r="AQ11" s="2"/>
-      <c r="AR11" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>1</v>
+      </c>
       <c r="AS11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT11" s="2"/>
-      <c r="AU11" s="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="AT11" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AU11" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AV11" s="2">
         <v>1</v>
       </c>
@@ -3258,13 +3244,11 @@
         <v>0</v>
       </c>
       <c r="AY11" s="2"/>
-      <c r="AZ11" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="AZ11" s="2"/>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -3272,67 +3256,87 @@
       <c r="C12" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="2" t="s">
         <v>119</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="6">
+        <v>25</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="K12" s="2" t="s">
         <v>71</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M12" s="2">
         <v>1</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="O12" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="R12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" s="2">
+        <v>20</v>
+      </c>
+      <c r="T12" s="2">
+        <v>50</v>
+      </c>
       <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="V12" s="7">
+        <v>20</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>1200</v>
+      </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
+      <c r="AB12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>0.5</v>
+      </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
-      <c r="AJ12" s="2"/>
+      <c r="AJ12" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AO12" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP12" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AQ12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AR12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
       <c r="AS12" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AT12" s="2"/>
       <c r="AU12" s="2"/>
@@ -3344,11 +3348,13 @@
         <v>0</v>
       </c>
       <c r="AY12" s="2"/>
-      <c r="AZ12" s="2"/>
+      <c r="AZ12" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -3356,67 +3362,87 @@
       <c r="C13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="2" t="s">
         <v>119</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="6">
+        <v>25</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="K13" s="2" t="s">
         <v>71</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M13" s="2">
         <v>1</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="O13" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
+      <c r="R13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S13" s="2">
+        <v>20</v>
+      </c>
+      <c r="T13" s="2">
+        <v>50</v>
+      </c>
       <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
+      <c r="V13" s="7">
+        <v>50</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>1</v>
+      </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
+      <c r="AB13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>0.5</v>
+      </c>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
-      <c r="AJ13" s="2"/>
+      <c r="AJ13" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO13" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP13" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AQ13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AR13" s="2">
-        <v>1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
       <c r="AS13" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AT13" s="2"/>
       <c r="AU13" s="2"/>
@@ -3428,11 +3454,13 @@
         <v>0</v>
       </c>
       <c r="AY13" s="2"/>
-      <c r="AZ13" s="2"/>
+      <c r="AZ13" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
@@ -3485,7 +3513,7 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="AO14" s="2">
         <v>20</v>
@@ -3516,24 +3544,22 @@
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="6"/>
+      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
         <v>71</v>
@@ -3571,21 +3597,23 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" s="2" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="AO15" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AP15" s="2">
-        <v>3000</v>
+        <v>0.2</v>
       </c>
       <c r="AQ15" s="2">
-        <v>4000</v>
+        <v>0.5</v>
       </c>
       <c r="AR15" s="2">
         <v>1</v>
       </c>
-      <c r="AS15" s="2"/>
+      <c r="AS15" s="2">
+        <v>20</v>
+      </c>
       <c r="AT15" s="2"/>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2">
@@ -3598,11 +3626,403 @@
       <c r="AY15" s="2"/>
       <c r="AZ15" s="2"/>
     </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="F28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="2"/>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16" s="2">
+        <v>20</v>
+      </c>
+      <c r="T16" s="2">
+        <v>50</v>
+      </c>
+      <c r="U16" s="2"/>
+      <c r="V16" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S17" s="2">
+        <v>20</v>
+      </c>
+      <c r="T17" s="2">
+        <v>50</v>
+      </c>
+      <c r="U17" s="2"/>
+      <c r="V17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S18" s="2">
+        <v>20</v>
+      </c>
+      <c r="T18" s="2">
+        <v>50</v>
+      </c>
+      <c r="U18" s="2"/>
+      <c r="V18" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="2"/>
+      <c r="AZ18" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S19" s="2">
+        <v>20</v>
+      </c>
+      <c r="T19" s="2">
+        <v>50</v>
+      </c>
+      <c r="U19" s="2"/>
+      <c r="V19" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="F30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F63DE74-B2CF-43CC-98D9-DD6EEB9E6B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72964A43-FE4F-438C-BE95-BF3496FC4618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2138,8 +2138,8 @@
   <dimension ref="A1:BC30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ9" sqref="AJ9"/>
+      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AM11" sqref="AM11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3026,10 +3026,10 @@
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN9" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="AN9" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="AO9" s="2">
         <v>0.1</v>
@@ -3121,7 +3121,7 @@
         <v>77</v>
       </c>
       <c r="AN10" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="AO10" s="2">
         <v>0.1</v>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72964A43-FE4F-438C-BE95-BF3496FC4618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017218B9-9BF6-42E8-8F85-36DEFFB38CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="142">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -437,15 +437,22 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_060</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_062</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_063</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -530,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -549,6 +556,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2138,8 +2146,8 @@
   <dimension ref="A1:BC30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM11" sqref="AM11"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2174,7 +2182,7 @@
     <col min="34" max="34" width="14.08984375" customWidth="1"/>
     <col min="35" max="35" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="36" max="45" width="8.7265625" customWidth="1"/>
-    <col min="46" max="46" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="47" max="51" width="8.7265625" customWidth="1"/>
     <col min="52" max="52" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="53" max="55" width="8.7265625" customWidth="1"/>
@@ -3230,7 +3238,7 @@
       <c r="AS11" s="2">
         <v>0.01</v>
       </c>
-      <c r="AT11" s="11">
+      <c r="AT11" s="12">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="AU11" s="2" t="s">
@@ -4018,6 +4026,202 @@
         <v>75</v>
       </c>
     </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S20" s="2">
+        <v>20</v>
+      </c>
+      <c r="T20" s="2">
+        <v>50</v>
+      </c>
+      <c r="U20" s="2"/>
+      <c r="V20" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="2"/>
+      <c r="AZ20" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S21" s="2">
+        <v>20</v>
+      </c>
+      <c r="T21" s="2">
+        <v>50</v>
+      </c>
+      <c r="U21" s="2"/>
+      <c r="V21" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.35">
       <c r="F30" s="2"/>
       <c r="H30" s="2"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017218B9-9BF6-42E8-8F85-36DEFFB38CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0F6DF0-FD25-41F9-A284-F189C4B2AC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="143">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -443,6 +443,9 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_063</t>
+  </si>
+  <si>
+    <t>New Order Amount</t>
   </si>
 </sst>
 </file>
@@ -2143,10 +2146,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BC30"/>
+  <dimension ref="A1:BD30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
@@ -2166,30 +2169,31 @@
     <col min="18" max="18" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.7265625" customWidth="1"/>
     <col min="20" max="20" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.1796875" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.54296875" customWidth="1"/>
-    <col min="26" max="26" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.7265625" customWidth="1"/>
-    <col min="29" max="29" width="20.08984375" customWidth="1"/>
-    <col min="30" max="30" width="14.7265625" customWidth="1"/>
-    <col min="31" max="31" width="23.7265625" customWidth="1"/>
-    <col min="32" max="32" width="8.7265625" customWidth="1"/>
-    <col min="33" max="33" width="19.1796875" customWidth="1"/>
-    <col min="34" max="34" width="14.08984375" customWidth="1"/>
-    <col min="35" max="35" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="36" max="45" width="8.7265625" customWidth="1"/>
-    <col min="46" max="46" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="47" max="51" width="8.7265625" customWidth="1"/>
-    <col min="52" max="52" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="53" max="55" width="8.7265625" customWidth="1"/>
-    <col min="56" max="16384" width="8.7265625" hidden="1"/>
+    <col min="21" max="21" width="14.26953125" customWidth="1"/>
+    <col min="22" max="22" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.1796875" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.54296875" customWidth="1"/>
+    <col min="27" max="27" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.7265625" customWidth="1"/>
+    <col min="30" max="30" width="20.08984375" customWidth="1"/>
+    <col min="31" max="31" width="14.7265625" customWidth="1"/>
+    <col min="32" max="32" width="23.7265625" customWidth="1"/>
+    <col min="33" max="33" width="8.7265625" customWidth="1"/>
+    <col min="34" max="34" width="19.1796875" customWidth="1"/>
+    <col min="35" max="35" width="14.08984375" customWidth="1"/>
+    <col min="36" max="36" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="46" width="8.7265625" customWidth="1"/>
+    <col min="47" max="47" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="48" max="52" width="8.7265625" customWidth="1"/>
+    <col min="53" max="53" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="54" max="56" width="8.7265625" customWidth="1"/>
+    <col min="57" max="16384" width="8.7265625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2251,103 +2255,106 @@
         <v>46</v>
       </c>
       <c r="U1" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="V1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AL1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AM1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AN1" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AO1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AP1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AR1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AS1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AT1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AU1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AV1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AW1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AW1" s="8" t="s">
+      <c r="AX1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="AY1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AZ1" s="8" t="s">
+      <c r="BA1" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
@@ -2392,60 +2399,63 @@
       <c r="T2" s="2">
         <v>50</v>
       </c>
-      <c r="U2" s="2"/>
-      <c r="V2" s="7">
+      <c r="U2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V2" s="2"/>
+      <c r="W2" s="7">
         <v>0.1</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-      <c r="AB2" s="2">
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2">
         <v>3000</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AD2" s="2">
         <v>4000</v>
       </c>
-      <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
-      <c r="AJ2" s="2" t="s">
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
-      <c r="AN2" s="2" t="s">
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="2"/>
-      <c r="AS2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2">
+        <v>1</v>
+      </c>
       <c r="AU2" s="2"/>
-      <c r="AV2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2" t="s">
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>76</v>
       </c>
@@ -2491,32 +2501,32 @@
         <v>50</v>
       </c>
       <c r="U3" s="2"/>
-      <c r="V3" s="7">
+      <c r="V3" s="2"/>
+      <c r="W3" s="7">
         <v>0.1</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="2">
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2">
         <v>3100</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AD3" s="2">
         <v>3900</v>
       </c>
-      <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
-      <c r="AJ3" s="2" t="s">
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
@@ -2524,22 +2534,23 @@
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2"/>
       <c r="AR3" s="2"/>
-      <c r="AS3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2">
+        <v>1</v>
+      </c>
       <c r="AU3" s="2"/>
-      <c r="AV3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="2"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="AZ3" s="2"/>
-    </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA3" s="2"/>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>78</v>
       </c>
@@ -2595,35 +2606,36 @@
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
-      <c r="AN4" s="2" t="s">
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AO4" s="2">
-        <v>1</v>
-      </c>
       <c r="AP4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="2">
         <v>3000</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="AR4" s="2">
         <v>4000</v>
       </c>
-      <c r="AR4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="2"/>
+      <c r="AS4" s="2">
+        <v>1</v>
+      </c>
       <c r="AT4" s="2"/>
       <c r="AU4" s="2"/>
-      <c r="AV4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="AZ4" s="2"/>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA4" s="2"/>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>80</v>
       </c>
@@ -2679,35 +2691,36 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
-      <c r="AN5" s="2" t="s">
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AO5" s="2">
-        <v>1</v>
-      </c>
       <c r="AP5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="2">
         <v>3000</v>
       </c>
-      <c r="AQ5" s="2">
+      <c r="AR5" s="2">
         <v>4000</v>
       </c>
-      <c r="AR5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS5" s="2"/>
+      <c r="AS5" s="2">
+        <v>1</v>
+      </c>
       <c r="AT5" s="2"/>
       <c r="AU5" s="2"/>
-      <c r="AV5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW5" s="2"/>
-      <c r="AX5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="2"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="AZ5" s="2"/>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA5" s="2"/>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>81</v>
       </c>
@@ -2766,37 +2779,38 @@
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
-      <c r="AN6" s="2" t="s">
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AO6" s="2">
+      <c r="AP6" s="2">
         <v>0.1</v>
       </c>
-      <c r="AP6" s="2">
+      <c r="AQ6" s="2">
         <v>3000</v>
       </c>
-      <c r="AQ6" s="2">
+      <c r="AR6" s="2">
         <v>4000</v>
       </c>
-      <c r="AR6" s="2">
-        <v>1</v>
-      </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
-      <c r="AT6" s="2"/>
+      <c r="AT6" s="2">
+        <v>1</v>
+      </c>
       <c r="AU6" s="2"/>
-      <c r="AV6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="2"/>
-      <c r="AX6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="AZ6" s="2"/>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA6" s="2"/>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>82</v>
       </c>
@@ -2856,37 +2870,38 @@
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
-      <c r="AN7" s="2" t="s">
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AO7" s="2">
+      <c r="AP7" s="2">
         <v>0.1</v>
       </c>
-      <c r="AP7" s="2">
+      <c r="AQ7" s="2">
         <v>3000</v>
       </c>
-      <c r="AQ7" s="2">
+      <c r="AR7" s="2">
         <v>4000</v>
       </c>
-      <c r="AR7" s="2">
-        <v>1</v>
-      </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
-      <c r="AT7" s="2"/>
+      <c r="AT7" s="2">
+        <v>1</v>
+      </c>
       <c r="AU7" s="2"/>
-      <c r="AV7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW7" s="2"/>
-      <c r="AX7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="2"/>
+      <c r="AV7" s="2"/>
+      <c r="AW7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="AZ7" s="2"/>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA7" s="2"/>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>83</v>
       </c>
@@ -2941,44 +2956,45 @@
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
-      <c r="AM8" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AM8" s="2"/>
       <c r="AN8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AO8" s="2">
+      <c r="AO8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP8" s="2">
         <v>0.1</v>
       </c>
-      <c r="AP8" s="2">
+      <c r="AQ8" s="2">
         <v>3000</v>
       </c>
-      <c r="AQ8" s="2">
+      <c r="AR8" s="2">
         <v>4000</v>
       </c>
-      <c r="AR8" s="2">
-        <v>1</v>
-      </c>
       <c r="AS8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="2">
         <v>0.01</v>
       </c>
-      <c r="AT8" s="11">
+      <c r="AU8" s="11">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AU8" s="2" t="s">
+      <c r="AV8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AV8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW8" s="2"/>
-      <c r="AX8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="2"/>
+      <c r="AW8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="AZ8" s="2"/>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA8" s="2"/>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>134</v>
       </c>
@@ -3033,44 +3049,45 @@
       <c r="AJ9" s="2"/>
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
-      <c r="AM9" s="2" t="s">
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AN9" s="2" t="s">
+      <c r="AO9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AO9" s="2">
+      <c r="AP9" s="2">
         <v>0.1</v>
       </c>
-      <c r="AP9" s="2">
+      <c r="AQ9" s="2">
         <v>3000</v>
       </c>
-      <c r="AQ9" s="2">
+      <c r="AR9" s="2">
         <v>4000</v>
       </c>
-      <c r="AR9" s="2">
-        <v>1</v>
-      </c>
       <c r="AS9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="2">
         <v>0.01</v>
       </c>
-      <c r="AT9" s="11">
+      <c r="AU9" s="11">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AU9" s="2" t="s">
+      <c r="AV9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AV9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW9" s="2"/>
-      <c r="AX9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="2"/>
+      <c r="AW9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="AZ9" s="2"/>
-    </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA9" s="2"/>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>136</v>
       </c>
@@ -3125,44 +3142,45 @@
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
-      <c r="AM10" s="2" t="s">
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AN10" s="2" t="s">
+      <c r="AO10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AO10" s="2">
+      <c r="AP10" s="2">
         <v>0.1</v>
       </c>
-      <c r="AP10" s="2">
+      <c r="AQ10" s="2">
         <v>3000</v>
       </c>
-      <c r="AQ10" s="2">
+      <c r="AR10" s="2">
         <v>4000</v>
       </c>
-      <c r="AR10" s="2">
-        <v>1</v>
-      </c>
       <c r="AS10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="2">
         <v>0.01</v>
       </c>
-      <c r="AT10" s="11">
+      <c r="AU10" s="11">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AU10" s="2" t="s">
+      <c r="AV10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AV10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW10" s="2"/>
-      <c r="AX10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="2"/>
+      <c r="AW10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="AZ10" s="2"/>
-    </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA10" s="2"/>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>137</v>
       </c>
@@ -3217,44 +3235,45 @@
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
-      <c r="AM11" s="2" t="s">
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AN11" s="2" t="s">
+      <c r="AO11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AO11" s="2">
+      <c r="AP11" s="2">
         <v>0.1</v>
       </c>
-      <c r="AP11" s="2">
+      <c r="AQ11" s="2">
         <v>3000</v>
       </c>
-      <c r="AQ11" s="2">
+      <c r="AR11" s="2">
         <v>4000</v>
       </c>
-      <c r="AR11" s="2">
-        <v>1</v>
-      </c>
       <c r="AS11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="2">
         <v>0.01</v>
       </c>
-      <c r="AT11" s="12">
+      <c r="AU11" s="12">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AU11" s="2" t="s">
+      <c r="AV11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AV11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW11" s="2"/>
-      <c r="AX11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY11" s="2"/>
+      <c r="AW11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="AZ11" s="2"/>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA11" s="2"/>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>123</v>
       </c>
@@ -3304,63 +3323,64 @@
         <v>50</v>
       </c>
       <c r="U12" s="2"/>
-      <c r="V12" s="7">
+      <c r="V12" s="2"/>
+      <c r="W12" s="7">
         <v>20</v>
       </c>
-      <c r="W12" s="2" t="s">
+      <c r="X12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="X12" s="2" t="s">
+      <c r="Y12" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Z12" s="2">
         <v>1200</v>
       </c>
-      <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="2">
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2">
         <v>0.2</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AD12" s="2">
         <v>0.5</v>
       </c>
-      <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
-      <c r="AJ12" s="2" t="s">
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
-      <c r="AN12" s="2" t="s">
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2"/>
       <c r="AR12" s="2"/>
-      <c r="AS12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2">
+        <v>1</v>
+      </c>
       <c r="AU12" s="2"/>
-      <c r="AV12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW12" s="2"/>
-      <c r="AX12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY12" s="2"/>
-      <c r="AZ12" s="2" t="s">
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>127</v>
       </c>
@@ -3410,63 +3430,64 @@
         <v>50</v>
       </c>
       <c r="U13" s="2"/>
-      <c r="V13" s="7">
+      <c r="V13" s="2"/>
+      <c r="W13" s="7">
         <v>50</v>
       </c>
-      <c r="W13" s="2" t="s">
+      <c r="X13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="X13" s="2" t="s">
+      <c r="Y13" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="Y13" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="2"/>
+      <c r="Z13" s="2">
+        <v>1</v>
+      </c>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="2">
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2">
         <v>0.2</v>
       </c>
-      <c r="AC13" s="2">
+      <c r="AD13" s="2">
         <v>0.5</v>
       </c>
-      <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
-      <c r="AJ13" s="2" t="s">
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
-      <c r="AN13" s="2" t="s">
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2"/>
       <c r="AR13" s="2"/>
-      <c r="AS13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2">
+        <v>1</v>
+      </c>
       <c r="AU13" s="2"/>
-      <c r="AV13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW13" s="2"/>
-      <c r="AX13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="2"/>
-      <c r="AZ13" s="2" t="s">
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>129</v>
       </c>
@@ -3520,37 +3541,38 @@
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
-      <c r="AN14" s="2" t="s">
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AO14" s="2">
+      <c r="AP14" s="2">
         <v>20</v>
       </c>
-      <c r="AP14" s="2">
+      <c r="AQ14" s="2">
         <v>0.2</v>
       </c>
-      <c r="AQ14" s="2">
+      <c r="AR14" s="2">
         <v>0.5</v>
       </c>
-      <c r="AR14" s="2">
-        <v>1</v>
-      </c>
       <c r="AS14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT14" s="2">
         <v>20</v>
       </c>
-      <c r="AT14" s="2"/>
       <c r="AU14" s="2"/>
-      <c r="AV14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW14" s="2"/>
-      <c r="AX14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="AZ14" s="2"/>
-    </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA14" s="2"/>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>131</v>
       </c>
@@ -3604,37 +3626,38 @@
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
-      <c r="AN15" s="2" t="s">
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AO15" s="2">
+      <c r="AP15" s="2">
         <v>20</v>
       </c>
-      <c r="AP15" s="2">
+      <c r="AQ15" s="2">
         <v>0.2</v>
       </c>
-      <c r="AQ15" s="2">
+      <c r="AR15" s="2">
         <v>0.5</v>
       </c>
-      <c r="AR15" s="2">
-        <v>1</v>
-      </c>
       <c r="AS15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="2">
         <v>20</v>
       </c>
-      <c r="AT15" s="2"/>
       <c r="AU15" s="2"/>
-      <c r="AV15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW15" s="2"/>
-      <c r="AX15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="AZ15" s="2"/>
-    </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="BA15" s="2"/>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>132</v>
       </c>
@@ -3680,59 +3703,60 @@
         <v>50</v>
       </c>
       <c r="U16" s="2"/>
-      <c r="V16" s="7">
+      <c r="V16" s="2"/>
+      <c r="W16" s="7">
         <v>0.1</v>
       </c>
-      <c r="W16" s="2" t="s">
+      <c r="X16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-      <c r="AB16" s="2">
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2">
         <v>3000</v>
       </c>
-      <c r="AC16" s="2">
+      <c r="AD16" s="2">
         <v>4000</v>
       </c>
-      <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
-      <c r="AJ16" s="2" t="s">
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
-      <c r="AN16" s="2" t="s">
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2"/>
       <c r="AR16" s="2"/>
-      <c r="AS16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT16" s="2"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2">
+        <v>1</v>
+      </c>
       <c r="AU16" s="2"/>
-      <c r="AV16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW16" s="2"/>
-      <c r="AX16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="2"/>
-      <c r="AZ16" s="2" t="s">
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>135</v>
       </c>
@@ -3778,59 +3802,60 @@
         <v>50</v>
       </c>
       <c r="U17" s="2"/>
-      <c r="V17" s="7">
+      <c r="V17" s="2"/>
+      <c r="W17" s="7">
         <v>0.1</v>
       </c>
-      <c r="W17" s="2" t="s">
+      <c r="X17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
-      <c r="AB17" s="2">
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2">
         <v>3000</v>
       </c>
-      <c r="AC17" s="2">
+      <c r="AD17" s="2">
         <v>4000</v>
       </c>
-      <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
-      <c r="AJ17" s="2" t="s">
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
-      <c r="AN17" s="2" t="s">
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2"/>
       <c r="AR17" s="2"/>
-      <c r="AS17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2">
+        <v>1</v>
+      </c>
       <c r="AU17" s="2"/>
-      <c r="AV17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW17" s="2"/>
-      <c r="AX17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY17" s="2"/>
-      <c r="AZ17" s="2" t="s">
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="2"/>
+      <c r="BA17" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>138</v>
       </c>
@@ -3876,59 +3901,60 @@
         <v>50</v>
       </c>
       <c r="U18" s="2"/>
-      <c r="V18" s="7">
+      <c r="V18" s="2"/>
+      <c r="W18" s="7">
         <v>0.1</v>
       </c>
-      <c r="W18" s="2" t="s">
+      <c r="X18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
-      <c r="AB18" s="2">
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2">
         <v>3000</v>
       </c>
-      <c r="AC18" s="2">
+      <c r="AD18" s="2">
         <v>4000</v>
       </c>
-      <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
-      <c r="AJ18" s="2" t="s">
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
-      <c r="AN18" s="2" t="s">
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2"/>
       <c r="AR18" s="2"/>
-      <c r="AS18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2">
+        <v>1</v>
+      </c>
       <c r="AU18" s="2"/>
-      <c r="AV18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW18" s="2"/>
-      <c r="AX18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY18" s="2"/>
-      <c r="AZ18" s="2" t="s">
+      <c r="AV18" s="2"/>
+      <c r="AW18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="2"/>
+      <c r="BA18" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>139</v>
       </c>
@@ -3974,59 +4000,60 @@
         <v>50</v>
       </c>
       <c r="U19" s="2"/>
-      <c r="V19" s="7">
+      <c r="V19" s="2"/>
+      <c r="W19" s="7">
         <v>0.1</v>
       </c>
-      <c r="W19" s="2" t="s">
+      <c r="X19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
-      <c r="AB19" s="2">
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2">
         <v>3000</v>
       </c>
-      <c r="AC19" s="2">
+      <c r="AD19" s="2">
         <v>4000</v>
       </c>
-      <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
-      <c r="AJ19" s="2" t="s">
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
-      <c r="AN19" s="2" t="s">
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2"/>
       <c r="AR19" s="2"/>
-      <c r="AS19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2">
+        <v>1</v>
+      </c>
       <c r="AU19" s="2"/>
-      <c r="AV19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW19" s="2"/>
-      <c r="AX19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY19" s="2"/>
-      <c r="AZ19" s="2" t="s">
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>140</v>
       </c>
@@ -4072,59 +4099,60 @@
         <v>50</v>
       </c>
       <c r="U20" s="2"/>
-      <c r="V20" s="7">
+      <c r="V20" s="2"/>
+      <c r="W20" s="7">
         <v>0.1</v>
       </c>
-      <c r="W20" s="2" t="s">
+      <c r="X20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
-      <c r="AB20" s="2">
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2">
         <v>3000</v>
       </c>
-      <c r="AC20" s="2">
+      <c r="AD20" s="2">
         <v>4000</v>
       </c>
-      <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
-      <c r="AJ20" s="2" t="s">
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
-      <c r="AN20" s="2" t="s">
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2"/>
       <c r="AR20" s="2"/>
-      <c r="AS20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2">
+        <v>1</v>
+      </c>
       <c r="AU20" s="2"/>
-      <c r="AV20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW20" s="2"/>
-      <c r="AX20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY20" s="2"/>
-      <c r="AZ20" s="2" t="s">
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="2"/>
+      <c r="BA20" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>141</v>
       </c>
@@ -4169,60 +4197,63 @@
       <c r="T21" s="2">
         <v>50</v>
       </c>
-      <c r="U21" s="2"/>
-      <c r="V21" s="7">
+      <c r="U21" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V21" s="2"/>
+      <c r="W21" s="7">
         <v>0.1</v>
       </c>
-      <c r="W21" s="2" t="s">
+      <c r="X21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
-      <c r="AB21" s="2">
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2">
         <v>3000</v>
       </c>
-      <c r="AC21" s="2">
+      <c r="AD21" s="2">
         <v>4000</v>
       </c>
-      <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
-      <c r="AJ21" s="2" t="s">
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
-      <c r="AN21" s="2" t="s">
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2"/>
       <c r="AR21" s="2"/>
-      <c r="AS21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2">
+        <v>1</v>
+      </c>
       <c r="AU21" s="2"/>
-      <c r="AV21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW21" s="2"/>
-      <c r="AX21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY21" s="2"/>
-      <c r="AZ21" s="2" t="s">
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="2"/>
+      <c r="BA21" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.35">
       <c r="F30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="6"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0F6DF0-FD25-41F9-A284-F189C4B2AC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0284E54D-D8E9-4449-8771-6C580AFD0E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="145">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -446,6 +446,12 @@
   </si>
   <si>
     <t>New Order Amount</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_065</t>
+  </si>
+  <si>
+    <t>S_UpdatedTotalAmount</t>
   </si>
 </sst>
 </file>
@@ -2146,11 +2152,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BD30"/>
+  <dimension ref="A1:BE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AQ1" sqref="AQ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2185,15 +2191,17 @@
     <col min="34" max="34" width="19.1796875" customWidth="1"/>
     <col min="35" max="35" width="14.08984375" customWidth="1"/>
     <col min="36" max="36" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="37" max="46" width="8.7265625" customWidth="1"/>
-    <col min="47" max="47" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="48" max="52" width="8.7265625" customWidth="1"/>
-    <col min="53" max="53" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="54" max="56" width="8.7265625" customWidth="1"/>
-    <col min="57" max="16384" width="8.7265625" hidden="1"/>
+    <col min="37" max="42" width="8.7265625" customWidth="1"/>
+    <col min="43" max="43" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="44" max="47" width="8.7265625" customWidth="1"/>
+    <col min="48" max="48" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="49" max="53" width="8.7265625" customWidth="1"/>
+    <col min="54" max="54" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="55" max="57" width="8.7265625" customWidth="1"/>
+    <col min="58" max="16384" width="8.7265625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2321,40 +2329,43 @@
         <v>63</v>
       </c>
       <c r="AQ1" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AS1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AT1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AU1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AV1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AW1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AW1" s="8" t="s">
+      <c r="AX1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="AY1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="AZ1" s="8" t="s">
+      <c r="BA1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BA1" s="8" t="s">
+      <c r="BB1" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
@@ -2438,24 +2449,25 @@
       <c r="AQ2" s="2"/>
       <c r="AR2" s="2"/>
       <c r="AS2" s="2"/>
-      <c r="AT2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2">
+        <v>1</v>
+      </c>
       <c r="AV2" s="2"/>
-      <c r="AW2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="2" t="s">
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>76</v>
       </c>
@@ -2535,22 +2547,23 @@
       <c r="AQ3" s="2"/>
       <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
-      <c r="AT3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2">
+        <v>1</v>
+      </c>
       <c r="AV3" s="2"/>
-      <c r="AW3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX3" s="2"/>
-      <c r="AY3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BA3" s="2"/>
-    </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="BB3" s="2"/>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>78</v>
       </c>
@@ -2613,29 +2626,30 @@
       <c r="AP4" s="2">
         <v>1</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2">
         <v>3000</v>
       </c>
-      <c r="AR4" s="2">
+      <c r="AS4" s="2">
         <v>4000</v>
       </c>
-      <c r="AS4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="2"/>
+      <c r="AT4" s="2">
+        <v>1</v>
+      </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
-      <c r="AW4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="2"/>
-      <c r="AY4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BA4" s="2"/>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="BB4" s="2"/>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>80</v>
       </c>
@@ -2698,29 +2712,30 @@
       <c r="AP5" s="2">
         <v>1</v>
       </c>
-      <c r="AQ5" s="2">
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2">
         <v>3000</v>
       </c>
-      <c r="AR5" s="2">
+      <c r="AS5" s="2">
         <v>4000</v>
       </c>
-      <c r="AS5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT5" s="2"/>
+      <c r="AT5" s="2">
+        <v>1</v>
+      </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
-      <c r="AW5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX5" s="2"/>
-      <c r="AY5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BA5" s="2"/>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="BB5" s="2"/>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>81</v>
       </c>
@@ -2786,31 +2801,32 @@
       <c r="AP6" s="2">
         <v>0.1</v>
       </c>
-      <c r="AQ6" s="2">
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2">
         <v>3000</v>
       </c>
-      <c r="AR6" s="2">
+      <c r="AS6" s="2">
         <v>4000</v>
       </c>
-      <c r="AS6" s="2">
-        <v>1</v>
-      </c>
       <c r="AT6" s="2">
         <v>1</v>
       </c>
-      <c r="AU6" s="2"/>
+      <c r="AU6" s="2">
+        <v>1</v>
+      </c>
       <c r="AV6" s="2"/>
-      <c r="AW6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="2"/>
-      <c r="AY6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="2"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BA6" s="2"/>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="BB6" s="2"/>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>82</v>
       </c>
@@ -2877,31 +2893,32 @@
       <c r="AP7" s="2">
         <v>0.1</v>
       </c>
-      <c r="AQ7" s="2">
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2">
         <v>3000</v>
       </c>
-      <c r="AR7" s="2">
+      <c r="AS7" s="2">
         <v>4000</v>
       </c>
-      <c r="AS7" s="2">
-        <v>1</v>
-      </c>
       <c r="AT7" s="2">
         <v>1</v>
       </c>
-      <c r="AU7" s="2"/>
+      <c r="AU7" s="2">
+        <v>1</v>
+      </c>
       <c r="AV7" s="2"/>
-      <c r="AW7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX7" s="2"/>
-      <c r="AY7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="2"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BA7" s="2"/>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="BB7" s="2"/>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>83</v>
       </c>
@@ -2966,35 +2983,36 @@
       <c r="AP8" s="2">
         <v>0.1</v>
       </c>
-      <c r="AQ8" s="2">
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2">
         <v>3000</v>
       </c>
-      <c r="AR8" s="2">
+      <c r="AS8" s="2">
         <v>4000</v>
       </c>
-      <c r="AS8" s="2">
-        <v>1</v>
-      </c>
       <c r="AT8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="2">
         <v>0.01</v>
       </c>
-      <c r="AU8" s="11">
+      <c r="AV8" s="11">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AV8" s="2" t="s">
+      <c r="AW8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AW8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX8" s="2"/>
-      <c r="AY8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="2"/>
+      <c r="AX8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BA8" s="2"/>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="BB8" s="2"/>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>134</v>
       </c>
@@ -3059,35 +3077,36 @@
       <c r="AP9" s="2">
         <v>0.1</v>
       </c>
-      <c r="AQ9" s="2">
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2">
         <v>3000</v>
       </c>
-      <c r="AR9" s="2">
+      <c r="AS9" s="2">
         <v>4000</v>
       </c>
-      <c r="AS9" s="2">
-        <v>1</v>
-      </c>
       <c r="AT9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="2">
         <v>0.01</v>
       </c>
-      <c r="AU9" s="11">
+      <c r="AV9" s="11">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AV9" s="2" t="s">
+      <c r="AW9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AW9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX9" s="2"/>
-      <c r="AY9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="2"/>
+      <c r="AX9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BA9" s="2"/>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="BB9" s="2"/>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>136</v>
       </c>
@@ -3152,35 +3171,36 @@
       <c r="AP10" s="2">
         <v>0.1</v>
       </c>
-      <c r="AQ10" s="2">
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2">
         <v>3000</v>
       </c>
-      <c r="AR10" s="2">
+      <c r="AS10" s="2">
         <v>4000</v>
       </c>
-      <c r="AS10" s="2">
-        <v>1</v>
-      </c>
       <c r="AT10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="2">
         <v>0.01</v>
       </c>
-      <c r="AU10" s="11">
+      <c r="AV10" s="11">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AV10" s="2" t="s">
+      <c r="AW10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AW10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX10" s="2"/>
-      <c r="AY10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="2"/>
+      <c r="AX10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BA10" s="2"/>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="BB10" s="2"/>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>137</v>
       </c>
@@ -3245,35 +3265,36 @@
       <c r="AP11" s="2">
         <v>0.1</v>
       </c>
-      <c r="AQ11" s="2">
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2">
         <v>3000</v>
       </c>
-      <c r="AR11" s="2">
+      <c r="AS11" s="2">
         <v>4000</v>
       </c>
-      <c r="AS11" s="2">
-        <v>1</v>
-      </c>
       <c r="AT11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="2">
         <v>0.01</v>
       </c>
-      <c r="AU11" s="12">
+      <c r="AV11" s="12">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AV11" s="2" t="s">
+      <c r="AW11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AW11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX11" s="2"/>
-      <c r="AY11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="2"/>
+      <c r="AX11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BA11" s="2"/>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="BB11" s="2"/>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>123</v>
       </c>
@@ -3363,24 +3384,25 @@
       <c r="AQ12" s="2"/>
       <c r="AR12" s="2"/>
       <c r="AS12" s="2"/>
-      <c r="AT12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2">
+        <v>1</v>
+      </c>
       <c r="AV12" s="2"/>
-      <c r="AW12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX12" s="2"/>
-      <c r="AY12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="2"/>
-      <c r="BA12" s="2" t="s">
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>127</v>
       </c>
@@ -3470,24 +3492,25 @@
       <c r="AQ13" s="2"/>
       <c r="AR13" s="2"/>
       <c r="AS13" s="2"/>
-      <c r="AT13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2">
+        <v>1</v>
+      </c>
       <c r="AV13" s="2"/>
-      <c r="AW13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX13" s="2"/>
-      <c r="AY13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="2"/>
-      <c r="BA13" s="2" t="s">
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>129</v>
       </c>
@@ -3548,31 +3571,32 @@
       <c r="AP14" s="2">
         <v>20</v>
       </c>
-      <c r="AQ14" s="2">
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2">
         <v>0.2</v>
       </c>
-      <c r="AR14" s="2">
+      <c r="AS14" s="2">
         <v>0.5</v>
       </c>
-      <c r="AS14" s="2">
-        <v>1</v>
-      </c>
       <c r="AT14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="2">
         <v>20</v>
       </c>
-      <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
-      <c r="AW14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX14" s="2"/>
-      <c r="AY14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BA14" s="2"/>
-    </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="BB14" s="2"/>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>131</v>
       </c>
@@ -3633,31 +3657,32 @@
       <c r="AP15" s="2">
         <v>20</v>
       </c>
-      <c r="AQ15" s="2">
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2">
         <v>0.2</v>
       </c>
-      <c r="AR15" s="2">
+      <c r="AS15" s="2">
         <v>0.5</v>
       </c>
-      <c r="AS15" s="2">
-        <v>1</v>
-      </c>
       <c r="AT15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="2">
         <v>20</v>
       </c>
-      <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
-      <c r="AW15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX15" s="2"/>
-      <c r="AY15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BA15" s="2"/>
-    </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="BB15" s="2"/>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>132</v>
       </c>
@@ -3739,24 +3764,25 @@
       <c r="AQ16" s="2"/>
       <c r="AR16" s="2"/>
       <c r="AS16" s="2"/>
-      <c r="AT16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU16" s="2"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2">
+        <v>1</v>
+      </c>
       <c r="AV16" s="2"/>
-      <c r="AW16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX16" s="2"/>
-      <c r="AY16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="2"/>
-      <c r="BA16" s="2" t="s">
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>135</v>
       </c>
@@ -3838,24 +3864,25 @@
       <c r="AQ17" s="2"/>
       <c r="AR17" s="2"/>
       <c r="AS17" s="2"/>
-      <c r="AT17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU17" s="2"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2">
+        <v>1</v>
+      </c>
       <c r="AV17" s="2"/>
-      <c r="AW17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX17" s="2"/>
-      <c r="AY17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ17" s="2"/>
-      <c r="BA17" s="2" t="s">
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>138</v>
       </c>
@@ -3937,24 +3964,25 @@
       <c r="AQ18" s="2"/>
       <c r="AR18" s="2"/>
       <c r="AS18" s="2"/>
-      <c r="AT18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU18" s="2"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2">
+        <v>1</v>
+      </c>
       <c r="AV18" s="2"/>
-      <c r="AW18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX18" s="2"/>
-      <c r="AY18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ18" s="2"/>
-      <c r="BA18" s="2" t="s">
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY18" s="2"/>
+      <c r="AZ18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>139</v>
       </c>
@@ -4036,24 +4064,25 @@
       <c r="AQ19" s="2"/>
       <c r="AR19" s="2"/>
       <c r="AS19" s="2"/>
-      <c r="AT19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2">
+        <v>1</v>
+      </c>
       <c r="AV19" s="2"/>
-      <c r="AW19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX19" s="2"/>
-      <c r="AY19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ19" s="2"/>
-      <c r="BA19" s="2" t="s">
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>140</v>
       </c>
@@ -4135,24 +4164,25 @@
       <c r="AQ20" s="2"/>
       <c r="AR20" s="2"/>
       <c r="AS20" s="2"/>
-      <c r="AT20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2">
+        <v>1</v>
+      </c>
       <c r="AV20" s="2"/>
-      <c r="AW20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX20" s="2"/>
-      <c r="AY20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ20" s="2"/>
-      <c r="BA20" s="2" t="s">
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY20" s="2"/>
+      <c r="AZ20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>141</v>
       </c>
@@ -4236,24 +4266,113 @@
       <c r="AQ21" s="2"/>
       <c r="AR21" s="2"/>
       <c r="AS21" s="2"/>
-      <c r="AT21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2">
+        <v>1</v>
+      </c>
       <c r="AV21" s="2"/>
-      <c r="AW21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX21" s="2"/>
-      <c r="AY21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ21" s="2"/>
-      <c r="BA21" s="2" t="s">
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ22" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR22" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS22" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="2"/>
+      <c r="BB22" s="2"/>
+    </row>
+    <row r="30" spans="1:54" x14ac:dyDescent="0.35">
       <c r="F30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="6"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0284E54D-D8E9-4449-8771-6C580AFD0E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F915782B-93DF-4B05-845E-F25267D1EBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="148">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -452,6 +452,15 @@
   </si>
   <si>
     <t>S_UpdatedTotalAmount</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_067</t>
+  </si>
+  <si>
+    <t>UpdatedSliceSize</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_069</t>
   </si>
 </sst>
 </file>
@@ -2152,11 +2161,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BE30"/>
+  <dimension ref="A1:BF30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AQ1" sqref="AQ1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2195,13 +2204,14 @@
     <col min="43" max="43" width="21.08984375" bestFit="1" customWidth="1"/>
     <col min="44" max="47" width="8.7265625" customWidth="1"/>
     <col min="48" max="48" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="49" max="53" width="8.7265625" customWidth="1"/>
-    <col min="54" max="54" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="55" max="57" width="8.7265625" customWidth="1"/>
-    <col min="58" max="16384" width="8.7265625" hidden="1"/>
+    <col min="49" max="49" width="10.36328125" customWidth="1"/>
+    <col min="50" max="54" width="8.7265625" customWidth="1"/>
+    <col min="55" max="55" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="56" max="58" width="8.7265625" customWidth="1"/>
+    <col min="59" max="16384" width="8.7265625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:55" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2347,25 +2357,28 @@
         <v>67</v>
       </c>
       <c r="AW1" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="AY1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AZ1" s="8" t="s">
+      <c r="BA1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="BA1" s="8" t="s">
+      <c r="BB1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BB1" s="8" t="s">
+      <c r="BC1" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
@@ -2455,19 +2468,20 @@
       </c>
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
-      <c r="AX2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA2" s="2"/>
-      <c r="BB2" s="2" t="s">
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>76</v>
       </c>
@@ -2553,17 +2567,18 @@
       </c>
       <c r="AV3" s="2"/>
       <c r="AW3" s="2"/>
-      <c r="AX3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY3" s="2"/>
-      <c r="AZ3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BB3" s="2"/>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="BC3" s="2"/>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>78</v>
       </c>
@@ -2639,17 +2654,18 @@
       <c r="AU4" s="2"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
-      <c r="AX4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY4" s="2"/>
-      <c r="AZ4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BB4" s="2"/>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="BC4" s="2"/>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>80</v>
       </c>
@@ -2725,17 +2741,18 @@
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
-      <c r="AX5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY5" s="2"/>
-      <c r="AZ5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BB5" s="2"/>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="BC5" s="2"/>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>81</v>
       </c>
@@ -2816,17 +2833,18 @@
       </c>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
-      <c r="AX6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY6" s="2"/>
-      <c r="AZ6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="2"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BB6" s="2"/>
-    </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="BC6" s="2"/>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>82</v>
       </c>
@@ -2908,17 +2926,18 @@
       </c>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
-      <c r="AX7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY7" s="2"/>
-      <c r="AZ7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BB7" s="2"/>
-    </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="BC7" s="2"/>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>83</v>
       </c>
@@ -2999,20 +3018,21 @@
       <c r="AV8" s="11">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AW8" s="2" t="s">
+      <c r="AW8" s="11"/>
+      <c r="AX8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AX8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY8" s="2"/>
-      <c r="AZ8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="2"/>
+      <c r="AY8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BB8" s="2"/>
-    </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="BC8" s="2"/>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>134</v>
       </c>
@@ -3093,20 +3113,21 @@
       <c r="AV9" s="11">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AW9" s="2" t="s">
+      <c r="AW9" s="11"/>
+      <c r="AX9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AX9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY9" s="2"/>
-      <c r="AZ9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="2"/>
+      <c r="AY9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BB9" s="2"/>
-    </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="BC9" s="2"/>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>136</v>
       </c>
@@ -3187,20 +3208,21 @@
       <c r="AV10" s="11">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AW10" s="2" t="s">
+      <c r="AW10" s="11"/>
+      <c r="AX10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AX10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY10" s="2"/>
-      <c r="AZ10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="2"/>
+      <c r="AY10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BB10" s="2"/>
-    </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="BC10" s="2"/>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>137</v>
       </c>
@@ -3281,20 +3303,21 @@
       <c r="AV11" s="12">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AW11" s="2" t="s">
+      <c r="AW11" s="12"/>
+      <c r="AX11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AX11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY11" s="2"/>
-      <c r="AZ11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA11" s="2"/>
+      <c r="AY11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BB11" s="2"/>
-    </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="BC11" s="2"/>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>123</v>
       </c>
@@ -3390,19 +3413,20 @@
       </c>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
-      <c r="AX12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY12" s="2"/>
-      <c r="AZ12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="2"/>
-      <c r="BB12" s="2" t="s">
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>127</v>
       </c>
@@ -3498,19 +3522,20 @@
       </c>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
-      <c r="AX13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY13" s="2"/>
-      <c r="AZ13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA13" s="2"/>
-      <c r="BB13" s="2" t="s">
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>129</v>
       </c>
@@ -3586,17 +3611,18 @@
       </c>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
-      <c r="AX14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY14" s="2"/>
-      <c r="AZ14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BB14" s="2"/>
-    </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="BC14" s="2"/>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>131</v>
       </c>
@@ -3672,17 +3698,18 @@
       </c>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
-      <c r="AX15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY15" s="2"/>
-      <c r="AZ15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ15" s="2"/>
+      <c r="BA15" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BB15" s="2"/>
-    </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="BC15" s="2"/>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>132</v>
       </c>
@@ -3770,19 +3797,20 @@
       </c>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
-      <c r="AX16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY16" s="2"/>
-      <c r="AZ16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA16" s="2"/>
-      <c r="BB16" s="2" t="s">
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>135</v>
       </c>
@@ -3870,19 +3898,20 @@
       </c>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
-      <c r="AX17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY17" s="2"/>
-      <c r="AZ17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA17" s="2"/>
-      <c r="BB17" s="2" t="s">
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ17" s="2"/>
+      <c r="BA17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>138</v>
       </c>
@@ -3970,19 +3999,20 @@
       </c>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
-      <c r="AX18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY18" s="2"/>
-      <c r="AZ18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA18" s="2"/>
-      <c r="BB18" s="2" t="s">
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ18" s="2"/>
+      <c r="BA18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>139</v>
       </c>
@@ -4070,19 +4100,20 @@
       </c>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
-      <c r="AX19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY19" s="2"/>
-      <c r="AZ19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA19" s="2"/>
-      <c r="BB19" s="2" t="s">
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>140</v>
       </c>
@@ -4170,19 +4201,20 @@
       </c>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
-      <c r="AX20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY20" s="2"/>
-      <c r="AZ20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA20" s="2"/>
-      <c r="BB20" s="2" t="s">
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ20" s="2"/>
+      <c r="BA20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>141</v>
       </c>
@@ -4272,19 +4304,20 @@
       </c>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
-      <c r="AX21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY21" s="2"/>
-      <c r="AZ21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA21" s="2"/>
-      <c r="BB21" s="2" t="s">
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ21" s="2"/>
+      <c r="BA21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>143</v>
       </c>
@@ -4362,17 +4395,218 @@
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
-      <c r="AX22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY22" s="2"/>
-      <c r="AZ22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ22" s="2"/>
+      <c r="BA22" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BB22" s="2"/>
-    </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="BC22" s="2"/>
+    </row>
+    <row r="23" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP23" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS23" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU23" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AV23" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AW23" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AX23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ23" s="2"/>
+      <c r="BA23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
+    </row>
+    <row r="24" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S24" s="2">
+        <v>20</v>
+      </c>
+      <c r="T24" s="2">
+        <v>50</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V24" s="2"/>
+      <c r="W24" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ24" s="2"/>
+      <c r="BA24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:55" x14ac:dyDescent="0.35">
       <c r="F30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="6"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F915782B-93DF-4B05-845E-F25267D1EBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5C7FF3-0E06-452C-B1FA-8043E48F4D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="152">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -461,6 +461,18 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_069</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_070</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_071</t>
+  </si>
+  <si>
+    <t>T_UpdatedQuantity</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_072</t>
   </si>
 </sst>
 </file>
@@ -2161,11 +2173,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BF30"/>
+  <dimension ref="A1:BG30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AV4" sqref="AV4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2203,15 +2215,16 @@
     <col min="37" max="42" width="8.7265625" customWidth="1"/>
     <col min="43" max="43" width="21.08984375" bestFit="1" customWidth="1"/>
     <col min="44" max="47" width="8.7265625" customWidth="1"/>
-    <col min="48" max="48" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.36328125" customWidth="1"/>
-    <col min="50" max="54" width="8.7265625" customWidth="1"/>
-    <col min="55" max="55" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="56" max="58" width="8.7265625" customWidth="1"/>
-    <col min="59" max="16384" width="8.7265625" hidden="1"/>
+    <col min="48" max="48" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.36328125" customWidth="1"/>
+    <col min="51" max="55" width="8.7265625" customWidth="1"/>
+    <col min="56" max="56" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="57" max="59" width="8.7265625" customWidth="1"/>
+    <col min="60" max="16384" width="8.7265625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2354,31 +2367,34 @@
         <v>14</v>
       </c>
       <c r="AV1" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AW1" s="8" t="s">
+      <c r="AX1" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="AY1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AZ1" s="8" t="s">
+      <c r="BA1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="BA1" s="8" t="s">
+      <c r="BB1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="BB1" s="8" t="s">
+      <c r="BC1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BC1" s="8" t="s">
+      <c r="BD1" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
@@ -2469,19 +2485,20 @@
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
       <c r="AX2" s="2"/>
-      <c r="AY2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="2" t="s">
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>76</v>
       </c>
@@ -2568,17 +2585,18 @@
       <c r="AV3" s="2"/>
       <c r="AW3" s="2"/>
       <c r="AX3" s="2"/>
-      <c r="AY3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="2"/>
-      <c r="BA3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BC3" s="2"/>
-    </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="BD3" s="2"/>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>78</v>
       </c>
@@ -2655,17 +2673,18 @@
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
-      <c r="AY4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="2"/>
-      <c r="BA4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BC4" s="2"/>
-    </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="BD4" s="2"/>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>80</v>
       </c>
@@ -2742,17 +2761,18 @@
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
-      <c r="AY5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ5" s="2"/>
-      <c r="BA5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BC5" s="2"/>
-    </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="BD5" s="2"/>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>81</v>
       </c>
@@ -2831,20 +2851,23 @@
       <c r="AU6" s="2">
         <v>1</v>
       </c>
-      <c r="AV6" s="2"/>
+      <c r="AV6" s="2">
+        <v>2</v>
+      </c>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
-      <c r="AY6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ6" s="2"/>
-      <c r="BA6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="2"/>
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BC6" s="2"/>
-    </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="BD6" s="2"/>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>82</v>
       </c>
@@ -2927,17 +2950,18 @@
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
       <c r="AX7" s="2"/>
-      <c r="AY7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ7" s="2"/>
-      <c r="BA7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="2"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BC7" s="2"/>
-    </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="BD7" s="2"/>
+    </row>
+    <row r="8" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>83</v>
       </c>
@@ -3015,24 +3039,25 @@
       <c r="AU8" s="2">
         <v>0.01</v>
       </c>
-      <c r="AV8" s="11">
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="11">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AW8" s="11"/>
-      <c r="AX8" s="2" t="s">
+      <c r="AX8" s="11"/>
+      <c r="AY8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AY8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ8" s="2"/>
-      <c r="BA8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="2"/>
+      <c r="AZ8" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BC8" s="2"/>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="BD8" s="2"/>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>134</v>
       </c>
@@ -3110,24 +3135,25 @@
       <c r="AU9" s="2">
         <v>0.01</v>
       </c>
-      <c r="AV9" s="11">
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="11">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AW9" s="11"/>
-      <c r="AX9" s="2" t="s">
+      <c r="AX9" s="11"/>
+      <c r="AY9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AY9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ9" s="2"/>
-      <c r="BA9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="2"/>
+      <c r="AZ9" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BC9" s="2"/>
-    </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="BD9" s="2"/>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>136</v>
       </c>
@@ -3205,24 +3231,25 @@
       <c r="AU10" s="2">
         <v>0.01</v>
       </c>
-      <c r="AV10" s="11">
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="11">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AW10" s="11"/>
-      <c r="AX10" s="2" t="s">
+      <c r="AX10" s="11"/>
+      <c r="AY10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AY10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ10" s="2"/>
-      <c r="BA10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB10" s="2"/>
+      <c r="AZ10" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BC10" s="2"/>
-    </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="BD10" s="2"/>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>137</v>
       </c>
@@ -3300,24 +3327,25 @@
       <c r="AU11" s="2">
         <v>0.01</v>
       </c>
-      <c r="AV11" s="12">
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="12">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AW11" s="12"/>
-      <c r="AX11" s="2" t="s">
+      <c r="AX11" s="12"/>
+      <c r="AY11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AY11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ11" s="2"/>
-      <c r="BA11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB11" s="2"/>
+      <c r="AZ11" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BC11" s="2"/>
-    </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="BD11" s="2"/>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>123</v>
       </c>
@@ -3414,19 +3442,20 @@
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
       <c r="AX12" s="2"/>
-      <c r="AY12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ12" s="2"/>
-      <c r="BA12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB12" s="2"/>
-      <c r="BC12" s="2" t="s">
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>127</v>
       </c>
@@ -3523,19 +3552,20 @@
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
       <c r="AX13" s="2"/>
-      <c r="AY13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ13" s="2"/>
-      <c r="BA13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="2"/>
-      <c r="BC13" s="2" t="s">
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>129</v>
       </c>
@@ -3612,17 +3642,18 @@
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
       <c r="AX14" s="2"/>
-      <c r="AY14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ14" s="2"/>
-      <c r="BA14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BC14" s="2"/>
-    </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="BD14" s="2"/>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>131</v>
       </c>
@@ -3699,17 +3730,18 @@
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
       <c r="AX15" s="2"/>
-      <c r="AY15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ15" s="2"/>
-      <c r="BA15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB15" s="2"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BC15" s="2"/>
-    </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="BD15" s="2"/>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>132</v>
       </c>
@@ -3798,19 +3830,20 @@
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
       <c r="AX16" s="2"/>
-      <c r="AY16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ16" s="2"/>
-      <c r="BA16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB16" s="2"/>
-      <c r="BC16" s="2" t="s">
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="2"/>
+      <c r="BD16" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>135</v>
       </c>
@@ -3899,19 +3932,20 @@
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
       <c r="AX17" s="2"/>
-      <c r="AY17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ17" s="2"/>
-      <c r="BA17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB17" s="2"/>
-      <c r="BC17" s="2" t="s">
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="2"/>
+      <c r="BD17" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>138</v>
       </c>
@@ -4000,19 +4034,20 @@
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
       <c r="AX18" s="2"/>
-      <c r="AY18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ18" s="2"/>
-      <c r="BA18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB18" s="2"/>
-      <c r="BC18" s="2" t="s">
+      <c r="AY18" s="2"/>
+      <c r="AZ18" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>139</v>
       </c>
@@ -4101,19 +4136,20 @@
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
       <c r="AX19" s="2"/>
-      <c r="AY19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ19" s="2"/>
-      <c r="BA19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB19" s="2"/>
-      <c r="BC19" s="2" t="s">
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>140</v>
       </c>
@@ -4202,19 +4238,20 @@
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
       <c r="AX20" s="2"/>
-      <c r="AY20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ20" s="2"/>
-      <c r="BA20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB20" s="2"/>
-      <c r="BC20" s="2" t="s">
+      <c r="AY20" s="2"/>
+      <c r="AZ20" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>141</v>
       </c>
@@ -4305,19 +4342,20 @@
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
       <c r="AX21" s="2"/>
-      <c r="AY21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ21" s="2"/>
-      <c r="BA21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB21" s="2"/>
-      <c r="BC21" s="2" t="s">
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="2"/>
+      <c r="BD21" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>143</v>
       </c>
@@ -4396,17 +4434,18 @@
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
       <c r="AX22" s="2"/>
-      <c r="AY22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ22" s="2"/>
-      <c r="BA22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB22" s="2"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA22" s="2"/>
+      <c r="BB22" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BC22" s="2"/>
-    </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="BD22" s="2"/>
+    </row>
+    <row r="23" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>145</v>
       </c>
@@ -4484,26 +4523,27 @@
       <c r="AU23" s="2">
         <v>0.01</v>
       </c>
-      <c r="AV23" s="11">
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="11">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AW23" s="11">
+      <c r="AX23" s="11">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="AX23" s="2" t="s">
+      <c r="AY23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AY23" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ23" s="2"/>
-      <c r="BA23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB23" s="2"/>
+      <c r="AZ23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="BC23" s="2"/>
-    </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="BD23" s="2"/>
+    </row>
+    <row r="24" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>147</v>
       </c>
@@ -4594,19 +4634,303 @@
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
       <c r="AX24" s="2"/>
-      <c r="AY24" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ24" s="2"/>
-      <c r="BA24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB24" s="2"/>
-      <c r="BC24" s="2" t="s">
+      <c r="AY24" s="2"/>
+      <c r="AZ24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC24" s="2"/>
+      <c r="BD24" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ25" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR25" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS25" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="2"/>
+      <c r="BD25" s="2"/>
+    </row>
+    <row r="26" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS26" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU26" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AV26" s="2"/>
+      <c r="AW26" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX26" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AY26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ26" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA26" s="2"/>
+      <c r="BB26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="2"/>
+      <c r="BD26" s="2"/>
+    </row>
+    <row r="27" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP27" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS27" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV27" s="2">
+        <v>2</v>
+      </c>
+      <c r="AW27" s="2"/>
+      <c r="AX27" s="2"/>
+      <c r="AY27" s="2"/>
+      <c r="AZ27" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA27" s="2"/>
+      <c r="BB27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC27" s="2"/>
+      <c r="BD27" s="2"/>
+    </row>
+    <row r="30" spans="1:56" x14ac:dyDescent="0.35">
       <c r="F30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="6"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5C7FF3-0E06-452C-B1FA-8043E48F4D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4BB598-C388-4A6D-B3FB-CC2CE2EEA095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="154">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -473,6 +473,12 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_072</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_020</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_021</t>
   </si>
 </sst>
 </file>
@@ -2173,11 +2179,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BG30"/>
+  <dimension ref="A1:BG32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AV4" sqref="AV4"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2396,7 +2402,7 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>85</v>
@@ -2500,7 +2506,7 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>85</v>
@@ -2530,12 +2536,12 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="S3" s="2">
         <v>20</v>
@@ -2543,7 +2549,9 @@
       <c r="T3" s="2">
         <v>50</v>
       </c>
-      <c r="U3" s="2"/>
+      <c r="U3" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V3" s="2"/>
       <c r="W3" s="7">
         <v>0.1</v>
@@ -2556,10 +2564,10 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="AD3" s="2">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
@@ -2573,7 +2581,9 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
+      <c r="AO3" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2"/>
       <c r="AR3" s="2"/>
@@ -2594,11 +2604,13 @@
         <v>0</v>
       </c>
       <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
+      <c r="BD3" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>85</v>
@@ -2621,55 +2633,69 @@
         <v>71</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M4" s="2">
         <v>1</v>
       </c>
       <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="O4" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
+      <c r="R4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="2">
+        <v>20</v>
+      </c>
+      <c r="T4" s="2">
+        <v>50</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
+      <c r="W4" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
+      <c r="AC4" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
+      <c r="AK4" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" s="2"/>
       <c r="AO4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
-      <c r="AR4" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS4" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2">
+        <v>1</v>
+      </c>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
@@ -2682,11 +2708,13 @@
         <v>0</v>
       </c>
       <c r="BC4" s="2"/>
-      <c r="BD4" s="2"/>
+      <c r="BD4" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>85</v>
@@ -2709,55 +2737,65 @@
         <v>71</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M5" s="2">
         <v>1</v>
       </c>
       <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="O5" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
+      <c r="R5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S5" s="2">
+        <v>20</v>
+      </c>
+      <c r="T5" s="2">
+        <v>50</v>
+      </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
+      <c r="W5" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
+      <c r="AC5" s="2">
+        <v>3100</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>3900</v>
+      </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
+      <c r="AK5" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
-      <c r="AO5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AP5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
-      <c r="AR5" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS5" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2">
+        <v>1</v>
+      </c>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
@@ -2774,7 +2812,7 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>85</v>
@@ -2788,6 +2826,7 @@
       <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="6"/>
@@ -2796,17 +2835,13 @@
         <v>71</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="M6" s="2">
         <v>1</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -2836,7 +2871,7 @@
         <v>32</v>
       </c>
       <c r="AP6" s="2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AQ6" s="2"/>
       <c r="AR6" s="2">
@@ -2848,12 +2883,8 @@
       <c r="AT6" s="2">
         <v>1</v>
       </c>
-      <c r="AU6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="2">
-        <v>2</v>
-      </c>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
       <c r="AY6" s="2"/>
@@ -2869,7 +2900,7 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>85</v>
@@ -2892,17 +2923,13 @@
         <v>71</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="M7" s="2">
         <v>1</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -2932,7 +2959,7 @@
         <v>77</v>
       </c>
       <c r="AP7" s="2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AQ7" s="2"/>
       <c r="AR7" s="2">
@@ -2944,9 +2971,7 @@
       <c r="AT7" s="2">
         <v>1</v>
       </c>
-      <c r="AU7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
       <c r="AX7" s="2"/>
@@ -2963,13 +2988,13 @@
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>29</v>
@@ -2977,7 +3002,6 @@
       <c r="E8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="6"/>
@@ -2986,13 +3010,17 @@
         <v>71</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="M8" s="2">
         <v>1</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -3017,9 +3045,7 @@
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
-      <c r="AN8" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AN8" s="2"/>
       <c r="AO8" s="2" t="s">
         <v>32</v>
       </c>
@@ -3037,16 +3063,14 @@
         <v>1</v>
       </c>
       <c r="AU8" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="AV8" s="2"/>
-      <c r="AW8" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AX8" s="11"/>
-      <c r="AY8" s="2" t="s">
-        <v>85</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AV8" s="2">
+        <v>2</v>
+      </c>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
       <c r="AZ8" s="2">
         <v>1</v>
       </c>
@@ -3059,13 +3083,13 @@
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>29</v>
@@ -3082,13 +3106,17 @@
         <v>71</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="M9" s="2">
         <v>1</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -3113,9 +3141,7 @@
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
-      <c r="AN9" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AN9" s="2"/>
       <c r="AO9" s="2" t="s">
         <v>77</v>
       </c>
@@ -3133,16 +3159,12 @@
         <v>1</v>
       </c>
       <c r="AU9" s="2">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="AV9" s="2"/>
-      <c r="AW9" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AX9" s="11"/>
-      <c r="AY9" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
       <c r="AZ9" s="2">
         <v>1</v>
       </c>
@@ -3155,7 +3177,7 @@
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>85</v>
@@ -3210,7 +3232,7 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="AO10" s="2" t="s">
         <v>32</v>
@@ -3251,7 +3273,7 @@
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>85</v>
@@ -3328,10 +3350,10 @@
         <v>0.01</v>
       </c>
       <c r="AV11" s="2"/>
-      <c r="AW11" s="12">
+      <c r="AW11" s="11">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AX11" s="12"/>
+      <c r="AX11" s="11"/>
       <c r="AY11" s="2" t="s">
         <v>85</v>
       </c>
@@ -3347,102 +3369,90 @@
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I12" s="6">
-        <v>25</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="2"/>
       <c r="K12" s="2" t="s">
         <v>71</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M12" s="2">
         <v>1</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S12" s="2">
-        <v>20</v>
-      </c>
-      <c r="T12" s="2">
-        <v>50</v>
-      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-      <c r="W12" s="7">
-        <v>20</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>1200</v>
-      </c>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
-      <c r="AC12" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
-      <c r="AK12" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
-      <c r="AN12" s="2"/>
+      <c r="AN12" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="AO12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP12" s="2"/>
+      <c r="AP12" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ12" s="2"/>
-      <c r="AR12" s="2"/>
-      <c r="AS12" s="2"/>
-      <c r="AT12" s="2"/>
+      <c r="AR12" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS12" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT12" s="2">
+        <v>1</v>
+      </c>
       <c r="AU12" s="2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="AV12" s="2"/>
-      <c r="AW12" s="2"/>
-      <c r="AX12" s="2"/>
-      <c r="AY12" s="2"/>
+      <c r="AW12" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX12" s="11"/>
+      <c r="AY12" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ12" s="2">
         <v>1</v>
       </c>
@@ -3451,108 +3461,94 @@
         <v>0</v>
       </c>
       <c r="BC12" s="2"/>
-      <c r="BD12" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD12" s="2"/>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" s="6">
-        <v>25</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
         <v>71</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M13" s="2">
         <v>1</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="S13" s="2">
-        <v>20</v>
-      </c>
-      <c r="T13" s="2">
-        <v>50</v>
-      </c>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
-      <c r="W13" s="7">
-        <v>50</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>1</v>
-      </c>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
-      <c r="AC13" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
-      <c r="AK13" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
-      <c r="AN13" s="2"/>
+      <c r="AN13" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AO13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP13" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ13" s="2"/>
-      <c r="AR13" s="2"/>
-      <c r="AS13" s="2"/>
-      <c r="AT13" s="2"/>
+      <c r="AR13" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS13" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT13" s="2">
+        <v>1</v>
+      </c>
       <c r="AU13" s="2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="AV13" s="2"/>
-      <c r="AW13" s="2"/>
-      <c r="AX13" s="2"/>
-      <c r="AY13" s="2"/>
+      <c r="AW13" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX13" s="12"/>
+      <c r="AY13" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ13" s="2">
         <v>1</v>
       </c>
@@ -3561,13 +3557,11 @@
         <v>0</v>
       </c>
       <c r="BC13" s="2"/>
-      <c r="BD13" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD13" s="2"/>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
@@ -3575,69 +3569,89 @@
       <c r="C14" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="2" t="s">
         <v>119</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="6">
+        <v>25</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="K14" s="2" t="s">
         <v>71</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M14" s="2">
         <v>1</v>
       </c>
       <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="O14" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
+      <c r="R14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S14" s="2">
+        <v>20</v>
+      </c>
+      <c r="T14" s="2">
+        <v>50</v>
+      </c>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
+      <c r="W14" s="7">
+        <v>20</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>1200</v>
+      </c>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
+      <c r="AC14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>0.5</v>
+      </c>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
-      <c r="AK14" s="2"/>
+      <c r="AK14" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
       <c r="AO14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP14" s="2">
-        <v>20</v>
-      </c>
+      <c r="AP14" s="2"/>
       <c r="AQ14" s="2"/>
-      <c r="AR14" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AS14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AT14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
       <c r="AU14" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
@@ -3651,11 +3665,13 @@
         <v>0</v>
       </c>
       <c r="BC14" s="2"/>
-      <c r="BD14" s="2"/>
+      <c r="BD14" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
@@ -3663,69 +3679,89 @@
       <c r="C15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="2" t="s">
         <v>119</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="6">
+        <v>25</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="K15" s="2" t="s">
         <v>71</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M15" s="2">
         <v>1</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="O15" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
+      <c r="R15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S15" s="2">
+        <v>20</v>
+      </c>
+      <c r="T15" s="2">
+        <v>50</v>
+      </c>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
+      <c r="W15" s="7">
+        <v>50</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>1</v>
+      </c>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
+      <c r="AC15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>0.5</v>
+      </c>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
-      <c r="AK15" s="2"/>
+      <c r="AK15" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" s="2"/>
       <c r="AO15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AP15" s="2">
-        <v>20</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
-      <c r="AR15" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AS15" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AT15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
       <c r="AU15" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
@@ -3739,93 +3775,83 @@
         <v>0</v>
       </c>
       <c r="BC15" s="2"/>
-      <c r="BD15" s="2"/>
+      <c r="BD15" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="6"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
         <v>71</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M16" s="2">
         <v>1</v>
       </c>
       <c r="N16" s="2"/>
-      <c r="O16" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S16" s="2">
-        <v>20</v>
-      </c>
-      <c r="T16" s="2">
-        <v>50</v>
-      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-      <c r="W16" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X16" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
-      <c r="AC16" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
-      <c r="AK16" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" s="2"/>
       <c r="AO16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP16" s="2"/>
+      <c r="AP16" s="2">
+        <v>20</v>
+      </c>
       <c r="AQ16" s="2"/>
-      <c r="AR16" s="2"/>
-      <c r="AS16" s="2"/>
-      <c r="AT16" s="2"/>
+      <c r="AR16" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AS16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AT16" s="2">
+        <v>1</v>
+      </c>
       <c r="AU16" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
@@ -3839,95 +3865,81 @@
         <v>0</v>
       </c>
       <c r="BC16" s="2"/>
-      <c r="BD16" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD16" s="2"/>
     </row>
     <row r="17" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="6"/>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
         <v>71</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M17" s="2">
         <v>1</v>
       </c>
       <c r="N17" s="2"/>
-      <c r="O17" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S17" s="2">
-        <v>20</v>
-      </c>
-      <c r="T17" s="2">
-        <v>50</v>
-      </c>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
-      <c r="W17" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
-      <c r="AC17" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD17" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
-      <c r="AK17" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" s="2"/>
       <c r="AO17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP17" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AP17" s="2">
+        <v>20</v>
+      </c>
       <c r="AQ17" s="2"/>
-      <c r="AR17" s="2"/>
-      <c r="AS17" s="2"/>
-      <c r="AT17" s="2"/>
+      <c r="AR17" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AS17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AT17" s="2">
+        <v>1</v>
+      </c>
       <c r="AU17" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
@@ -3941,13 +3953,11 @@
         <v>0</v>
       </c>
       <c r="BC17" s="2"/>
-      <c r="BD17" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD17" s="2"/>
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>85</v>
@@ -4049,7 +4059,7 @@
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>85</v>
@@ -4151,7 +4161,7 @@
     </row>
     <row r="20" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>85</v>
@@ -4253,7 +4263,7 @@
     </row>
     <row r="21" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>85</v>
@@ -4296,9 +4306,7 @@
       <c r="T21" s="2">
         <v>50</v>
       </c>
-      <c r="U21" s="2">
-        <v>0.2</v>
-      </c>
+      <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="7">
         <v>0.1</v>
@@ -4357,7 +4365,7 @@
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>85</v>
@@ -4380,57 +4388,67 @@
         <v>71</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M22" s="2">
         <v>1</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="O22" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
+      <c r="R22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S22" s="2">
+        <v>20</v>
+      </c>
+      <c r="T22" s="2">
+        <v>50</v>
+      </c>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
+      <c r="W22" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
+      <c r="AC22" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
-      <c r="AK22" s="2"/>
+      <c r="AK22" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" s="2"/>
       <c r="AO22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ22" s="2">
-        <v>2</v>
-      </c>
-      <c r="AR22" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS22" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2">
+        <v>1</v>
+      </c>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
       <c r="AX22" s="2"/>
@@ -4443,17 +4461,19 @@
         <v>0</v>
       </c>
       <c r="BC22" s="2"/>
-      <c r="BD22" s="2"/>
+      <c r="BD22" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>29</v>
@@ -4470,69 +4490,73 @@
         <v>71</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="M23" s="2">
         <v>1</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="O23" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
+      <c r="R23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S23" s="2">
+        <v>20</v>
+      </c>
+      <c r="T23" s="2">
+        <v>50</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
+      <c r="W23" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
+      <c r="AC23" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
-      <c r="AK23" s="2"/>
+      <c r="AK23" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
-      <c r="AN23" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AN23" s="2"/>
       <c r="AO23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP23" s="2">
-        <v>0.1</v>
-      </c>
+      <c r="AP23" s="2"/>
       <c r="AQ23" s="2"/>
-      <c r="AR23" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS23" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT23" s="2">
-        <v>1</v>
-      </c>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
       <c r="AU23" s="2">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="AV23" s="2"/>
-      <c r="AW23" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AX23" s="11">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AY23" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
       <c r="AZ23" s="2">
         <v>1</v>
       </c>
@@ -4541,11 +4565,13 @@
         <v>0</v>
       </c>
       <c r="BC23" s="2"/>
-      <c r="BD23" s="2"/>
+      <c r="BD23" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>85</v>
@@ -4568,69 +4594,57 @@
         <v>71</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M24" s="2">
         <v>1</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S24" s="2">
-        <v>20</v>
-      </c>
-      <c r="T24" s="2">
-        <v>50</v>
-      </c>
-      <c r="U24" s="2">
-        <v>0.2</v>
-      </c>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
       <c r="V24" s="2"/>
-      <c r="W24" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X24" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
-      <c r="AC24" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
-      <c r="AK24" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" s="2"/>
       <c r="AO24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP24" s="2"/>
-      <c r="AQ24" s="2"/>
-      <c r="AR24" s="2"/>
-      <c r="AS24" s="2"/>
-      <c r="AT24" s="2"/>
-      <c r="AU24" s="2">
-        <v>1</v>
-      </c>
+      <c r="AP24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR24" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS24" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
       <c r="AX24" s="2"/>
@@ -4643,19 +4657,17 @@
         <v>0</v>
       </c>
       <c r="BC24" s="2"/>
-      <c r="BD24" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD24" s="2"/>
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>29</v>
@@ -4672,7 +4684,7 @@
         <v>71</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M25" s="2">
         <v>1</v>
@@ -4703,16 +4715,16 @@
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
-      <c r="AN25" s="2"/>
+      <c r="AN25" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AO25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AP25" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ25" s="2">
-        <v>2</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="AQ25" s="2"/>
       <c r="AR25" s="2">
         <v>3000</v>
       </c>
@@ -4722,11 +4734,19 @@
       <c r="AT25" s="2">
         <v>1</v>
       </c>
-      <c r="AU25" s="2"/>
+      <c r="AU25" s="2">
+        <v>0.01</v>
+      </c>
       <c r="AV25" s="2"/>
-      <c r="AW25" s="2"/>
-      <c r="AX25" s="2"/>
-      <c r="AY25" s="2"/>
+      <c r="AW25" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX25" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AY25" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ25" s="2">
         <v>1</v>
       </c>
@@ -4739,13 +4759,13 @@
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>29</v>
@@ -4762,69 +4782,73 @@
         <v>71</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="M26" s="2">
         <v>1</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="O26" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
+      <c r="R26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S26" s="2">
+        <v>20</v>
+      </c>
+      <c r="T26" s="2">
+        <v>50</v>
+      </c>
+      <c r="U26" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
+      <c r="W26" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
+      <c r="AC26" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
-      <c r="AK26" s="2"/>
+      <c r="AK26" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
-      <c r="AN26" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AN26" s="2"/>
       <c r="AO26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP26" s="2">
-        <v>0.1</v>
-      </c>
+      <c r="AP26" s="2"/>
       <c r="AQ26" s="2"/>
-      <c r="AR26" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS26" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT26" s="2">
-        <v>1</v>
-      </c>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="2"/>
       <c r="AU26" s="2">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="AV26" s="2"/>
-      <c r="AW26" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AX26" s="11">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AY26" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="2"/>
       <c r="AZ26" s="2">
         <v>1</v>
       </c>
@@ -4833,11 +4857,13 @@
         <v>0</v>
       </c>
       <c r="BC26" s="2"/>
-      <c r="BD26" s="2"/>
+      <c r="BD26" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>85</v>
@@ -4851,6 +4877,7 @@
       <c r="E27" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="6"/>
@@ -4859,17 +4886,13 @@
         <v>71</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="M27" s="2">
         <v>1</v>
       </c>
-      <c r="N27" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
@@ -4899,9 +4922,11 @@
         <v>32</v>
       </c>
       <c r="AP27" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AQ27" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="AQ27" s="2">
+        <v>2</v>
+      </c>
       <c r="AR27" s="2">
         <v>3000</v>
       </c>
@@ -4911,12 +4936,8 @@
       <c r="AT27" s="2">
         <v>1</v>
       </c>
-      <c r="AU27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV27" s="2">
-        <v>2</v>
-      </c>
+      <c r="AU27" s="2"/>
+      <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
       <c r="AX27" s="2"/>
       <c r="AY27" s="2"/>
@@ -4930,11 +4951,204 @@
       <c r="BC27" s="2"/>
       <c r="BD27" s="2"/>
     </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="F30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="2"/>
+    <row r="28" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP28" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS28" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU28" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AV28" s="2"/>
+      <c r="AW28" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX28" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AY28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ28" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA28" s="2"/>
+      <c r="BB28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="2"/>
+      <c r="BD28" s="2"/>
+    </row>
+    <row r="29" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP29" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS29" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV29" s="2">
+        <v>2</v>
+      </c>
+      <c r="AW29" s="2"/>
+      <c r="AX29" s="2"/>
+      <c r="AY29" s="2"/>
+      <c r="AZ29" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA29" s="2"/>
+      <c r="BB29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC29" s="2"/>
+      <c r="BD29" s="2"/>
+    </row>
+    <row r="32" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="F32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4BB598-C388-4A6D-B3FB-CC2CE2EEA095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5963C8A5-8892-45B0-8B7A-B57D8036D406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="155">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_021</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_022</t>
   </si>
 </sst>
 </file>
@@ -2179,11 +2182,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BG32"/>
+  <dimension ref="A1:BG33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O3" sqref="O3"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2610,7 +2613,7 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>85</v>
@@ -2714,7 +2717,7 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>85</v>
@@ -2744,12 +2747,12 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="S5" s="2">
         <v>20</v>
@@ -2757,7 +2760,9 @@
       <c r="T5" s="2">
         <v>50</v>
       </c>
-      <c r="U5" s="2"/>
+      <c r="U5" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V5" s="2"/>
       <c r="W5" s="7">
         <v>0.1</v>
@@ -2770,10 +2775,10 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="AD5" s="2">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
@@ -2787,7 +2792,9 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
-      <c r="AO5" s="2"/>
+      <c r="AO5" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
@@ -2808,11 +2815,13 @@
         <v>0</v>
       </c>
       <c r="BC5" s="2"/>
-      <c r="BD5" s="2"/>
+      <c r="BD5" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>85</v>
@@ -2835,55 +2844,65 @@
         <v>71</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M6" s="2">
         <v>1</v>
       </c>
       <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="O6" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
+      <c r="R6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S6" s="2">
+        <v>20</v>
+      </c>
+      <c r="T6" s="2">
+        <v>50</v>
+      </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
+      <c r="W6" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
+      <c r="AC6" s="2">
+        <v>3100</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>3900</v>
+      </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
+      <c r="AK6" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" s="2"/>
-      <c r="AO6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
-      <c r="AR6" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS6" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2">
+        <v>1</v>
+      </c>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
@@ -2900,7 +2919,7 @@
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>85</v>
@@ -2956,7 +2975,7 @@
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
       <c r="AO7" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="AP7" s="2">
         <v>1</v>
@@ -2988,7 +3007,7 @@
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>85</v>
@@ -3002,6 +3021,7 @@
       <c r="E8" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="6"/>
@@ -3010,17 +3030,13 @@
         <v>71</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="M8" s="2">
         <v>1</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -3047,10 +3063,10 @@
       <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="AP8" s="2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2">
@@ -3062,12 +3078,8 @@
       <c r="AT8" s="2">
         <v>1</v>
       </c>
-      <c r="AU8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV8" s="2">
-        <v>2</v>
-      </c>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
       <c r="AX8" s="2"/>
       <c r="AY8" s="2"/>
@@ -3083,7 +3095,7 @@
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>85</v>
@@ -3097,7 +3109,6 @@
       <c r="E9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="6"/>
@@ -3115,7 +3126,7 @@
         <v>108</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -3143,7 +3154,7 @@
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
       <c r="AO9" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="AP9" s="2">
         <v>0.1</v>
@@ -3161,7 +3172,9 @@
       <c r="AU9" s="2">
         <v>1</v>
       </c>
-      <c r="AV9" s="2"/>
+      <c r="AV9" s="2">
+        <v>2</v>
+      </c>
       <c r="AW9" s="2"/>
       <c r="AX9" s="2"/>
       <c r="AY9" s="2"/>
@@ -3177,13 +3190,13 @@
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>29</v>
@@ -3200,13 +3213,17 @@
         <v>71</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="M10" s="2">
         <v>1</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="N10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -3231,11 +3248,9 @@
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
-      <c r="AN10" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AN10" s="2"/>
       <c r="AO10" s="2" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="AP10" s="2">
         <v>0.1</v>
@@ -3251,16 +3266,12 @@
         <v>1</v>
       </c>
       <c r="AU10" s="2">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="AV10" s="2"/>
-      <c r="AW10" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AX10" s="11"/>
-      <c r="AY10" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
       <c r="AZ10" s="2">
         <v>1</v>
       </c>
@@ -3273,7 +3284,7 @@
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>85</v>
@@ -3331,7 +3342,7 @@
         <v>32</v>
       </c>
       <c r="AO11" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="AP11" s="2">
         <v>0.1</v>
@@ -3369,7 +3380,7 @@
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>85</v>
@@ -3424,10 +3435,10 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO12" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="AO12" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="AP12" s="2">
         <v>0.1</v>
@@ -3465,7 +3476,7 @@
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>85</v>
@@ -3520,10 +3531,10 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" s="2" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="AO13" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="AP13" s="2">
         <v>0.1</v>
@@ -3542,10 +3553,10 @@
         <v>0.01</v>
       </c>
       <c r="AV13" s="2"/>
-      <c r="AW13" s="12">
+      <c r="AW13" s="11">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AX13" s="12"/>
+      <c r="AX13" s="11"/>
       <c r="AY13" s="2" t="s">
         <v>85</v>
       </c>
@@ -3561,102 +3572,90 @@
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I14" s="6">
-        <v>25</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="2"/>
       <c r="K14" s="2" t="s">
         <v>71</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M14" s="2">
         <v>1</v>
       </c>
       <c r="N14" s="2"/>
-      <c r="O14" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S14" s="2">
-        <v>20</v>
-      </c>
-      <c r="T14" s="2">
-        <v>50</v>
-      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-      <c r="W14" s="7">
-        <v>20</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z14" s="2">
-        <v>1200</v>
-      </c>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
-      <c r="AC14" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
-      <c r="AK14" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
-      <c r="AN14" s="2"/>
+      <c r="AN14" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AO14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP14" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AP14" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ14" s="2"/>
-      <c r="AR14" s="2"/>
-      <c r="AS14" s="2"/>
-      <c r="AT14" s="2"/>
+      <c r="AR14" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS14" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT14" s="2">
+        <v>1</v>
+      </c>
       <c r="AU14" s="2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="AV14" s="2"/>
-      <c r="AW14" s="2"/>
-      <c r="AX14" s="2"/>
-      <c r="AY14" s="2"/>
+      <c r="AW14" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX14" s="12"/>
+      <c r="AY14" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ14" s="2">
         <v>1</v>
       </c>
@@ -3665,13 +3664,11 @@
         <v>0</v>
       </c>
       <c r="BC14" s="2"/>
-      <c r="BD14" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD14" s="2"/>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
@@ -3710,7 +3707,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="S15" s="2">
         <v>20</v>
@@ -3721,7 +3718,7 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="X15" s="2" t="s">
         <v>73</v>
@@ -3730,7 +3727,7 @@
         <v>124</v>
       </c>
       <c r="Z15" s="2">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
@@ -3781,7 +3778,7 @@
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -3789,69 +3786,89 @@
       <c r="C16" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="2" t="s">
         <v>119</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="6">
+        <v>25</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="K16" s="2" t="s">
         <v>71</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M16" s="2">
         <v>1</v>
       </c>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="O16" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
+      <c r="R16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S16" s="2">
+        <v>20</v>
+      </c>
+      <c r="T16" s="2">
+        <v>50</v>
+      </c>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
+      <c r="W16" s="7">
+        <v>50</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>1</v>
+      </c>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
+      <c r="AC16" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>0.5</v>
+      </c>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
-      <c r="AK16" s="2"/>
+      <c r="AK16" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" s="2"/>
       <c r="AO16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP16" s="2">
-        <v>20</v>
-      </c>
+      <c r="AP16" s="2"/>
       <c r="AQ16" s="2"/>
-      <c r="AR16" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AS16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AT16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
       <c r="AU16" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
@@ -3865,11 +3882,13 @@
         <v>0</v>
       </c>
       <c r="BC16" s="2"/>
-      <c r="BD16" s="2"/>
+      <c r="BD16" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="17" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -3923,7 +3942,7 @@
       <c r="AM17" s="2"/>
       <c r="AN17" s="2"/>
       <c r="AO17" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="AP17" s="2">
         <v>20</v>
@@ -3957,89 +3976,77 @@
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="6"/>
+      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2" t="s">
         <v>71</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M18" s="2">
         <v>1</v>
       </c>
       <c r="N18" s="2"/>
-      <c r="O18" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S18" s="2">
-        <v>20</v>
-      </c>
-      <c r="T18" s="2">
-        <v>50</v>
-      </c>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-      <c r="W18" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
-      <c r="AC18" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD18" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
-      <c r="AK18" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" s="2"/>
       <c r="AO18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP18" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AP18" s="2">
+        <v>20</v>
+      </c>
       <c r="AQ18" s="2"/>
-      <c r="AR18" s="2"/>
-      <c r="AS18" s="2"/>
-      <c r="AT18" s="2"/>
+      <c r="AR18" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AS18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>1</v>
+      </c>
       <c r="AU18" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
@@ -4053,13 +4060,11 @@
         <v>0</v>
       </c>
       <c r="BC18" s="2"/>
-      <c r="BD18" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD18" s="2"/>
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>85</v>
@@ -4161,7 +4166,7 @@
     </row>
     <row r="20" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>85</v>
@@ -4263,7 +4268,7 @@
     </row>
     <row r="21" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>85</v>
@@ -4365,7 +4370,7 @@
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>85</v>
@@ -4467,7 +4472,7 @@
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>85</v>
@@ -4510,9 +4515,7 @@
       <c r="T23" s="2">
         <v>50</v>
       </c>
-      <c r="U23" s="2">
-        <v>0.2</v>
-      </c>
+      <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="7">
         <v>0.1</v>
@@ -4571,7 +4574,7 @@
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>85</v>
@@ -4594,57 +4597,69 @@
         <v>71</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M24" s="2">
         <v>1</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="O24" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
+      <c r="R24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S24" s="2">
+        <v>20</v>
+      </c>
+      <c r="T24" s="2">
+        <v>50</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
+      <c r="W24" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
+      <c r="AC24" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
-      <c r="AK24" s="2"/>
+      <c r="AK24" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" s="2"/>
       <c r="AO24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP24" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ24" s="2">
-        <v>2</v>
-      </c>
-      <c r="AR24" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS24" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT24" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2">
+        <v>1</v>
+      </c>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2"/>
       <c r="AX24" s="2"/>
@@ -4657,17 +4672,19 @@
         <v>0</v>
       </c>
       <c r="BC24" s="2"/>
-      <c r="BD24" s="2"/>
+      <c r="BD24" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>29</v>
@@ -4684,7 +4701,7 @@
         <v>71</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M25" s="2">
         <v>1</v>
@@ -4715,16 +4732,16 @@
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
-      <c r="AN25" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AN25" s="2"/>
       <c r="AO25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AP25" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AQ25" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="AQ25" s="2">
+        <v>2</v>
+      </c>
       <c r="AR25" s="2">
         <v>3000</v>
       </c>
@@ -4734,19 +4751,11 @@
       <c r="AT25" s="2">
         <v>1</v>
       </c>
-      <c r="AU25" s="2">
-        <v>0.01</v>
-      </c>
+      <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
-      <c r="AW25" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AX25" s="11">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AY25" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
       <c r="AZ25" s="2">
         <v>1</v>
       </c>
@@ -4759,13 +4768,13 @@
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>29</v>
@@ -4782,73 +4791,69 @@
         <v>71</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M26" s="2">
         <v>1</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-      <c r="R26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S26" s="2">
-        <v>20</v>
-      </c>
-      <c r="T26" s="2">
-        <v>50</v>
-      </c>
-      <c r="U26" s="2">
-        <v>0.2</v>
-      </c>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
       <c r="V26" s="2"/>
-      <c r="W26" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X26" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
-      <c r="AC26" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD26" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
-      <c r="AK26" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
-      <c r="AN26" s="2"/>
+      <c r="AN26" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AO26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP26" s="2"/>
+      <c r="AP26" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ26" s="2"/>
-      <c r="AR26" s="2"/>
-      <c r="AS26" s="2"/>
-      <c r="AT26" s="2"/>
+      <c r="AR26" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS26" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT26" s="2">
+        <v>1</v>
+      </c>
       <c r="AU26" s="2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="AV26" s="2"/>
-      <c r="AW26" s="2"/>
-      <c r="AX26" s="2"/>
-      <c r="AY26" s="2"/>
+      <c r="AW26" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX26" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AY26" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ26" s="2">
         <v>1</v>
       </c>
@@ -4857,13 +4862,11 @@
         <v>0</v>
       </c>
       <c r="BC26" s="2"/>
-      <c r="BD26" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD26" s="2"/>
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>85</v>
@@ -4886,57 +4889,69 @@
         <v>71</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M27" s="2">
         <v>1</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="O27" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
+      <c r="R27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S27" s="2">
+        <v>20</v>
+      </c>
+      <c r="T27" s="2">
+        <v>50</v>
+      </c>
+      <c r="U27" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
+      <c r="W27" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="2"/>
+      <c r="AC27" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="2"/>
-      <c r="AK27" s="2"/>
+      <c r="AK27" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" s="2"/>
       <c r="AO27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ27" s="2">
-        <v>2</v>
-      </c>
-      <c r="AR27" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS27" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="2"/>
+      <c r="AT27" s="2"/>
+      <c r="AU27" s="2">
+        <v>1</v>
+      </c>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
       <c r="AX27" s="2"/>
@@ -4949,17 +4964,19 @@
         <v>0</v>
       </c>
       <c r="BC27" s="2"/>
-      <c r="BD27" s="2"/>
+      <c r="BD27" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>29</v>
@@ -4976,7 +4993,7 @@
         <v>71</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M28" s="2">
         <v>1</v>
@@ -5007,16 +5024,16 @@
       <c r="AK28" s="2"/>
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
-      <c r="AN28" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AN28" s="2"/>
       <c r="AO28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AP28" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AQ28" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="AQ28" s="2">
+        <v>2</v>
+      </c>
       <c r="AR28" s="2">
         <v>3000</v>
       </c>
@@ -5026,19 +5043,11 @@
       <c r="AT28" s="2">
         <v>1</v>
       </c>
-      <c r="AU28" s="2">
-        <v>0.01</v>
-      </c>
+      <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
-      <c r="AW28" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AX28" s="11">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AY28" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="2"/>
       <c r="AZ28" s="2">
         <v>1</v>
       </c>
@@ -5051,13 +5060,13 @@
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>29</v>
@@ -5065,6 +5074,7 @@
       <c r="E29" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="6"/>
@@ -5073,17 +5083,13 @@
         <v>71</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="M29" s="2">
         <v>1</v>
       </c>
-      <c r="N29" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
@@ -5108,7 +5114,9 @@
       <c r="AK29" s="2"/>
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
-      <c r="AN29" s="2"/>
+      <c r="AN29" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AO29" s="2" t="s">
         <v>32</v>
       </c>
@@ -5126,14 +5134,18 @@
         <v>1</v>
       </c>
       <c r="AU29" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV29" s="2">
-        <v>2</v>
-      </c>
-      <c r="AW29" s="2"/>
-      <c r="AX29" s="2"/>
-      <c r="AY29" s="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="AV29" s="2"/>
+      <c r="AW29" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX29" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AY29" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ29" s="2">
         <v>1</v>
       </c>
@@ -5144,11 +5156,106 @@
       <c r="BC29" s="2"/>
       <c r="BD29" s="2"/>
     </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="F32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="2"/>
+    <row r="30" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="2"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AQ30" s="2"/>
+      <c r="AR30" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS30" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV30" s="2">
+        <v>2</v>
+      </c>
+      <c r="AW30" s="2"/>
+      <c r="AX30" s="2"/>
+      <c r="AY30" s="2"/>
+      <c r="AZ30" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA30" s="2"/>
+      <c r="BB30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC30" s="2"/>
+      <c r="BD30" s="2"/>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5963C8A5-8892-45B0-8B7A-B57D8036D406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD822DD2-A4C0-40DB-B58D-D7E5EED0E5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="158">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -482,6 +482,15 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_022</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_023</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_059</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_061</t>
   </si>
 </sst>
 </file>
@@ -2182,11 +2191,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BG33"/>
+  <dimension ref="A1:BG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2717,7 +2726,7 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>85</v>
@@ -2821,7 +2830,7 @@
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>85</v>
@@ -2851,12 +2860,12 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="S6" s="2">
         <v>20</v>
@@ -2864,7 +2873,9 @@
       <c r="T6" s="2">
         <v>50</v>
       </c>
-      <c r="U6" s="2"/>
+      <c r="U6" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V6" s="2"/>
       <c r="W6" s="7">
         <v>0.1</v>
@@ -2877,10 +2888,10 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="AD6" s="2">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
@@ -2894,7 +2905,9 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" s="2"/>
-      <c r="AO6" s="2"/>
+      <c r="AO6" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
       <c r="AR6" s="2"/>
@@ -2915,11 +2928,13 @@
         <v>0</v>
       </c>
       <c r="BC6" s="2"/>
-      <c r="BD6" s="2"/>
+      <c r="BD6" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>85</v>
@@ -2942,55 +2957,65 @@
         <v>71</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M7" s="2">
         <v>1</v>
       </c>
       <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="O7" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
+      <c r="R7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S7" s="2">
+        <v>20</v>
+      </c>
+      <c r="T7" s="2">
+        <v>50</v>
+      </c>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
+      <c r="W7" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
+      <c r="AC7" s="2">
+        <v>3100</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>3900</v>
+      </c>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
+      <c r="AK7" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
-      <c r="AO7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
-      <c r="AR7" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS7" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2">
+        <v>1</v>
+      </c>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
       <c r="AX7" s="2"/>
@@ -3007,7 +3032,7 @@
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>85</v>
@@ -3063,7 +3088,7 @@
       <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="AP8" s="2">
         <v>1</v>
@@ -3095,7 +3120,7 @@
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>85</v>
@@ -3109,6 +3134,7 @@
       <c r="E9" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="6"/>
@@ -3117,17 +3143,13 @@
         <v>71</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="M9" s="2">
         <v>1</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -3154,10 +3176,10 @@
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
       <c r="AO9" s="2" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="AP9" s="2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AQ9" s="2"/>
       <c r="AR9" s="2">
@@ -3169,12 +3191,8 @@
       <c r="AT9" s="2">
         <v>1</v>
       </c>
-      <c r="AU9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV9" s="2">
-        <v>2</v>
-      </c>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
       <c r="AX9" s="2"/>
       <c r="AY9" s="2"/>
@@ -3190,7 +3208,7 @@
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>85</v>
@@ -3204,7 +3222,6 @@
       <c r="E10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="6"/>
@@ -3222,7 +3239,7 @@
         <v>108</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -3250,7 +3267,7 @@
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
       <c r="AO10" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="AP10" s="2">
         <v>0.1</v>
@@ -3268,7 +3285,9 @@
       <c r="AU10" s="2">
         <v>1</v>
       </c>
-      <c r="AV10" s="2"/>
+      <c r="AV10" s="2">
+        <v>2</v>
+      </c>
       <c r="AW10" s="2"/>
       <c r="AX10" s="2"/>
       <c r="AY10" s="2"/>
@@ -3284,13 +3303,13 @@
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>29</v>
@@ -3307,13 +3326,17 @@
         <v>71</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="M11" s="2">
         <v>1</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="N11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -3338,11 +3361,9 @@
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
-      <c r="AN11" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AN11" s="2"/>
       <c r="AO11" s="2" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="AP11" s="2">
         <v>0.1</v>
@@ -3358,16 +3379,12 @@
         <v>1</v>
       </c>
       <c r="AU11" s="2">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="AV11" s="2"/>
-      <c r="AW11" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AX11" s="11"/>
-      <c r="AY11" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
       <c r="AZ11" s="2">
         <v>1</v>
       </c>
@@ -3380,7 +3397,7 @@
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>85</v>
@@ -3438,7 +3455,7 @@
         <v>32</v>
       </c>
       <c r="AO12" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="AP12" s="2">
         <v>0.1</v>
@@ -3476,7 +3493,7 @@
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>85</v>
@@ -3531,10 +3548,10 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO13" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="AO13" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="AP13" s="2">
         <v>0.1</v>
@@ -3572,7 +3589,7 @@
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>85</v>
@@ -3627,10 +3644,10 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" s="2" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="AO14" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="AP14" s="2">
         <v>0.1</v>
@@ -3649,10 +3666,10 @@
         <v>0.01</v>
       </c>
       <c r="AV14" s="2"/>
-      <c r="AW14" s="12">
+      <c r="AW14" s="11">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AX14" s="12"/>
+      <c r="AX14" s="11"/>
       <c r="AY14" s="2" t="s">
         <v>85</v>
       </c>
@@ -3668,102 +3685,90 @@
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" s="6">
-        <v>25</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
         <v>71</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M15" s="2">
         <v>1</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S15" s="2">
-        <v>20</v>
-      </c>
-      <c r="T15" s="2">
-        <v>50</v>
-      </c>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="7">
-        <v>20</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>1200</v>
-      </c>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
-      <c r="AC15" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
-      <c r="AK15" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
-      <c r="AN15" s="2"/>
+      <c r="AN15" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AO15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP15" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AP15" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ15" s="2"/>
-      <c r="AR15" s="2"/>
-      <c r="AS15" s="2"/>
-      <c r="AT15" s="2"/>
+      <c r="AR15" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS15" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT15" s="2">
+        <v>1</v>
+      </c>
       <c r="AU15" s="2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="AV15" s="2"/>
-      <c r="AW15" s="2"/>
-      <c r="AX15" s="2"/>
-      <c r="AY15" s="2"/>
+      <c r="AW15" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX15" s="12"/>
+      <c r="AY15" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ15" s="2">
         <v>1</v>
       </c>
@@ -3772,13 +3777,11 @@
         <v>0</v>
       </c>
       <c r="BC15" s="2"/>
-      <c r="BD15" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD15" s="2"/>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -3817,7 +3820,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="S16" s="2">
         <v>20</v>
@@ -3828,7 +3831,7 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="X16" s="2" t="s">
         <v>73</v>
@@ -3837,7 +3840,7 @@
         <v>124</v>
       </c>
       <c r="Z16" s="2">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
@@ -3888,7 +3891,7 @@
     </row>
     <row r="17" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -3896,69 +3899,89 @@
       <c r="C17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="2" t="s">
         <v>119</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" s="6">
+        <v>25</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="K17" s="2" t="s">
         <v>71</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M17" s="2">
         <v>1</v>
       </c>
       <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="O17" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
+      <c r="R17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S17" s="2">
+        <v>20</v>
+      </c>
+      <c r="T17" s="2">
+        <v>50</v>
+      </c>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
+      <c r="W17" s="7">
+        <v>50</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>1</v>
+      </c>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
+      <c r="AC17" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>0.5</v>
+      </c>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
-      <c r="AK17" s="2"/>
+      <c r="AK17" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" s="2"/>
       <c r="AO17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP17" s="2">
-        <v>20</v>
-      </c>
+      <c r="AP17" s="2"/>
       <c r="AQ17" s="2"/>
-      <c r="AR17" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AS17" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AT17" s="2">
-        <v>1</v>
-      </c>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
       <c r="AU17" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2"/>
@@ -3972,11 +3995,13 @@
         <v>0</v>
       </c>
       <c r="BC17" s="2"/>
-      <c r="BD17" s="2"/>
+      <c r="BD17" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -4030,7 +4055,7 @@
       <c r="AM18" s="2"/>
       <c r="AN18" s="2"/>
       <c r="AO18" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="AP18" s="2">
         <v>20</v>
@@ -4064,89 +4089,77 @@
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="6"/>
+      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
         <v>71</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M19" s="2">
         <v>1</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="O19" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S19" s="2">
-        <v>20</v>
-      </c>
-      <c r="T19" s="2">
-        <v>50</v>
-      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
-      <c r="W19" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
-      <c r="AC19" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD19" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
-      <c r="AK19" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP19" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AP19" s="2">
+        <v>20</v>
+      </c>
       <c r="AQ19" s="2"/>
-      <c r="AR19" s="2"/>
-      <c r="AS19" s="2"/>
-      <c r="AT19" s="2"/>
+      <c r="AR19" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AS19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AT19" s="2">
+        <v>1</v>
+      </c>
       <c r="AU19" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
@@ -4160,13 +4173,11 @@
         <v>0</v>
       </c>
       <c r="BC19" s="2"/>
-      <c r="BD19" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD19" s="2"/>
     </row>
     <row r="20" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>85</v>
@@ -4268,7 +4279,7 @@
     </row>
     <row r="21" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>85</v>
@@ -4370,7 +4381,7 @@
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>85</v>
@@ -4472,7 +4483,7 @@
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>85</v>
@@ -4574,7 +4585,7 @@
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>85</v>
@@ -4617,9 +4628,7 @@
       <c r="T24" s="2">
         <v>50</v>
       </c>
-      <c r="U24" s="2">
-        <v>0.2</v>
-      </c>
+      <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="7">
         <v>0.1</v>
@@ -4678,7 +4687,7 @@
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>85</v>
@@ -4701,57 +4710,67 @@
         <v>71</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M25" s="2">
         <v>1</v>
       </c>
       <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="O25" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
+      <c r="R25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S25" s="2">
+        <v>20</v>
+      </c>
+      <c r="T25" s="2">
+        <v>50</v>
+      </c>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
+      <c r="W25" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
+      <c r="AC25" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
-      <c r="AK25" s="2"/>
+      <c r="AK25" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" s="2"/>
       <c r="AO25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP25" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ25" s="2">
-        <v>2</v>
-      </c>
-      <c r="AR25" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS25" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT25" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2">
+        <v>1</v>
+      </c>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
       <c r="AX25" s="2"/>
@@ -4764,17 +4783,19 @@
         <v>0</v>
       </c>
       <c r="BC25" s="2"/>
-      <c r="BD25" s="2"/>
+      <c r="BD25" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>29</v>
@@ -4791,69 +4812,71 @@
         <v>71</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="M26" s="2">
         <v>1</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="O26" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
+      <c r="R26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S26" s="2">
+        <v>20</v>
+      </c>
+      <c r="T26" s="2">
+        <v>50</v>
+      </c>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
+      <c r="W26" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
+      <c r="AC26" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
-      <c r="AK26" s="2"/>
+      <c r="AK26" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
-      <c r="AN26" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AN26" s="2"/>
       <c r="AO26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP26" s="2">
-        <v>0.1</v>
-      </c>
+      <c r="AP26" s="2"/>
       <c r="AQ26" s="2"/>
-      <c r="AR26" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS26" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT26" s="2">
-        <v>1</v>
-      </c>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="2"/>
       <c r="AU26" s="2">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="AV26" s="2"/>
-      <c r="AW26" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AX26" s="11">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AY26" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="2"/>
       <c r="AZ26" s="2">
         <v>1</v>
       </c>
@@ -4862,11 +4885,13 @@
         <v>0</v>
       </c>
       <c r="BC26" s="2"/>
-      <c r="BD26" s="2"/>
+      <c r="BD26" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>85</v>
@@ -4970,7 +4995,7 @@
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>85</v>
@@ -5060,7 +5085,7 @@
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>85</v>
@@ -5158,7 +5183,7 @@
     </row>
     <row r="30" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>85</v>
@@ -5172,6 +5197,7 @@
       <c r="E30" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="6"/>
@@ -5180,64 +5206,70 @@
         <v>71</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="M30" s="2">
         <v>1</v>
       </c>
-      <c r="N30" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
+      <c r="R30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S30" s="2">
+        <v>20</v>
+      </c>
+      <c r="T30" s="2">
+        <v>50</v>
+      </c>
+      <c r="U30" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
+      <c r="W30" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
+      <c r="AC30" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
       <c r="AJ30" s="2"/>
-      <c r="AK30" s="2"/>
+      <c r="AK30" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL30" s="2"/>
       <c r="AM30" s="2"/>
       <c r="AN30" s="2"/>
       <c r="AO30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP30" s="2">
-        <v>0.1</v>
-      </c>
+      <c r="AP30" s="2"/>
       <c r="AQ30" s="2"/>
-      <c r="AR30" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS30" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT30" s="2">
-        <v>1</v>
-      </c>
+      <c r="AR30" s="2"/>
+      <c r="AS30" s="2"/>
+      <c r="AT30" s="2"/>
       <c r="AU30" s="2">
         <v>1</v>
       </c>
-      <c r="AV30" s="2">
-        <v>2</v>
-      </c>
+      <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
       <c r="AX30" s="2"/>
       <c r="AY30" s="2"/>
@@ -5249,13 +5281,298 @@
         <v>0</v>
       </c>
       <c r="BC30" s="2"/>
-      <c r="BD30" s="2"/>
-    </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="F33" s="2"/>
+      <c r="BD30" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="2"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ31" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR31" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS31" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU31" s="2"/>
+      <c r="AV31" s="2"/>
+      <c r="AW31" s="2"/>
+      <c r="AX31" s="2"/>
+      <c r="AY31" s="2"/>
+      <c r="AZ31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA31" s="2"/>
+      <c r="BB31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC31" s="2"/>
+      <c r="BD31" s="2"/>
+    </row>
+    <row r="32" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="2"/>
+      <c r="AM32" s="2"/>
+      <c r="AN32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP32" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AQ32" s="2"/>
+      <c r="AR32" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS32" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU32" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AV32" s="2"/>
+      <c r="AW32" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX32" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AY32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ32" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA32" s="2"/>
+      <c r="BB32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC32" s="2"/>
+      <c r="BD32" s="2"/>
+    </row>
+    <row r="33" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="6"/>
       <c r="J33" s="2"/>
+      <c r="K33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP33" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS33" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV33" s="2">
+        <v>2</v>
+      </c>
+      <c r="AW33" s="2"/>
+      <c r="AX33" s="2"/>
+      <c r="AY33" s="2"/>
+      <c r="AZ33" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA33" s="2"/>
+      <c r="BB33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC33" s="2"/>
+      <c r="BD33" s="2"/>
+    </row>
+    <row r="36" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="F36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD822DD2-A4C0-40DB-B58D-D7E5EED0E5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A02C65A-4C27-45B9-A3BF-534CB611C46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="161">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -491,6 +491,15 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_061</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_064</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_066</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_090</t>
   </si>
 </sst>
 </file>
@@ -502,7 +511,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,6 +538,12 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2191,11 +2206,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BG36"/>
+  <dimension ref="A1:BG38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4995,7 +5010,7 @@
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>85</v>
@@ -5018,57 +5033,69 @@
         <v>71</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M28" s="2">
         <v>1</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="O28" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
+      <c r="R28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S28" s="2">
+        <v>20</v>
+      </c>
+      <c r="T28" s="2">
+        <v>50</v>
+      </c>
+      <c r="U28" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
+      <c r="W28" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
+      <c r="AC28" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
       <c r="AJ28" s="2"/>
-      <c r="AK28" s="2"/>
+      <c r="AK28" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" s="2"/>
       <c r="AO28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP28" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ28" s="2">
-        <v>2</v>
-      </c>
-      <c r="AR28" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS28" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT28" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="2"/>
+      <c r="AU28" s="2">
+        <v>1</v>
+      </c>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
       <c r="AX28" s="2"/>
@@ -5081,17 +5108,19 @@
         <v>0</v>
       </c>
       <c r="BC28" s="2"/>
-      <c r="BD28" s="2"/>
+      <c r="BD28" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>29</v>
@@ -5108,7 +5137,7 @@
         <v>71</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M29" s="2">
         <v>1</v>
@@ -5139,16 +5168,16 @@
       <c r="AK29" s="2"/>
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
-      <c r="AN29" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AN29" s="2"/>
       <c r="AO29" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AP29" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AQ29" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="AQ29" s="2">
+        <v>2</v>
+      </c>
       <c r="AR29" s="2">
         <v>3000</v>
       </c>
@@ -5158,19 +5187,11 @@
       <c r="AT29" s="2">
         <v>1</v>
       </c>
-      <c r="AU29" s="2">
-        <v>0.01</v>
-      </c>
+      <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
-      <c r="AW29" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AX29" s="11">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AY29" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="AW29" s="2"/>
+      <c r="AX29" s="2"/>
+      <c r="AY29" s="2"/>
       <c r="AZ29" s="2">
         <v>1</v>
       </c>
@@ -5183,7 +5204,7 @@
     </row>
     <row r="30" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>85</v>
@@ -5206,69 +5227,57 @@
         <v>71</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M30" s="2">
         <v>1</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
-      <c r="R30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S30" s="2">
-        <v>20</v>
-      </c>
-      <c r="T30" s="2">
-        <v>50</v>
-      </c>
-      <c r="U30" s="2">
-        <v>0.2</v>
-      </c>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
       <c r="V30" s="2"/>
-      <c r="W30" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X30" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
-      <c r="AC30" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD30" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
       <c r="AJ30" s="2"/>
-      <c r="AK30" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK30" s="2"/>
       <c r="AL30" s="2"/>
       <c r="AM30" s="2"/>
       <c r="AN30" s="2"/>
       <c r="AO30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP30" s="2"/>
-      <c r="AQ30" s="2"/>
-      <c r="AR30" s="2"/>
-      <c r="AS30" s="2"/>
-      <c r="AT30" s="2"/>
-      <c r="AU30" s="2">
-        <v>1</v>
-      </c>
+      <c r="AP30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ30" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR30" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS30" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
       <c r="AX30" s="2"/>
@@ -5281,19 +5290,17 @@
         <v>0</v>
       </c>
       <c r="BC30" s="2"/>
-      <c r="BD30" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD30" s="2"/>
     </row>
     <row r="31" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>29</v>
@@ -5310,7 +5317,7 @@
         <v>71</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M31" s="2">
         <v>1</v>
@@ -5341,16 +5348,16 @@
       <c r="AK31" s="2"/>
       <c r="AL31" s="2"/>
       <c r="AM31" s="2"/>
-      <c r="AN31" s="2"/>
+      <c r="AN31" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AO31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AP31" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ31" s="2">
-        <v>2</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="AQ31" s="2"/>
       <c r="AR31" s="2">
         <v>3000</v>
       </c>
@@ -5360,11 +5367,19 @@
       <c r="AT31" s="2">
         <v>1</v>
       </c>
-      <c r="AU31" s="2"/>
+      <c r="AU31" s="2">
+        <v>0.01</v>
+      </c>
       <c r="AV31" s="2"/>
-      <c r="AW31" s="2"/>
-      <c r="AX31" s="2"/>
-      <c r="AY31" s="2"/>
+      <c r="AW31" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX31" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AY31" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ31" s="2">
         <v>1</v>
       </c>
@@ -5377,13 +5392,13 @@
     </row>
     <row r="32" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>29</v>
@@ -5400,69 +5415,73 @@
         <v>71</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="M32" s="2">
         <v>1</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="O32" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
+      <c r="R32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S32" s="2">
+        <v>20</v>
+      </c>
+      <c r="T32" s="2">
+        <v>50</v>
+      </c>
+      <c r="U32" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
+      <c r="W32" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
+      <c r="AC32" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
       <c r="AJ32" s="2"/>
-      <c r="AK32" s="2"/>
+      <c r="AK32" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
-      <c r="AN32" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AN32" s="2"/>
       <c r="AO32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP32" s="2">
-        <v>0.1</v>
-      </c>
+      <c r="AP32" s="2"/>
       <c r="AQ32" s="2"/>
-      <c r="AR32" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS32" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT32" s="2">
-        <v>1</v>
-      </c>
+      <c r="AR32" s="2"/>
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="2"/>
       <c r="AU32" s="2">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="AV32" s="2"/>
-      <c r="AW32" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AX32" s="11">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AY32" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="AW32" s="2"/>
+      <c r="AX32" s="2"/>
+      <c r="AY32" s="2"/>
       <c r="AZ32" s="2">
         <v>1</v>
       </c>
@@ -5471,11 +5490,13 @@
         <v>0</v>
       </c>
       <c r="BC32" s="2"/>
-      <c r="BD32" s="2"/>
+      <c r="BD32" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="33" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>85</v>
@@ -5489,6 +5510,7 @@
       <c r="E33" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="6"/>
@@ -5497,17 +5519,13 @@
         <v>71</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="M33" s="2">
         <v>1</v>
       </c>
-      <c r="N33" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
@@ -5537,9 +5555,11 @@
         <v>32</v>
       </c>
       <c r="AP33" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AQ33" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="AQ33" s="2">
+        <v>2</v>
+      </c>
       <c r="AR33" s="2">
         <v>3000</v>
       </c>
@@ -5549,12 +5569,8 @@
       <c r="AT33" s="2">
         <v>1</v>
       </c>
-      <c r="AU33" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV33" s="2">
-        <v>2</v>
-      </c>
+      <c r="AU33" s="2"/>
+      <c r="AV33" s="2"/>
       <c r="AW33" s="2"/>
       <c r="AX33" s="2"/>
       <c r="AY33" s="2"/>
@@ -5568,13 +5584,309 @@
       <c r="BC33" s="2"/>
       <c r="BD33" s="2"/>
     </row>
+    <row r="34" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="2"/>
+      <c r="AN34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP34" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AQ34" s="2"/>
+      <c r="AR34" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS34" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU34" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AV34" s="2"/>
+      <c r="AW34" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX34" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AY34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ34" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA34" s="2"/>
+      <c r="BB34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC34" s="2"/>
+      <c r="BD34" s="2"/>
+    </row>
+    <row r="35" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="2"/>
+      <c r="AN35" s="2"/>
+      <c r="AO35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP35" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AQ35" s="2"/>
+      <c r="AR35" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS35" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV35" s="7">
+        <v>2</v>
+      </c>
+      <c r="AW35" s="2"/>
+      <c r="AX35" s="2"/>
+      <c r="AY35" s="2"/>
+      <c r="AZ35" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA35" s="2"/>
+      <c r="BB35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC35" s="2"/>
+      <c r="BD35" s="2"/>
+    </row>
     <row r="36" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="6"/>
       <c r="J36" s="2"/>
+      <c r="K36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M36" s="2">
+        <v>1</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S36" s="2">
+        <v>20</v>
+      </c>
+      <c r="T36" s="2">
+        <v>50</v>
+      </c>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD36" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL36" s="2"/>
+      <c r="AM36" s="2"/>
+      <c r="AN36" s="2"/>
+      <c r="AO36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP36" s="2"/>
+      <c r="AQ36" s="2"/>
+      <c r="AR36" s="2"/>
+      <c r="AS36" s="2"/>
+      <c r="AT36" s="2"/>
+      <c r="AU36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV36" s="2"/>
+      <c r="AW36" s="2"/>
+      <c r="AX36" s="2"/>
+      <c r="AY36" s="2"/>
+      <c r="AZ36" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA36" s="2"/>
+      <c r="BB36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC36" s="2"/>
+      <c r="BD36" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="F38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A02C65A-4C27-45B9-A3BF-534CB611C46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD7CD4C-0092-4749-B20A-E3014A49EABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="163">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -500,6 +500,12 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_090</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_091</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_092</t>
   </si>
 </sst>
 </file>
@@ -2208,9 +2214,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
   <dimension ref="A1:BG38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B35" sqref="B35"/>
+      <selection pane="topRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5879,11 +5885,209 @@
         <v>75</v>
       </c>
     </row>
+    <row r="37" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M37" s="2">
+        <v>1</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S37" s="2">
+        <v>20</v>
+      </c>
+      <c r="T37" s="2">
+        <v>50</v>
+      </c>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD37" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL37" s="2"/>
+      <c r="AM37" s="2"/>
+      <c r="AN37" s="2"/>
+      <c r="AO37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP37" s="2"/>
+      <c r="AQ37" s="2"/>
+      <c r="AR37" s="2"/>
+      <c r="AS37" s="2"/>
+      <c r="AT37" s="2"/>
+      <c r="AU37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV37" s="2"/>
+      <c r="AW37" s="2"/>
+      <c r="AX37" s="2"/>
+      <c r="AY37" s="2"/>
+      <c r="AZ37" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA37" s="2"/>
+      <c r="BB37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC37" s="2"/>
+      <c r="BD37" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="38" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="6"/>
       <c r="J38" s="2"/>
+      <c r="K38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M38" s="2">
+        <v>1</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S38" s="2">
+        <v>20</v>
+      </c>
+      <c r="T38" s="2">
+        <v>50</v>
+      </c>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="2"/>
+      <c r="AK38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL38" s="2"/>
+      <c r="AM38" s="2"/>
+      <c r="AN38" s="2"/>
+      <c r="AO38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP38" s="2"/>
+      <c r="AQ38" s="2"/>
+      <c r="AR38" s="2"/>
+      <c r="AS38" s="2"/>
+      <c r="AT38" s="2"/>
+      <c r="AU38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV38" s="2"/>
+      <c r="AW38" s="2"/>
+      <c r="AX38" s="2"/>
+      <c r="AY38" s="2"/>
+      <c r="AZ38" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA38" s="2"/>
+      <c r="BB38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC38" s="2"/>
+      <c r="BD38" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD7CD4C-0092-4749-B20A-E3014A49EABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E146D615-9CE6-4624-9A35-1A8BB3F7231F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="167">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -506,6 +506,18 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_092</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_093</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_094</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_095</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_096</t>
   </si>
 </sst>
 </file>
@@ -2212,11 +2224,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BG38"/>
+  <dimension ref="A1:BG42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C36" sqref="C36"/>
+      <selection pane="topRight" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6089,6 +6101,414 @@
         <v>75</v>
       </c>
     </row>
+    <row r="39" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M39" s="2">
+        <v>1</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S39" s="2">
+        <v>20</v>
+      </c>
+      <c r="T39" s="2">
+        <v>50</v>
+      </c>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD39" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL39" s="2"/>
+      <c r="AM39" s="2"/>
+      <c r="AN39" s="2"/>
+      <c r="AO39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP39" s="2"/>
+      <c r="AQ39" s="2"/>
+      <c r="AR39" s="2"/>
+      <c r="AS39" s="2"/>
+      <c r="AT39" s="2"/>
+      <c r="AU39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV39" s="2"/>
+      <c r="AW39" s="2"/>
+      <c r="AX39" s="2"/>
+      <c r="AY39" s="2"/>
+      <c r="AZ39" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA39" s="2"/>
+      <c r="BB39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC39" s="2"/>
+      <c r="BD39" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M40" s="2">
+        <v>1</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S40" s="2">
+        <v>20</v>
+      </c>
+      <c r="T40" s="2">
+        <v>50</v>
+      </c>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD40" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2"/>
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="2"/>
+      <c r="AK40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL40" s="2"/>
+      <c r="AM40" s="2"/>
+      <c r="AN40" s="2"/>
+      <c r="AO40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP40" s="2"/>
+      <c r="AQ40" s="2"/>
+      <c r="AR40" s="2"/>
+      <c r="AS40" s="2"/>
+      <c r="AT40" s="2"/>
+      <c r="AU40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV40" s="2"/>
+      <c r="AW40" s="2"/>
+      <c r="AX40" s="2"/>
+      <c r="AY40" s="2"/>
+      <c r="AZ40" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA40" s="2"/>
+      <c r="BB40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC40" s="2"/>
+      <c r="BD40" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M41" s="2">
+        <v>1</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S41" s="2">
+        <v>20</v>
+      </c>
+      <c r="T41" s="2">
+        <v>50</v>
+      </c>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD41" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="2"/>
+      <c r="AG41" s="2"/>
+      <c r="AH41" s="2"/>
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL41" s="2"/>
+      <c r="AM41" s="2"/>
+      <c r="AN41" s="2"/>
+      <c r="AO41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP41" s="2"/>
+      <c r="AQ41" s="2"/>
+      <c r="AR41" s="2"/>
+      <c r="AS41" s="2"/>
+      <c r="AT41" s="2"/>
+      <c r="AU41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV41" s="2"/>
+      <c r="AW41" s="2"/>
+      <c r="AX41" s="2"/>
+      <c r="AY41" s="2"/>
+      <c r="AZ41" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA41" s="2"/>
+      <c r="BB41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC41" s="2"/>
+      <c r="BD41" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M42" s="2">
+        <v>1</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S42" s="2">
+        <v>20</v>
+      </c>
+      <c r="T42" s="2">
+        <v>50</v>
+      </c>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD42" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="2"/>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="2"/>
+      <c r="AK42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL42" s="2"/>
+      <c r="AM42" s="2"/>
+      <c r="AN42" s="2"/>
+      <c r="AO42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP42" s="2"/>
+      <c r="AQ42" s="2"/>
+      <c r="AR42" s="2"/>
+      <c r="AS42" s="2"/>
+      <c r="AT42" s="2"/>
+      <c r="AU42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV42" s="2"/>
+      <c r="AW42" s="2"/>
+      <c r="AX42" s="2"/>
+      <c r="AY42" s="2"/>
+      <c r="AZ42" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA42" s="2"/>
+      <c r="BB42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC42" s="2"/>
+      <c r="BD42" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E146D615-9CE6-4624-9A35-1A8BB3F7231F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA346C6-4E05-4D14-94B4-3FF9D7EBBB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="168">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_096</t>
+  </si>
+  <si>
+    <t>test@Binancedm</t>
   </si>
 </sst>
 </file>
@@ -2226,9 +2229,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
   <dimension ref="A1:BG42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3820,12 +3823,12 @@
         <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
@@ -3864,7 +3867,7 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="7">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="X16" s="2" t="s">
         <v>73</v>
@@ -3878,10 +3881,10 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2">
-        <v>0.2</v>
+        <v>1000</v>
       </c>
       <c r="AD16" s="2">
-        <v>0.5</v>
+        <v>2000</v>
       </c>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
@@ -3904,7 +3907,7 @@
       <c r="AS16" s="2"/>
       <c r="AT16" s="2"/>
       <c r="AU16" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
@@ -3930,12 +3933,12 @@
         <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
@@ -3974,7 +3977,7 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="7">
-        <v>50</v>
+        <v>0.1</v>
       </c>
       <c r="X17" s="2" t="s">
         <v>73</v>
@@ -3988,10 +3991,10 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2">
-        <v>0.2</v>
+        <v>1000</v>
       </c>
       <c r="AD17" s="2">
-        <v>0.5</v>
+        <v>1000</v>
       </c>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
@@ -5318,7 +5321,7 @@
         <v>85</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>29</v>
@@ -5610,7 +5613,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>29</v>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA346C6-4E05-4D14-94B4-3FF9D7EBBB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB9F5FA-CD0E-417A-8E4C-41407ABEB168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="167">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -416,9 +416,6 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_056</t>
-  </si>
-  <si>
-    <t>QUANT_BINANCE_25</t>
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_031</t>
@@ -2229,9 +2226,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
   <dimension ref="A1:BG42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE17" sqref="AE17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2340,7 +2337,7 @@
         <v>46</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>47</v>
@@ -2406,7 +2403,7 @@
         <v>63</v>
       </c>
       <c r="AQ1" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AR1" s="8" t="s">
         <v>64</v>
@@ -2421,13 +2418,13 @@
         <v>14</v>
       </c>
       <c r="AV1" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AW1" s="8" t="s">
         <v>67</v>
       </c>
       <c r="AX1" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AY1" s="8" t="s">
         <v>43</v>
@@ -2450,7 +2447,7 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>85</v>
@@ -2554,7 +2551,7 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>85</v>
@@ -2658,7 +2655,7 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>85</v>
@@ -2762,7 +2759,7 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>85</v>
@@ -3439,7 +3436,7 @@
         <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>29</v>
@@ -3529,13 +3526,13 @@
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>29</v>
@@ -3625,13 +3622,13 @@
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>29</v>
@@ -3721,13 +3718,13 @@
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>29</v>
@@ -3823,7 +3820,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -3933,7 +3930,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -4315,7 +4312,7 @@
     </row>
     <row r="21" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>85</v>
@@ -4417,7 +4414,7 @@
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>85</v>
@@ -4519,7 +4516,7 @@
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>85</v>
@@ -4621,7 +4618,7 @@
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>85</v>
@@ -4723,7 +4720,7 @@
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>85</v>
@@ -4825,7 +4822,7 @@
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>85</v>
@@ -4927,7 +4924,7 @@
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>85</v>
@@ -5031,7 +5028,7 @@
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>85</v>
@@ -5135,7 +5132,7 @@
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>85</v>
@@ -5225,7 +5222,7 @@
     </row>
     <row r="30" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>85</v>
@@ -5315,7 +5312,7 @@
     </row>
     <row r="31" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>85</v>
@@ -5413,7 +5410,7 @@
     </row>
     <row r="32" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>85</v>
@@ -5517,7 +5514,7 @@
     </row>
     <row r="33" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>85</v>
@@ -5607,7 +5604,7 @@
     </row>
     <row r="34" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>85</v>
@@ -5705,7 +5702,7 @@
     </row>
     <row r="35" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>85</v>
@@ -5800,7 +5797,7 @@
     </row>
     <row r="36" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
@@ -5902,7 +5899,7 @@
     </row>
     <row r="37" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>85</v>
@@ -6004,7 +6001,7 @@
     </row>
     <row r="38" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>85</v>
@@ -6106,7 +6103,7 @@
     </row>
     <row r="39" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>85</v>
@@ -6208,7 +6205,7 @@
     </row>
     <row r="40" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>85</v>
@@ -6310,7 +6307,7 @@
     </row>
     <row r="41" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>85</v>
@@ -6412,7 +6409,7 @@
     </row>
     <row r="42" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>85</v>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB9F5FA-CD0E-417A-8E4C-41407ABEB168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93208C7-23A3-4B4E-A9D9-BB4DBE2E2B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="169">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -518,6 +518,12 @@
   </si>
   <si>
     <t>test@Binancedm</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_050</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_051</t>
   </si>
 </sst>
 </file>
@@ -2224,11 +2230,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BG42"/>
+  <dimension ref="A1:BG44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4040,7 +4046,7 @@
         <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -4128,13 +4134,10 @@
         <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -4210,13 +4213,13 @@
     </row>
     <row r="20" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>29</v>
@@ -4224,7 +4227,9 @@
       <c r="E20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="6"/>
@@ -4233,68 +4238,64 @@
         <v>71</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="M20" s="2">
         <v>1</v>
       </c>
-      <c r="N20" s="2"/>
+      <c r="N20" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="O20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S20" s="2">
-        <v>20</v>
-      </c>
-      <c r="T20" s="2">
-        <v>50</v>
-      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X20" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
-      <c r="AC20" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD20" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
-      <c r="AK20" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" s="2"/>
       <c r="AO20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP20" s="2"/>
+      <c r="AP20" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ20" s="2"/>
-      <c r="AR20" s="2"/>
-      <c r="AS20" s="2"/>
-      <c r="AT20" s="2"/>
+      <c r="AR20" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS20" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT20" s="2">
+        <v>1</v>
+      </c>
       <c r="AU20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV20" s="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="AV20" s="2">
+        <v>2</v>
+      </c>
       <c r="AW20" s="2"/>
       <c r="AX20" s="2"/>
       <c r="AY20" s="2"/>
@@ -4306,19 +4307,17 @@
         <v>0</v>
       </c>
       <c r="BC20" s="2"/>
-      <c r="BD20" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD20" s="2"/>
     </row>
     <row r="21" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>29</v>
@@ -4326,7 +4325,9 @@
       <c r="E21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="6"/>
@@ -4335,68 +4336,64 @@
         <v>71</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="M21" s="2">
         <v>1</v>
       </c>
-      <c r="N21" s="2"/>
+      <c r="N21" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="O21" s="2" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S21" s="2">
-        <v>20</v>
-      </c>
-      <c r="T21" s="2">
-        <v>50</v>
-      </c>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="W21" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
-      <c r="AC21" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
-      <c r="AK21" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" s="2"/>
       <c r="AO21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP21" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AP21" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ21" s="2"/>
-      <c r="AR21" s="2"/>
-      <c r="AS21" s="2"/>
-      <c r="AT21" s="2"/>
+      <c r="AR21" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS21" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT21" s="2">
+        <v>1</v>
+      </c>
       <c r="AU21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV21" s="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="AV21" s="2">
+        <v>2</v>
+      </c>
       <c r="AW21" s="2"/>
       <c r="AX21" s="2"/>
       <c r="AY21" s="2"/>
@@ -4408,13 +4405,11 @@
         <v>0</v>
       </c>
       <c r="BC21" s="2"/>
-      <c r="BD21" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD21" s="2"/>
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>85</v>
@@ -4516,7 +4511,7 @@
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>85</v>
@@ -4618,7 +4613,7 @@
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>85</v>
@@ -4720,7 +4715,7 @@
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>85</v>
@@ -4822,7 +4817,7 @@
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>85</v>
@@ -4924,7 +4919,7 @@
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>85</v>
@@ -4967,9 +4962,7 @@
       <c r="T27" s="2">
         <v>50</v>
       </c>
-      <c r="U27" s="2">
-        <v>0.2</v>
-      </c>
+      <c r="U27" s="2"/>
       <c r="V27" s="2"/>
       <c r="W27" s="7">
         <v>0.1</v>
@@ -5028,7 +5021,7 @@
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>85</v>
@@ -5071,9 +5064,7 @@
       <c r="T28" s="2">
         <v>50</v>
       </c>
-      <c r="U28" s="2">
-        <v>0.2</v>
-      </c>
+      <c r="U28" s="2"/>
       <c r="V28" s="2"/>
       <c r="W28" s="7">
         <v>0.1</v>
@@ -5132,7 +5123,7 @@
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>85</v>
@@ -5155,57 +5146,69 @@
         <v>71</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M29" s="2">
         <v>1</v>
       </c>
       <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="O29" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
+      <c r="R29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S29" s="2">
+        <v>20</v>
+      </c>
+      <c r="T29" s="2">
+        <v>50</v>
+      </c>
+      <c r="U29" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
+      <c r="W29" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
+      <c r="AC29" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
       <c r="AJ29" s="2"/>
-      <c r="AK29" s="2"/>
+      <c r="AK29" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
       <c r="AN29" s="2"/>
       <c r="AO29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP29" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ29" s="2">
-        <v>2</v>
-      </c>
-      <c r="AR29" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS29" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT29" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU29" s="2"/>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="2"/>
+      <c r="AU29" s="2">
+        <v>1</v>
+      </c>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
       <c r="AX29" s="2"/>
@@ -5218,11 +5221,13 @@
         <v>0</v>
       </c>
       <c r="BC29" s="2"/>
-      <c r="BD29" s="2"/>
+      <c r="BD29" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="30" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>85</v>
@@ -5245,57 +5250,69 @@
         <v>71</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M30" s="2">
         <v>1</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="O30" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
+      <c r="R30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S30" s="2">
+        <v>20</v>
+      </c>
+      <c r="T30" s="2">
+        <v>50</v>
+      </c>
+      <c r="U30" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
+      <c r="W30" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
+      <c r="AC30" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
       <c r="AJ30" s="2"/>
-      <c r="AK30" s="2"/>
+      <c r="AK30" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL30" s="2"/>
       <c r="AM30" s="2"/>
       <c r="AN30" s="2"/>
       <c r="AO30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP30" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ30" s="2">
-        <v>2</v>
-      </c>
-      <c r="AR30" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS30" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT30" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU30" s="2"/>
+      <c r="AP30" s="2"/>
+      <c r="AQ30" s="2"/>
+      <c r="AR30" s="2"/>
+      <c r="AS30" s="2"/>
+      <c r="AT30" s="2"/>
+      <c r="AU30" s="2">
+        <v>1</v>
+      </c>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2"/>
       <c r="AX30" s="2"/>
@@ -5308,11 +5325,13 @@
         <v>0</v>
       </c>
       <c r="BC30" s="2"/>
-      <c r="BD30" s="2"/>
+      <c r="BD30" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="31" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>85</v>
@@ -5335,7 +5354,7 @@
         <v>71</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M31" s="2">
         <v>1</v>
@@ -5366,16 +5385,16 @@
       <c r="AK31" s="2"/>
       <c r="AL31" s="2"/>
       <c r="AM31" s="2"/>
-      <c r="AN31" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AN31" s="2"/>
       <c r="AO31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AP31" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AQ31" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="AQ31" s="2">
+        <v>2</v>
+      </c>
       <c r="AR31" s="2">
         <v>3000</v>
       </c>
@@ -5385,19 +5404,11 @@
       <c r="AT31" s="2">
         <v>1</v>
       </c>
-      <c r="AU31" s="2">
-        <v>0.01</v>
-      </c>
+      <c r="AU31" s="2"/>
       <c r="AV31" s="2"/>
-      <c r="AW31" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AX31" s="11">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AY31" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="AW31" s="2"/>
+      <c r="AX31" s="2"/>
+      <c r="AY31" s="2"/>
       <c r="AZ31" s="2">
         <v>1</v>
       </c>
@@ -5410,7 +5421,7 @@
     </row>
     <row r="32" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>85</v>
@@ -5433,69 +5444,57 @@
         <v>71</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M32" s="2">
         <v>1</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
-      <c r="R32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S32" s="2">
-        <v>20</v>
-      </c>
-      <c r="T32" s="2">
-        <v>50</v>
-      </c>
-      <c r="U32" s="2">
-        <v>0.2</v>
-      </c>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
       <c r="V32" s="2"/>
-      <c r="W32" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X32" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
-      <c r="AC32" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD32" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
       <c r="AJ32" s="2"/>
-      <c r="AK32" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
       <c r="AN32" s="2"/>
       <c r="AO32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP32" s="2"/>
-      <c r="AQ32" s="2"/>
-      <c r="AR32" s="2"/>
-      <c r="AS32" s="2"/>
-      <c r="AT32" s="2"/>
-      <c r="AU32" s="2">
-        <v>1</v>
-      </c>
+      <c r="AP32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ32" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR32" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS32" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU32" s="2"/>
       <c r="AV32" s="2"/>
       <c r="AW32" s="2"/>
       <c r="AX32" s="2"/>
@@ -5508,13 +5507,11 @@
         <v>0</v>
       </c>
       <c r="BC32" s="2"/>
-      <c r="BD32" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD32" s="2"/>
     </row>
     <row r="33" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>85</v>
@@ -5537,7 +5534,7 @@
         <v>71</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M33" s="2">
         <v>1</v>
@@ -5568,16 +5565,16 @@
       <c r="AK33" s="2"/>
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
-      <c r="AN33" s="2"/>
+      <c r="AN33" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AO33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AP33" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ33" s="2">
-        <v>2</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="AQ33" s="2"/>
       <c r="AR33" s="2">
         <v>3000</v>
       </c>
@@ -5587,11 +5584,19 @@
       <c r="AT33" s="2">
         <v>1</v>
       </c>
-      <c r="AU33" s="2"/>
+      <c r="AU33" s="2">
+        <v>0.01</v>
+      </c>
       <c r="AV33" s="2"/>
-      <c r="AW33" s="2"/>
-      <c r="AX33" s="2"/>
-      <c r="AY33" s="2"/>
+      <c r="AW33" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX33" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AY33" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ33" s="2">
         <v>1</v>
       </c>
@@ -5604,7 +5609,7 @@
     </row>
     <row r="34" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>85</v>
@@ -5627,69 +5632,73 @@
         <v>71</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="M34" s="2">
         <v>1</v>
       </c>
       <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="O34" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
+      <c r="R34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S34" s="2">
+        <v>20</v>
+      </c>
+      <c r="T34" s="2">
+        <v>50</v>
+      </c>
+      <c r="U34" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
+      <c r="W34" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X34" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
+      <c r="AC34" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
       <c r="AJ34" s="2"/>
-      <c r="AK34" s="2"/>
+      <c r="AK34" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL34" s="2"/>
       <c r="AM34" s="2"/>
-      <c r="AN34" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AN34" s="2"/>
       <c r="AO34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP34" s="2">
-        <v>0.1</v>
-      </c>
+      <c r="AP34" s="2"/>
       <c r="AQ34" s="2"/>
-      <c r="AR34" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS34" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT34" s="2">
-        <v>1</v>
-      </c>
+      <c r="AR34" s="2"/>
+      <c r="AS34" s="2"/>
+      <c r="AT34" s="2"/>
       <c r="AU34" s="2">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="AV34" s="2"/>
-      <c r="AW34" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AX34" s="11">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AY34" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="AW34" s="2"/>
+      <c r="AX34" s="2"/>
+      <c r="AY34" s="2"/>
       <c r="AZ34" s="2">
         <v>1</v>
       </c>
@@ -5698,11 +5707,13 @@
         <v>0</v>
       </c>
       <c r="BC34" s="2"/>
-      <c r="BD34" s="2"/>
+      <c r="BD34" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="35" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>85</v>
@@ -5716,6 +5727,7 @@
       <c r="E35" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="6"/>
@@ -5724,17 +5736,13 @@
         <v>71</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="M35" s="2">
         <v>1</v>
       </c>
-      <c r="N35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -5764,9 +5772,11 @@
         <v>32</v>
       </c>
       <c r="AP35" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AQ35" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="AQ35" s="2">
+        <v>2</v>
+      </c>
       <c r="AR35" s="2">
         <v>3000</v>
       </c>
@@ -5776,12 +5786,8 @@
       <c r="AT35" s="2">
         <v>1</v>
       </c>
-      <c r="AU35" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV35" s="7">
-        <v>2</v>
-      </c>
+      <c r="AU35" s="2"/>
+      <c r="AV35" s="2"/>
       <c r="AW35" s="2"/>
       <c r="AX35" s="2"/>
       <c r="AY35" s="2"/>
@@ -5797,7 +5803,7 @@
     </row>
     <row r="36" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
@@ -5820,71 +5826,69 @@
         <v>71</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M36" s="2">
         <v>1</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
-      <c r="R36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S36" s="2">
-        <v>20</v>
-      </c>
-      <c r="T36" s="2">
-        <v>50</v>
-      </c>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
-      <c r="W36" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X36" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
-      <c r="AC36" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD36" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
       <c r="AJ36" s="2"/>
-      <c r="AK36" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK36" s="2"/>
       <c r="AL36" s="2"/>
       <c r="AM36" s="2"/>
-      <c r="AN36" s="2"/>
+      <c r="AN36" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AO36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP36" s="2"/>
+      <c r="AP36" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ36" s="2"/>
-      <c r="AR36" s="2"/>
-      <c r="AS36" s="2"/>
-      <c r="AT36" s="2"/>
+      <c r="AR36" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS36" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT36" s="2">
+        <v>1</v>
+      </c>
       <c r="AU36" s="2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="AV36" s="2"/>
-      <c r="AW36" s="2"/>
-      <c r="AX36" s="2"/>
-      <c r="AY36" s="2"/>
+      <c r="AW36" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX36" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AY36" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ36" s="2">
         <v>1</v>
       </c>
@@ -5893,13 +5897,11 @@
         <v>0</v>
       </c>
       <c r="BC36" s="2"/>
-      <c r="BD36" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD36" s="2"/>
     </row>
     <row r="37" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>85</v>
@@ -5913,7 +5915,6 @@
       <c r="E37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="6"/>
@@ -5922,68 +5923,64 @@
         <v>71</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="M37" s="2">
         <v>1</v>
       </c>
-      <c r="N37" s="2"/>
+      <c r="N37" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="O37" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
-      <c r="R37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S37" s="2">
-        <v>20</v>
-      </c>
-      <c r="T37" s="2">
-        <v>50</v>
-      </c>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
-      <c r="W37" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X37" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
-      <c r="AC37" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD37" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="2"/>
-      <c r="AK37" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK37" s="2"/>
       <c r="AL37" s="2"/>
       <c r="AM37" s="2"/>
       <c r="AN37" s="2"/>
       <c r="AO37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP37" s="2"/>
+      <c r="AP37" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ37" s="2"/>
-      <c r="AR37" s="2"/>
-      <c r="AS37" s="2"/>
-      <c r="AT37" s="2"/>
+      <c r="AR37" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS37" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT37" s="2">
+        <v>1</v>
+      </c>
       <c r="AU37" s="2">
         <v>1</v>
       </c>
-      <c r="AV37" s="2"/>
+      <c r="AV37" s="7">
+        <v>2</v>
+      </c>
       <c r="AW37" s="2"/>
       <c r="AX37" s="2"/>
       <c r="AY37" s="2"/>
@@ -5995,13 +5992,11 @@
         <v>0</v>
       </c>
       <c r="BC37" s="2"/>
-      <c r="BD37" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD37" s="2"/>
     </row>
     <row r="38" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>85</v>
@@ -6103,7 +6098,7 @@
     </row>
     <row r="39" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>85</v>
@@ -6205,7 +6200,7 @@
     </row>
     <row r="40" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>85</v>
@@ -6307,7 +6302,7 @@
     </row>
     <row r="41" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>85</v>
@@ -6409,7 +6404,7 @@
     </row>
     <row r="42" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>85</v>
@@ -6509,6 +6504,210 @@
         <v>75</v>
       </c>
     </row>
+    <row r="43" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M43" s="2">
+        <v>1</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S43" s="2">
+        <v>20</v>
+      </c>
+      <c r="T43" s="2">
+        <v>50</v>
+      </c>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD43" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2"/>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="2"/>
+      <c r="AK43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL43" s="2"/>
+      <c r="AM43" s="2"/>
+      <c r="AN43" s="2"/>
+      <c r="AO43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP43" s="2"/>
+      <c r="AQ43" s="2"/>
+      <c r="AR43" s="2"/>
+      <c r="AS43" s="2"/>
+      <c r="AT43" s="2"/>
+      <c r="AU43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV43" s="2"/>
+      <c r="AW43" s="2"/>
+      <c r="AX43" s="2"/>
+      <c r="AY43" s="2"/>
+      <c r="AZ43" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA43" s="2"/>
+      <c r="BB43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC43" s="2"/>
+      <c r="BD43" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M44" s="2">
+        <v>1</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S44" s="2">
+        <v>20</v>
+      </c>
+      <c r="T44" s="2">
+        <v>50</v>
+      </c>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X44" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD44" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2"/>
+      <c r="AK44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL44" s="2"/>
+      <c r="AM44" s="2"/>
+      <c r="AN44" s="2"/>
+      <c r="AO44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP44" s="2"/>
+      <c r="AQ44" s="2"/>
+      <c r="AR44" s="2"/>
+      <c r="AS44" s="2"/>
+      <c r="AT44" s="2"/>
+      <c r="AU44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV44" s="2"/>
+      <c r="AW44" s="2"/>
+      <c r="AX44" s="2"/>
+      <c r="AY44" s="2"/>
+      <c r="AZ44" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA44" s="2"/>
+      <c r="BB44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC44" s="2"/>
+      <c r="BD44" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93208C7-23A3-4B4E-A9D9-BB4DBE2E2B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0224BC0D-2B16-47C6-9767-2DA5CD9DB495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="173">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -524,6 +524,18 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_051</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_073</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_074</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_075</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_077</t>
   </si>
 </sst>
 </file>
@@ -2230,11 +2242,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BG44"/>
+  <dimension ref="A1:BG48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ40" sqref="AJ40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5996,13 +6008,13 @@
     </row>
     <row r="38" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>29</v>
@@ -6010,7 +6022,9 @@
       <c r="E38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="6"/>
@@ -6048,7 +6062,9 @@
         <v>73</v>
       </c>
       <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
+      <c r="Z38" s="2">
+        <v>1</v>
+      </c>
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" s="2">
@@ -6098,13 +6114,13 @@
     </row>
     <row r="39" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>29</v>
@@ -6112,7 +6128,9 @@
       <c r="E39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="6"/>
@@ -6150,7 +6168,9 @@
         <v>73</v>
       </c>
       <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
+      <c r="Z39" s="2">
+        <v>1</v>
+      </c>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
       <c r="AC39" s="2">
@@ -6200,13 +6220,13 @@
     </row>
     <row r="40" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>29</v>
@@ -6214,7 +6234,9 @@
       <c r="E40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="6"/>
@@ -6252,7 +6274,9 @@
         <v>73</v>
       </c>
       <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
+      <c r="Z40" s="2">
+        <v>1</v>
+      </c>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
       <c r="AC40" s="2">
@@ -6302,13 +6326,13 @@
     </row>
     <row r="41" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>29</v>
@@ -6316,7 +6340,9 @@
       <c r="E41" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="6"/>
@@ -6354,7 +6380,9 @@
         <v>73</v>
       </c>
       <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
+      <c r="Z41" s="2">
+        <v>1</v>
+      </c>
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
       <c r="AC41" s="2">
@@ -6404,7 +6432,7 @@
     </row>
     <row r="42" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>85</v>
@@ -6506,7 +6534,7 @@
     </row>
     <row r="43" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>85</v>
@@ -6608,7 +6636,7 @@
     </row>
     <row r="44" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>85</v>
@@ -6708,6 +6736,414 @@
         <v>75</v>
       </c>
     </row>
+    <row r="45" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M45" s="2">
+        <v>1</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S45" s="2">
+        <v>20</v>
+      </c>
+      <c r="T45" s="2">
+        <v>50</v>
+      </c>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X45" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD45" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="2"/>
+      <c r="AH45" s="2"/>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL45" s="2"/>
+      <c r="AM45" s="2"/>
+      <c r="AN45" s="2"/>
+      <c r="AO45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP45" s="2"/>
+      <c r="AQ45" s="2"/>
+      <c r="AR45" s="2"/>
+      <c r="AS45" s="2"/>
+      <c r="AT45" s="2"/>
+      <c r="AU45" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV45" s="2"/>
+      <c r="AW45" s="2"/>
+      <c r="AX45" s="2"/>
+      <c r="AY45" s="2"/>
+      <c r="AZ45" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA45" s="2"/>
+      <c r="BB45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC45" s="2"/>
+      <c r="BD45" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M46" s="2">
+        <v>1</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S46" s="2">
+        <v>20</v>
+      </c>
+      <c r="T46" s="2">
+        <v>50</v>
+      </c>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD46" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="2"/>
+      <c r="AH46" s="2"/>
+      <c r="AI46" s="2"/>
+      <c r="AJ46" s="2"/>
+      <c r="AK46" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL46" s="2"/>
+      <c r="AM46" s="2"/>
+      <c r="AN46" s="2"/>
+      <c r="AO46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP46" s="2"/>
+      <c r="AQ46" s="2"/>
+      <c r="AR46" s="2"/>
+      <c r="AS46" s="2"/>
+      <c r="AT46" s="2"/>
+      <c r="AU46" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV46" s="2"/>
+      <c r="AW46" s="2"/>
+      <c r="AX46" s="2"/>
+      <c r="AY46" s="2"/>
+      <c r="AZ46" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA46" s="2"/>
+      <c r="BB46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC46" s="2"/>
+      <c r="BD46" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M47" s="2">
+        <v>1</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S47" s="2">
+        <v>20</v>
+      </c>
+      <c r="T47" s="2">
+        <v>50</v>
+      </c>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X47" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD47" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="2"/>
+      <c r="AH47" s="2"/>
+      <c r="AI47" s="2"/>
+      <c r="AJ47" s="2"/>
+      <c r="AK47" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL47" s="2"/>
+      <c r="AM47" s="2"/>
+      <c r="AN47" s="2"/>
+      <c r="AO47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP47" s="2"/>
+      <c r="AQ47" s="2"/>
+      <c r="AR47" s="2"/>
+      <c r="AS47" s="2"/>
+      <c r="AT47" s="2"/>
+      <c r="AU47" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV47" s="2"/>
+      <c r="AW47" s="2"/>
+      <c r="AX47" s="2"/>
+      <c r="AY47" s="2"/>
+      <c r="AZ47" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA47" s="2"/>
+      <c r="BB47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC47" s="2"/>
+      <c r="BD47" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M48" s="2">
+        <v>1</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S48" s="2">
+        <v>20</v>
+      </c>
+      <c r="T48" s="2">
+        <v>50</v>
+      </c>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD48" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE48" s="2"/>
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="2"/>
+      <c r="AH48" s="2"/>
+      <c r="AI48" s="2"/>
+      <c r="AJ48" s="2"/>
+      <c r="AK48" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL48" s="2"/>
+      <c r="AM48" s="2"/>
+      <c r="AN48" s="2"/>
+      <c r="AO48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP48" s="2"/>
+      <c r="AQ48" s="2"/>
+      <c r="AR48" s="2"/>
+      <c r="AS48" s="2"/>
+      <c r="AT48" s="2"/>
+      <c r="AU48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV48" s="2"/>
+      <c r="AW48" s="2"/>
+      <c r="AX48" s="2"/>
+      <c r="AY48" s="2"/>
+      <c r="AZ48" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA48" s="2"/>
+      <c r="BB48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC48" s="2"/>
+      <c r="BD48" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0224BC0D-2B16-47C6-9767-2DA5CD9DB495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0847B0F-60E1-47B0-AD6C-7B528AEE1F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="177">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -536,6 +536,18 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_077</t>
+  </si>
+  <si>
+    <t>XRP</t>
+  </si>
+  <si>
+    <t>test@Binance</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_079</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_080</t>
   </si>
 </sst>
 </file>
@@ -596,7 +608,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -632,11 +644,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -656,6 +679,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2242,11 +2266,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BG48"/>
+  <dimension ref="A1:BG51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ40" sqref="AJ40"/>
+      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z46" sqref="Z46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3457,7 +3481,7 @@
         <v>166</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>2</v>
@@ -3553,7 +3577,7 @@
         <v>166</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>2</v>
@@ -3646,10 +3670,10 @@
         <v>85</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>2</v>
@@ -3714,11 +3738,11 @@
         <v>1</v>
       </c>
       <c r="AU14" s="2">
-        <v>0.01</v>
+        <v>56</v>
       </c>
       <c r="AV14" s="2"/>
-      <c r="AW14" s="11">
-        <v>6.0000000000000001E-3</v>
+      <c r="AW14" s="7">
+        <v>28</v>
       </c>
       <c r="AX14" s="11"/>
       <c r="AY14" s="2" t="s">
@@ -3745,7 +3769,7 @@
         <v>166</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>2</v>
@@ -5563,7 +5587,9 @@
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
+      <c r="Z33" s="2">
+        <v>1</v>
+      </c>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
@@ -5675,7 +5701,9 @@
         <v>73</v>
       </c>
       <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
+      <c r="Z34" s="2">
+        <v>1</v>
+      </c>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2">
@@ -5765,7 +5793,9 @@
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
+      <c r="Z35" s="2">
+        <v>1</v>
+      </c>
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
@@ -5855,7 +5885,9 @@
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
+      <c r="Z36" s="2">
+        <v>1</v>
+      </c>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
@@ -5956,7 +5988,9 @@
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
+      <c r="Z37" s="2">
+        <v>1</v>
+      </c>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
@@ -6432,13 +6466,13 @@
     </row>
     <row r="42" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>29</v>
@@ -6446,7 +6480,9 @@
       <c r="E42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="6"/>
@@ -6484,7 +6520,9 @@
         <v>73</v>
       </c>
       <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
+      <c r="Z42" s="2">
+        <v>1</v>
+      </c>
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
       <c r="AC42" s="2">
@@ -6534,13 +6572,13 @@
     </row>
     <row r="43" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>29</v>
@@ -6548,7 +6586,9 @@
       <c r="E43" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="6"/>
@@ -6577,7 +6617,9 @@
       <c r="T43" s="2">
         <v>50</v>
       </c>
-      <c r="U43" s="2"/>
+      <c r="U43" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V43" s="2"/>
       <c r="W43" s="7">
         <v>0.1</v>
@@ -6586,7 +6628,9 @@
         <v>73</v>
       </c>
       <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
+      <c r="Z43" s="2">
+        <v>1</v>
+      </c>
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
       <c r="AC43" s="2">
@@ -6636,7 +6680,7 @@
     </row>
     <row r="44" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>85</v>
@@ -6688,7 +6732,9 @@
         <v>73</v>
       </c>
       <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
+      <c r="Z44" s="2">
+        <v>1</v>
+      </c>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" s="2">
@@ -6738,7 +6784,7 @@
     </row>
     <row r="45" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>85</v>
@@ -6790,7 +6836,9 @@
         <v>73</v>
       </c>
       <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
+      <c r="Z45" s="2">
+        <v>1</v>
+      </c>
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
       <c r="AC45" s="2">
@@ -6840,7 +6888,7 @@
     </row>
     <row r="46" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>85</v>
@@ -6892,7 +6940,9 @@
         <v>73</v>
       </c>
       <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
+      <c r="Z46" s="2">
+        <v>1</v>
+      </c>
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
       <c r="AC46" s="2">
@@ -6942,7 +6992,7 @@
     </row>
     <row r="47" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>85</v>
@@ -6994,7 +7044,9 @@
         <v>73</v>
       </c>
       <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
+      <c r="Z47" s="2">
+        <v>1</v>
+      </c>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
       <c r="AC47" s="2">
@@ -7044,7 +7096,7 @@
     </row>
     <row r="48" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>85</v>
@@ -7096,7 +7148,9 @@
         <v>73</v>
       </c>
       <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
+      <c r="Z48" s="2">
+        <v>1</v>
+      </c>
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
       <c r="AC48" s="2">
@@ -7144,9 +7198,223 @@
         <v>75</v>
       </c>
     </row>
+    <row r="49" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M49" s="2">
+        <v>1</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S49" s="2">
+        <v>20</v>
+      </c>
+      <c r="T49" s="2">
+        <v>50</v>
+      </c>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD49" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="2"/>
+      <c r="AH49" s="2"/>
+      <c r="AI49" s="2"/>
+      <c r="AJ49" s="2"/>
+      <c r="AK49" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL49" s="2"/>
+      <c r="AM49" s="2"/>
+      <c r="AN49" s="2"/>
+      <c r="AO49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP49" s="2"/>
+      <c r="AQ49" s="2"/>
+      <c r="AR49" s="2"/>
+      <c r="AS49" s="2"/>
+      <c r="AT49" s="2"/>
+      <c r="AU49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV49" s="2"/>
+      <c r="AW49" s="2"/>
+      <c r="AX49" s="2"/>
+      <c r="AY49" s="2"/>
+      <c r="AZ49" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA49" s="2"/>
+      <c r="BB49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC49" s="2"/>
+      <c r="BD49" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M50" s="2">
+        <v>1</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S50" s="2">
+        <v>20</v>
+      </c>
+      <c r="T50" s="2">
+        <v>50</v>
+      </c>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD50" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE50" s="2"/>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="2"/>
+      <c r="AH50" s="2"/>
+      <c r="AI50" s="2"/>
+      <c r="AJ50" s="2"/>
+      <c r="AK50" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL50" s="2"/>
+      <c r="AM50" s="2"/>
+      <c r="AN50" s="2"/>
+      <c r="AO50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP50" s="2"/>
+      <c r="AQ50" s="2"/>
+      <c r="AR50" s="2"/>
+      <c r="AS50" s="2"/>
+      <c r="AT50" s="2"/>
+      <c r="AU50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV50" s="2"/>
+      <c r="AW50" s="2"/>
+      <c r="AX50" s="2"/>
+      <c r="AY50" s="2"/>
+      <c r="AZ50" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA50" s="2"/>
+      <c r="BB50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC50" s="2"/>
+      <c r="BD50" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="Z51" s="13"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1" xr:uid="{867D249A-E139-4C6D-A988-8E82277BE26E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0847B0F-60E1-47B0-AD6C-7B528AEE1F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE9BEF9-11D6-490A-9168-5A1116D1A37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="178">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -548,6 +548,9 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_080</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_082</t>
   </si>
 </sst>
 </file>
@@ -2266,11 +2269,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BG51"/>
+  <dimension ref="A1:BG52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z46" sqref="Z46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4114,7 +4117,9 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
+      <c r="Z18" s="2">
+        <v>1</v>
+      </c>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
@@ -4199,7 +4204,9 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
+      <c r="Z19" s="2">
+        <v>1</v>
+      </c>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
@@ -4295,7 +4302,9 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
+      <c r="Z20" s="2">
+        <v>1</v>
+      </c>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
@@ -4393,7 +4402,9 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
+      <c r="Z21" s="2">
+        <v>1</v>
+      </c>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
@@ -4497,7 +4508,9 @@
         <v>73</v>
       </c>
       <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
+      <c r="Z22" s="2">
+        <v>1</v>
+      </c>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2">
@@ -4599,7 +4612,9 @@
         <v>73</v>
       </c>
       <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
+      <c r="Z23" s="2">
+        <v>1</v>
+      </c>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2">
@@ -4701,7 +4716,9 @@
         <v>73</v>
       </c>
       <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
+      <c r="Z24" s="2">
+        <v>1</v>
+      </c>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2">
@@ -4803,7 +4820,9 @@
         <v>73</v>
       </c>
       <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
+      <c r="Z25" s="2">
+        <v>1</v>
+      </c>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2">
@@ -4905,7 +4924,9 @@
         <v>73</v>
       </c>
       <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
+      <c r="Z26" s="2">
+        <v>1</v>
+      </c>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2">
@@ -5007,7 +5028,9 @@
         <v>73</v>
       </c>
       <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
+      <c r="Z27" s="2">
+        <v>1</v>
+      </c>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2">
@@ -5109,7 +5132,9 @@
         <v>73</v>
       </c>
       <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
+      <c r="Z28" s="2">
+        <v>1</v>
+      </c>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2">
@@ -5213,7 +5238,9 @@
         <v>73</v>
       </c>
       <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
+      <c r="Z29" s="2">
+        <v>1</v>
+      </c>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2">
@@ -5317,7 +5344,9 @@
         <v>73</v>
       </c>
       <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
+      <c r="Z30" s="2">
+        <v>1</v>
+      </c>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2">
@@ -5407,7 +5436,9 @@
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
+      <c r="Z31" s="2">
+        <v>1</v>
+      </c>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
@@ -5497,7 +5528,9 @@
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
+      <c r="Z32" s="2">
+        <v>1</v>
+      </c>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
@@ -6680,13 +6713,13 @@
     </row>
     <row r="44" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>29</v>
@@ -6694,7 +6727,9 @@
       <c r="E44" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="6"/>
@@ -6703,66 +6738,58 @@
         <v>71</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M44" s="2">
         <v>1</v>
       </c>
       <c r="N44" s="2"/>
-      <c r="O44" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
-      <c r="R44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S44" s="2">
-        <v>20</v>
-      </c>
-      <c r="T44" s="2">
-        <v>50</v>
-      </c>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
-      <c r="W44" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X44" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2">
         <v>1</v>
       </c>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
-      <c r="AC44" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD44" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
       <c r="AJ44" s="2"/>
-      <c r="AK44" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK44" s="2"/>
       <c r="AL44" s="2"/>
       <c r="AM44" s="2"/>
       <c r="AN44" s="2"/>
       <c r="AO44" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP44" s="2"/>
-      <c r="AQ44" s="2"/>
-      <c r="AR44" s="2"/>
-      <c r="AS44" s="2"/>
-      <c r="AT44" s="2"/>
+      <c r="AP44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ44" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR44" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AS44" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AT44" s="2">
+        <v>1</v>
+      </c>
       <c r="AU44" s="2">
         <v>1</v>
       </c>
@@ -6778,13 +6805,11 @@
         <v>0</v>
       </c>
       <c r="BC44" s="2"/>
-      <c r="BD44" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD44" s="2"/>
     </row>
     <row r="45" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>85</v>
@@ -6888,7 +6913,7 @@
     </row>
     <row r="46" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>85</v>
@@ -6992,7 +7017,7 @@
     </row>
     <row r="47" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>85</v>
@@ -7096,7 +7121,7 @@
     </row>
     <row r="48" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>85</v>
@@ -7200,7 +7225,7 @@
     </row>
     <row r="49" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>85</v>
@@ -7304,7 +7329,7 @@
     </row>
     <row r="50" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>85</v>
@@ -7407,7 +7432,111 @@
       </c>
     </row>
     <row r="51" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="Z51" s="13"/>
+      <c r="A51" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M51" s="2">
+        <v>1</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S51" s="2">
+        <v>20</v>
+      </c>
+      <c r="T51" s="2">
+        <v>50</v>
+      </c>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD51" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="2"/>
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="2"/>
+      <c r="AJ51" s="2"/>
+      <c r="AK51" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL51" s="2"/>
+      <c r="AM51" s="2"/>
+      <c r="AN51" s="2"/>
+      <c r="AO51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP51" s="2"/>
+      <c r="AQ51" s="2"/>
+      <c r="AR51" s="2"/>
+      <c r="AS51" s="2"/>
+      <c r="AT51" s="2"/>
+      <c r="AU51" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV51" s="2"/>
+      <c r="AW51" s="2"/>
+      <c r="AX51" s="2"/>
+      <c r="AY51" s="2"/>
+      <c r="AZ51" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA51" s="2"/>
+      <c r="BB51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC51" s="2"/>
+      <c r="BD51" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="Z52" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE9BEF9-11D6-490A-9168-5A1116D1A37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383D7C3C-0298-40FA-9D7C-6AE92D576CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="183">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -551,6 +551,21 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_082</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_084</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_086</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_087</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_088</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_089</t>
   </si>
 </sst>
 </file>
@@ -2269,11 +2284,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BG52"/>
+  <dimension ref="A1:BG57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B44" sqref="B44"/>
+      <selection pane="topRight" activeCell="K49" sqref="K49:BD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6809,13 +6824,13 @@
     </row>
     <row r="45" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>29</v>
@@ -6823,7 +6838,9 @@
       <c r="E45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="6"/>
@@ -6832,73 +6849,71 @@
         <v>71</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M45" s="2">
         <v>1</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
-      <c r="R45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S45" s="2">
-        <v>20</v>
-      </c>
-      <c r="T45" s="2">
-        <v>50</v>
-      </c>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
-      <c r="W45" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X45" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
       <c r="Z45" s="2">
         <v>1</v>
       </c>
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
-      <c r="AC45" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD45" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
       <c r="AJ45" s="2"/>
-      <c r="AK45" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK45" s="2"/>
       <c r="AL45" s="2"/>
       <c r="AM45" s="2"/>
-      <c r="AN45" s="2"/>
+      <c r="AN45" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AO45" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP45" s="2"/>
+      <c r="AP45" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ45" s="2"/>
-      <c r="AR45" s="2"/>
-      <c r="AS45" s="2"/>
-      <c r="AT45" s="2"/>
+      <c r="AR45" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS45" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT45" s="2">
+        <v>1</v>
+      </c>
       <c r="AU45" s="2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="AV45" s="2"/>
-      <c r="AW45" s="2"/>
-      <c r="AX45" s="2"/>
-      <c r="AY45" s="2"/>
+      <c r="AW45" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX45" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AY45" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ45" s="2">
         <v>1</v>
       </c>
@@ -6907,19 +6922,17 @@
         <v>0</v>
       </c>
       <c r="BC45" s="2"/>
-      <c r="BD45" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD45" s="2"/>
     </row>
     <row r="46" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>29</v>
@@ -6927,7 +6940,9 @@
       <c r="E46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="6"/>
@@ -6956,7 +6971,9 @@
       <c r="T46" s="2">
         <v>50</v>
       </c>
-      <c r="U46" s="2"/>
+      <c r="U46" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V46" s="2"/>
       <c r="W46" s="7">
         <v>0.1</v>
@@ -7017,13 +7034,13 @@
     </row>
     <row r="47" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>29</v>
@@ -7031,7 +7048,9 @@
       <c r="E47" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="6"/>
@@ -7040,69 +7059,59 @@
         <v>71</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M47" s="2">
         <v>1</v>
       </c>
       <c r="N47" s="2"/>
-      <c r="O47" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
-      <c r="R47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S47" s="2">
-        <v>20</v>
-      </c>
-      <c r="T47" s="2">
-        <v>50</v>
-      </c>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
-      <c r="W47" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X47" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
       <c r="Z47" s="2">
         <v>1</v>
       </c>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
-      <c r="AC47" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD47" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
       <c r="AJ47" s="2"/>
-      <c r="AK47" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK47" s="2"/>
       <c r="AL47" s="2"/>
       <c r="AM47" s="2"/>
       <c r="AN47" s="2"/>
       <c r="AO47" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP47" s="2"/>
-      <c r="AQ47" s="2"/>
-      <c r="AR47" s="2"/>
-      <c r="AS47" s="2"/>
-      <c r="AT47" s="2"/>
-      <c r="AU47" s="2">
-        <v>1</v>
-      </c>
+      <c r="AP47" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ47" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR47" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS47" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT47" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU47" s="2"/>
       <c r="AV47" s="2"/>
       <c r="AW47" s="2"/>
       <c r="AX47" s="2"/>
@@ -7115,19 +7124,17 @@
         <v>0</v>
       </c>
       <c r="BC47" s="2"/>
-      <c r="BD47" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD47" s="2"/>
     </row>
     <row r="48" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>29</v>
@@ -7135,7 +7142,9 @@
       <c r="E48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="6"/>
@@ -7144,73 +7153,71 @@
         <v>71</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M48" s="2">
         <v>1</v>
       </c>
       <c r="N48" s="2"/>
-      <c r="O48" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
-      <c r="R48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S48" s="2">
-        <v>20</v>
-      </c>
-      <c r="T48" s="2">
-        <v>50</v>
-      </c>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
-      <c r="W48" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X48" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2">
         <v>1</v>
       </c>
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
-      <c r="AC48" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD48" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC48" s="2"/>
+      <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
       <c r="AG48" s="2"/>
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
       <c r="AJ48" s="2"/>
-      <c r="AK48" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK48" s="2"/>
       <c r="AL48" s="2"/>
       <c r="AM48" s="2"/>
-      <c r="AN48" s="2"/>
+      <c r="AN48" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AO48" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP48" s="2"/>
+      <c r="AP48" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ48" s="2"/>
-      <c r="AR48" s="2"/>
-      <c r="AS48" s="2"/>
-      <c r="AT48" s="2"/>
+      <c r="AR48" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS48" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT48" s="2">
+        <v>1</v>
+      </c>
       <c r="AU48" s="2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="AV48" s="2"/>
-      <c r="AW48" s="2"/>
-      <c r="AX48" s="2"/>
-      <c r="AY48" s="2"/>
+      <c r="AW48" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX48" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AY48" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ48" s="2">
         <v>1</v>
       </c>
@@ -7219,19 +7226,17 @@
         <v>0</v>
       </c>
       <c r="BC48" s="2"/>
-      <c r="BD48" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD48" s="2"/>
     </row>
     <row r="49" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>29</v>
@@ -7239,7 +7244,9 @@
       <c r="E49" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="6"/>
@@ -7248,70 +7255,66 @@
         <v>71</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="M49" s="2">
         <v>1</v>
       </c>
-      <c r="N49" s="2"/>
+      <c r="N49" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="O49" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
-      <c r="R49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S49" s="2">
-        <v>20</v>
-      </c>
-      <c r="T49" s="2">
-        <v>50</v>
-      </c>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
-      <c r="W49" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X49" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2">
         <v>1</v>
       </c>
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
-      <c r="AC49" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD49" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
       <c r="AJ49" s="2"/>
-      <c r="AK49" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK49" s="2"/>
       <c r="AL49" s="2"/>
       <c r="AM49" s="2"/>
       <c r="AN49" s="2"/>
       <c r="AO49" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP49" s="2"/>
+      <c r="AP49" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ49" s="2"/>
-      <c r="AR49" s="2"/>
-      <c r="AS49" s="2"/>
-      <c r="AT49" s="2"/>
+      <c r="AR49" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS49" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT49" s="2">
+        <v>1</v>
+      </c>
       <c r="AU49" s="2">
         <v>1</v>
       </c>
-      <c r="AV49" s="2"/>
+      <c r="AV49" s="7">
+        <v>2</v>
+      </c>
       <c r="AW49" s="2"/>
       <c r="AX49" s="2"/>
       <c r="AY49" s="2"/>
@@ -7323,13 +7326,11 @@
         <v>0</v>
       </c>
       <c r="BC49" s="2"/>
-      <c r="BD49" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD49" s="2"/>
     </row>
     <row r="50" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>85</v>
@@ -7433,7 +7434,7 @@
     </row>
     <row r="51" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>85</v>
@@ -7536,7 +7537,527 @@
       </c>
     </row>
     <row r="52" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="Z52" s="13"/>
+      <c r="A52" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M52" s="2">
+        <v>1</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S52" s="2">
+        <v>20</v>
+      </c>
+      <c r="T52" s="2">
+        <v>50</v>
+      </c>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD52" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE52" s="2"/>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="2"/>
+      <c r="AI52" s="2"/>
+      <c r="AJ52" s="2"/>
+      <c r="AK52" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL52" s="2"/>
+      <c r="AM52" s="2"/>
+      <c r="AN52" s="2"/>
+      <c r="AO52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP52" s="2"/>
+      <c r="AQ52" s="2"/>
+      <c r="AR52" s="2"/>
+      <c r="AS52" s="2"/>
+      <c r="AT52" s="2"/>
+      <c r="AU52" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV52" s="2"/>
+      <c r="AW52" s="2"/>
+      <c r="AX52" s="2"/>
+      <c r="AY52" s="2"/>
+      <c r="AZ52" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA52" s="2"/>
+      <c r="BB52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC52" s="2"/>
+      <c r="BD52" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M53" s="2">
+        <v>1</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S53" s="2">
+        <v>20</v>
+      </c>
+      <c r="T53" s="2">
+        <v>50</v>
+      </c>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD53" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="2"/>
+      <c r="AG53" s="2"/>
+      <c r="AH53" s="2"/>
+      <c r="AI53" s="2"/>
+      <c r="AJ53" s="2"/>
+      <c r="AK53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL53" s="2"/>
+      <c r="AM53" s="2"/>
+      <c r="AN53" s="2"/>
+      <c r="AO53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP53" s="2"/>
+      <c r="AQ53" s="2"/>
+      <c r="AR53" s="2"/>
+      <c r="AS53" s="2"/>
+      <c r="AT53" s="2"/>
+      <c r="AU53" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV53" s="2"/>
+      <c r="AW53" s="2"/>
+      <c r="AX53" s="2"/>
+      <c r="AY53" s="2"/>
+      <c r="AZ53" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA53" s="2"/>
+      <c r="BB53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC53" s="2"/>
+      <c r="BD53" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M54" s="2">
+        <v>1</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S54" s="2">
+        <v>20</v>
+      </c>
+      <c r="T54" s="2">
+        <v>50</v>
+      </c>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD54" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE54" s="2"/>
+      <c r="AF54" s="2"/>
+      <c r="AG54" s="2"/>
+      <c r="AH54" s="2"/>
+      <c r="AI54" s="2"/>
+      <c r="AJ54" s="2"/>
+      <c r="AK54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL54" s="2"/>
+      <c r="AM54" s="2"/>
+      <c r="AN54" s="2"/>
+      <c r="AO54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP54" s="2"/>
+      <c r="AQ54" s="2"/>
+      <c r="AR54" s="2"/>
+      <c r="AS54" s="2"/>
+      <c r="AT54" s="2"/>
+      <c r="AU54" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV54" s="2"/>
+      <c r="AW54" s="2"/>
+      <c r="AX54" s="2"/>
+      <c r="AY54" s="2"/>
+      <c r="AZ54" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA54" s="2"/>
+      <c r="BB54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC54" s="2"/>
+      <c r="BD54" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M55" s="2">
+        <v>1</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S55" s="2">
+        <v>20</v>
+      </c>
+      <c r="T55" s="2">
+        <v>50</v>
+      </c>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="2"/>
+      <c r="AC55" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD55" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE55" s="2"/>
+      <c r="AF55" s="2"/>
+      <c r="AG55" s="2"/>
+      <c r="AH55" s="2"/>
+      <c r="AI55" s="2"/>
+      <c r="AJ55" s="2"/>
+      <c r="AK55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL55" s="2"/>
+      <c r="AM55" s="2"/>
+      <c r="AN55" s="2"/>
+      <c r="AO55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP55" s="2"/>
+      <c r="AQ55" s="2"/>
+      <c r="AR55" s="2"/>
+      <c r="AS55" s="2"/>
+      <c r="AT55" s="2"/>
+      <c r="AU55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV55" s="2"/>
+      <c r="AW55" s="2"/>
+      <c r="AX55" s="2"/>
+      <c r="AY55" s="2"/>
+      <c r="AZ55" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA55" s="2"/>
+      <c r="BB55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC55" s="2"/>
+      <c r="BD55" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M56" s="2">
+        <v>1</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S56" s="2">
+        <v>20</v>
+      </c>
+      <c r="T56" s="2">
+        <v>50</v>
+      </c>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X56" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD56" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE56" s="2"/>
+      <c r="AF56" s="2"/>
+      <c r="AG56" s="2"/>
+      <c r="AH56" s="2"/>
+      <c r="AI56" s="2"/>
+      <c r="AJ56" s="2"/>
+      <c r="AK56" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL56" s="2"/>
+      <c r="AM56" s="2"/>
+      <c r="AN56" s="2"/>
+      <c r="AO56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP56" s="2"/>
+      <c r="AQ56" s="2"/>
+      <c r="AR56" s="2"/>
+      <c r="AS56" s="2"/>
+      <c r="AT56" s="2"/>
+      <c r="AU56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV56" s="2"/>
+      <c r="AW56" s="2"/>
+      <c r="AX56" s="2"/>
+      <c r="AY56" s="2"/>
+      <c r="AZ56" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA56" s="2"/>
+      <c r="BB56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC56" s="2"/>
+      <c r="BD56" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="Z57" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383D7C3C-0298-40FA-9D7C-6AE92D576CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D613497-8984-4925-BFC5-A816582B4904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="186">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -566,6 +566,15 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_089</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_052</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_053</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_054</t>
   </si>
 </sst>
 </file>
@@ -2284,11 +2293,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BG57"/>
+  <dimension ref="A1:BG60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K49" sqref="K49:BD49"/>
+      <selection pane="topRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4471,13 +4480,13 @@
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>29</v>
@@ -4485,7 +4494,9 @@
       <c r="E22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="6"/>
@@ -4494,73 +4505,67 @@
         <v>71</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M22" s="2">
         <v>1</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S22" s="2">
-        <v>20</v>
-      </c>
-      <c r="T22" s="2">
-        <v>50</v>
-      </c>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-      <c r="W22" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X22" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
-      <c r="Z22" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
-      <c r="AC22" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD22" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
-      <c r="AK22" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
-      <c r="AN22" s="2"/>
+      <c r="AN22" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AO22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP22" s="2"/>
+      <c r="AP22" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ22" s="2"/>
-      <c r="AR22" s="2"/>
-      <c r="AS22" s="2"/>
-      <c r="AT22" s="2"/>
+      <c r="AR22" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS22" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT22" s="2">
+        <v>1</v>
+      </c>
       <c r="AU22" s="2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="AV22" s="2"/>
-      <c r="AW22" s="2"/>
-      <c r="AX22" s="2"/>
-      <c r="AY22" s="2"/>
+      <c r="AW22" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX22" s="11"/>
+      <c r="AY22" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ22" s="2">
         <v>1</v>
       </c>
@@ -4569,19 +4574,17 @@
         <v>0</v>
       </c>
       <c r="BC22" s="2"/>
-      <c r="BD22" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD22" s="2"/>
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>29</v>
@@ -4589,7 +4592,9 @@
       <c r="E23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="6"/>
@@ -4598,73 +4603,67 @@
         <v>71</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M23" s="2">
         <v>1</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S23" s="2">
-        <v>20</v>
-      </c>
-      <c r="T23" s="2">
-        <v>50</v>
-      </c>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
-      <c r="W23" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X23" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
-      <c r="Z23" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
-      <c r="AC23" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD23" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
-      <c r="AK23" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
-      <c r="AN23" s="2"/>
+      <c r="AN23" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AO23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP23" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AP23" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ23" s="2"/>
-      <c r="AR23" s="2"/>
-      <c r="AS23" s="2"/>
-      <c r="AT23" s="2"/>
+      <c r="AR23" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS23" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT23" s="2">
+        <v>1</v>
+      </c>
       <c r="AU23" s="2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="AV23" s="2"/>
-      <c r="AW23" s="2"/>
-      <c r="AX23" s="2"/>
-      <c r="AY23" s="2"/>
+      <c r="AW23" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX23" s="11"/>
+      <c r="AY23" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ23" s="2">
         <v>1</v>
       </c>
@@ -4673,19 +4672,17 @@
         <v>0</v>
       </c>
       <c r="BC23" s="2"/>
-      <c r="BD23" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD23" s="2"/>
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>29</v>
@@ -4693,7 +4690,9 @@
       <c r="E24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="6"/>
@@ -4702,73 +4701,67 @@
         <v>71</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M24" s="2">
         <v>1</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S24" s="2">
-        <v>20</v>
-      </c>
-      <c r="T24" s="2">
-        <v>50</v>
-      </c>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
-      <c r="W24" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X24" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
-      <c r="Z24" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
-      <c r="AC24" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
-      <c r="AK24" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
-      <c r="AN24" s="2"/>
+      <c r="AN24" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="AO24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP24" s="2"/>
+      <c r="AP24" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ24" s="2"/>
-      <c r="AR24" s="2"/>
-      <c r="AS24" s="2"/>
-      <c r="AT24" s="2"/>
+      <c r="AR24" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS24" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT24" s="2">
+        <v>1</v>
+      </c>
       <c r="AU24" s="2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="AV24" s="2"/>
-      <c r="AW24" s="2"/>
-      <c r="AX24" s="2"/>
-      <c r="AY24" s="2"/>
+      <c r="AW24" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX24" s="11"/>
+      <c r="AY24" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ24" s="2">
         <v>1</v>
       </c>
@@ -4777,13 +4770,11 @@
         <v>0</v>
       </c>
       <c r="BC24" s="2"/>
-      <c r="BD24" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD24" s="2"/>
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>85</v>
@@ -4887,7 +4878,7 @@
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>85</v>
@@ -4991,7 +4982,7 @@
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>85</v>
@@ -5095,7 +5086,7 @@
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>85</v>
@@ -5199,7 +5190,7 @@
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>85</v>
@@ -5242,9 +5233,7 @@
       <c r="T29" s="2">
         <v>50</v>
       </c>
-      <c r="U29" s="2">
-        <v>0.2</v>
-      </c>
+      <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="7">
         <v>0.1</v>
@@ -5305,7 +5294,7 @@
     </row>
     <row r="30" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>85</v>
@@ -5348,9 +5337,7 @@
       <c r="T30" s="2">
         <v>50</v>
       </c>
-      <c r="U30" s="2">
-        <v>0.2</v>
-      </c>
+      <c r="U30" s="2"/>
       <c r="V30" s="2"/>
       <c r="W30" s="7">
         <v>0.1</v>
@@ -5411,7 +5398,7 @@
     </row>
     <row r="31" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>85</v>
@@ -5434,59 +5421,69 @@
         <v>71</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M31" s="2">
         <v>1</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="O31" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
+      <c r="R31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S31" s="2">
+        <v>20</v>
+      </c>
+      <c r="T31" s="2">
+        <v>50</v>
+      </c>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
+      <c r="W31" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2">
         <v>1</v>
       </c>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
+      <c r="AC31" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="2"/>
-      <c r="AK31" s="2"/>
+      <c r="AK31" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL31" s="2"/>
       <c r="AM31" s="2"/>
       <c r="AN31" s="2"/>
       <c r="AO31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP31" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ31" s="2">
-        <v>2</v>
-      </c>
-      <c r="AR31" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS31" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT31" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU31" s="2"/>
+      <c r="AP31" s="2"/>
+      <c r="AQ31" s="2"/>
+      <c r="AR31" s="2"/>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
+      <c r="AU31" s="2">
+        <v>1</v>
+      </c>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2"/>
       <c r="AX31" s="2"/>
@@ -5499,11 +5496,13 @@
         <v>0</v>
       </c>
       <c r="BC31" s="2"/>
-      <c r="BD31" s="2"/>
+      <c r="BD31" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="32" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>85</v>
@@ -5526,59 +5525,71 @@
         <v>71</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M32" s="2">
         <v>1</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="O32" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
+      <c r="R32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S32" s="2">
+        <v>20</v>
+      </c>
+      <c r="T32" s="2">
+        <v>50</v>
+      </c>
+      <c r="U32" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
+      <c r="W32" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2">
         <v>1</v>
       </c>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
+      <c r="AC32" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
       <c r="AJ32" s="2"/>
-      <c r="AK32" s="2"/>
+      <c r="AK32" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
       <c r="AN32" s="2"/>
       <c r="AO32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP32" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ32" s="2">
-        <v>2</v>
-      </c>
-      <c r="AR32" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS32" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT32" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU32" s="2"/>
+      <c r="AP32" s="2"/>
+      <c r="AQ32" s="2"/>
+      <c r="AR32" s="2"/>
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="2"/>
+      <c r="AU32" s="2">
+        <v>1</v>
+      </c>
       <c r="AV32" s="2"/>
       <c r="AW32" s="2"/>
       <c r="AX32" s="2"/>
@@ -5591,11 +5602,13 @@
         <v>0</v>
       </c>
       <c r="BC32" s="2"/>
-      <c r="BD32" s="2"/>
+      <c r="BD32" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="33" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>85</v>
@@ -5618,71 +5631,75 @@
         <v>71</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="M33" s="2">
         <v>1</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="O33" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
+      <c r="R33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S33" s="2">
+        <v>20</v>
+      </c>
+      <c r="T33" s="2">
+        <v>50</v>
+      </c>
+      <c r="U33" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
+      <c r="W33" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X33" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2">
         <v>1</v>
       </c>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
+      <c r="AC33" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
       <c r="AJ33" s="2"/>
-      <c r="AK33" s="2"/>
+      <c r="AK33" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
-      <c r="AN33" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AN33" s="2"/>
       <c r="AO33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP33" s="2">
-        <v>0.1</v>
-      </c>
+      <c r="AP33" s="2"/>
       <c r="AQ33" s="2"/>
-      <c r="AR33" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS33" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT33" s="2">
-        <v>1</v>
-      </c>
+      <c r="AR33" s="2"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="2"/>
       <c r="AU33" s="2">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="AV33" s="2"/>
-      <c r="AW33" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AX33" s="11">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AY33" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="AW33" s="2"/>
+      <c r="AX33" s="2"/>
+      <c r="AY33" s="2"/>
       <c r="AZ33" s="2">
         <v>1</v>
       </c>
@@ -5691,11 +5708,13 @@
         <v>0</v>
       </c>
       <c r="BC33" s="2"/>
-      <c r="BD33" s="2"/>
+      <c r="BD33" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="34" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>85</v>
@@ -5718,71 +5737,59 @@
         <v>71</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M34" s="2">
         <v>1</v>
       </c>
       <c r="N34" s="2"/>
-      <c r="O34" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
-      <c r="R34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S34" s="2">
-        <v>20</v>
-      </c>
-      <c r="T34" s="2">
-        <v>50</v>
-      </c>
-      <c r="U34" s="2">
-        <v>0.2</v>
-      </c>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
       <c r="V34" s="2"/>
-      <c r="W34" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X34" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2">
         <v>1</v>
       </c>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
-      <c r="AC34" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD34" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
       <c r="AJ34" s="2"/>
-      <c r="AK34" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK34" s="2"/>
       <c r="AL34" s="2"/>
       <c r="AM34" s="2"/>
       <c r="AN34" s="2"/>
       <c r="AO34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP34" s="2"/>
-      <c r="AQ34" s="2"/>
-      <c r="AR34" s="2"/>
-      <c r="AS34" s="2"/>
-      <c r="AT34" s="2"/>
-      <c r="AU34" s="2">
-        <v>1</v>
-      </c>
+      <c r="AP34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ34" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR34" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS34" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU34" s="2"/>
       <c r="AV34" s="2"/>
       <c r="AW34" s="2"/>
       <c r="AX34" s="2"/>
@@ -5795,13 +5802,11 @@
         <v>0</v>
       </c>
       <c r="BC34" s="2"/>
-      <c r="BD34" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD34" s="2"/>
     </row>
     <row r="35" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>85</v>
@@ -5893,7 +5898,7 @@
     </row>
     <row r="36" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
@@ -5993,7 +5998,7 @@
     </row>
     <row r="37" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>85</v>
@@ -6007,6 +6012,7 @@
       <c r="E37" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="6"/>
@@ -6015,66 +6021,72 @@
         <v>71</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="M37" s="2">
         <v>1</v>
       </c>
-      <c r="N37" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
+      <c r="R37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S37" s="2">
+        <v>20</v>
+      </c>
+      <c r="T37" s="2">
+        <v>50</v>
+      </c>
+      <c r="U37" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
+      <c r="W37" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X37" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2">
         <v>1</v>
       </c>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
-      <c r="AC37" s="2"/>
-      <c r="AD37" s="2"/>
+      <c r="AC37" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD37" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="2"/>
-      <c r="AK37" s="2"/>
+      <c r="AK37" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL37" s="2"/>
       <c r="AM37" s="2"/>
       <c r="AN37" s="2"/>
       <c r="AO37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP37" s="2">
-        <v>0.1</v>
-      </c>
+      <c r="AP37" s="2"/>
       <c r="AQ37" s="2"/>
-      <c r="AR37" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS37" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT37" s="2">
-        <v>1</v>
-      </c>
+      <c r="AR37" s="2"/>
+      <c r="AS37" s="2"/>
+      <c r="AT37" s="2"/>
       <c r="AU37" s="2">
         <v>1</v>
       </c>
-      <c r="AV37" s="7">
-        <v>2</v>
-      </c>
+      <c r="AV37" s="2"/>
       <c r="AW37" s="2"/>
       <c r="AX37" s="2"/>
       <c r="AY37" s="2"/>
@@ -6086,17 +6098,19 @@
         <v>0</v>
       </c>
       <c r="BC37" s="2"/>
-      <c r="BD37" s="2"/>
+      <c r="BD37" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="38" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>29</v>
@@ -6104,9 +6118,7 @@
       <c r="E38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="6"/>
@@ -6115,69 +6127,59 @@
         <v>71</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M38" s="2">
         <v>1</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
-      <c r="R38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S38" s="2">
-        <v>20</v>
-      </c>
-      <c r="T38" s="2">
-        <v>50</v>
-      </c>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
-      <c r="W38" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X38" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2">
         <v>1</v>
       </c>
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
-      <c r="AC38" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD38" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
       <c r="AJ38" s="2"/>
-      <c r="AK38" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK38" s="2"/>
       <c r="AL38" s="2"/>
       <c r="AM38" s="2"/>
       <c r="AN38" s="2"/>
       <c r="AO38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP38" s="2"/>
-      <c r="AQ38" s="2"/>
-      <c r="AR38" s="2"/>
-      <c r="AS38" s="2"/>
-      <c r="AT38" s="2"/>
-      <c r="AU38" s="2">
-        <v>1</v>
-      </c>
+      <c r="AP38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ38" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR38" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS38" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU38" s="2"/>
       <c r="AV38" s="2"/>
       <c r="AW38" s="2"/>
       <c r="AX38" s="2"/>
@@ -6190,19 +6192,17 @@
         <v>0</v>
       </c>
       <c r="BC38" s="2"/>
-      <c r="BD38" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD38" s="2"/>
     </row>
     <row r="39" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>29</v>
@@ -6210,9 +6210,7 @@
       <c r="E39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="6"/>
@@ -6221,73 +6219,71 @@
         <v>71</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M39" s="2">
         <v>1</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S39" s="2">
-        <v>20</v>
-      </c>
-      <c r="T39" s="2">
-        <v>50</v>
-      </c>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
-      <c r="W39" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X39" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2">
         <v>1</v>
       </c>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
-      <c r="AC39" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD39" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
       <c r="AG39" s="2"/>
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
       <c r="AJ39" s="2"/>
-      <c r="AK39" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK39" s="2"/>
       <c r="AL39" s="2"/>
       <c r="AM39" s="2"/>
-      <c r="AN39" s="2"/>
+      <c r="AN39" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AO39" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP39" s="2"/>
+      <c r="AP39" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ39" s="2"/>
-      <c r="AR39" s="2"/>
-      <c r="AS39" s="2"/>
-      <c r="AT39" s="2"/>
+      <c r="AR39" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS39" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT39" s="2">
+        <v>1</v>
+      </c>
       <c r="AU39" s="2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="AV39" s="2"/>
-      <c r="AW39" s="2"/>
-      <c r="AX39" s="2"/>
-      <c r="AY39" s="2"/>
+      <c r="AW39" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX39" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AY39" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ39" s="2">
         <v>1</v>
       </c>
@@ -6296,28 +6292,23 @@
         <v>0</v>
       </c>
       <c r="BC39" s="2"/>
-      <c r="BD39" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD39" s="2"/>
     </row>
     <row r="40" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -6327,70 +6318,66 @@
         <v>71</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="M40" s="2">
         <v>1</v>
       </c>
-      <c r="N40" s="2"/>
+      <c r="N40" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="O40" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
-      <c r="R40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S40" s="2">
-        <v>20</v>
-      </c>
-      <c r="T40" s="2">
-        <v>50</v>
-      </c>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
-      <c r="W40" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X40" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2">
         <v>1</v>
       </c>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
-      <c r="AC40" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD40" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
       <c r="AJ40" s="2"/>
-      <c r="AK40" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK40" s="2"/>
       <c r="AL40" s="2"/>
       <c r="AM40" s="2"/>
       <c r="AN40" s="2"/>
       <c r="AO40" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP40" s="2"/>
+      <c r="AP40" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ40" s="2"/>
-      <c r="AR40" s="2"/>
-      <c r="AS40" s="2"/>
-      <c r="AT40" s="2"/>
+      <c r="AR40" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS40" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT40" s="2">
+        <v>1</v>
+      </c>
       <c r="AU40" s="2">
         <v>1</v>
       </c>
-      <c r="AV40" s="2"/>
+      <c r="AV40" s="7">
+        <v>2</v>
+      </c>
       <c r="AW40" s="2"/>
       <c r="AX40" s="2"/>
       <c r="AY40" s="2"/>
@@ -6402,13 +6389,11 @@
         <v>0</v>
       </c>
       <c r="BC40" s="2"/>
-      <c r="BD40" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD40" s="2"/>
     </row>
     <row r="41" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>23</v>
@@ -6514,7 +6499,7 @@
     </row>
     <row r="42" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>23</v>
@@ -6620,7 +6605,7 @@
     </row>
     <row r="43" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>23</v>
@@ -6665,9 +6650,7 @@
       <c r="T43" s="2">
         <v>50</v>
       </c>
-      <c r="U43" s="2">
-        <v>0.2</v>
-      </c>
+      <c r="U43" s="2"/>
       <c r="V43" s="2"/>
       <c r="W43" s="7">
         <v>0.1</v>
@@ -6728,7 +6711,7 @@
     </row>
     <row r="44" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>23</v>
@@ -6753,58 +6736,66 @@
         <v>71</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M44" s="2">
         <v>1</v>
       </c>
       <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+      <c r="O44" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
+      <c r="R44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S44" s="2">
+        <v>20</v>
+      </c>
+      <c r="T44" s="2">
+        <v>50</v>
+      </c>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
+      <c r="W44" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X44" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2">
         <v>1</v>
       </c>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
+      <c r="AC44" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD44" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
       <c r="AJ44" s="2"/>
-      <c r="AK44" s="2"/>
+      <c r="AK44" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL44" s="2"/>
       <c r="AM44" s="2"/>
       <c r="AN44" s="2"/>
       <c r="AO44" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP44" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ44" s="2">
-        <v>2</v>
-      </c>
-      <c r="AR44" s="2">
-        <v>1000</v>
-      </c>
-      <c r="AS44" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AT44" s="2">
-        <v>1</v>
-      </c>
+      <c r="AP44" s="2"/>
+      <c r="AQ44" s="2"/>
+      <c r="AR44" s="2"/>
+      <c r="AS44" s="2"/>
+      <c r="AT44" s="2"/>
       <c r="AU44" s="2">
         <v>1</v>
       </c>
@@ -6820,11 +6811,13 @@
         <v>0</v>
       </c>
       <c r="BC44" s="2"/>
-      <c r="BD44" s="2"/>
+      <c r="BD44" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="45" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>23</v>
@@ -6849,71 +6842,73 @@
         <v>71</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="M45" s="2">
         <v>1</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="O45" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
+      <c r="R45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S45" s="2">
+        <v>20</v>
+      </c>
+      <c r="T45" s="2">
+        <v>50</v>
+      </c>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
+      <c r="W45" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X45" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y45" s="2"/>
       <c r="Z45" s="2">
         <v>1</v>
       </c>
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
-      <c r="AC45" s="2"/>
-      <c r="AD45" s="2"/>
+      <c r="AC45" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD45" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
       <c r="AJ45" s="2"/>
-      <c r="AK45" s="2"/>
+      <c r="AK45" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL45" s="2"/>
       <c r="AM45" s="2"/>
-      <c r="AN45" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AN45" s="2"/>
       <c r="AO45" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP45" s="2">
-        <v>0.1</v>
-      </c>
+      <c r="AP45" s="2"/>
       <c r="AQ45" s="2"/>
-      <c r="AR45" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS45" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT45" s="2">
-        <v>1</v>
-      </c>
+      <c r="AR45" s="2"/>
+      <c r="AS45" s="2"/>
+      <c r="AT45" s="2"/>
       <c r="AU45" s="2">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="AV45" s="2"/>
-      <c r="AW45" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AX45" s="11">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AY45" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="AW45" s="2"/>
+      <c r="AX45" s="2"/>
+      <c r="AY45" s="2"/>
       <c r="AZ45" s="2">
         <v>1</v>
       </c>
@@ -6922,11 +6917,13 @@
         <v>0</v>
       </c>
       <c r="BC45" s="2"/>
-      <c r="BD45" s="2"/>
+      <c r="BD45" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="46" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>23</v>
@@ -7034,7 +7031,7 @@
     </row>
     <row r="47" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>23</v>
@@ -7103,15 +7100,17 @@
         <v>2</v>
       </c>
       <c r="AR47" s="2">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="AS47" s="2">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="AT47" s="2">
         <v>1</v>
       </c>
-      <c r="AU47" s="2"/>
+      <c r="AU47" s="2">
+        <v>1</v>
+      </c>
       <c r="AV47" s="2"/>
       <c r="AW47" s="2"/>
       <c r="AX47" s="2"/>
@@ -7128,7 +7127,7 @@
     </row>
     <row r="48" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>23</v>
@@ -7230,7 +7229,7 @@
     </row>
     <row r="49" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>23</v>
@@ -7255,66 +7254,72 @@
         <v>71</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="M49" s="2">
         <v>1</v>
       </c>
-      <c r="N49" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
+      <c r="R49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S49" s="2">
+        <v>20</v>
+      </c>
+      <c r="T49" s="2">
+        <v>50</v>
+      </c>
+      <c r="U49" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
+      <c r="W49" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X49" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2">
         <v>1</v>
       </c>
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
-      <c r="AC49" s="2"/>
-      <c r="AD49" s="2"/>
+      <c r="AC49" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD49" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
       <c r="AJ49" s="2"/>
-      <c r="AK49" s="2"/>
+      <c r="AK49" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL49" s="2"/>
       <c r="AM49" s="2"/>
       <c r="AN49" s="2"/>
       <c r="AO49" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP49" s="2">
-        <v>0.1</v>
-      </c>
+      <c r="AP49" s="2"/>
       <c r="AQ49" s="2"/>
-      <c r="AR49" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS49" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT49" s="2">
-        <v>1</v>
-      </c>
+      <c r="AR49" s="2"/>
+      <c r="AS49" s="2"/>
+      <c r="AT49" s="2"/>
       <c r="AU49" s="2">
         <v>1</v>
       </c>
-      <c r="AV49" s="7">
-        <v>2</v>
-      </c>
+      <c r="AV49" s="2"/>
       <c r="AW49" s="2"/>
       <c r="AX49" s="2"/>
       <c r="AY49" s="2"/>
@@ -7326,17 +7331,19 @@
         <v>0</v>
       </c>
       <c r="BC49" s="2"/>
-      <c r="BD49" s="2"/>
+      <c r="BD49" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="50" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>29</v>
@@ -7344,7 +7351,9 @@
       <c r="E50" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="6"/>
@@ -7353,69 +7362,59 @@
         <v>71</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M50" s="2">
         <v>1</v>
       </c>
       <c r="N50" s="2"/>
-      <c r="O50" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
-      <c r="R50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S50" s="2">
-        <v>20</v>
-      </c>
-      <c r="T50" s="2">
-        <v>50</v>
-      </c>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
-      <c r="W50" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X50" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2">
         <v>1</v>
       </c>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
-      <c r="AC50" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD50" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
       <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
       <c r="AJ50" s="2"/>
-      <c r="AK50" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK50" s="2"/>
       <c r="AL50" s="2"/>
       <c r="AM50" s="2"/>
       <c r="AN50" s="2"/>
       <c r="AO50" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP50" s="2"/>
-      <c r="AQ50" s="2"/>
-      <c r="AR50" s="2"/>
-      <c r="AS50" s="2"/>
-      <c r="AT50" s="2"/>
-      <c r="AU50" s="2">
-        <v>1</v>
-      </c>
+      <c r="AP50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ50" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR50" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS50" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU50" s="2"/>
       <c r="AV50" s="2"/>
       <c r="AW50" s="2"/>
       <c r="AX50" s="2"/>
@@ -7428,19 +7427,17 @@
         <v>0</v>
       </c>
       <c r="BC50" s="2"/>
-      <c r="BD50" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD50" s="2"/>
     </row>
     <row r="51" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>29</v>
@@ -7448,7 +7445,9 @@
       <c r="E51" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F51" s="2"/>
+      <c r="F51" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="6"/>
@@ -7457,73 +7456,71 @@
         <v>71</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M51" s="2">
         <v>1</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
-      <c r="R51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S51" s="2">
-        <v>20</v>
-      </c>
-      <c r="T51" s="2">
-        <v>50</v>
-      </c>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
-      <c r="W51" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X51" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2">
         <v>1</v>
       </c>
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
-      <c r="AC51" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD51" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
       <c r="AJ51" s="2"/>
-      <c r="AK51" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK51" s="2"/>
       <c r="AL51" s="2"/>
       <c r="AM51" s="2"/>
-      <c r="AN51" s="2"/>
+      <c r="AN51" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AO51" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP51" s="2"/>
+      <c r="AP51" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ51" s="2"/>
-      <c r="AR51" s="2"/>
-      <c r="AS51" s="2"/>
-      <c r="AT51" s="2"/>
+      <c r="AR51" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS51" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT51" s="2">
+        <v>1</v>
+      </c>
       <c r="AU51" s="2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="AV51" s="2"/>
-      <c r="AW51" s="2"/>
-      <c r="AX51" s="2"/>
-      <c r="AY51" s="2"/>
+      <c r="AW51" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX51" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AY51" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ51" s="2">
         <v>1</v>
       </c>
@@ -7532,19 +7529,17 @@
         <v>0</v>
       </c>
       <c r="BC51" s="2"/>
-      <c r="BD51" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD51" s="2"/>
     </row>
     <row r="52" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>29</v>
@@ -7552,7 +7547,9 @@
       <c r="E52" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="6"/>
@@ -7561,70 +7558,66 @@
         <v>71</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="M52" s="2">
         <v>1</v>
       </c>
-      <c r="N52" s="2"/>
+      <c r="N52" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="O52" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
-      <c r="R52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S52" s="2">
-        <v>20</v>
-      </c>
-      <c r="T52" s="2">
-        <v>50</v>
-      </c>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
-      <c r="W52" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X52" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
       <c r="Z52" s="2">
         <v>1</v>
       </c>
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
-      <c r="AC52" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD52" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
       <c r="AG52" s="2"/>
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
       <c r="AJ52" s="2"/>
-      <c r="AK52" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK52" s="2"/>
       <c r="AL52" s="2"/>
       <c r="AM52" s="2"/>
       <c r="AN52" s="2"/>
       <c r="AO52" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP52" s="2"/>
+      <c r="AP52" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ52" s="2"/>
-      <c r="AR52" s="2"/>
-      <c r="AS52" s="2"/>
-      <c r="AT52" s="2"/>
+      <c r="AR52" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS52" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT52" s="2">
+        <v>1</v>
+      </c>
       <c r="AU52" s="2">
         <v>1</v>
       </c>
-      <c r="AV52" s="2"/>
+      <c r="AV52" s="7">
+        <v>2</v>
+      </c>
       <c r="AW52" s="2"/>
       <c r="AX52" s="2"/>
       <c r="AY52" s="2"/>
@@ -7636,13 +7629,11 @@
         <v>0</v>
       </c>
       <c r="BC52" s="2"/>
-      <c r="BD52" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD52" s="2"/>
     </row>
     <row r="53" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>85</v>
@@ -7746,7 +7737,7 @@
     </row>
     <row r="54" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>85</v>
@@ -7850,7 +7841,7 @@
     </row>
     <row r="55" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>85</v>
@@ -7954,7 +7945,7 @@
     </row>
     <row r="56" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>85</v>
@@ -8057,7 +8048,319 @@
       </c>
     </row>
     <row r="57" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="Z57" s="13"/>
+      <c r="A57" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M57" s="2">
+        <v>1</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S57" s="2">
+        <v>20</v>
+      </c>
+      <c r="T57" s="2">
+        <v>50</v>
+      </c>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD57" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE57" s="2"/>
+      <c r="AF57" s="2"/>
+      <c r="AG57" s="2"/>
+      <c r="AH57" s="2"/>
+      <c r="AI57" s="2"/>
+      <c r="AJ57" s="2"/>
+      <c r="AK57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL57" s="2"/>
+      <c r="AM57" s="2"/>
+      <c r="AN57" s="2"/>
+      <c r="AO57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP57" s="2"/>
+      <c r="AQ57" s="2"/>
+      <c r="AR57" s="2"/>
+      <c r="AS57" s="2"/>
+      <c r="AT57" s="2"/>
+      <c r="AU57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV57" s="2"/>
+      <c r="AW57" s="2"/>
+      <c r="AX57" s="2"/>
+      <c r="AY57" s="2"/>
+      <c r="AZ57" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA57" s="2"/>
+      <c r="BB57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC57" s="2"/>
+      <c r="BD57" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M58" s="2">
+        <v>1</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S58" s="2">
+        <v>20</v>
+      </c>
+      <c r="T58" s="2">
+        <v>50</v>
+      </c>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X58" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA58" s="2"/>
+      <c r="AB58" s="2"/>
+      <c r="AC58" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD58" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE58" s="2"/>
+      <c r="AF58" s="2"/>
+      <c r="AG58" s="2"/>
+      <c r="AH58" s="2"/>
+      <c r="AI58" s="2"/>
+      <c r="AJ58" s="2"/>
+      <c r="AK58" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL58" s="2"/>
+      <c r="AM58" s="2"/>
+      <c r="AN58" s="2"/>
+      <c r="AO58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP58" s="2"/>
+      <c r="AQ58" s="2"/>
+      <c r="AR58" s="2"/>
+      <c r="AS58" s="2"/>
+      <c r="AT58" s="2"/>
+      <c r="AU58" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV58" s="2"/>
+      <c r="AW58" s="2"/>
+      <c r="AX58" s="2"/>
+      <c r="AY58" s="2"/>
+      <c r="AZ58" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA58" s="2"/>
+      <c r="BB58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC58" s="2"/>
+      <c r="BD58" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M59" s="2">
+        <v>1</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S59" s="2">
+        <v>20</v>
+      </c>
+      <c r="T59" s="2">
+        <v>50</v>
+      </c>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="2"/>
+      <c r="AC59" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD59" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE59" s="2"/>
+      <c r="AF59" s="2"/>
+      <c r="AG59" s="2"/>
+      <c r="AH59" s="2"/>
+      <c r="AI59" s="2"/>
+      <c r="AJ59" s="2"/>
+      <c r="AK59" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL59" s="2"/>
+      <c r="AM59" s="2"/>
+      <c r="AN59" s="2"/>
+      <c r="AO59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP59" s="2"/>
+      <c r="AQ59" s="2"/>
+      <c r="AR59" s="2"/>
+      <c r="AS59" s="2"/>
+      <c r="AT59" s="2"/>
+      <c r="AU59" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV59" s="2"/>
+      <c r="AW59" s="2"/>
+      <c r="AX59" s="2"/>
+      <c r="AY59" s="2"/>
+      <c r="AZ59" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA59" s="2"/>
+      <c r="BB59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC59" s="2"/>
+      <c r="BD59" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="Z60" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D613497-8984-4925-BFC5-A816582B4904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9051E885-E0F1-484D-828B-061138AFA5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="186">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -2295,9 +2295,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
   <dimension ref="A1:BG60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AR7" sqref="AR7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3109,7 +3109,9 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
-      <c r="AO7" s="2"/>
+      <c r="AO7" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
       <c r="AR7" s="2"/>
@@ -4832,10 +4834,10 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="AD25" s="2">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
@@ -4936,10 +4938,10 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="AD26" s="2">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
@@ -5040,10 +5042,10 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="AD27" s="2">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
@@ -5144,10 +5146,10 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="AD28" s="2">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
@@ -5248,10 +5250,10 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="AD29" s="2">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
@@ -5352,10 +5354,10 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="AD30" s="2">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
@@ -5456,10 +5458,10 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" s="2">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="AD31" s="2">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
@@ -5562,10 +5564,10 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="AD32" s="2">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
@@ -5668,10 +5670,10 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="AD33" s="2">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9051E885-E0F1-484D-828B-061138AFA5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E5CAF3-9104-4898-8256-5F444C582081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="189">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -541,9 +541,6 @@
     <t>XRP</t>
   </si>
   <si>
-    <t>test@Binance</t>
-  </si>
-  <si>
     <t>QA_TestCase_Auto_NitroX_079</t>
   </si>
   <si>
@@ -575,6 +572,18 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_054</t>
+  </si>
+  <si>
+    <t>test@Ftx.</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_055</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_042</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_043</t>
   </si>
 </sst>
 </file>
@@ -2293,11 +2302,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BG60"/>
+  <dimension ref="A1:BG63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR7" sqref="AR7"/>
+      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AI17" sqref="AI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3507,7 +3516,7 @@
         <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>173</v>
@@ -3603,7 +3612,7 @@
         <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>173</v>
@@ -3699,7 +3708,7 @@
         <v>85</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>173</v>
@@ -3795,7 +3804,7 @@
         <v>85</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>173</v>
@@ -3885,7 +3894,7 @@
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -3899,15 +3908,9 @@
         <v>98</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I16" s="6">
-        <v>25</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
         <v>71</v>
       </c>
@@ -3932,7 +3935,9 @@
       <c r="T16" s="2">
         <v>50</v>
       </c>
-      <c r="U16" s="2"/>
+      <c r="U16" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V16" s="2"/>
       <c r="W16" s="7">
         <v>0.1</v>
@@ -3940,19 +3945,17 @@
       <c r="X16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Y16" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" s="2">
-        <v>1200</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="AD16" s="2">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
@@ -3975,7 +3978,7 @@
       <c r="AS16" s="2"/>
       <c r="AT16" s="2"/>
       <c r="AU16" s="2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
@@ -3995,7 +3998,7 @@
     </row>
     <row r="17" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -4009,15 +4012,9 @@
         <v>98</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" s="6">
-        <v>25</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
         <v>71</v>
       </c>
@@ -4034,7 +4031,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="S17" s="2">
         <v>20</v>
@@ -4042,7 +4039,9 @@
       <c r="T17" s="2">
         <v>50</v>
       </c>
-      <c r="U17" s="2"/>
+      <c r="U17" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V17" s="2"/>
       <c r="W17" s="7">
         <v>0.1</v>
@@ -4050,19 +4049,17 @@
       <c r="X17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Y17" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" s="2">
         <v>1</v>
       </c>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="AD17" s="2">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
@@ -4105,7 +4102,7 @@
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -4113,71 +4110,89 @@
       <c r="C18" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="6">
+        <v>25</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="K18" s="2" t="s">
         <v>71</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M18" s="2">
         <v>1</v>
       </c>
       <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="O18" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
+      <c r="R18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S18" s="2">
+        <v>20</v>
+      </c>
+      <c r="T18" s="2">
+        <v>50</v>
+      </c>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
+      <c r="W18" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="Z18" s="2">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
+      <c r="AC18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>2000</v>
+      </c>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
-      <c r="AK18" s="2"/>
+      <c r="AK18" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" s="2"/>
       <c r="AO18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP18" s="2">
-        <v>20</v>
-      </c>
+      <c r="AP18" s="2"/>
       <c r="AQ18" s="2"/>
-      <c r="AR18" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AS18" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AT18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2"/>
       <c r="AU18" s="2">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
@@ -4191,11 +4206,13 @@
         <v>0</v>
       </c>
       <c r="BC18" s="2"/>
-      <c r="BD18" s="2"/>
+      <c r="BD18" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -4203,68 +4220,89 @@
       <c r="C19" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="6">
+        <v>25</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="K19" s="2" t="s">
         <v>71</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M19" s="2">
         <v>1</v>
       </c>
       <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="O19" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
+      <c r="R19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S19" s="2">
+        <v>20</v>
+      </c>
+      <c r="T19" s="2">
+        <v>50</v>
+      </c>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
+      <c r="W19" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="Z19" s="2">
         <v>1</v>
       </c>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
+      <c r="AC19" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>1000</v>
+      </c>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
-      <c r="AK19" s="2"/>
+      <c r="AK19" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AP19" s="2">
-        <v>20</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AP19" s="2"/>
       <c r="AQ19" s="2"/>
-      <c r="AR19" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AS19" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AT19" s="2">
-        <v>1</v>
-      </c>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
       <c r="AU19" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
@@ -4278,11 +4316,13 @@
         <v>0</v>
       </c>
       <c r="BC19" s="2"/>
-      <c r="BD19" s="2"/>
+      <c r="BD19" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="20" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
@@ -4290,34 +4330,26 @@
       <c r="C20" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="6"/>
+      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2" t="s">
         <v>71</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="M20" s="2">
         <v>1</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
@@ -4349,24 +4381,22 @@
         <v>32</v>
       </c>
       <c r="AP20" s="2">
-        <v>0.1</v>
+        <v>20</v>
       </c>
       <c r="AQ20" s="2"/>
       <c r="AR20" s="2">
-        <v>3000</v>
+        <v>0.2</v>
       </c>
       <c r="AS20" s="2">
-        <v>4000</v>
+        <v>0.5</v>
       </c>
       <c r="AT20" s="2">
         <v>1</v>
       </c>
       <c r="AU20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AV20" s="2">
-        <v>2</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
       <c r="AX20" s="2"/>
       <c r="AY20" s="2"/>
@@ -4382,7 +4412,7 @@
     </row>
     <row r="21" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
@@ -4390,34 +4420,23 @@
       <c r="C21" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="6"/>
+      <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2" t="s">
         <v>71</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="M21" s="2">
         <v>1</v>
       </c>
-      <c r="N21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
@@ -4449,24 +4468,22 @@
         <v>77</v>
       </c>
       <c r="AP21" s="2">
-        <v>0.1</v>
+        <v>20</v>
       </c>
       <c r="AQ21" s="2"/>
       <c r="AR21" s="2">
-        <v>3000</v>
+        <v>0.2</v>
       </c>
       <c r="AS21" s="2">
-        <v>4000</v>
+        <v>0.5</v>
       </c>
       <c r="AT21" s="2">
         <v>1</v>
       </c>
       <c r="AU21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AV21" s="2">
-        <v>2</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
       <c r="AX21" s="2"/>
       <c r="AY21" s="2"/>
@@ -4482,7 +4499,7 @@
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
@@ -4507,13 +4524,17 @@
         <v>71</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="M22" s="2">
         <v>1</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="N22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -4524,7 +4545,9 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
+      <c r="Z22" s="2">
+        <v>1</v>
+      </c>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
@@ -4538,9 +4561,7 @@
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
-      <c r="AN22" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AN22" s="2"/>
       <c r="AO22" s="2" t="s">
         <v>32</v>
       </c>
@@ -4558,16 +4579,14 @@
         <v>1</v>
       </c>
       <c r="AU22" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="AV22" s="2"/>
-      <c r="AW22" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AX22" s="11"/>
-      <c r="AY22" s="2" t="s">
-        <v>85</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="AV22" s="2">
+        <v>2</v>
+      </c>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
       <c r="AZ22" s="2">
         <v>1</v>
       </c>
@@ -4580,7 +4599,7 @@
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
@@ -4605,13 +4624,17 @@
         <v>71</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="M23" s="2">
         <v>1</v>
       </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="N23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -4622,7 +4645,9 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
+      <c r="Z23" s="2">
+        <v>1</v>
+      </c>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
@@ -4636,9 +4661,7 @@
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
-      <c r="AN23" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AN23" s="2"/>
       <c r="AO23" s="2" t="s">
         <v>77</v>
       </c>
@@ -4656,16 +4679,14 @@
         <v>1</v>
       </c>
       <c r="AU23" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="AV23" s="2"/>
-      <c r="AW23" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AX23" s="11"/>
-      <c r="AY23" s="2" t="s">
-        <v>85</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="AV23" s="2">
+        <v>2</v>
+      </c>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
       <c r="AZ23" s="2">
         <v>1</v>
       </c>
@@ -4678,13 +4699,13 @@
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>29</v>
@@ -4735,7 +4756,7 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="AO24" s="2" t="s">
         <v>32</v>
@@ -4776,13 +4797,13 @@
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>29</v>
@@ -4790,7 +4811,9 @@
       <c r="E25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="6"/>
@@ -4799,73 +4822,67 @@
         <v>71</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M25" s="2">
         <v>1</v>
       </c>
       <c r="N25" s="2"/>
-      <c r="O25" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-      <c r="R25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S25" s="2">
-        <v>20</v>
-      </c>
-      <c r="T25" s="2">
-        <v>50</v>
-      </c>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
-      <c r="W25" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X25" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
-      <c r="Z25" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
-      <c r="AC25" s="2">
-        <v>1200</v>
-      </c>
-      <c r="AD25" s="2">
-        <v>2000</v>
-      </c>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
-      <c r="AK25" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
-      <c r="AN25" s="2"/>
+      <c r="AN25" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AO25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP25" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AP25" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ25" s="2"/>
-      <c r="AR25" s="2"/>
-      <c r="AS25" s="2"/>
-      <c r="AT25" s="2"/>
+      <c r="AR25" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS25" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT25" s="2">
+        <v>1</v>
+      </c>
       <c r="AU25" s="2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="AV25" s="2"/>
-      <c r="AW25" s="2"/>
-      <c r="AX25" s="2"/>
-      <c r="AY25" s="2"/>
+      <c r="AW25" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX25" s="11"/>
+      <c r="AY25" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ25" s="2">
         <v>1</v>
       </c>
@@ -4874,19 +4891,17 @@
         <v>0</v>
       </c>
       <c r="BC25" s="2"/>
-      <c r="BD25" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD25" s="2"/>
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>29</v>
@@ -4894,7 +4909,9 @@
       <c r="E26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="6"/>
@@ -4903,73 +4920,67 @@
         <v>71</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M26" s="2">
         <v>1</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-      <c r="R26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S26" s="2">
-        <v>20</v>
-      </c>
-      <c r="T26" s="2">
-        <v>50</v>
-      </c>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
-      <c r="W26" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X26" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
-      <c r="Z26" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
-      <c r="AC26" s="2">
-        <v>1200</v>
-      </c>
-      <c r="AD26" s="2">
-        <v>2000</v>
-      </c>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
-      <c r="AK26" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
-      <c r="AN26" s="2"/>
+      <c r="AN26" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="AO26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP26" s="2"/>
+      <c r="AP26" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ26" s="2"/>
-      <c r="AR26" s="2"/>
-      <c r="AS26" s="2"/>
-      <c r="AT26" s="2"/>
+      <c r="AR26" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS26" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT26" s="2">
+        <v>1</v>
+      </c>
       <c r="AU26" s="2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="AV26" s="2"/>
-      <c r="AW26" s="2"/>
-      <c r="AX26" s="2"/>
-      <c r="AY26" s="2"/>
+      <c r="AW26" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX26" s="11"/>
+      <c r="AY26" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ26" s="2">
         <v>1</v>
       </c>
@@ -4978,19 +4989,17 @@
         <v>0</v>
       </c>
       <c r="BC26" s="2"/>
-      <c r="BD26" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD26" s="2"/>
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>29</v>
@@ -4998,7 +5007,9 @@
       <c r="E27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="6"/>
@@ -5007,73 +5018,67 @@
         <v>71</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M27" s="2">
         <v>1</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
-      <c r="R27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S27" s="2">
-        <v>20</v>
-      </c>
-      <c r="T27" s="2">
-        <v>50</v>
-      </c>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
-      <c r="W27" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X27" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
-      <c r="Z27" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
-      <c r="AC27" s="2">
-        <v>1200</v>
-      </c>
-      <c r="AD27" s="2">
-        <v>2000</v>
-      </c>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="2"/>
-      <c r="AK27" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
-      <c r="AN27" s="2"/>
+      <c r="AN27" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AO27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP27" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AP27" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ27" s="2"/>
-      <c r="AR27" s="2"/>
-      <c r="AS27" s="2"/>
-      <c r="AT27" s="2"/>
+      <c r="AR27" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS27" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT27" s="2">
+        <v>1</v>
+      </c>
       <c r="AU27" s="2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="AV27" s="2"/>
-      <c r="AW27" s="2"/>
-      <c r="AX27" s="2"/>
-      <c r="AY27" s="2"/>
+      <c r="AW27" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX27" s="11"/>
+      <c r="AY27" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ27" s="2">
         <v>1</v>
       </c>
@@ -5082,13 +5087,11 @@
         <v>0</v>
       </c>
       <c r="BC27" s="2"/>
-      <c r="BD27" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD27" s="2"/>
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>85</v>
@@ -5192,7 +5195,7 @@
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>85</v>
@@ -5296,7 +5299,7 @@
     </row>
     <row r="30" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>85</v>
@@ -5400,7 +5403,7 @@
     </row>
     <row r="31" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>85</v>
@@ -5504,7 +5507,7 @@
     </row>
     <row r="32" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>85</v>
@@ -5547,9 +5550,7 @@
       <c r="T32" s="2">
         <v>50</v>
       </c>
-      <c r="U32" s="2">
-        <v>0.2</v>
-      </c>
+      <c r="U32" s="2"/>
       <c r="V32" s="2"/>
       <c r="W32" s="7">
         <v>0.1</v>
@@ -5610,7 +5611,7 @@
     </row>
     <row r="33" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>85</v>
@@ -5653,9 +5654,7 @@
       <c r="T33" s="2">
         <v>50</v>
       </c>
-      <c r="U33" s="2">
-        <v>0.2</v>
-      </c>
+      <c r="U33" s="2"/>
       <c r="V33" s="2"/>
       <c r="W33" s="7">
         <v>0.1</v>
@@ -5716,7 +5715,7 @@
     </row>
     <row r="34" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>85</v>
@@ -5739,59 +5738,69 @@
         <v>71</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M34" s="2">
         <v>1</v>
       </c>
       <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="O34" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
+      <c r="R34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S34" s="2">
+        <v>20</v>
+      </c>
+      <c r="T34" s="2">
+        <v>50</v>
+      </c>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
+      <c r="W34" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X34" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2">
         <v>1</v>
       </c>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
+      <c r="AC34" s="2">
+        <v>1200</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>2000</v>
+      </c>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
       <c r="AJ34" s="2"/>
-      <c r="AK34" s="2"/>
+      <c r="AK34" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL34" s="2"/>
       <c r="AM34" s="2"/>
       <c r="AN34" s="2"/>
       <c r="AO34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP34" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ34" s="2">
-        <v>2</v>
-      </c>
-      <c r="AR34" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS34" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT34" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU34" s="2"/>
+      <c r="AP34" s="2"/>
+      <c r="AQ34" s="2"/>
+      <c r="AR34" s="2"/>
+      <c r="AS34" s="2"/>
+      <c r="AT34" s="2"/>
+      <c r="AU34" s="2">
+        <v>1</v>
+      </c>
       <c r="AV34" s="2"/>
       <c r="AW34" s="2"/>
       <c r="AX34" s="2"/>
@@ -5804,11 +5813,13 @@
         <v>0</v>
       </c>
       <c r="BC34" s="2"/>
-      <c r="BD34" s="2"/>
+      <c r="BD34" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="35" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>85</v>
@@ -5831,59 +5842,71 @@
         <v>71</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M35" s="2">
         <v>1</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="O35" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
+      <c r="R35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S35" s="2">
+        <v>20</v>
+      </c>
+      <c r="T35" s="2">
+        <v>50</v>
+      </c>
+      <c r="U35" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
+      <c r="W35" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X35" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2">
         <v>1</v>
       </c>
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
-      <c r="AC35" s="2"/>
-      <c r="AD35" s="2"/>
+      <c r="AC35" s="2">
+        <v>1200</v>
+      </c>
+      <c r="AD35" s="2">
+        <v>2000</v>
+      </c>
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
       <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
       <c r="AJ35" s="2"/>
-      <c r="AK35" s="2"/>
+      <c r="AK35" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL35" s="2"/>
       <c r="AM35" s="2"/>
       <c r="AN35" s="2"/>
       <c r="AO35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP35" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ35" s="2">
-        <v>2</v>
-      </c>
-      <c r="AR35" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS35" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT35" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU35" s="2"/>
+      <c r="AP35" s="2"/>
+      <c r="AQ35" s="2"/>
+      <c r="AR35" s="2"/>
+      <c r="AS35" s="2"/>
+      <c r="AT35" s="2"/>
+      <c r="AU35" s="2">
+        <v>1</v>
+      </c>
       <c r="AV35" s="2"/>
       <c r="AW35" s="2"/>
       <c r="AX35" s="2"/>
@@ -5896,11 +5919,13 @@
         <v>0</v>
       </c>
       <c r="BC35" s="2"/>
-      <c r="BD35" s="2"/>
+      <c r="BD35" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="36" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
@@ -5923,71 +5948,75 @@
         <v>71</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="M36" s="2">
         <v>1</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="O36" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
+      <c r="R36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S36" s="2">
+        <v>20</v>
+      </c>
+      <c r="T36" s="2">
+        <v>50</v>
+      </c>
+      <c r="U36" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
+      <c r="W36" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X36" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2">
         <v>1</v>
       </c>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="2"/>
+      <c r="AC36" s="2">
+        <v>1200</v>
+      </c>
+      <c r="AD36" s="2">
+        <v>2000</v>
+      </c>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
       <c r="AJ36" s="2"/>
-      <c r="AK36" s="2"/>
+      <c r="AK36" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL36" s="2"/>
       <c r="AM36" s="2"/>
-      <c r="AN36" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AN36" s="2"/>
       <c r="AO36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP36" s="2">
-        <v>0.1</v>
-      </c>
+      <c r="AP36" s="2"/>
       <c r="AQ36" s="2"/>
-      <c r="AR36" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS36" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT36" s="2">
-        <v>1</v>
-      </c>
+      <c r="AR36" s="2"/>
+      <c r="AS36" s="2"/>
+      <c r="AT36" s="2"/>
       <c r="AU36" s="2">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="AV36" s="2"/>
-      <c r="AW36" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AX36" s="11">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AY36" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="AW36" s="2"/>
+      <c r="AX36" s="2"/>
+      <c r="AY36" s="2"/>
       <c r="AZ36" s="2">
         <v>1</v>
       </c>
@@ -5996,11 +6025,13 @@
         <v>0</v>
       </c>
       <c r="BC36" s="2"/>
-      <c r="BD36" s="2"/>
+      <c r="BD36" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="37" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>85</v>
@@ -6023,71 +6054,59 @@
         <v>71</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M37" s="2">
         <v>1</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
-      <c r="R37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S37" s="2">
-        <v>20</v>
-      </c>
-      <c r="T37" s="2">
-        <v>50</v>
-      </c>
-      <c r="U37" s="2">
-        <v>0.2</v>
-      </c>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
       <c r="V37" s="2"/>
-      <c r="W37" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X37" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2">
         <v>1</v>
       </c>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
-      <c r="AC37" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD37" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="2"/>
-      <c r="AK37" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK37" s="2"/>
       <c r="AL37" s="2"/>
       <c r="AM37" s="2"/>
       <c r="AN37" s="2"/>
       <c r="AO37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP37" s="2"/>
-      <c r="AQ37" s="2"/>
-      <c r="AR37" s="2"/>
-      <c r="AS37" s="2"/>
-      <c r="AT37" s="2"/>
-      <c r="AU37" s="2">
-        <v>1</v>
-      </c>
+      <c r="AP37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ37" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR37" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS37" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU37" s="2"/>
       <c r="AV37" s="2"/>
       <c r="AW37" s="2"/>
       <c r="AX37" s="2"/>
@@ -6100,13 +6119,11 @@
         <v>0</v>
       </c>
       <c r="BC37" s="2"/>
-      <c r="BD37" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD37" s="2"/>
     </row>
     <row r="38" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>85</v>
@@ -6198,7 +6215,7 @@
     </row>
     <row r="39" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>85</v>
@@ -6298,7 +6315,7 @@
     </row>
     <row r="40" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>85</v>
@@ -6312,6 +6329,7 @@
       <c r="E40" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="6"/>
@@ -6320,66 +6338,72 @@
         <v>71</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="M40" s="2">
         <v>1</v>
       </c>
-      <c r="N40" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
+      <c r="R40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S40" s="2">
+        <v>20</v>
+      </c>
+      <c r="T40" s="2">
+        <v>50</v>
+      </c>
+      <c r="U40" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
+      <c r="W40" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2">
         <v>1</v>
       </c>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
-      <c r="AC40" s="2"/>
-      <c r="AD40" s="2"/>
+      <c r="AC40" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD40" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
       <c r="AJ40" s="2"/>
-      <c r="AK40" s="2"/>
+      <c r="AK40" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL40" s="2"/>
       <c r="AM40" s="2"/>
       <c r="AN40" s="2"/>
       <c r="AO40" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP40" s="2">
-        <v>0.1</v>
-      </c>
+      <c r="AP40" s="2"/>
       <c r="AQ40" s="2"/>
-      <c r="AR40" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS40" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT40" s="2">
-        <v>1</v>
-      </c>
+      <c r="AR40" s="2"/>
+      <c r="AS40" s="2"/>
+      <c r="AT40" s="2"/>
       <c r="AU40" s="2">
         <v>1</v>
       </c>
-      <c r="AV40" s="7">
-        <v>2</v>
-      </c>
+      <c r="AV40" s="2"/>
       <c r="AW40" s="2"/>
       <c r="AX40" s="2"/>
       <c r="AY40" s="2"/>
@@ -6391,17 +6415,19 @@
         <v>0</v>
       </c>
       <c r="BC40" s="2"/>
-      <c r="BD40" s="2"/>
+      <c r="BD40" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="41" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>29</v>
@@ -6409,9 +6435,7 @@
       <c r="E41" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="6"/>
@@ -6420,69 +6444,59 @@
         <v>71</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M41" s="2">
         <v>1</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
-      <c r="R41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S41" s="2">
-        <v>20</v>
-      </c>
-      <c r="T41" s="2">
-        <v>50</v>
-      </c>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
-      <c r="W41" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X41" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
       <c r="Z41" s="2">
         <v>1</v>
       </c>
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
-      <c r="AC41" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD41" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
       <c r="AG41" s="2"/>
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
       <c r="AJ41" s="2"/>
-      <c r="AK41" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK41" s="2"/>
       <c r="AL41" s="2"/>
       <c r="AM41" s="2"/>
       <c r="AN41" s="2"/>
       <c r="AO41" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP41" s="2"/>
-      <c r="AQ41" s="2"/>
-      <c r="AR41" s="2"/>
-      <c r="AS41" s="2"/>
-      <c r="AT41" s="2"/>
-      <c r="AU41" s="2">
-        <v>1</v>
-      </c>
+      <c r="AP41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ41" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR41" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS41" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU41" s="2"/>
       <c r="AV41" s="2"/>
       <c r="AW41" s="2"/>
       <c r="AX41" s="2"/>
@@ -6495,19 +6509,17 @@
         <v>0</v>
       </c>
       <c r="BC41" s="2"/>
-      <c r="BD41" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD41" s="2"/>
     </row>
     <row r="42" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>29</v>
@@ -6515,9 +6527,7 @@
       <c r="E42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="6"/>
@@ -6526,73 +6536,71 @@
         <v>71</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M42" s="2">
         <v>1</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
-      <c r="R42" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S42" s="2">
-        <v>20</v>
-      </c>
-      <c r="T42" s="2">
-        <v>50</v>
-      </c>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
-      <c r="W42" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X42" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2">
         <v>1</v>
       </c>
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
-      <c r="AC42" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD42" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
       <c r="AJ42" s="2"/>
-      <c r="AK42" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK42" s="2"/>
       <c r="AL42" s="2"/>
       <c r="AM42" s="2"/>
-      <c r="AN42" s="2"/>
+      <c r="AN42" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AO42" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP42" s="2"/>
+      <c r="AP42" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ42" s="2"/>
-      <c r="AR42" s="2"/>
-      <c r="AS42" s="2"/>
-      <c r="AT42" s="2"/>
+      <c r="AR42" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS42" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT42" s="2">
+        <v>1</v>
+      </c>
       <c r="AU42" s="2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="AV42" s="2"/>
-      <c r="AW42" s="2"/>
-      <c r="AX42" s="2"/>
-      <c r="AY42" s="2"/>
+      <c r="AW42" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX42" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AY42" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ42" s="2">
         <v>1</v>
       </c>
@@ -6601,28 +6609,23 @@
         <v>0</v>
       </c>
       <c r="BC42" s="2"/>
-      <c r="BD42" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD42" s="2"/>
     </row>
     <row r="43" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -6632,70 +6635,66 @@
         <v>71</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="M43" s="2">
         <v>1</v>
       </c>
-      <c r="N43" s="2"/>
+      <c r="N43" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="O43" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S43" s="2">
-        <v>20</v>
-      </c>
-      <c r="T43" s="2">
-        <v>50</v>
-      </c>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
-      <c r="W43" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X43" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2">
         <v>1</v>
       </c>
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
-      <c r="AC43" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD43" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
       <c r="AJ43" s="2"/>
-      <c r="AK43" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK43" s="2"/>
       <c r="AL43" s="2"/>
       <c r="AM43" s="2"/>
       <c r="AN43" s="2"/>
       <c r="AO43" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP43" s="2"/>
+      <c r="AP43" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ43" s="2"/>
-      <c r="AR43" s="2"/>
-      <c r="AS43" s="2"/>
-      <c r="AT43" s="2"/>
+      <c r="AR43" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS43" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT43" s="2">
+        <v>1</v>
+      </c>
       <c r="AU43" s="2">
         <v>1</v>
       </c>
-      <c r="AV43" s="2"/>
+      <c r="AV43" s="7">
+        <v>2</v>
+      </c>
       <c r="AW43" s="2"/>
       <c r="AX43" s="2"/>
       <c r="AY43" s="2"/>
@@ -6707,13 +6706,11 @@
         <v>0</v>
       </c>
       <c r="BC43" s="2"/>
-      <c r="BD43" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD43" s="2"/>
     </row>
     <row r="44" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>23</v>
@@ -6819,7 +6816,7 @@
     </row>
     <row r="45" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>23</v>
@@ -6925,7 +6922,7 @@
     </row>
     <row r="46" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>23</v>
@@ -6970,9 +6967,7 @@
       <c r="T46" s="2">
         <v>50</v>
       </c>
-      <c r="U46" s="2">
-        <v>0.2</v>
-      </c>
+      <c r="U46" s="2"/>
       <c r="V46" s="2"/>
       <c r="W46" s="7">
         <v>0.1</v>
@@ -7033,7 +7028,7 @@
     </row>
     <row r="47" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>23</v>
@@ -7058,58 +7053,66 @@
         <v>71</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M47" s="2">
         <v>1</v>
       </c>
       <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+      <c r="O47" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
+      <c r="R47" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S47" s="2">
+        <v>20</v>
+      </c>
+      <c r="T47" s="2">
+        <v>50</v>
+      </c>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
+      <c r="W47" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X47" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y47" s="2"/>
       <c r="Z47" s="2">
         <v>1</v>
       </c>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
-      <c r="AC47" s="2"/>
-      <c r="AD47" s="2"/>
+      <c r="AC47" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD47" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
       <c r="AJ47" s="2"/>
-      <c r="AK47" s="2"/>
+      <c r="AK47" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL47" s="2"/>
       <c r="AM47" s="2"/>
       <c r="AN47" s="2"/>
       <c r="AO47" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP47" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ47" s="2">
-        <v>2</v>
-      </c>
-      <c r="AR47" s="2">
-        <v>1000</v>
-      </c>
-      <c r="AS47" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AT47" s="2">
-        <v>1</v>
-      </c>
+      <c r="AP47" s="2"/>
+      <c r="AQ47" s="2"/>
+      <c r="AR47" s="2"/>
+      <c r="AS47" s="2"/>
+      <c r="AT47" s="2"/>
       <c r="AU47" s="2">
         <v>1</v>
       </c>
@@ -7125,11 +7128,13 @@
         <v>0</v>
       </c>
       <c r="BC47" s="2"/>
-      <c r="BD47" s="2"/>
+      <c r="BD47" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="48" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>23</v>
@@ -7154,71 +7159,73 @@
         <v>71</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="M48" s="2">
         <v>1</v>
       </c>
       <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+      <c r="O48" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
+      <c r="R48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S48" s="2">
+        <v>20</v>
+      </c>
+      <c r="T48" s="2">
+        <v>50</v>
+      </c>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
+      <c r="W48" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X48" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2">
         <v>1</v>
       </c>
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
-      <c r="AC48" s="2"/>
-      <c r="AD48" s="2"/>
+      <c r="AC48" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD48" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
       <c r="AG48" s="2"/>
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
       <c r="AJ48" s="2"/>
-      <c r="AK48" s="2"/>
+      <c r="AK48" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL48" s="2"/>
       <c r="AM48" s="2"/>
-      <c r="AN48" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AN48" s="2"/>
       <c r="AO48" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP48" s="2">
-        <v>0.1</v>
-      </c>
+      <c r="AP48" s="2"/>
       <c r="AQ48" s="2"/>
-      <c r="AR48" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS48" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT48" s="2">
-        <v>1</v>
-      </c>
+      <c r="AR48" s="2"/>
+      <c r="AS48" s="2"/>
+      <c r="AT48" s="2"/>
       <c r="AU48" s="2">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="AV48" s="2"/>
-      <c r="AW48" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AX48" s="11">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AY48" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="AW48" s="2"/>
+      <c r="AX48" s="2"/>
+      <c r="AY48" s="2"/>
       <c r="AZ48" s="2">
         <v>1</v>
       </c>
@@ -7227,11 +7234,13 @@
         <v>0</v>
       </c>
       <c r="BC48" s="2"/>
-      <c r="BD48" s="2"/>
+      <c r="BD48" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="49" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>23</v>
@@ -7339,7 +7348,7 @@
     </row>
     <row r="50" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>23</v>
@@ -7408,15 +7417,17 @@
         <v>2</v>
       </c>
       <c r="AR50" s="2">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="AS50" s="2">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="AT50" s="2">
         <v>1</v>
       </c>
-      <c r="AU50" s="2"/>
+      <c r="AU50" s="2">
+        <v>1</v>
+      </c>
       <c r="AV50" s="2"/>
       <c r="AW50" s="2"/>
       <c r="AX50" s="2"/>
@@ -7433,7 +7444,7 @@
     </row>
     <row r="51" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>23</v>
@@ -7535,7 +7546,7 @@
     </row>
     <row r="52" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>23</v>
@@ -7560,66 +7571,72 @@
         <v>71</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="M52" s="2">
         <v>1</v>
       </c>
-      <c r="N52" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
+      <c r="R52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S52" s="2">
+        <v>20</v>
+      </c>
+      <c r="T52" s="2">
+        <v>50</v>
+      </c>
+      <c r="U52" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
-      <c r="X52" s="2"/>
+      <c r="W52" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X52" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y52" s="2"/>
       <c r="Z52" s="2">
         <v>1</v>
       </c>
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
-      <c r="AC52" s="2"/>
-      <c r="AD52" s="2"/>
+      <c r="AC52" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD52" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
       <c r="AG52" s="2"/>
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
       <c r="AJ52" s="2"/>
-      <c r="AK52" s="2"/>
+      <c r="AK52" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL52" s="2"/>
       <c r="AM52" s="2"/>
       <c r="AN52" s="2"/>
       <c r="AO52" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP52" s="2">
-        <v>0.1</v>
-      </c>
+      <c r="AP52" s="2"/>
       <c r="AQ52" s="2"/>
-      <c r="AR52" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS52" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT52" s="2">
-        <v>1</v>
-      </c>
+      <c r="AR52" s="2"/>
+      <c r="AS52" s="2"/>
+      <c r="AT52" s="2"/>
       <c r="AU52" s="2">
         <v>1</v>
       </c>
-      <c r="AV52" s="7">
-        <v>2</v>
-      </c>
+      <c r="AV52" s="2"/>
       <c r="AW52" s="2"/>
       <c r="AX52" s="2"/>
       <c r="AY52" s="2"/>
@@ -7631,17 +7648,19 @@
         <v>0</v>
       </c>
       <c r="BC52" s="2"/>
-      <c r="BD52" s="2"/>
+      <c r="BD52" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="53" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>29</v>
@@ -7649,7 +7668,9 @@
       <c r="E53" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="6"/>
@@ -7658,69 +7679,59 @@
         <v>71</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M53" s="2">
         <v>1</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
-      <c r="R53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S53" s="2">
-        <v>20</v>
-      </c>
-      <c r="T53" s="2">
-        <v>50</v>
-      </c>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
-      <c r="W53" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X53" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
       <c r="Z53" s="2">
         <v>1</v>
       </c>
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
-      <c r="AC53" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD53" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
       <c r="AG53" s="2"/>
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
       <c r="AJ53" s="2"/>
-      <c r="AK53" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK53" s="2"/>
       <c r="AL53" s="2"/>
       <c r="AM53" s="2"/>
       <c r="AN53" s="2"/>
       <c r="AO53" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP53" s="2"/>
-      <c r="AQ53" s="2"/>
-      <c r="AR53" s="2"/>
-      <c r="AS53" s="2"/>
-      <c r="AT53" s="2"/>
-      <c r="AU53" s="2">
-        <v>1</v>
-      </c>
+      <c r="AP53" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ53" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR53" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS53" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT53" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU53" s="2"/>
       <c r="AV53" s="2"/>
       <c r="AW53" s="2"/>
       <c r="AX53" s="2"/>
@@ -7733,19 +7744,17 @@
         <v>0</v>
       </c>
       <c r="BC53" s="2"/>
-      <c r="BD53" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD53" s="2"/>
     </row>
     <row r="54" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>29</v>
@@ -7753,7 +7762,9 @@
       <c r="E54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="6"/>
@@ -7762,73 +7773,71 @@
         <v>71</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M54" s="2">
         <v>1</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
-      <c r="R54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S54" s="2">
-        <v>20</v>
-      </c>
-      <c r="T54" s="2">
-        <v>50</v>
-      </c>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
-      <c r="W54" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X54" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
       <c r="Z54" s="2">
         <v>1</v>
       </c>
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
-      <c r="AC54" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD54" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC54" s="2"/>
+      <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
       <c r="AG54" s="2"/>
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
       <c r="AJ54" s="2"/>
-      <c r="AK54" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK54" s="2"/>
       <c r="AL54" s="2"/>
       <c r="AM54" s="2"/>
-      <c r="AN54" s="2"/>
+      <c r="AN54" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AO54" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP54" s="2"/>
+      <c r="AP54" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ54" s="2"/>
-      <c r="AR54" s="2"/>
-      <c r="AS54" s="2"/>
-      <c r="AT54" s="2"/>
+      <c r="AR54" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS54" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT54" s="2">
+        <v>1</v>
+      </c>
       <c r="AU54" s="2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="AV54" s="2"/>
-      <c r="AW54" s="2"/>
-      <c r="AX54" s="2"/>
-      <c r="AY54" s="2"/>
+      <c r="AW54" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX54" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AY54" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ54" s="2">
         <v>1</v>
       </c>
@@ -7837,19 +7846,17 @@
         <v>0</v>
       </c>
       <c r="BC54" s="2"/>
-      <c r="BD54" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD54" s="2"/>
     </row>
     <row r="55" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>29</v>
@@ -7857,7 +7864,9 @@
       <c r="E55" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="6"/>
@@ -7866,70 +7875,66 @@
         <v>71</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="M55" s="2">
         <v>1</v>
       </c>
-      <c r="N55" s="2"/>
+      <c r="N55" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="O55" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
-      <c r="R55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S55" s="2">
-        <v>20</v>
-      </c>
-      <c r="T55" s="2">
-        <v>50</v>
-      </c>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
-      <c r="W55" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X55" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
       <c r="Z55" s="2">
         <v>1</v>
       </c>
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
-      <c r="AC55" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD55" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC55" s="2"/>
+      <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
       <c r="AG55" s="2"/>
       <c r="AH55" s="2"/>
       <c r="AI55" s="2"/>
       <c r="AJ55" s="2"/>
-      <c r="AK55" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK55" s="2"/>
       <c r="AL55" s="2"/>
       <c r="AM55" s="2"/>
       <c r="AN55" s="2"/>
       <c r="AO55" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP55" s="2"/>
+      <c r="AP55" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ55" s="2"/>
-      <c r="AR55" s="2"/>
-      <c r="AS55" s="2"/>
-      <c r="AT55" s="2"/>
+      <c r="AR55" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS55" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT55" s="2">
+        <v>1</v>
+      </c>
       <c r="AU55" s="2">
         <v>1</v>
       </c>
-      <c r="AV55" s="2"/>
+      <c r="AV55" s="7">
+        <v>2</v>
+      </c>
       <c r="AW55" s="2"/>
       <c r="AX55" s="2"/>
       <c r="AY55" s="2"/>
@@ -7941,13 +7946,11 @@
         <v>0</v>
       </c>
       <c r="BC55" s="2"/>
-      <c r="BD55" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD55" s="2"/>
     </row>
     <row r="56" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>85</v>
@@ -8051,7 +8054,7 @@
     </row>
     <row r="57" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>85</v>
@@ -8155,7 +8158,7 @@
     </row>
     <row r="58" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>85</v>
@@ -8259,7 +8262,7 @@
     </row>
     <row r="59" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>85</v>
@@ -8362,14 +8365,323 @@
       </c>
     </row>
     <row r="60" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="Z60" s="13"/>
+      <c r="A60" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M60" s="2">
+        <v>1</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S60" s="2">
+        <v>20</v>
+      </c>
+      <c r="T60" s="2">
+        <v>50</v>
+      </c>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD60" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE60" s="2"/>
+      <c r="AF60" s="2"/>
+      <c r="AG60" s="2"/>
+      <c r="AH60" s="2"/>
+      <c r="AI60" s="2"/>
+      <c r="AJ60" s="2"/>
+      <c r="AK60" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL60" s="2"/>
+      <c r="AM60" s="2"/>
+      <c r="AN60" s="2"/>
+      <c r="AO60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP60" s="2"/>
+      <c r="AQ60" s="2"/>
+      <c r="AR60" s="2"/>
+      <c r="AS60" s="2"/>
+      <c r="AT60" s="2"/>
+      <c r="AU60" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV60" s="2"/>
+      <c r="AW60" s="2"/>
+      <c r="AX60" s="2"/>
+      <c r="AY60" s="2"/>
+      <c r="AZ60" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA60" s="2"/>
+      <c r="BB60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC60" s="2"/>
+      <c r="BD60" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M61" s="2">
+        <v>1</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S61" s="2">
+        <v>20</v>
+      </c>
+      <c r="T61" s="2">
+        <v>50</v>
+      </c>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X61" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA61" s="2"/>
+      <c r="AB61" s="2"/>
+      <c r="AC61" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD61" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE61" s="2"/>
+      <c r="AF61" s="2"/>
+      <c r="AG61" s="2"/>
+      <c r="AH61" s="2"/>
+      <c r="AI61" s="2"/>
+      <c r="AJ61" s="2"/>
+      <c r="AK61" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL61" s="2"/>
+      <c r="AM61" s="2"/>
+      <c r="AN61" s="2"/>
+      <c r="AO61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP61" s="2"/>
+      <c r="AQ61" s="2"/>
+      <c r="AR61" s="2"/>
+      <c r="AS61" s="2"/>
+      <c r="AT61" s="2"/>
+      <c r="AU61" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV61" s="2"/>
+      <c r="AW61" s="2"/>
+      <c r="AX61" s="2"/>
+      <c r="AY61" s="2"/>
+      <c r="AZ61" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA61" s="2"/>
+      <c r="BB61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC61" s="2"/>
+      <c r="BD61" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M62" s="2">
+        <v>1</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S62" s="2">
+        <v>20</v>
+      </c>
+      <c r="T62" s="2">
+        <v>50</v>
+      </c>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA62" s="2"/>
+      <c r="AB62" s="2"/>
+      <c r="AC62" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD62" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE62" s="2"/>
+      <c r="AF62" s="2"/>
+      <c r="AG62" s="2"/>
+      <c r="AH62" s="2"/>
+      <c r="AI62" s="2"/>
+      <c r="AJ62" s="2"/>
+      <c r="AK62" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL62" s="2"/>
+      <c r="AM62" s="2"/>
+      <c r="AN62" s="2"/>
+      <c r="AO62" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP62" s="2"/>
+      <c r="AQ62" s="2"/>
+      <c r="AR62" s="2"/>
+      <c r="AS62" s="2"/>
+      <c r="AT62" s="2"/>
+      <c r="AU62" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV62" s="2"/>
+      <c r="AW62" s="2"/>
+      <c r="AX62" s="2"/>
+      <c r="AY62" s="2"/>
+      <c r="AZ62" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA62" s="2"/>
+      <c r="BB62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC62" s="2"/>
+      <c r="BD62" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="Z63" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1" xr:uid="{867D249A-E139-4C6D-A988-8E82277BE26E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E5CAF3-9104-4898-8256-5F444C582081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD64136-E674-4D0E-BAA7-4BEB890D037D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="192">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -584,6 +584,15 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_043</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_044</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_045</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_068</t>
   </si>
 </sst>
 </file>
@@ -2302,11 +2311,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BG63"/>
+  <dimension ref="A1:BG66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI17" sqref="AI17"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4102,7 +4111,7 @@
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>123</v>
+        <v>189</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -4116,15 +4125,9 @@
         <v>98</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18" s="6">
-        <v>25</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="2" t="s">
         <v>71</v>
       </c>
@@ -4149,7 +4152,9 @@
       <c r="T18" s="2">
         <v>50</v>
       </c>
-      <c r="U18" s="2"/>
+      <c r="U18" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V18" s="2"/>
       <c r="W18" s="7">
         <v>0.1</v>
@@ -4157,19 +4162,17 @@
       <c r="X18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Y18" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" s="2">
-        <v>1200</v>
+        <v>1</v>
       </c>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="AD18" s="2">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
@@ -4192,7 +4195,7 @@
       <c r="AS18" s="2"/>
       <c r="AT18" s="2"/>
       <c r="AU18" s="2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2"/>
@@ -4212,7 +4215,7 @@
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
@@ -4226,15 +4229,9 @@
         <v>98</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I19" s="6">
-        <v>25</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
         <v>71</v>
       </c>
@@ -4251,7 +4248,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="S19" s="2">
         <v>20</v>
@@ -4259,7 +4256,9 @@
       <c r="T19" s="2">
         <v>50</v>
       </c>
-      <c r="U19" s="2"/>
+      <c r="U19" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V19" s="2"/>
       <c r="W19" s="7">
         <v>0.1</v>
@@ -4267,19 +4266,17 @@
       <c r="X19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Y19" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" s="2">
         <v>1</v>
       </c>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="AD19" s="2">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
@@ -4322,7 +4319,7 @@
     </row>
     <row r="20" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
@@ -4330,71 +4327,89 @@
       <c r="C20" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="6">
+        <v>25</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="K20" s="2" t="s">
         <v>71</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M20" s="2">
         <v>1</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="O20" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
+      <c r="R20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S20" s="2">
+        <v>20</v>
+      </c>
+      <c r="T20" s="2">
+        <v>50</v>
+      </c>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="W20" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="Z20" s="2">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
+      <c r="AC20" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>2000</v>
+      </c>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
-      <c r="AK20" s="2"/>
+      <c r="AK20" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" s="2"/>
       <c r="AO20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP20" s="2">
-        <v>20</v>
-      </c>
+      <c r="AP20" s="2"/>
       <c r="AQ20" s="2"/>
-      <c r="AR20" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AS20" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AT20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
       <c r="AU20" s="2">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
@@ -4408,11 +4423,13 @@
         <v>0</v>
       </c>
       <c r="BC20" s="2"/>
-      <c r="BD20" s="2"/>
+      <c r="BD20" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="21" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
@@ -4420,68 +4437,89 @@
       <c r="C21" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" s="6">
+        <v>25</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="K21" s="2" t="s">
         <v>71</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M21" s="2">
         <v>1</v>
       </c>
       <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="O21" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
+      <c r="R21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S21" s="2">
+        <v>20</v>
+      </c>
+      <c r="T21" s="2">
+        <v>50</v>
+      </c>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
+      <c r="W21" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="Z21" s="2">
         <v>1</v>
       </c>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
+      <c r="AC21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>1000</v>
+      </c>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
-      <c r="AK21" s="2"/>
+      <c r="AK21" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" s="2"/>
       <c r="AO21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AP21" s="2">
-        <v>20</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AP21" s="2"/>
       <c r="AQ21" s="2"/>
-      <c r="AR21" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AS21" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="AT21" s="2">
-        <v>1</v>
-      </c>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
       <c r="AU21" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2"/>
@@ -4495,11 +4533,13 @@
         <v>0</v>
       </c>
       <c r="BC21" s="2"/>
-      <c r="BD21" s="2"/>
+      <c r="BD21" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
@@ -4507,34 +4547,26 @@
       <c r="C22" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="6"/>
+      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2" t="s">
         <v>71</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="M22" s="2">
         <v>1</v>
       </c>
-      <c r="N22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -4566,24 +4598,22 @@
         <v>32</v>
       </c>
       <c r="AP22" s="2">
-        <v>0.1</v>
+        <v>20</v>
       </c>
       <c r="AQ22" s="2"/>
       <c r="AR22" s="2">
-        <v>3000</v>
+        <v>0.2</v>
       </c>
       <c r="AS22" s="2">
-        <v>4000</v>
+        <v>0.5</v>
       </c>
       <c r="AT22" s="2">
         <v>1</v>
       </c>
       <c r="AU22" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AV22" s="2">
-        <v>2</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
       <c r="AX22" s="2"/>
       <c r="AY22" s="2"/>
@@ -4599,7 +4629,7 @@
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
@@ -4607,34 +4637,23 @@
       <c r="C23" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="6"/>
+      <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2" t="s">
         <v>71</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="M23" s="2">
         <v>1</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -4666,24 +4685,22 @@
         <v>77</v>
       </c>
       <c r="AP23" s="2">
-        <v>0.1</v>
+        <v>20</v>
       </c>
       <c r="AQ23" s="2"/>
       <c r="AR23" s="2">
-        <v>3000</v>
+        <v>0.2</v>
       </c>
       <c r="AS23" s="2">
-        <v>4000</v>
+        <v>0.5</v>
       </c>
       <c r="AT23" s="2">
         <v>1</v>
       </c>
       <c r="AU23" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AV23" s="2">
-        <v>2</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="AV23" s="2"/>
       <c r="AW23" s="2"/>
       <c r="AX23" s="2"/>
       <c r="AY23" s="2"/>
@@ -4699,13 +4716,13 @@
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>29</v>
@@ -4724,13 +4741,17 @@
         <v>71</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="M24" s="2">
         <v>1</v>
       </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="N24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -4741,7 +4762,9 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
+      <c r="Z24" s="2">
+        <v>1</v>
+      </c>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
@@ -4755,9 +4778,7 @@
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
-      <c r="AN24" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AN24" s="2"/>
       <c r="AO24" s="2" t="s">
         <v>32</v>
       </c>
@@ -4775,16 +4796,14 @@
         <v>1</v>
       </c>
       <c r="AU24" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="AV24" s="2"/>
-      <c r="AW24" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AX24" s="11"/>
-      <c r="AY24" s="2" t="s">
-        <v>85</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="AV24" s="2">
+        <v>2</v>
+      </c>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
       <c r="AZ24" s="2">
         <v>1</v>
       </c>
@@ -4797,13 +4816,13 @@
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>29</v>
@@ -4822,13 +4841,17 @@
         <v>71</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="M25" s="2">
         <v>1</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="N25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
@@ -4839,7 +4862,9 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
+      <c r="Z25" s="2">
+        <v>1</v>
+      </c>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
@@ -4853,9 +4878,7 @@
       <c r="AK25" s="2"/>
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
-      <c r="AN25" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AN25" s="2"/>
       <c r="AO25" s="2" t="s">
         <v>77</v>
       </c>
@@ -4873,16 +4896,14 @@
         <v>1</v>
       </c>
       <c r="AU25" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="AV25" s="2"/>
-      <c r="AW25" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AX25" s="11"/>
-      <c r="AY25" s="2" t="s">
-        <v>85</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="AV25" s="2">
+        <v>2</v>
+      </c>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
       <c r="AZ25" s="2">
         <v>1</v>
       </c>
@@ -4895,7 +4916,7 @@
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
@@ -4952,7 +4973,7 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="AO26" s="2" t="s">
         <v>32</v>
@@ -4993,7 +5014,7 @@
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>23</v>
@@ -5091,13 +5112,13 @@
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>29</v>
@@ -5105,7 +5126,9 @@
       <c r="E28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="6"/>
@@ -5114,73 +5137,67 @@
         <v>71</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M28" s="2">
         <v>1</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
-      <c r="R28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S28" s="2">
-        <v>20</v>
-      </c>
-      <c r="T28" s="2">
-        <v>50</v>
-      </c>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
-      <c r="W28" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X28" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
-      <c r="Z28" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
-      <c r="AC28" s="2">
-        <v>1200</v>
-      </c>
-      <c r="AD28" s="2">
-        <v>2000</v>
-      </c>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
       <c r="AJ28" s="2"/>
-      <c r="AK28" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK28" s="2"/>
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
-      <c r="AN28" s="2"/>
+      <c r="AN28" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="AO28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP28" s="2"/>
+      <c r="AP28" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ28" s="2"/>
-      <c r="AR28" s="2"/>
-      <c r="AS28" s="2"/>
-      <c r="AT28" s="2"/>
+      <c r="AR28" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS28" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT28" s="2">
+        <v>1</v>
+      </c>
       <c r="AU28" s="2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="AV28" s="2"/>
-      <c r="AW28" s="2"/>
-      <c r="AX28" s="2"/>
-      <c r="AY28" s="2"/>
+      <c r="AW28" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX28" s="11"/>
+      <c r="AY28" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ28" s="2">
         <v>1</v>
       </c>
@@ -5189,19 +5206,17 @@
         <v>0</v>
       </c>
       <c r="BC28" s="2"/>
-      <c r="BD28" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD28" s="2"/>
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>29</v>
@@ -5209,7 +5224,9 @@
       <c r="E29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="6"/>
@@ -5218,73 +5235,67 @@
         <v>71</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M29" s="2">
         <v>1</v>
       </c>
       <c r="N29" s="2"/>
-      <c r="O29" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S29" s="2">
-        <v>20</v>
-      </c>
-      <c r="T29" s="2">
-        <v>50</v>
-      </c>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
-      <c r="W29" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X29" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
-      <c r="Z29" s="2">
-        <v>1</v>
-      </c>
+      <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
-      <c r="AC29" s="2">
-        <v>1200</v>
-      </c>
-      <c r="AD29" s="2">
-        <v>2000</v>
-      </c>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
       <c r="AJ29" s="2"/>
-      <c r="AK29" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK29" s="2"/>
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
-      <c r="AN29" s="2"/>
+      <c r="AN29" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AO29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP29" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AP29" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ29" s="2"/>
-      <c r="AR29" s="2"/>
-      <c r="AS29" s="2"/>
-      <c r="AT29" s="2"/>
+      <c r="AR29" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS29" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT29" s="2">
+        <v>1</v>
+      </c>
       <c r="AU29" s="2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="AV29" s="2"/>
-      <c r="AW29" s="2"/>
-      <c r="AX29" s="2"/>
-      <c r="AY29" s="2"/>
+      <c r="AW29" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX29" s="11"/>
+      <c r="AY29" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ29" s="2">
         <v>1</v>
       </c>
@@ -5293,13 +5304,11 @@
         <v>0</v>
       </c>
       <c r="BC29" s="2"/>
-      <c r="BD29" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD29" s="2"/>
     </row>
     <row r="30" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>85</v>
@@ -5403,7 +5412,7 @@
     </row>
     <row r="31" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>85</v>
@@ -5507,7 +5516,7 @@
     </row>
     <row r="32" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>85</v>
@@ -5611,7 +5620,7 @@
     </row>
     <row r="33" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>85</v>
@@ -5715,7 +5724,7 @@
     </row>
     <row r="34" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>85</v>
@@ -5819,7 +5828,7 @@
     </row>
     <row r="35" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>85</v>
@@ -5862,9 +5871,7 @@
       <c r="T35" s="2">
         <v>50</v>
       </c>
-      <c r="U35" s="2">
-        <v>0.2</v>
-      </c>
+      <c r="U35" s="2"/>
       <c r="V35" s="2"/>
       <c r="W35" s="7">
         <v>0.1</v>
@@ -5925,7 +5932,7 @@
     </row>
     <row r="36" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
@@ -5968,9 +5975,7 @@
       <c r="T36" s="2">
         <v>50</v>
       </c>
-      <c r="U36" s="2">
-        <v>0.2</v>
-      </c>
+      <c r="U36" s="2"/>
       <c r="V36" s="2"/>
       <c r="W36" s="7">
         <v>0.1</v>
@@ -6031,7 +6036,7 @@
     </row>
     <row r="37" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>85</v>
@@ -6054,59 +6059,71 @@
         <v>71</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M37" s="2">
         <v>1</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="O37" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
+      <c r="R37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S37" s="2">
+        <v>20</v>
+      </c>
+      <c r="T37" s="2">
+        <v>50</v>
+      </c>
+      <c r="U37" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
+      <c r="W37" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X37" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2">
         <v>1</v>
       </c>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
-      <c r="AC37" s="2"/>
-      <c r="AD37" s="2"/>
+      <c r="AC37" s="2">
+        <v>1200</v>
+      </c>
+      <c r="AD37" s="2">
+        <v>2000</v>
+      </c>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="2"/>
-      <c r="AK37" s="2"/>
+      <c r="AK37" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL37" s="2"/>
       <c r="AM37" s="2"/>
       <c r="AN37" s="2"/>
       <c r="AO37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ37" s="2">
-        <v>2</v>
-      </c>
-      <c r="AR37" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS37" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU37" s="2"/>
+      <c r="AP37" s="2"/>
+      <c r="AQ37" s="2"/>
+      <c r="AR37" s="2"/>
+      <c r="AS37" s="2"/>
+      <c r="AT37" s="2"/>
+      <c r="AU37" s="2">
+        <v>1</v>
+      </c>
       <c r="AV37" s="2"/>
       <c r="AW37" s="2"/>
       <c r="AX37" s="2"/>
@@ -6119,11 +6136,13 @@
         <v>0</v>
       </c>
       <c r="BC37" s="2"/>
-      <c r="BD37" s="2"/>
+      <c r="BD37" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="38" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>85</v>
@@ -6146,59 +6165,71 @@
         <v>71</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M38" s="2">
         <v>1</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="O38" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
+      <c r="R38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S38" s="2">
+        <v>20</v>
+      </c>
+      <c r="T38" s="2">
+        <v>50</v>
+      </c>
+      <c r="U38" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
+      <c r="W38" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2">
         <v>1</v>
       </c>
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
-      <c r="AD38" s="2"/>
+      <c r="AC38" s="2">
+        <v>1200</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>2000</v>
+      </c>
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
       <c r="AJ38" s="2"/>
-      <c r="AK38" s="2"/>
+      <c r="AK38" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL38" s="2"/>
       <c r="AM38" s="2"/>
       <c r="AN38" s="2"/>
       <c r="AO38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP38" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ38" s="2">
-        <v>2</v>
-      </c>
-      <c r="AR38" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS38" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT38" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU38" s="2"/>
+      <c r="AP38" s="2"/>
+      <c r="AQ38" s="2"/>
+      <c r="AR38" s="2"/>
+      <c r="AS38" s="2"/>
+      <c r="AT38" s="2"/>
+      <c r="AU38" s="2">
+        <v>1</v>
+      </c>
       <c r="AV38" s="2"/>
       <c r="AW38" s="2"/>
       <c r="AX38" s="2"/>
@@ -6211,11 +6242,13 @@
         <v>0</v>
       </c>
       <c r="BC38" s="2"/>
-      <c r="BD38" s="2"/>
+      <c r="BD38" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="39" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>85</v>
@@ -6238,7 +6271,7 @@
         <v>71</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M39" s="2">
         <v>1</v>
@@ -6271,16 +6304,16 @@
       <c r="AK39" s="2"/>
       <c r="AL39" s="2"/>
       <c r="AM39" s="2"/>
-      <c r="AN39" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AN39" s="2"/>
       <c r="AO39" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AP39" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AQ39" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="AQ39" s="2">
+        <v>2</v>
+      </c>
       <c r="AR39" s="2">
         <v>3000</v>
       </c>
@@ -6290,19 +6323,11 @@
       <c r="AT39" s="2">
         <v>1</v>
       </c>
-      <c r="AU39" s="2">
-        <v>0.01</v>
-      </c>
+      <c r="AU39" s="2"/>
       <c r="AV39" s="2"/>
-      <c r="AW39" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AX39" s="11">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AY39" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="AW39" s="2"/>
+      <c r="AX39" s="2"/>
+      <c r="AY39" s="2"/>
       <c r="AZ39" s="2">
         <v>1</v>
       </c>
@@ -6315,7 +6340,7 @@
     </row>
     <row r="40" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>85</v>
@@ -6338,71 +6363,59 @@
         <v>71</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M40" s="2">
         <v>1</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
-      <c r="R40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S40" s="2">
-        <v>20</v>
-      </c>
-      <c r="T40" s="2">
-        <v>50</v>
-      </c>
-      <c r="U40" s="2">
-        <v>0.2</v>
-      </c>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
       <c r="V40" s="2"/>
-      <c r="W40" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X40" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2">
         <v>1</v>
       </c>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
-      <c r="AC40" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD40" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
       <c r="AJ40" s="2"/>
-      <c r="AK40" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK40" s="2"/>
       <c r="AL40" s="2"/>
       <c r="AM40" s="2"/>
       <c r="AN40" s="2"/>
       <c r="AO40" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP40" s="2"/>
-      <c r="AQ40" s="2"/>
-      <c r="AR40" s="2"/>
-      <c r="AS40" s="2"/>
-      <c r="AT40" s="2"/>
-      <c r="AU40" s="2">
-        <v>1</v>
-      </c>
+      <c r="AP40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ40" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR40" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS40" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU40" s="2"/>
       <c r="AV40" s="2"/>
       <c r="AW40" s="2"/>
       <c r="AX40" s="2"/>
@@ -6415,13 +6428,11 @@
         <v>0</v>
       </c>
       <c r="BC40" s="2"/>
-      <c r="BD40" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD40" s="2"/>
     </row>
     <row r="41" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>85</v>
@@ -6444,7 +6455,7 @@
         <v>71</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M41" s="2">
         <v>1</v>
@@ -6477,16 +6488,16 @@
       <c r="AK41" s="2"/>
       <c r="AL41" s="2"/>
       <c r="AM41" s="2"/>
-      <c r="AN41" s="2"/>
+      <c r="AN41" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AO41" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AP41" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ41" s="2">
-        <v>2</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="AQ41" s="2"/>
       <c r="AR41" s="2">
         <v>3000</v>
       </c>
@@ -6496,11 +6507,19 @@
       <c r="AT41" s="2">
         <v>1</v>
       </c>
-      <c r="AU41" s="2"/>
+      <c r="AU41" s="2">
+        <v>0.01</v>
+      </c>
       <c r="AV41" s="2"/>
-      <c r="AW41" s="2"/>
-      <c r="AX41" s="2"/>
-      <c r="AY41" s="2"/>
+      <c r="AW41" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX41" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AY41" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ41" s="2">
         <v>1</v>
       </c>
@@ -6513,7 +6532,7 @@
     </row>
     <row r="42" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>85</v>
@@ -6613,7 +6632,7 @@
     </row>
     <row r="43" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>85</v>
@@ -6627,6 +6646,7 @@
       <c r="E43" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="6"/>
@@ -6635,66 +6655,72 @@
         <v>71</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="M43" s="2">
         <v>1</v>
       </c>
-      <c r="N43" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
+      <c r="R43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S43" s="2">
+        <v>20</v>
+      </c>
+      <c r="T43" s="2">
+        <v>50</v>
+      </c>
+      <c r="U43" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
+      <c r="W43" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X43" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2">
         <v>1</v>
       </c>
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
-      <c r="AC43" s="2"/>
-      <c r="AD43" s="2"/>
+      <c r="AC43" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD43" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
       <c r="AJ43" s="2"/>
-      <c r="AK43" s="2"/>
+      <c r="AK43" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL43" s="2"/>
       <c r="AM43" s="2"/>
       <c r="AN43" s="2"/>
       <c r="AO43" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP43" s="2">
-        <v>0.1</v>
-      </c>
+      <c r="AP43" s="2"/>
       <c r="AQ43" s="2"/>
-      <c r="AR43" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS43" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT43" s="2">
-        <v>1</v>
-      </c>
+      <c r="AR43" s="2"/>
+      <c r="AS43" s="2"/>
+      <c r="AT43" s="2"/>
       <c r="AU43" s="2">
         <v>1</v>
       </c>
-      <c r="AV43" s="7">
-        <v>2</v>
-      </c>
+      <c r="AV43" s="2"/>
       <c r="AW43" s="2"/>
       <c r="AX43" s="2"/>
       <c r="AY43" s="2"/>
@@ -6706,17 +6732,19 @@
         <v>0</v>
       </c>
       <c r="BC43" s="2"/>
-      <c r="BD43" s="2"/>
+      <c r="BD43" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="44" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>29</v>
@@ -6724,9 +6752,7 @@
       <c r="E44" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="6"/>
@@ -6735,69 +6761,59 @@
         <v>71</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M44" s="2">
         <v>1</v>
       </c>
       <c r="N44" s="2"/>
-      <c r="O44" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
-      <c r="R44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S44" s="2">
-        <v>20</v>
-      </c>
-      <c r="T44" s="2">
-        <v>50</v>
-      </c>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
-      <c r="W44" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X44" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2">
         <v>1</v>
       </c>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
-      <c r="AC44" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD44" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
       <c r="AJ44" s="2"/>
-      <c r="AK44" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK44" s="2"/>
       <c r="AL44" s="2"/>
       <c r="AM44" s="2"/>
       <c r="AN44" s="2"/>
       <c r="AO44" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP44" s="2"/>
-      <c r="AQ44" s="2"/>
-      <c r="AR44" s="2"/>
-      <c r="AS44" s="2"/>
-      <c r="AT44" s="2"/>
-      <c r="AU44" s="2">
-        <v>1</v>
-      </c>
+      <c r="AP44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ44" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR44" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS44" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU44" s="2"/>
       <c r="AV44" s="2"/>
       <c r="AW44" s="2"/>
       <c r="AX44" s="2"/>
@@ -6810,19 +6826,17 @@
         <v>0</v>
       </c>
       <c r="BC44" s="2"/>
-      <c r="BD44" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD44" s="2"/>
     </row>
     <row r="45" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>29</v>
@@ -6830,9 +6844,7 @@
       <c r="E45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="6"/>
@@ -6841,73 +6853,71 @@
         <v>71</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M45" s="2">
         <v>1</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
-      <c r="R45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S45" s="2">
-        <v>20</v>
-      </c>
-      <c r="T45" s="2">
-        <v>50</v>
-      </c>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
-      <c r="W45" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X45" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
       <c r="Z45" s="2">
         <v>1</v>
       </c>
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
-      <c r="AC45" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD45" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
       <c r="AJ45" s="2"/>
-      <c r="AK45" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK45" s="2"/>
       <c r="AL45" s="2"/>
       <c r="AM45" s="2"/>
-      <c r="AN45" s="2"/>
+      <c r="AN45" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AO45" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP45" s="2"/>
+      <c r="AP45" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ45" s="2"/>
-      <c r="AR45" s="2"/>
-      <c r="AS45" s="2"/>
-      <c r="AT45" s="2"/>
+      <c r="AR45" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS45" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT45" s="2">
+        <v>1</v>
+      </c>
       <c r="AU45" s="2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="AV45" s="2"/>
-      <c r="AW45" s="2"/>
-      <c r="AX45" s="2"/>
-      <c r="AY45" s="2"/>
+      <c r="AW45" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX45" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AY45" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ45" s="2">
         <v>1</v>
       </c>
@@ -6916,28 +6926,23 @@
         <v>0</v>
       </c>
       <c r="BC45" s="2"/>
-      <c r="BD45" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD45" s="2"/>
     </row>
     <row r="46" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -6947,70 +6952,66 @@
         <v>71</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="M46" s="2">
         <v>1</v>
       </c>
-      <c r="N46" s="2"/>
+      <c r="N46" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="O46" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
-      <c r="R46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S46" s="2">
-        <v>20</v>
-      </c>
-      <c r="T46" s="2">
-        <v>50</v>
-      </c>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
-      <c r="W46" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X46" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
       <c r="Z46" s="2">
         <v>1</v>
       </c>
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
-      <c r="AC46" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD46" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
       <c r="AG46" s="2"/>
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
       <c r="AJ46" s="2"/>
-      <c r="AK46" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK46" s="2"/>
       <c r="AL46" s="2"/>
       <c r="AM46" s="2"/>
       <c r="AN46" s="2"/>
       <c r="AO46" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP46" s="2"/>
+      <c r="AP46" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ46" s="2"/>
-      <c r="AR46" s="2"/>
-      <c r="AS46" s="2"/>
-      <c r="AT46" s="2"/>
+      <c r="AR46" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS46" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT46" s="2">
+        <v>1</v>
+      </c>
       <c r="AU46" s="2">
         <v>1</v>
       </c>
-      <c r="AV46" s="2"/>
+      <c r="AV46" s="7">
+        <v>2</v>
+      </c>
       <c r="AW46" s="2"/>
       <c r="AX46" s="2"/>
       <c r="AY46" s="2"/>
@@ -7022,13 +7023,11 @@
         <v>0</v>
       </c>
       <c r="BC46" s="2"/>
-      <c r="BD46" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD46" s="2"/>
     </row>
     <row r="47" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>23</v>
@@ -7134,7 +7133,7 @@
     </row>
     <row r="48" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>23</v>
@@ -7240,7 +7239,7 @@
     </row>
     <row r="49" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>23</v>
@@ -7285,9 +7284,7 @@
       <c r="T49" s="2">
         <v>50</v>
       </c>
-      <c r="U49" s="2">
-        <v>0.2</v>
-      </c>
+      <c r="U49" s="2"/>
       <c r="V49" s="2"/>
       <c r="W49" s="7">
         <v>0.1</v>
@@ -7348,7 +7345,7 @@
     </row>
     <row r="50" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>23</v>
@@ -7373,58 +7370,66 @@
         <v>71</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M50" s="2">
         <v>1</v>
       </c>
       <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="O50" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
+      <c r="R50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S50" s="2">
+        <v>20</v>
+      </c>
+      <c r="T50" s="2">
+        <v>50</v>
+      </c>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
+      <c r="W50" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X50" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2">
         <v>1</v>
       </c>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
-      <c r="AC50" s="2"/>
-      <c r="AD50" s="2"/>
+      <c r="AC50" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD50" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
       <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
       <c r="AJ50" s="2"/>
-      <c r="AK50" s="2"/>
+      <c r="AK50" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL50" s="2"/>
       <c r="AM50" s="2"/>
       <c r="AN50" s="2"/>
       <c r="AO50" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP50" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ50" s="2">
-        <v>2</v>
-      </c>
-      <c r="AR50" s="2">
-        <v>1000</v>
-      </c>
-      <c r="AS50" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AT50" s="2">
-        <v>1</v>
-      </c>
+      <c r="AP50" s="2"/>
+      <c r="AQ50" s="2"/>
+      <c r="AR50" s="2"/>
+      <c r="AS50" s="2"/>
+      <c r="AT50" s="2"/>
       <c r="AU50" s="2">
         <v>1</v>
       </c>
@@ -7440,11 +7445,13 @@
         <v>0</v>
       </c>
       <c r="BC50" s="2"/>
-      <c r="BD50" s="2"/>
+      <c r="BD50" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="51" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>23</v>
@@ -7469,71 +7476,73 @@
         <v>71</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="M51" s="2">
         <v>1</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="O51" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
+      <c r="R51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S51" s="2">
+        <v>20</v>
+      </c>
+      <c r="T51" s="2">
+        <v>50</v>
+      </c>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
+      <c r="W51" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X51" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2">
         <v>1</v>
       </c>
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
-      <c r="AC51" s="2"/>
-      <c r="AD51" s="2"/>
+      <c r="AC51" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD51" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
       <c r="AJ51" s="2"/>
-      <c r="AK51" s="2"/>
+      <c r="AK51" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL51" s="2"/>
       <c r="AM51" s="2"/>
-      <c r="AN51" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AN51" s="2"/>
       <c r="AO51" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP51" s="2">
-        <v>0.1</v>
-      </c>
+      <c r="AP51" s="2"/>
       <c r="AQ51" s="2"/>
-      <c r="AR51" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS51" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT51" s="2">
-        <v>1</v>
-      </c>
+      <c r="AR51" s="2"/>
+      <c r="AS51" s="2"/>
+      <c r="AT51" s="2"/>
       <c r="AU51" s="2">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="AV51" s="2"/>
-      <c r="AW51" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AX51" s="11">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AY51" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="AW51" s="2"/>
+      <c r="AX51" s="2"/>
+      <c r="AY51" s="2"/>
       <c r="AZ51" s="2">
         <v>1</v>
       </c>
@@ -7542,11 +7551,13 @@
         <v>0</v>
       </c>
       <c r="BC51" s="2"/>
-      <c r="BD51" s="2"/>
+      <c r="BD51" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="52" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>23</v>
@@ -7654,7 +7665,7 @@
     </row>
     <row r="53" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>23</v>
@@ -7723,15 +7734,17 @@
         <v>2</v>
       </c>
       <c r="AR53" s="2">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="AS53" s="2">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="AT53" s="2">
         <v>1</v>
       </c>
-      <c r="AU53" s="2"/>
+      <c r="AU53" s="2">
+        <v>1</v>
+      </c>
       <c r="AV53" s="2"/>
       <c r="AW53" s="2"/>
       <c r="AX53" s="2"/>
@@ -7748,7 +7761,7 @@
     </row>
     <row r="54" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>23</v>
@@ -7850,7 +7863,7 @@
     </row>
     <row r="55" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>23</v>
@@ -7875,66 +7888,72 @@
         <v>71</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="M55" s="2">
         <v>1</v>
       </c>
-      <c r="N55" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
+      <c r="R55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S55" s="2">
+        <v>20</v>
+      </c>
+      <c r="T55" s="2">
+        <v>50</v>
+      </c>
+      <c r="U55" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
+      <c r="W55" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X55" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y55" s="2"/>
       <c r="Z55" s="2">
         <v>1</v>
       </c>
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
-      <c r="AC55" s="2"/>
-      <c r="AD55" s="2"/>
+      <c r="AC55" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD55" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
       <c r="AG55" s="2"/>
       <c r="AH55" s="2"/>
       <c r="AI55" s="2"/>
       <c r="AJ55" s="2"/>
-      <c r="AK55" s="2"/>
+      <c r="AK55" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL55" s="2"/>
       <c r="AM55" s="2"/>
       <c r="AN55" s="2"/>
       <c r="AO55" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP55" s="2">
-        <v>0.1</v>
-      </c>
+      <c r="AP55" s="2"/>
       <c r="AQ55" s="2"/>
-      <c r="AR55" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS55" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT55" s="2">
-        <v>1</v>
-      </c>
+      <c r="AR55" s="2"/>
+      <c r="AS55" s="2"/>
+      <c r="AT55" s="2"/>
       <c r="AU55" s="2">
         <v>1</v>
       </c>
-      <c r="AV55" s="7">
-        <v>2</v>
-      </c>
+      <c r="AV55" s="2"/>
       <c r="AW55" s="2"/>
       <c r="AX55" s="2"/>
       <c r="AY55" s="2"/>
@@ -7946,17 +7965,19 @@
         <v>0</v>
       </c>
       <c r="BC55" s="2"/>
-      <c r="BD55" s="2"/>
+      <c r="BD55" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="56" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>29</v>
@@ -7964,7 +7985,9 @@
       <c r="E56" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="6"/>
@@ -7973,69 +7996,59 @@
         <v>71</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M56" s="2">
         <v>1</v>
       </c>
       <c r="N56" s="2"/>
-      <c r="O56" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
-      <c r="R56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S56" s="2">
-        <v>20</v>
-      </c>
-      <c r="T56" s="2">
-        <v>50</v>
-      </c>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
-      <c r="W56" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X56" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
       <c r="Z56" s="2">
         <v>1</v>
       </c>
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
-      <c r="AC56" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD56" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC56" s="2"/>
+      <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
       <c r="AF56" s="2"/>
       <c r="AG56" s="2"/>
       <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
       <c r="AJ56" s="2"/>
-      <c r="AK56" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK56" s="2"/>
       <c r="AL56" s="2"/>
       <c r="AM56" s="2"/>
       <c r="AN56" s="2"/>
       <c r="AO56" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP56" s="2"/>
-      <c r="AQ56" s="2"/>
-      <c r="AR56" s="2"/>
-      <c r="AS56" s="2"/>
-      <c r="AT56" s="2"/>
-      <c r="AU56" s="2">
-        <v>1</v>
-      </c>
+      <c r="AP56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ56" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR56" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS56" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU56" s="2"/>
       <c r="AV56" s="2"/>
       <c r="AW56" s="2"/>
       <c r="AX56" s="2"/>
@@ -8048,19 +8061,17 @@
         <v>0</v>
       </c>
       <c r="BC56" s="2"/>
-      <c r="BD56" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD56" s="2"/>
     </row>
     <row r="57" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>29</v>
@@ -8068,7 +8079,9 @@
       <c r="E57" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F57" s="2"/>
+      <c r="F57" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="6"/>
@@ -8077,73 +8090,71 @@
         <v>71</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M57" s="2">
         <v>1</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
-      <c r="R57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S57" s="2">
-        <v>20</v>
-      </c>
-      <c r="T57" s="2">
-        <v>50</v>
-      </c>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
-      <c r="W57" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X57" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
       <c r="Z57" s="2">
         <v>1</v>
       </c>
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
-      <c r="AC57" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD57" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC57" s="2"/>
+      <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
       <c r="AG57" s="2"/>
       <c r="AH57" s="2"/>
       <c r="AI57" s="2"/>
       <c r="AJ57" s="2"/>
-      <c r="AK57" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK57" s="2"/>
       <c r="AL57" s="2"/>
       <c r="AM57" s="2"/>
-      <c r="AN57" s="2"/>
+      <c r="AN57" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AO57" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP57" s="2"/>
+      <c r="AP57" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ57" s="2"/>
-      <c r="AR57" s="2"/>
-      <c r="AS57" s="2"/>
-      <c r="AT57" s="2"/>
+      <c r="AR57" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS57" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT57" s="2">
+        <v>1</v>
+      </c>
       <c r="AU57" s="2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="AV57" s="2"/>
-      <c r="AW57" s="2"/>
-      <c r="AX57" s="2"/>
-      <c r="AY57" s="2"/>
+      <c r="AW57" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX57" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AY57" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ57" s="2">
         <v>1</v>
       </c>
@@ -8152,19 +8163,17 @@
         <v>0</v>
       </c>
       <c r="BC57" s="2"/>
-      <c r="BD57" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD57" s="2"/>
     </row>
     <row r="58" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>29</v>
@@ -8172,7 +8181,9 @@
       <c r="E58" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F58" s="2"/>
+      <c r="F58" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="6"/>
@@ -8181,70 +8192,66 @@
         <v>71</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="M58" s="2">
         <v>1</v>
       </c>
-      <c r="N58" s="2"/>
+      <c r="N58" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="O58" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
-      <c r="R58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S58" s="2">
-        <v>20</v>
-      </c>
-      <c r="T58" s="2">
-        <v>50</v>
-      </c>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
-      <c r="W58" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X58" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
       <c r="Z58" s="2">
         <v>1</v>
       </c>
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
-      <c r="AC58" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD58" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC58" s="2"/>
+      <c r="AD58" s="2"/>
       <c r="AE58" s="2"/>
       <c r="AF58" s="2"/>
       <c r="AG58" s="2"/>
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
       <c r="AJ58" s="2"/>
-      <c r="AK58" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK58" s="2"/>
       <c r="AL58" s="2"/>
       <c r="AM58" s="2"/>
       <c r="AN58" s="2"/>
       <c r="AO58" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP58" s="2"/>
+      <c r="AP58" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ58" s="2"/>
-      <c r="AR58" s="2"/>
-      <c r="AS58" s="2"/>
-      <c r="AT58" s="2"/>
+      <c r="AR58" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS58" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT58" s="2">
+        <v>1</v>
+      </c>
       <c r="AU58" s="2">
         <v>1</v>
       </c>
-      <c r="AV58" s="2"/>
+      <c r="AV58" s="7">
+        <v>2</v>
+      </c>
       <c r="AW58" s="2"/>
       <c r="AX58" s="2"/>
       <c r="AY58" s="2"/>
@@ -8256,13 +8263,11 @@
         <v>0</v>
       </c>
       <c r="BC58" s="2"/>
-      <c r="BD58" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD58" s="2"/>
     </row>
     <row r="59" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>85</v>
@@ -8366,7 +8371,7 @@
     </row>
     <row r="60" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>85</v>
@@ -8470,7 +8475,7 @@
     </row>
     <row r="61" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>85</v>
@@ -8574,7 +8579,7 @@
     </row>
     <row r="62" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>85</v>
@@ -8677,7 +8682,319 @@
       </c>
     </row>
     <row r="63" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="Z63" s="13"/>
+      <c r="A63" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M63" s="2">
+        <v>1</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S63" s="2">
+        <v>20</v>
+      </c>
+      <c r="T63" s="2">
+        <v>50</v>
+      </c>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X63" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA63" s="2"/>
+      <c r="AB63" s="2"/>
+      <c r="AC63" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD63" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE63" s="2"/>
+      <c r="AF63" s="2"/>
+      <c r="AG63" s="2"/>
+      <c r="AH63" s="2"/>
+      <c r="AI63" s="2"/>
+      <c r="AJ63" s="2"/>
+      <c r="AK63" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL63" s="2"/>
+      <c r="AM63" s="2"/>
+      <c r="AN63" s="2"/>
+      <c r="AO63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP63" s="2"/>
+      <c r="AQ63" s="2"/>
+      <c r="AR63" s="2"/>
+      <c r="AS63" s="2"/>
+      <c r="AT63" s="2"/>
+      <c r="AU63" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV63" s="2"/>
+      <c r="AW63" s="2"/>
+      <c r="AX63" s="2"/>
+      <c r="AY63" s="2"/>
+      <c r="AZ63" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA63" s="2"/>
+      <c r="BB63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC63" s="2"/>
+      <c r="BD63" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M64" s="2">
+        <v>1</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S64" s="2">
+        <v>20</v>
+      </c>
+      <c r="T64" s="2">
+        <v>50</v>
+      </c>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y64" s="2"/>
+      <c r="Z64" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA64" s="2"/>
+      <c r="AB64" s="2"/>
+      <c r="AC64" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD64" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE64" s="2"/>
+      <c r="AF64" s="2"/>
+      <c r="AG64" s="2"/>
+      <c r="AH64" s="2"/>
+      <c r="AI64" s="2"/>
+      <c r="AJ64" s="2"/>
+      <c r="AK64" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL64" s="2"/>
+      <c r="AM64" s="2"/>
+      <c r="AN64" s="2"/>
+      <c r="AO64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP64" s="2"/>
+      <c r="AQ64" s="2"/>
+      <c r="AR64" s="2"/>
+      <c r="AS64" s="2"/>
+      <c r="AT64" s="2"/>
+      <c r="AU64" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV64" s="2"/>
+      <c r="AW64" s="2"/>
+      <c r="AX64" s="2"/>
+      <c r="AY64" s="2"/>
+      <c r="AZ64" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA64" s="2"/>
+      <c r="BB64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC64" s="2"/>
+      <c r="BD64" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M65" s="2">
+        <v>1</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S65" s="2">
+        <v>20</v>
+      </c>
+      <c r="T65" s="2">
+        <v>50</v>
+      </c>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X65" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA65" s="2"/>
+      <c r="AB65" s="2"/>
+      <c r="AC65" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD65" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE65" s="2"/>
+      <c r="AF65" s="2"/>
+      <c r="AG65" s="2"/>
+      <c r="AH65" s="2"/>
+      <c r="AI65" s="2"/>
+      <c r="AJ65" s="2"/>
+      <c r="AK65" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL65" s="2"/>
+      <c r="AM65" s="2"/>
+      <c r="AN65" s="2"/>
+      <c r="AO65" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP65" s="2"/>
+      <c r="AQ65" s="2"/>
+      <c r="AR65" s="2"/>
+      <c r="AS65" s="2"/>
+      <c r="AT65" s="2"/>
+      <c r="AU65" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV65" s="2"/>
+      <c r="AW65" s="2"/>
+      <c r="AX65" s="2"/>
+      <c r="AY65" s="2"/>
+      <c r="AZ65" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA65" s="2"/>
+      <c r="BB65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC65" s="2"/>
+      <c r="BD65" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="Z66" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD64136-E674-4D0E-BAA7-4BEB890D037D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB3AC67-6E14-408E-8B90-AA34D1028F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="195">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -593,6 +593,15 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_068</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_076</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_081</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_078</t>
   </si>
 </sst>
 </file>
@@ -2311,11 +2320,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BG66"/>
+  <dimension ref="A1:BG69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A42" sqref="A42"/>
+      <selection pane="topRight" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7345,7 +7354,7 @@
     </row>
     <row r="50" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>23</v>
@@ -7405,10 +7414,10 @@
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
       <c r="AC50" s="2">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="AD50" s="2">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
@@ -7451,7 +7460,7 @@
     </row>
     <row r="51" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>23</v>
@@ -7557,7 +7566,7 @@
     </row>
     <row r="52" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>23</v>
@@ -7665,7 +7674,7 @@
     </row>
     <row r="53" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>23</v>
@@ -7690,58 +7699,66 @@
         <v>71</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M53" s="2">
         <v>1</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+      <c r="O53" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
+      <c r="R53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S53" s="2">
+        <v>20</v>
+      </c>
+      <c r="T53" s="2">
+        <v>50</v>
+      </c>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
+      <c r="W53" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X53" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y53" s="2"/>
       <c r="Z53" s="2">
         <v>1</v>
       </c>
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
-      <c r="AC53" s="2"/>
-      <c r="AD53" s="2"/>
+      <c r="AC53" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD53" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
       <c r="AG53" s="2"/>
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
       <c r="AJ53" s="2"/>
-      <c r="AK53" s="2"/>
+      <c r="AK53" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL53" s="2"/>
       <c r="AM53" s="2"/>
       <c r="AN53" s="2"/>
       <c r="AO53" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP53" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ53" s="2">
-        <v>2</v>
-      </c>
-      <c r="AR53" s="2">
-        <v>1000</v>
-      </c>
-      <c r="AS53" s="2">
-        <v>2000</v>
-      </c>
-      <c r="AT53" s="2">
-        <v>1</v>
-      </c>
+      <c r="AP53" s="2"/>
+      <c r="AQ53" s="2"/>
+      <c r="AR53" s="2"/>
+      <c r="AS53" s="2"/>
+      <c r="AT53" s="2"/>
       <c r="AU53" s="2">
         <v>1</v>
       </c>
@@ -7757,11 +7774,13 @@
         <v>0</v>
       </c>
       <c r="BC53" s="2"/>
-      <c r="BD53" s="2"/>
+      <c r="BD53" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="54" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>23</v>
@@ -7786,71 +7805,75 @@
         <v>71</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="M54" s="2">
         <v>1</v>
       </c>
       <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+      <c r="O54" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
+      <c r="R54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S54" s="2">
+        <v>20</v>
+      </c>
+      <c r="T54" s="2">
+        <v>50</v>
+      </c>
+      <c r="U54" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
+      <c r="W54" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X54" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y54" s="2"/>
       <c r="Z54" s="2">
         <v>1</v>
       </c>
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
-      <c r="AC54" s="2"/>
-      <c r="AD54" s="2"/>
+      <c r="AC54" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD54" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
       <c r="AG54" s="2"/>
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
       <c r="AJ54" s="2"/>
-      <c r="AK54" s="2"/>
+      <c r="AK54" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL54" s="2"/>
       <c r="AM54" s="2"/>
-      <c r="AN54" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AN54" s="2"/>
       <c r="AO54" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP54" s="2">
-        <v>0.1</v>
-      </c>
+      <c r="AP54" s="2"/>
       <c r="AQ54" s="2"/>
-      <c r="AR54" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS54" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT54" s="2">
-        <v>1</v>
-      </c>
+      <c r="AR54" s="2"/>
+      <c r="AS54" s="2"/>
+      <c r="AT54" s="2"/>
       <c r="AU54" s="2">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="AV54" s="2"/>
-      <c r="AW54" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AX54" s="11">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AY54" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="AW54" s="2"/>
+      <c r="AX54" s="2"/>
+      <c r="AY54" s="2"/>
       <c r="AZ54" s="2">
         <v>1</v>
       </c>
@@ -7859,11 +7882,13 @@
         <v>0</v>
       </c>
       <c r="BC54" s="2"/>
-      <c r="BD54" s="2"/>
+      <c r="BD54" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="55" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>23</v>
@@ -7925,10 +7950,10 @@
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
       <c r="AC55" s="2">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="AD55" s="2">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
@@ -7971,7 +7996,7 @@
     </row>
     <row r="56" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>23</v>
@@ -8040,15 +8065,17 @@
         <v>2</v>
       </c>
       <c r="AR56" s="2">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="AS56" s="2">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="AT56" s="2">
         <v>1</v>
       </c>
-      <c r="AU56" s="2"/>
+      <c r="AU56" s="2">
+        <v>1</v>
+      </c>
       <c r="AV56" s="2"/>
       <c r="AW56" s="2"/>
       <c r="AX56" s="2"/>
@@ -8065,7 +8092,7 @@
     </row>
     <row r="57" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>23</v>
@@ -8167,7 +8194,7 @@
     </row>
     <row r="58" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>23</v>
@@ -8192,66 +8219,72 @@
         <v>71</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="M58" s="2">
         <v>1</v>
       </c>
-      <c r="N58" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
+      <c r="R58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S58" s="2">
+        <v>20</v>
+      </c>
+      <c r="T58" s="2">
+        <v>50</v>
+      </c>
+      <c r="U58" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V58" s="2"/>
-      <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
+      <c r="W58" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X58" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y58" s="2"/>
       <c r="Z58" s="2">
         <v>1</v>
       </c>
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
-      <c r="AC58" s="2"/>
-      <c r="AD58" s="2"/>
+      <c r="AC58" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD58" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE58" s="2"/>
       <c r="AF58" s="2"/>
       <c r="AG58" s="2"/>
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
       <c r="AJ58" s="2"/>
-      <c r="AK58" s="2"/>
+      <c r="AK58" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL58" s="2"/>
       <c r="AM58" s="2"/>
       <c r="AN58" s="2"/>
       <c r="AO58" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP58" s="2">
-        <v>0.1</v>
-      </c>
+      <c r="AP58" s="2"/>
       <c r="AQ58" s="2"/>
-      <c r="AR58" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS58" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT58" s="2">
-        <v>1</v>
-      </c>
+      <c r="AR58" s="2"/>
+      <c r="AS58" s="2"/>
+      <c r="AT58" s="2"/>
       <c r="AU58" s="2">
         <v>1</v>
       </c>
-      <c r="AV58" s="7">
-        <v>2</v>
-      </c>
+      <c r="AV58" s="2"/>
       <c r="AW58" s="2"/>
       <c r="AX58" s="2"/>
       <c r="AY58" s="2"/>
@@ -8263,17 +8296,19 @@
         <v>0</v>
       </c>
       <c r="BC58" s="2"/>
-      <c r="BD58" s="2"/>
+      <c r="BD58" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="59" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>29</v>
@@ -8281,7 +8316,9 @@
       <c r="E59" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="6"/>
@@ -8290,69 +8327,59 @@
         <v>71</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M59" s="2">
         <v>1</v>
       </c>
       <c r="N59" s="2"/>
-      <c r="O59" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
-      <c r="R59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S59" s="2">
-        <v>20</v>
-      </c>
-      <c r="T59" s="2">
-        <v>50</v>
-      </c>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
-      <c r="W59" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X59" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
       <c r="Z59" s="2">
         <v>1</v>
       </c>
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
-      <c r="AC59" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD59" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC59" s="2"/>
+      <c r="AD59" s="2"/>
       <c r="AE59" s="2"/>
       <c r="AF59" s="2"/>
       <c r="AG59" s="2"/>
       <c r="AH59" s="2"/>
       <c r="AI59" s="2"/>
       <c r="AJ59" s="2"/>
-      <c r="AK59" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK59" s="2"/>
       <c r="AL59" s="2"/>
       <c r="AM59" s="2"/>
       <c r="AN59" s="2"/>
       <c r="AO59" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP59" s="2"/>
-      <c r="AQ59" s="2"/>
-      <c r="AR59" s="2"/>
-      <c r="AS59" s="2"/>
-      <c r="AT59" s="2"/>
-      <c r="AU59" s="2">
-        <v>1</v>
-      </c>
+      <c r="AP59" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ59" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR59" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS59" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT59" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU59" s="2"/>
       <c r="AV59" s="2"/>
       <c r="AW59" s="2"/>
       <c r="AX59" s="2"/>
@@ -8365,19 +8392,17 @@
         <v>0</v>
       </c>
       <c r="BC59" s="2"/>
-      <c r="BD59" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD59" s="2"/>
     </row>
     <row r="60" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>29</v>
@@ -8385,7 +8410,9 @@
       <c r="E60" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F60" s="2"/>
+      <c r="F60" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="6"/>
@@ -8394,73 +8421,71 @@
         <v>71</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M60" s="2">
         <v>1</v>
       </c>
       <c r="N60" s="2"/>
-      <c r="O60" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
-      <c r="R60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S60" s="2">
-        <v>20</v>
-      </c>
-      <c r="T60" s="2">
-        <v>50</v>
-      </c>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
-      <c r="W60" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X60" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
       <c r="Z60" s="2">
         <v>1</v>
       </c>
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
-      <c r="AC60" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD60" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC60" s="2"/>
+      <c r="AD60" s="2"/>
       <c r="AE60" s="2"/>
       <c r="AF60" s="2"/>
       <c r="AG60" s="2"/>
       <c r="AH60" s="2"/>
       <c r="AI60" s="2"/>
       <c r="AJ60" s="2"/>
-      <c r="AK60" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK60" s="2"/>
       <c r="AL60" s="2"/>
       <c r="AM60" s="2"/>
-      <c r="AN60" s="2"/>
+      <c r="AN60" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AO60" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP60" s="2"/>
+      <c r="AP60" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ60" s="2"/>
-      <c r="AR60" s="2"/>
-      <c r="AS60" s="2"/>
-      <c r="AT60" s="2"/>
+      <c r="AR60" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS60" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT60" s="2">
+        <v>1</v>
+      </c>
       <c r="AU60" s="2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="AV60" s="2"/>
-      <c r="AW60" s="2"/>
-      <c r="AX60" s="2"/>
-      <c r="AY60" s="2"/>
+      <c r="AW60" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX60" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AY60" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ60" s="2">
         <v>1</v>
       </c>
@@ -8469,19 +8494,17 @@
         <v>0</v>
       </c>
       <c r="BC60" s="2"/>
-      <c r="BD60" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD60" s="2"/>
     </row>
     <row r="61" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>29</v>
@@ -8489,7 +8512,9 @@
       <c r="E61" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F61" s="2"/>
+      <c r="F61" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="6"/>
@@ -8498,70 +8523,66 @@
         <v>71</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="M61" s="2">
         <v>1</v>
       </c>
-      <c r="N61" s="2"/>
+      <c r="N61" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="O61" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
-      <c r="R61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S61" s="2">
-        <v>20</v>
-      </c>
-      <c r="T61" s="2">
-        <v>50</v>
-      </c>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
-      <c r="W61" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X61" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
       <c r="Z61" s="2">
         <v>1</v>
       </c>
       <c r="AA61" s="2"/>
       <c r="AB61" s="2"/>
-      <c r="AC61" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD61" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC61" s="2"/>
+      <c r="AD61" s="2"/>
       <c r="AE61" s="2"/>
       <c r="AF61" s="2"/>
       <c r="AG61" s="2"/>
       <c r="AH61" s="2"/>
       <c r="AI61" s="2"/>
       <c r="AJ61" s="2"/>
-      <c r="AK61" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK61" s="2"/>
       <c r="AL61" s="2"/>
       <c r="AM61" s="2"/>
       <c r="AN61" s="2"/>
       <c r="AO61" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP61" s="2"/>
+      <c r="AP61" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ61" s="2"/>
-      <c r="AR61" s="2"/>
-      <c r="AS61" s="2"/>
-      <c r="AT61" s="2"/>
+      <c r="AR61" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS61" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT61" s="2">
+        <v>1</v>
+      </c>
       <c r="AU61" s="2">
         <v>1</v>
       </c>
-      <c r="AV61" s="2"/>
+      <c r="AV61" s="7">
+        <v>2</v>
+      </c>
       <c r="AW61" s="2"/>
       <c r="AX61" s="2"/>
       <c r="AY61" s="2"/>
@@ -8573,13 +8594,11 @@
         <v>0</v>
       </c>
       <c r="BC61" s="2"/>
-      <c r="BD61" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD61" s="2"/>
     </row>
     <row r="62" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>85</v>
@@ -8683,7 +8702,7 @@
     </row>
     <row r="63" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>85</v>
@@ -8787,7 +8806,7 @@
     </row>
     <row r="64" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>85</v>
@@ -8891,7 +8910,7 @@
     </row>
     <row r="65" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>85</v>
@@ -8994,7 +9013,319 @@
       </c>
     </row>
     <row r="66" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="Z66" s="13"/>
+      <c r="A66" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M66" s="2">
+        <v>1</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S66" s="2">
+        <v>20</v>
+      </c>
+      <c r="T66" s="2">
+        <v>50</v>
+      </c>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X66" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA66" s="2"/>
+      <c r="AB66" s="2"/>
+      <c r="AC66" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD66" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE66" s="2"/>
+      <c r="AF66" s="2"/>
+      <c r="AG66" s="2"/>
+      <c r="AH66" s="2"/>
+      <c r="AI66" s="2"/>
+      <c r="AJ66" s="2"/>
+      <c r="AK66" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL66" s="2"/>
+      <c r="AM66" s="2"/>
+      <c r="AN66" s="2"/>
+      <c r="AO66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP66" s="2"/>
+      <c r="AQ66" s="2"/>
+      <c r="AR66" s="2"/>
+      <c r="AS66" s="2"/>
+      <c r="AT66" s="2"/>
+      <c r="AU66" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV66" s="2"/>
+      <c r="AW66" s="2"/>
+      <c r="AX66" s="2"/>
+      <c r="AY66" s="2"/>
+      <c r="AZ66" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA66" s="2"/>
+      <c r="BB66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC66" s="2"/>
+      <c r="BD66" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M67" s="2">
+        <v>1</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S67" s="2">
+        <v>20</v>
+      </c>
+      <c r="T67" s="2">
+        <v>50</v>
+      </c>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X67" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA67" s="2"/>
+      <c r="AB67" s="2"/>
+      <c r="AC67" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD67" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE67" s="2"/>
+      <c r="AF67" s="2"/>
+      <c r="AG67" s="2"/>
+      <c r="AH67" s="2"/>
+      <c r="AI67" s="2"/>
+      <c r="AJ67" s="2"/>
+      <c r="AK67" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL67" s="2"/>
+      <c r="AM67" s="2"/>
+      <c r="AN67" s="2"/>
+      <c r="AO67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP67" s="2"/>
+      <c r="AQ67" s="2"/>
+      <c r="AR67" s="2"/>
+      <c r="AS67" s="2"/>
+      <c r="AT67" s="2"/>
+      <c r="AU67" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV67" s="2"/>
+      <c r="AW67" s="2"/>
+      <c r="AX67" s="2"/>
+      <c r="AY67" s="2"/>
+      <c r="AZ67" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA67" s="2"/>
+      <c r="BB67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC67" s="2"/>
+      <c r="BD67" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M68" s="2">
+        <v>1</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S68" s="2">
+        <v>20</v>
+      </c>
+      <c r="T68" s="2">
+        <v>50</v>
+      </c>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X68" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA68" s="2"/>
+      <c r="AB68" s="2"/>
+      <c r="AC68" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD68" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE68" s="2"/>
+      <c r="AF68" s="2"/>
+      <c r="AG68" s="2"/>
+      <c r="AH68" s="2"/>
+      <c r="AI68" s="2"/>
+      <c r="AJ68" s="2"/>
+      <c r="AK68" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL68" s="2"/>
+      <c r="AM68" s="2"/>
+      <c r="AN68" s="2"/>
+      <c r="AO68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP68" s="2"/>
+      <c r="AQ68" s="2"/>
+      <c r="AR68" s="2"/>
+      <c r="AS68" s="2"/>
+      <c r="AT68" s="2"/>
+      <c r="AU68" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV68" s="2"/>
+      <c r="AW68" s="2"/>
+      <c r="AX68" s="2"/>
+      <c r="AY68" s="2"/>
+      <c r="AZ68" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA68" s="2"/>
+      <c r="BB68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC68" s="2"/>
+      <c r="BD68" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="Z69" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB3AC67-6E14-408E-8B90-AA34D1028F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97EB5BD-59F4-4C74-AECF-65CE251EC7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="201">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -602,6 +602,24 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_078</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_083</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_085</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_097</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_098</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_099</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_100</t>
   </si>
 </sst>
 </file>
@@ -662,7 +680,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -698,22 +716,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -733,7 +740,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2320,11 +2326,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BG69"/>
+  <dimension ref="A1:BG74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A55" sqref="A55"/>
+      <selection pane="topRight" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8092,7 +8098,7 @@
     </row>
     <row r="57" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>23</v>
@@ -8117,7 +8123,7 @@
         <v>71</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M57" s="2">
         <v>1</v>
@@ -8150,38 +8156,32 @@
       <c r="AK57" s="2"/>
       <c r="AL57" s="2"/>
       <c r="AM57" s="2"/>
-      <c r="AN57" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AN57" s="2"/>
       <c r="AO57" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AP57" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AQ57" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="AQ57" s="2">
+        <v>2</v>
+      </c>
       <c r="AR57" s="2">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="AS57" s="2">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="AT57" s="2">
         <v>1</v>
       </c>
       <c r="AU57" s="2">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="AV57" s="2"/>
-      <c r="AW57" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AX57" s="11">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AY57" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="AW57" s="2"/>
+      <c r="AX57" s="2"/>
+      <c r="AY57" s="2"/>
       <c r="AZ57" s="2">
         <v>1</v>
       </c>
@@ -8194,7 +8194,7 @@
     </row>
     <row r="58" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>23</v>
@@ -8219,75 +8219,71 @@
         <v>71</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M58" s="2">
         <v>1</v>
       </c>
       <c r="N58" s="2"/>
-      <c r="O58" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
-      <c r="R58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S58" s="2">
-        <v>20</v>
-      </c>
-      <c r="T58" s="2">
-        <v>50</v>
-      </c>
-      <c r="U58" s="2">
-        <v>0.2</v>
-      </c>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
       <c r="V58" s="2"/>
-      <c r="W58" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X58" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
       <c r="Z58" s="2">
         <v>1</v>
       </c>
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
-      <c r="AC58" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD58" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC58" s="2"/>
+      <c r="AD58" s="2"/>
       <c r="AE58" s="2"/>
       <c r="AF58" s="2"/>
       <c r="AG58" s="2"/>
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
       <c r="AJ58" s="2"/>
-      <c r="AK58" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK58" s="2"/>
       <c r="AL58" s="2"/>
       <c r="AM58" s="2"/>
-      <c r="AN58" s="2"/>
+      <c r="AN58" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AO58" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP58" s="2"/>
+      <c r="AP58" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ58" s="2"/>
-      <c r="AR58" s="2"/>
-      <c r="AS58" s="2"/>
-      <c r="AT58" s="2"/>
+      <c r="AR58" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS58" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT58" s="2">
+        <v>1</v>
+      </c>
       <c r="AU58" s="2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="AV58" s="2"/>
-      <c r="AW58" s="2"/>
-      <c r="AX58" s="2"/>
-      <c r="AY58" s="2"/>
+      <c r="AW58" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX58" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AY58" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ58" s="2">
         <v>1</v>
       </c>
@@ -8296,13 +8292,11 @@
         <v>0</v>
       </c>
       <c r="BC58" s="2"/>
-      <c r="BD58" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD58" s="2"/>
     </row>
     <row r="59" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>23</v>
@@ -8327,7 +8321,7 @@
         <v>71</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M59" s="2">
         <v>1</v>
@@ -8360,16 +8354,16 @@
       <c r="AK59" s="2"/>
       <c r="AL59" s="2"/>
       <c r="AM59" s="2"/>
-      <c r="AN59" s="2"/>
+      <c r="AN59" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AO59" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AP59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ59" s="2">
-        <v>2</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="AQ59" s="2"/>
       <c r="AR59" s="2">
         <v>3000</v>
       </c>
@@ -8379,11 +8373,19 @@
       <c r="AT59" s="2">
         <v>1</v>
       </c>
-      <c r="AU59" s="2"/>
+      <c r="AU59" s="2">
+        <v>0.01</v>
+      </c>
       <c r="AV59" s="2"/>
-      <c r="AW59" s="2"/>
-      <c r="AX59" s="2"/>
-      <c r="AY59" s="2"/>
+      <c r="AW59" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX59" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AY59" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ59" s="2">
         <v>1</v>
       </c>
@@ -8396,7 +8398,7 @@
     </row>
     <row r="60" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>23</v>
@@ -8421,71 +8423,75 @@
         <v>71</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="M60" s="2">
         <v>1</v>
       </c>
       <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+      <c r="O60" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
-      <c r="U60" s="2"/>
+      <c r="R60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S60" s="2">
+        <v>20</v>
+      </c>
+      <c r="T60" s="2">
+        <v>50</v>
+      </c>
+      <c r="U60" s="2">
+        <v>0.2</v>
+      </c>
       <c r="V60" s="2"/>
-      <c r="W60" s="2"/>
-      <c r="X60" s="2"/>
+      <c r="W60" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X60" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="Y60" s="2"/>
       <c r="Z60" s="2">
         <v>1</v>
       </c>
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
-      <c r="AC60" s="2"/>
-      <c r="AD60" s="2"/>
+      <c r="AC60" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD60" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE60" s="2"/>
       <c r="AF60" s="2"/>
       <c r="AG60" s="2"/>
       <c r="AH60" s="2"/>
       <c r="AI60" s="2"/>
       <c r="AJ60" s="2"/>
-      <c r="AK60" s="2"/>
+      <c r="AK60" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="AL60" s="2"/>
       <c r="AM60" s="2"/>
-      <c r="AN60" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="AN60" s="2"/>
       <c r="AO60" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP60" s="2">
-        <v>0.1</v>
-      </c>
+      <c r="AP60" s="2"/>
       <c r="AQ60" s="2"/>
-      <c r="AR60" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AS60" s="2">
-        <v>4000</v>
-      </c>
-      <c r="AT60" s="2">
-        <v>1</v>
-      </c>
+      <c r="AR60" s="2"/>
+      <c r="AS60" s="2"/>
+      <c r="AT60" s="2"/>
       <c r="AU60" s="2">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="AV60" s="2"/>
-      <c r="AW60" s="11">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AX60" s="11">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AY60" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="AW60" s="2"/>
+      <c r="AX60" s="2"/>
+      <c r="AY60" s="2"/>
       <c r="AZ60" s="2">
         <v>1</v>
       </c>
@@ -8494,11 +8500,13 @@
         <v>0</v>
       </c>
       <c r="BC60" s="2"/>
-      <c r="BD60" s="2"/>
+      <c r="BD60" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="61" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>23</v>
@@ -8523,17 +8531,13 @@
         <v>71</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="M61" s="2">
         <v>1</v>
       </c>
-      <c r="N61" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
@@ -8565,9 +8569,11 @@
         <v>32</v>
       </c>
       <c r="AP61" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AQ61" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="AQ61" s="2">
+        <v>2</v>
+      </c>
       <c r="AR61" s="2">
         <v>3000</v>
       </c>
@@ -8577,12 +8583,8 @@
       <c r="AT61" s="2">
         <v>1</v>
       </c>
-      <c r="AU61" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV61" s="7">
-        <v>2</v>
-      </c>
+      <c r="AU61" s="2"/>
+      <c r="AV61" s="2"/>
       <c r="AW61" s="2"/>
       <c r="AX61" s="2"/>
       <c r="AY61" s="2"/>
@@ -8598,13 +8600,13 @@
     </row>
     <row r="62" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>29</v>
@@ -8612,7 +8614,9 @@
       <c r="E62" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F62" s="2"/>
+      <c r="F62" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="6"/>
@@ -8621,73 +8625,71 @@
         <v>71</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M62" s="2">
         <v>1</v>
       </c>
       <c r="N62" s="2"/>
-      <c r="O62" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
-      <c r="R62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S62" s="2">
-        <v>20</v>
-      </c>
-      <c r="T62" s="2">
-        <v>50</v>
-      </c>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
-      <c r="W62" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X62" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
       <c r="Z62" s="2">
         <v>1</v>
       </c>
       <c r="AA62" s="2"/>
       <c r="AB62" s="2"/>
-      <c r="AC62" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD62" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC62" s="2"/>
+      <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
       <c r="AF62" s="2"/>
       <c r="AG62" s="2"/>
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
       <c r="AJ62" s="2"/>
-      <c r="AK62" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK62" s="2"/>
       <c r="AL62" s="2"/>
       <c r="AM62" s="2"/>
-      <c r="AN62" s="2"/>
+      <c r="AN62" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AO62" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP62" s="2"/>
+      <c r="AP62" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ62" s="2"/>
-      <c r="AR62" s="2"/>
-      <c r="AS62" s="2"/>
-      <c r="AT62" s="2"/>
+      <c r="AR62" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS62" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT62" s="2">
+        <v>1</v>
+      </c>
       <c r="AU62" s="2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="AV62" s="2"/>
-      <c r="AW62" s="2"/>
-      <c r="AX62" s="2"/>
-      <c r="AY62" s="2"/>
+      <c r="AW62" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX62" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AY62" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="AZ62" s="2">
         <v>1</v>
       </c>
@@ -8696,19 +8698,17 @@
         <v>0</v>
       </c>
       <c r="BC62" s="2"/>
-      <c r="BD62" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD62" s="2"/>
     </row>
     <row r="63" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>29</v>
@@ -8716,7 +8716,9 @@
       <c r="E63" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F63" s="2"/>
+      <c r="F63" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="6"/>
@@ -8725,70 +8727,66 @@
         <v>71</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="M63" s="2">
         <v>1</v>
       </c>
-      <c r="N63" s="2"/>
+      <c r="N63" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="O63" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
-      <c r="R63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S63" s="2">
-        <v>20</v>
-      </c>
-      <c r="T63" s="2">
-        <v>50</v>
-      </c>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
-      <c r="W63" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="X63" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2">
         <v>1</v>
       </c>
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
-      <c r="AC63" s="2">
-        <v>3000</v>
-      </c>
-      <c r="AD63" s="2">
-        <v>4000</v>
-      </c>
+      <c r="AC63" s="2"/>
+      <c r="AD63" s="2"/>
       <c r="AE63" s="2"/>
       <c r="AF63" s="2"/>
       <c r="AG63" s="2"/>
       <c r="AH63" s="2"/>
       <c r="AI63" s="2"/>
       <c r="AJ63" s="2"/>
-      <c r="AK63" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AK63" s="2"/>
       <c r="AL63" s="2"/>
       <c r="AM63" s="2"/>
       <c r="AN63" s="2"/>
       <c r="AO63" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AP63" s="2"/>
+      <c r="AP63" s="2">
+        <v>0.1</v>
+      </c>
       <c r="AQ63" s="2"/>
-      <c r="AR63" s="2"/>
-      <c r="AS63" s="2"/>
-      <c r="AT63" s="2"/>
+      <c r="AR63" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS63" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT63" s="2">
+        <v>1</v>
+      </c>
       <c r="AU63" s="2">
         <v>1</v>
       </c>
-      <c r="AV63" s="2"/>
+      <c r="AV63" s="7">
+        <v>2</v>
+      </c>
       <c r="AW63" s="2"/>
       <c r="AX63" s="2"/>
       <c r="AY63" s="2"/>
@@ -8800,13 +8798,11 @@
         <v>0</v>
       </c>
       <c r="BC63" s="2"/>
-      <c r="BD63" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="BD63" s="2"/>
     </row>
     <row r="64" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>85</v>
@@ -8910,7 +8906,7 @@
     </row>
     <row r="65" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>85</v>
@@ -9014,7 +9010,7 @@
     </row>
     <row r="66" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>85</v>
@@ -9118,7 +9114,7 @@
     </row>
     <row r="67" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>85</v>
@@ -9222,7 +9218,7 @@
     </row>
     <row r="68" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>85</v>
@@ -9325,7 +9321,620 @@
       </c>
     </row>
     <row r="69" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="Z69" s="13"/>
+      <c r="A69" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M69" s="2">
+        <v>1</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S69" s="2">
+        <v>20</v>
+      </c>
+      <c r="T69" s="2">
+        <v>50</v>
+      </c>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X69" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA69" s="2"/>
+      <c r="AB69" s="2"/>
+      <c r="AC69" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD69" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE69" s="2"/>
+      <c r="AF69" s="2"/>
+      <c r="AG69" s="2"/>
+      <c r="AH69" s="2"/>
+      <c r="AI69" s="2"/>
+      <c r="AJ69" s="2"/>
+      <c r="AK69" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL69" s="2"/>
+      <c r="AM69" s="2"/>
+      <c r="AN69" s="2"/>
+      <c r="AO69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP69" s="2"/>
+      <c r="AQ69" s="2"/>
+      <c r="AR69" s="2"/>
+      <c r="AS69" s="2"/>
+      <c r="AT69" s="2"/>
+      <c r="AU69" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV69" s="2"/>
+      <c r="AW69" s="2"/>
+      <c r="AX69" s="2"/>
+      <c r="AY69" s="2"/>
+      <c r="AZ69" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA69" s="2"/>
+      <c r="BB69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC69" s="2"/>
+      <c r="BD69" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M70" s="2">
+        <v>1</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S70" s="2">
+        <v>20</v>
+      </c>
+      <c r="T70" s="2">
+        <v>50</v>
+      </c>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA70" s="2"/>
+      <c r="AB70" s="2"/>
+      <c r="AC70" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD70" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE70" s="2"/>
+      <c r="AF70" s="2"/>
+      <c r="AG70" s="2"/>
+      <c r="AH70" s="2"/>
+      <c r="AI70" s="2"/>
+      <c r="AJ70" s="2"/>
+      <c r="AK70" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL70" s="2"/>
+      <c r="AM70" s="2"/>
+      <c r="AN70" s="2"/>
+      <c r="AO70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP70" s="2"/>
+      <c r="AQ70" s="2"/>
+      <c r="AR70" s="2"/>
+      <c r="AS70" s="2"/>
+      <c r="AT70" s="2"/>
+      <c r="AU70" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV70" s="2"/>
+      <c r="AW70" s="2"/>
+      <c r="AX70" s="2"/>
+      <c r="AY70" s="2"/>
+      <c r="AZ70" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA70" s="2"/>
+      <c r="BB70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC70" s="2"/>
+      <c r="BD70" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M71" s="2">
+        <v>1</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S71" s="2">
+        <v>20</v>
+      </c>
+      <c r="T71" s="2">
+        <v>50</v>
+      </c>
+      <c r="U71" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V71" s="2"/>
+      <c r="W71" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X71" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA71" s="2"/>
+      <c r="AB71" s="2"/>
+      <c r="AC71" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD71" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE71" s="2"/>
+      <c r="AF71" s="2"/>
+      <c r="AG71" s="2"/>
+      <c r="AH71" s="2"/>
+      <c r="AI71" s="2"/>
+      <c r="AJ71" s="2"/>
+      <c r="AK71" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL71" s="2"/>
+      <c r="AM71" s="2"/>
+      <c r="AN71" s="2"/>
+      <c r="AO71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP71" s="2"/>
+      <c r="AQ71" s="2"/>
+      <c r="AR71" s="2"/>
+      <c r="AS71" s="2"/>
+      <c r="AT71" s="2"/>
+      <c r="AU71" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV71" s="2"/>
+      <c r="AW71" s="2"/>
+      <c r="AX71" s="2"/>
+      <c r="AY71" s="2"/>
+      <c r="AZ71" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA71" s="2"/>
+      <c r="BB71" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC71" s="2"/>
+      <c r="BD71" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M72" s="2">
+        <v>1</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S72" s="2">
+        <v>20</v>
+      </c>
+      <c r="T72" s="2">
+        <v>50</v>
+      </c>
+      <c r="U72" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V72" s="2"/>
+      <c r="W72" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X72" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA72" s="2"/>
+      <c r="AB72" s="2"/>
+      <c r="AC72" s="2">
+        <v>1200</v>
+      </c>
+      <c r="AD72" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AE72" s="2"/>
+      <c r="AF72" s="2"/>
+      <c r="AG72" s="2"/>
+      <c r="AH72" s="2"/>
+      <c r="AI72" s="2"/>
+      <c r="AJ72" s="2"/>
+      <c r="AK72" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL72" s="2"/>
+      <c r="AM72" s="2"/>
+      <c r="AN72" s="2"/>
+      <c r="AO72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP72" s="2"/>
+      <c r="AQ72" s="2"/>
+      <c r="AR72" s="2"/>
+      <c r="AS72" s="2"/>
+      <c r="AT72" s="2"/>
+      <c r="AU72" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV72" s="2"/>
+      <c r="AW72" s="2"/>
+      <c r="AX72" s="2"/>
+      <c r="AY72" s="2"/>
+      <c r="AZ72" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA72" s="2"/>
+      <c r="BB72" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC72" s="2"/>
+      <c r="BD72" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M73" s="2">
+        <v>1</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2"/>
+      <c r="Z73" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA73" s="2"/>
+      <c r="AB73" s="2"/>
+      <c r="AC73" s="2"/>
+      <c r="AD73" s="2"/>
+      <c r="AE73" s="2"/>
+      <c r="AF73" s="2"/>
+      <c r="AG73" s="2"/>
+      <c r="AH73" s="2"/>
+      <c r="AI73" s="2"/>
+      <c r="AJ73" s="2"/>
+      <c r="AK73" s="2"/>
+      <c r="AL73" s="2"/>
+      <c r="AM73" s="2"/>
+      <c r="AN73" s="2"/>
+      <c r="AO73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP73" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ73" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR73" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AS73" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AT73" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU73" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV73" s="2"/>
+      <c r="AW73" s="2"/>
+      <c r="AX73" s="2"/>
+      <c r="AY73" s="2"/>
+      <c r="AZ73" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA73" s="2"/>
+      <c r="BB73" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC73" s="2"/>
+      <c r="BD73" s="2"/>
+    </row>
+    <row r="74" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M74" s="2">
+        <v>1</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="2"/>
+      <c r="Z74" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA74" s="2"/>
+      <c r="AB74" s="2"/>
+      <c r="AC74" s="2"/>
+      <c r="AD74" s="2"/>
+      <c r="AE74" s="2"/>
+      <c r="AF74" s="2"/>
+      <c r="AG74" s="2"/>
+      <c r="AH74" s="2"/>
+      <c r="AI74" s="2"/>
+      <c r="AJ74" s="2"/>
+      <c r="AK74" s="2"/>
+      <c r="AL74" s="2"/>
+      <c r="AM74" s="2"/>
+      <c r="AN74" s="2"/>
+      <c r="AO74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP74" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ74" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR74" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AS74" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AT74" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU74" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV74" s="2"/>
+      <c r="AW74" s="2"/>
+      <c r="AX74" s="2"/>
+      <c r="AY74" s="2"/>
+      <c r="AZ74" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA74" s="2"/>
+      <c r="BB74" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC74" s="2"/>
+      <c r="BD74" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97EB5BD-59F4-4C74-AECF-65CE251EC7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938C89E1-EBDB-4C39-A457-BF40B66E6DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="204">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -620,6 +620,15 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_100</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_101</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_102</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_103</t>
   </si>
 </sst>
 </file>
@@ -2326,11 +2335,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BG74"/>
+  <dimension ref="A1:BG77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B74" sqref="B74"/>
+      <selection pane="topRight" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9936,6 +9945,318 @@
       <c r="BC74" s="2"/>
       <c r="BD74" s="2"/>
     </row>
+    <row r="75" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M75" s="2">
+        <v>1</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA75" s="2"/>
+      <c r="AB75" s="2"/>
+      <c r="AC75" s="2"/>
+      <c r="AD75" s="2"/>
+      <c r="AE75" s="2"/>
+      <c r="AF75" s="2"/>
+      <c r="AG75" s="2"/>
+      <c r="AH75" s="2"/>
+      <c r="AI75" s="2"/>
+      <c r="AJ75" s="2"/>
+      <c r="AK75" s="2"/>
+      <c r="AL75" s="2"/>
+      <c r="AM75" s="2"/>
+      <c r="AN75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP75" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AQ75" s="2"/>
+      <c r="AR75" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS75" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT75" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU75" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AV75" s="2"/>
+      <c r="AW75" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX75" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AY75" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ75" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA75" s="2"/>
+      <c r="BB75" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC75" s="2"/>
+      <c r="BD75" s="2"/>
+    </row>
+    <row r="76" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M76" s="2">
+        <v>1</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA76" s="2"/>
+      <c r="AB76" s="2"/>
+      <c r="AC76" s="2"/>
+      <c r="AD76" s="2"/>
+      <c r="AE76" s="2"/>
+      <c r="AF76" s="2"/>
+      <c r="AG76" s="2"/>
+      <c r="AH76" s="2"/>
+      <c r="AI76" s="2"/>
+      <c r="AJ76" s="2"/>
+      <c r="AK76" s="2"/>
+      <c r="AL76" s="2"/>
+      <c r="AM76" s="2"/>
+      <c r="AN76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP76" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AQ76" s="2"/>
+      <c r="AR76" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS76" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT76" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU76" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AV76" s="2"/>
+      <c r="AW76" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX76" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AY76" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ76" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA76" s="2"/>
+      <c r="BB76" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC76" s="2"/>
+      <c r="BD76" s="2"/>
+    </row>
+    <row r="77" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M77" s="2">
+        <v>1</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S77" s="2">
+        <v>20</v>
+      </c>
+      <c r="T77" s="2">
+        <v>50</v>
+      </c>
+      <c r="U77" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V77" s="2"/>
+      <c r="W77" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X77" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y77" s="2"/>
+      <c r="Z77" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA77" s="2"/>
+      <c r="AB77" s="2"/>
+      <c r="AC77" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD77" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE77" s="2"/>
+      <c r="AF77" s="2"/>
+      <c r="AG77" s="2"/>
+      <c r="AH77" s="2"/>
+      <c r="AI77" s="2"/>
+      <c r="AJ77" s="2"/>
+      <c r="AK77" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL77" s="2"/>
+      <c r="AM77" s="2"/>
+      <c r="AN77" s="2"/>
+      <c r="AO77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP77" s="2"/>
+      <c r="AQ77" s="2"/>
+      <c r="AR77" s="2"/>
+      <c r="AS77" s="2"/>
+      <c r="AT77" s="2"/>
+      <c r="AU77" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV77" s="2"/>
+      <c r="AW77" s="2"/>
+      <c r="AX77" s="2"/>
+      <c r="AY77" s="2"/>
+      <c r="AZ77" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA77" s="2"/>
+      <c r="BB77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC77" s="2"/>
+      <c r="BD77" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938C89E1-EBDB-4C39-A457-BF40B66E6DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737FC5F9-F8C6-4271-A56D-B468E714E5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="207">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -629,6 +629,15 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_103</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_104</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_105</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_106</t>
   </si>
 </sst>
 </file>
@@ -2335,11 +2344,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BG77"/>
+  <dimension ref="A1:BG80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B78" sqref="B78"/>
+      <selection pane="topRight" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10257,6 +10266,302 @@
         <v>75</v>
       </c>
     </row>
+    <row r="78" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M78" s="2">
+        <v>1</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA78" s="2"/>
+      <c r="AB78" s="2"/>
+      <c r="AC78" s="2"/>
+      <c r="AD78" s="2"/>
+      <c r="AE78" s="2"/>
+      <c r="AF78" s="2"/>
+      <c r="AG78" s="2"/>
+      <c r="AH78" s="2"/>
+      <c r="AI78" s="2"/>
+      <c r="AJ78" s="2"/>
+      <c r="AK78" s="2"/>
+      <c r="AL78" s="2"/>
+      <c r="AM78" s="2"/>
+      <c r="AN78" s="2"/>
+      <c r="AO78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP78" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ78" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR78" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS78" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT78" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU78" s="2"/>
+      <c r="AV78" s="2"/>
+      <c r="AW78" s="2"/>
+      <c r="AX78" s="2"/>
+      <c r="AY78" s="2"/>
+      <c r="AZ78" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA78" s="2"/>
+      <c r="BB78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC78" s="2"/>
+      <c r="BD78" s="2"/>
+    </row>
+    <row r="79" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M79" s="2">
+        <v>1</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="2"/>
+      <c r="Z79" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA79" s="2"/>
+      <c r="AB79" s="2"/>
+      <c r="AC79" s="2"/>
+      <c r="AD79" s="2"/>
+      <c r="AE79" s="2"/>
+      <c r="AF79" s="2"/>
+      <c r="AG79" s="2"/>
+      <c r="AH79" s="2"/>
+      <c r="AI79" s="2"/>
+      <c r="AJ79" s="2"/>
+      <c r="AK79" s="2"/>
+      <c r="AL79" s="2"/>
+      <c r="AM79" s="2"/>
+      <c r="AN79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO79" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP79" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AQ79" s="2"/>
+      <c r="AR79" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS79" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT79" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU79" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AV79" s="2"/>
+      <c r="AW79" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX79" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AY79" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ79" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA79" s="2"/>
+      <c r="BB79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC79" s="2"/>
+      <c r="BD79" s="2"/>
+    </row>
+    <row r="80" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M80" s="2">
+        <v>1</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="2"/>
+      <c r="Z80" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA80" s="2"/>
+      <c r="AB80" s="2"/>
+      <c r="AC80" s="2"/>
+      <c r="AD80" s="2"/>
+      <c r="AE80" s="2"/>
+      <c r="AF80" s="2"/>
+      <c r="AG80" s="2"/>
+      <c r="AH80" s="2"/>
+      <c r="AI80" s="2"/>
+      <c r="AJ80" s="2"/>
+      <c r="AK80" s="2"/>
+      <c r="AL80" s="2"/>
+      <c r="AM80" s="2"/>
+      <c r="AN80" s="2"/>
+      <c r="AO80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP80" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AQ80" s="2"/>
+      <c r="AR80" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS80" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT80" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU80" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV80" s="7">
+        <v>2</v>
+      </c>
+      <c r="AW80" s="2"/>
+      <c r="AX80" s="2"/>
+      <c r="AY80" s="2"/>
+      <c r="AZ80" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA80" s="2"/>
+      <c r="BB80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC80" s="2"/>
+      <c r="BD80" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737FC5F9-F8C6-4271-A56D-B468E714E5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEBE586-0E87-471B-8253-23E9C368A3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="207">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -517,9 +517,6 @@
     <t>QA_TestCase_Auto_NitroX_096</t>
   </si>
   <si>
-    <t>test@Binancedm</t>
-  </si>
-  <si>
     <t>QA_TestCase_Auto_NitroX_050</t>
   </si>
   <si>
@@ -574,9 +571,6 @@
     <t>QA_TestCase_Auto_NitroX_054</t>
   </si>
   <si>
-    <t>test@Ftx.</t>
-  </si>
-  <si>
     <t>QA_TestCase_Auto_NitroX_055</t>
   </si>
   <si>
@@ -638,6 +632,12 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_106</t>
+  </si>
+  <si>
+    <t>ETH/USD Perpetual USD</t>
+  </si>
+  <si>
+    <t>test@Ftx</t>
   </si>
 </sst>
 </file>
@@ -2346,9 +2346,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
   <dimension ref="A1:BG80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AS87" sqref="AS87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3558,15 +3558,17 @@
         <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="6"/>
@@ -3654,15 +3656,17 @@
         <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="6"/>
@@ -3750,15 +3754,17 @@
         <v>85</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="6"/>
@@ -3846,15 +3852,17 @@
         <v>85</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="6"/>
@@ -3936,18 +3944,18 @@
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -4040,18 +4048,18 @@
     </row>
     <row r="17" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -4144,18 +4152,18 @@
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -4248,18 +4256,18 @@
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -4358,12 +4366,12 @@
         <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
@@ -4468,12 +4476,12 @@
         <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
@@ -4578,12 +4586,12 @@
         <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>119</v>
+        <v>205</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -4668,10 +4676,13 @@
         <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -4749,13 +4760,13 @@
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>29</v>
@@ -4764,7 +4775,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -4849,13 +4860,13 @@
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>29</v>
@@ -4864,7 +4875,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -4949,13 +4960,13 @@
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>29</v>
@@ -4964,7 +4975,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -5047,13 +5058,13 @@
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>29</v>
@@ -5062,7 +5073,7 @@
         <v>2</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -5145,13 +5156,13 @@
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>29</v>
@@ -5160,7 +5171,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -5243,13 +5254,13 @@
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>29</v>
@@ -5258,7 +5269,7 @@
         <v>2</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -6565,7 +6576,7 @@
     </row>
     <row r="42" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>85</v>
@@ -7060,13 +7071,13 @@
     </row>
     <row r="47" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>29</v>
@@ -7075,7 +7086,7 @@
         <v>2</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -7166,13 +7177,13 @@
     </row>
     <row r="48" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>29</v>
@@ -7181,7 +7192,7 @@
         <v>2</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -7272,13 +7283,13 @@
     </row>
     <row r="49" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>29</v>
@@ -7287,7 +7298,7 @@
         <v>2</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -7378,13 +7389,13 @@
     </row>
     <row r="50" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>29</v>
@@ -7393,7 +7404,7 @@
         <v>2</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -7484,13 +7495,13 @@
     </row>
     <row r="51" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>29</v>
@@ -7499,7 +7510,7 @@
         <v>2</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -7590,13 +7601,13 @@
     </row>
     <row r="52" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>29</v>
@@ -7605,7 +7616,7 @@
         <v>2</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -7698,13 +7709,13 @@
     </row>
     <row r="53" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>29</v>
@@ -7713,7 +7724,7 @@
         <v>2</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -7804,13 +7815,13 @@
     </row>
     <row r="54" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>29</v>
@@ -7819,7 +7830,7 @@
         <v>2</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -7912,13 +7923,13 @@
     </row>
     <row r="55" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>29</v>
@@ -7927,7 +7938,7 @@
         <v>2</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -8020,13 +8031,13 @@
     </row>
     <row r="56" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>29</v>
@@ -8035,7 +8046,7 @@
         <v>2</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -8089,10 +8100,10 @@
         <v>2</v>
       </c>
       <c r="AR56" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="AS56" s="2">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="AT56" s="2">
         <v>1</v>
@@ -8116,13 +8127,13 @@
     </row>
     <row r="57" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>29</v>
@@ -8131,7 +8142,7 @@
         <v>2</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -8185,10 +8196,10 @@
         <v>2</v>
       </c>
       <c r="AR57" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="AS57" s="2">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="AT57" s="2">
         <v>1</v>
@@ -8212,13 +8223,13 @@
     </row>
     <row r="58" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>29</v>
@@ -8227,7 +8238,7 @@
         <v>2</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -8314,13 +8325,13 @@
     </row>
     <row r="59" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>29</v>
@@ -8329,7 +8340,7 @@
         <v>2</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -8416,13 +8427,13 @@
     </row>
     <row r="60" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>29</v>
@@ -8431,7 +8442,7 @@
         <v>2</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -8524,13 +8535,13 @@
     </row>
     <row r="61" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>29</v>
@@ -8539,7 +8550,7 @@
         <v>2</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -8618,13 +8629,13 @@
     </row>
     <row r="62" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>29</v>
@@ -8633,7 +8644,7 @@
         <v>2</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -8720,13 +8731,13 @@
     </row>
     <row r="63" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>29</v>
@@ -8735,7 +8746,7 @@
         <v>2</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -9548,13 +9559,13 @@
     </row>
     <row r="71" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>29</v>
@@ -9563,7 +9574,7 @@
         <v>2</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -9656,13 +9667,13 @@
     </row>
     <row r="72" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>29</v>
@@ -9671,7 +9682,7 @@
         <v>2</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -9718,10 +9729,10 @@
       <c r="AA72" s="2"/>
       <c r="AB72" s="2"/>
       <c r="AC72" s="2">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="AD72" s="2">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="AE72" s="2"/>
       <c r="AF72" s="2"/>
@@ -9764,13 +9775,13 @@
     </row>
     <row r="73" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>29</v>
@@ -9779,7 +9790,7 @@
         <v>2</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -9811,8 +9822,12 @@
       </c>
       <c r="AA73" s="2"/>
       <c r="AB73" s="2"/>
-      <c r="AC73" s="2"/>
-      <c r="AD73" s="2"/>
+      <c r="AC73" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD73" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE73" s="2"/>
       <c r="AF73" s="2"/>
       <c r="AG73" s="2"/>
@@ -9833,10 +9848,10 @@
         <v>2</v>
       </c>
       <c r="AR73" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="AS73" s="2">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="AT73" s="2">
         <v>1</v>
@@ -9860,13 +9875,13 @@
     </row>
     <row r="74" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>29</v>
@@ -9875,7 +9890,7 @@
         <v>2</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -9907,8 +9922,12 @@
       </c>
       <c r="AA74" s="2"/>
       <c r="AB74" s="2"/>
-      <c r="AC74" s="2"/>
-      <c r="AD74" s="2"/>
+      <c r="AC74" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD74" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE74" s="2"/>
       <c r="AF74" s="2"/>
       <c r="AG74" s="2"/>
@@ -9929,10 +9948,10 @@
         <v>2</v>
       </c>
       <c r="AR74" s="2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="AS74" s="2">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="AT74" s="2">
         <v>1</v>
@@ -9956,13 +9975,13 @@
     </row>
     <row r="75" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>29</v>
@@ -9971,7 +9990,7 @@
         <v>2</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
@@ -10003,8 +10022,12 @@
       </c>
       <c r="AA75" s="2"/>
       <c r="AB75" s="2"/>
-      <c r="AC75" s="2"/>
-      <c r="AD75" s="2"/>
+      <c r="AC75" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD75" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE75" s="2"/>
       <c r="AF75" s="2"/>
       <c r="AG75" s="2"/>
@@ -10058,13 +10081,13 @@
     </row>
     <row r="76" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>29</v>
@@ -10073,7 +10096,7 @@
         <v>2</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -10105,8 +10128,12 @@
       </c>
       <c r="AA76" s="2"/>
       <c r="AB76" s="2"/>
-      <c r="AC76" s="2"/>
-      <c r="AD76" s="2"/>
+      <c r="AC76" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD76" s="2">
+        <v>4000</v>
+      </c>
       <c r="AE76" s="2"/>
       <c r="AF76" s="2"/>
       <c r="AG76" s="2"/>
@@ -10160,13 +10187,13 @@
     </row>
     <row r="77" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>29</v>
@@ -10175,7 +10202,7 @@
         <v>2</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -10268,13 +10295,13 @@
     </row>
     <row r="78" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>29</v>
@@ -10283,7 +10310,7 @@
         <v>2</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -10362,13 +10389,13 @@
     </row>
     <row r="79" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>29</v>
@@ -10377,7 +10404,7 @@
         <v>2</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -10464,13 +10491,13 @@
     </row>
     <row r="80" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>29</v>
@@ -10479,7 +10506,7 @@
         <v>2</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEBE586-0E87-471B-8253-23E9C368A3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD971C81-1B10-475C-9450-1E2B098CB461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2346,9 +2346,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
   <dimension ref="A1:BG80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AS87" sqref="AS87"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD971C81-1B10-475C-9450-1E2B098CB461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70CE3DC-0593-4FE1-A0CE-0395502FC399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="210">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -638,6 +638,15 @@
   </si>
   <si>
     <t>test@Ftx</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_107</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_108</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_109</t>
   </si>
 </sst>
 </file>
@@ -2344,11 +2353,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BG80"/>
+  <dimension ref="A1:BG83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C63" sqref="C63"/>
+      <selection pane="topRight" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10589,6 +10598,328 @@
       <c r="BC80" s="2"/>
       <c r="BD80" s="2"/>
     </row>
+    <row r="81" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M81" s="2">
+        <v>1</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S81" s="2">
+        <v>20</v>
+      </c>
+      <c r="T81" s="2">
+        <v>50</v>
+      </c>
+      <c r="U81" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V81" s="2"/>
+      <c r="W81" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X81" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y81" s="2"/>
+      <c r="Z81" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA81" s="2"/>
+      <c r="AB81" s="2"/>
+      <c r="AC81" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD81" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE81" s="2"/>
+      <c r="AF81" s="2"/>
+      <c r="AG81" s="2"/>
+      <c r="AH81" s="2"/>
+      <c r="AI81" s="2"/>
+      <c r="AJ81" s="2"/>
+      <c r="AK81" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL81" s="2"/>
+      <c r="AM81" s="2"/>
+      <c r="AN81" s="2"/>
+      <c r="AO81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP81" s="2"/>
+      <c r="AQ81" s="2"/>
+      <c r="AR81" s="2"/>
+      <c r="AS81" s="2"/>
+      <c r="AT81" s="2"/>
+      <c r="AU81" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV81" s="2"/>
+      <c r="AW81" s="2"/>
+      <c r="AX81" s="2"/>
+      <c r="AY81" s="2"/>
+      <c r="AZ81" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA81" s="2"/>
+      <c r="BB81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC81" s="2"/>
+      <c r="BD81" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M82" s="2">
+        <v>1</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S82" s="2">
+        <v>20</v>
+      </c>
+      <c r="T82" s="2">
+        <v>50</v>
+      </c>
+      <c r="U82" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V82" s="2"/>
+      <c r="W82" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X82" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y82" s="2"/>
+      <c r="Z82" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA82" s="2"/>
+      <c r="AB82" s="2"/>
+      <c r="AC82" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD82" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE82" s="2"/>
+      <c r="AF82" s="2"/>
+      <c r="AG82" s="2"/>
+      <c r="AH82" s="2"/>
+      <c r="AI82" s="2"/>
+      <c r="AJ82" s="2"/>
+      <c r="AK82" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL82" s="2"/>
+      <c r="AM82" s="2"/>
+      <c r="AN82" s="2"/>
+      <c r="AO82" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP82" s="2"/>
+      <c r="AQ82" s="2"/>
+      <c r="AR82" s="2"/>
+      <c r="AS82" s="2"/>
+      <c r="AT82" s="2"/>
+      <c r="AU82" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV82" s="2"/>
+      <c r="AW82" s="2"/>
+      <c r="AX82" s="2"/>
+      <c r="AY82" s="2"/>
+      <c r="AZ82" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA82" s="2"/>
+      <c r="BB82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC82" s="2"/>
+      <c r="BD82" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M83" s="2">
+        <v>1</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S83" s="2">
+        <v>20</v>
+      </c>
+      <c r="T83" s="2">
+        <v>50</v>
+      </c>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X83" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA83" s="2"/>
+      <c r="AB83" s="2"/>
+      <c r="AC83" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD83" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE83" s="2"/>
+      <c r="AF83" s="2"/>
+      <c r="AG83" s="2"/>
+      <c r="AH83" s="2"/>
+      <c r="AI83" s="2"/>
+      <c r="AJ83" s="2"/>
+      <c r="AK83" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL83" s="2"/>
+      <c r="AM83" s="2"/>
+      <c r="AN83" s="2"/>
+      <c r="AO83" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP83" s="2"/>
+      <c r="AQ83" s="2"/>
+      <c r="AR83" s="2"/>
+      <c r="AS83" s="2"/>
+      <c r="AT83" s="2"/>
+      <c r="AU83" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV83" s="2"/>
+      <c r="AW83" s="2"/>
+      <c r="AX83" s="2"/>
+      <c r="AY83" s="2"/>
+      <c r="AZ83" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA83" s="2"/>
+      <c r="BB83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC83" s="2"/>
+      <c r="BD83" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70CE3DC-0593-4FE1-A0CE-0395502FC399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CE3C07-ECA0-4998-955F-175654D66EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="213">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -647,6 +647,15 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_109</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_110</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_111</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_112</t>
   </si>
 </sst>
 </file>
@@ -2353,11 +2362,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BG83"/>
+  <dimension ref="A1:BG86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W90" sqref="W90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7458,10 +7467,10 @@
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
       <c r="AC50" s="2">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="AD50" s="2">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
@@ -7994,10 +8003,10 @@
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
       <c r="AC55" s="2">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="AD55" s="2">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
@@ -10920,6 +10929,324 @@
         <v>75</v>
       </c>
     </row>
+    <row r="84" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M84" s="2">
+        <v>1</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S84" s="2">
+        <v>20</v>
+      </c>
+      <c r="T84" s="2">
+        <v>50</v>
+      </c>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X84" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y84" s="2"/>
+      <c r="Z84" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA84" s="2"/>
+      <c r="AB84" s="2"/>
+      <c r="AC84" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD84" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE84" s="2"/>
+      <c r="AF84" s="2"/>
+      <c r="AG84" s="2"/>
+      <c r="AH84" s="2"/>
+      <c r="AI84" s="2"/>
+      <c r="AJ84" s="2"/>
+      <c r="AK84" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL84" s="2"/>
+      <c r="AM84" s="2"/>
+      <c r="AN84" s="2"/>
+      <c r="AO84" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP84" s="2"/>
+      <c r="AQ84" s="2"/>
+      <c r="AR84" s="2"/>
+      <c r="AS84" s="2"/>
+      <c r="AT84" s="2"/>
+      <c r="AU84" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV84" s="2"/>
+      <c r="AW84" s="2"/>
+      <c r="AX84" s="2"/>
+      <c r="AY84" s="2"/>
+      <c r="AZ84" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA84" s="2"/>
+      <c r="BB84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC84" s="2"/>
+      <c r="BD84" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M85" s="2">
+        <v>1</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S85" s="2">
+        <v>20</v>
+      </c>
+      <c r="T85" s="2">
+        <v>50</v>
+      </c>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X85" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y85" s="2"/>
+      <c r="Z85" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA85" s="2"/>
+      <c r="AB85" s="2"/>
+      <c r="AC85" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD85" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE85" s="2"/>
+      <c r="AF85" s="2"/>
+      <c r="AG85" s="2"/>
+      <c r="AH85" s="2"/>
+      <c r="AI85" s="2"/>
+      <c r="AJ85" s="2"/>
+      <c r="AK85" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL85" s="2"/>
+      <c r="AM85" s="2"/>
+      <c r="AN85" s="2"/>
+      <c r="AO85" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP85" s="2"/>
+      <c r="AQ85" s="2"/>
+      <c r="AR85" s="2"/>
+      <c r="AS85" s="2"/>
+      <c r="AT85" s="2"/>
+      <c r="AU85" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV85" s="2"/>
+      <c r="AW85" s="2"/>
+      <c r="AX85" s="2"/>
+      <c r="AY85" s="2"/>
+      <c r="AZ85" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA85" s="2"/>
+      <c r="BB85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC85" s="2"/>
+      <c r="BD85" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M86" s="2">
+        <v>1</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S86" s="2">
+        <v>20</v>
+      </c>
+      <c r="T86" s="2">
+        <v>50</v>
+      </c>
+      <c r="U86" s="2"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X86" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y86" s="2"/>
+      <c r="Z86" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA86" s="2"/>
+      <c r="AB86" s="2"/>
+      <c r="AC86" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD86" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE86" s="2"/>
+      <c r="AF86" s="2"/>
+      <c r="AG86" s="2"/>
+      <c r="AH86" s="2"/>
+      <c r="AI86" s="2"/>
+      <c r="AJ86" s="2"/>
+      <c r="AK86" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL86" s="2"/>
+      <c r="AM86" s="2"/>
+      <c r="AN86" s="2"/>
+      <c r="AO86" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP86" s="2"/>
+      <c r="AQ86" s="2"/>
+      <c r="AR86" s="2"/>
+      <c r="AS86" s="2"/>
+      <c r="AT86" s="2"/>
+      <c r="AU86" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV86" s="2"/>
+      <c r="AW86" s="2"/>
+      <c r="AX86" s="2"/>
+      <c r="AY86" s="2"/>
+      <c r="AZ86" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA86" s="2"/>
+      <c r="BB86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC86" s="2"/>
+      <c r="BD86" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CE3C07-ECA0-4998-955F-175654D66EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654597B5-1B09-4630-B727-20E7018EC3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="216">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -656,6 +656,15 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_112</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_113</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_114</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_115</t>
   </si>
 </sst>
 </file>
@@ -2362,11 +2371,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BG86"/>
+  <dimension ref="A1:BG89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W90" sqref="W90"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R89" sqref="R89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11247,6 +11256,328 @@
         <v>75</v>
       </c>
     </row>
+    <row r="87" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M87" s="2">
+        <v>1</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S87" s="2">
+        <v>20</v>
+      </c>
+      <c r="T87" s="2">
+        <v>50</v>
+      </c>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X87" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y87" s="2"/>
+      <c r="Z87" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA87" s="2"/>
+      <c r="AB87" s="2"/>
+      <c r="AC87" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD87" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE87" s="2"/>
+      <c r="AF87" s="2"/>
+      <c r="AG87" s="2"/>
+      <c r="AH87" s="2"/>
+      <c r="AI87" s="2"/>
+      <c r="AJ87" s="2"/>
+      <c r="AK87" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL87" s="2"/>
+      <c r="AM87" s="2"/>
+      <c r="AN87" s="2"/>
+      <c r="AO87" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP87" s="2"/>
+      <c r="AQ87" s="2"/>
+      <c r="AR87" s="2"/>
+      <c r="AS87" s="2"/>
+      <c r="AT87" s="2"/>
+      <c r="AU87" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV87" s="2"/>
+      <c r="AW87" s="2"/>
+      <c r="AX87" s="2"/>
+      <c r="AY87" s="2"/>
+      <c r="AZ87" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA87" s="2"/>
+      <c r="BB87" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC87" s="2"/>
+      <c r="BD87" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A88" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M88" s="2">
+        <v>1</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S88" s="2">
+        <v>20</v>
+      </c>
+      <c r="T88" s="2">
+        <v>50</v>
+      </c>
+      <c r="U88" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V88" s="2"/>
+      <c r="W88" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X88" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y88" s="2"/>
+      <c r="Z88" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA88" s="2"/>
+      <c r="AB88" s="2"/>
+      <c r="AC88" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD88" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE88" s="2"/>
+      <c r="AF88" s="2"/>
+      <c r="AG88" s="2"/>
+      <c r="AH88" s="2"/>
+      <c r="AI88" s="2"/>
+      <c r="AJ88" s="2"/>
+      <c r="AK88" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL88" s="2"/>
+      <c r="AM88" s="2"/>
+      <c r="AN88" s="2"/>
+      <c r="AO88" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP88" s="2"/>
+      <c r="AQ88" s="2"/>
+      <c r="AR88" s="2"/>
+      <c r="AS88" s="2"/>
+      <c r="AT88" s="2"/>
+      <c r="AU88" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV88" s="2"/>
+      <c r="AW88" s="2"/>
+      <c r="AX88" s="2"/>
+      <c r="AY88" s="2"/>
+      <c r="AZ88" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA88" s="2"/>
+      <c r="BB88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC88" s="2"/>
+      <c r="BD88" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M89" s="2">
+        <v>1</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S89" s="2">
+        <v>20</v>
+      </c>
+      <c r="T89" s="2">
+        <v>50</v>
+      </c>
+      <c r="U89" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V89" s="2"/>
+      <c r="W89" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X89" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y89" s="2"/>
+      <c r="Z89" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA89" s="2"/>
+      <c r="AB89" s="2"/>
+      <c r="AC89" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD89" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AE89" s="2"/>
+      <c r="AF89" s="2"/>
+      <c r="AG89" s="2"/>
+      <c r="AH89" s="2"/>
+      <c r="AI89" s="2"/>
+      <c r="AJ89" s="2"/>
+      <c r="AK89" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL89" s="2"/>
+      <c r="AM89" s="2"/>
+      <c r="AN89" s="2"/>
+      <c r="AO89" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP89" s="2"/>
+      <c r="AQ89" s="2"/>
+      <c r="AR89" s="2"/>
+      <c r="AS89" s="2"/>
+      <c r="AT89" s="2"/>
+      <c r="AU89" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV89" s="2"/>
+      <c r="AW89" s="2"/>
+      <c r="AX89" s="2"/>
+      <c r="AY89" s="2"/>
+      <c r="AZ89" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA89" s="2"/>
+      <c r="BB89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC89" s="2"/>
+      <c r="BD89" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654597B5-1B09-4630-B727-20E7018EC3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FAE872-47C5-4529-8C1E-880EC7DADB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="220">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -665,6 +665,18 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_115</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_116</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_117</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_118</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_119</t>
   </si>
 </sst>
 </file>
@@ -2371,11 +2383,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BG89"/>
+  <dimension ref="A1:BG93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R89" sqref="R89"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11578,6 +11590,402 @@
         <v>75</v>
       </c>
     </row>
+    <row r="90" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M90" s="2">
+        <v>1</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2"/>
+      <c r="V90" s="2"/>
+      <c r="W90" s="2"/>
+      <c r="X90" s="2"/>
+      <c r="Y90" s="2"/>
+      <c r="Z90" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA90" s="2"/>
+      <c r="AB90" s="2"/>
+      <c r="AC90" s="2"/>
+      <c r="AD90" s="2"/>
+      <c r="AE90" s="2"/>
+      <c r="AF90" s="2"/>
+      <c r="AG90" s="2"/>
+      <c r="AH90" s="2"/>
+      <c r="AI90" s="2"/>
+      <c r="AJ90" s="2"/>
+      <c r="AK90" s="2"/>
+      <c r="AL90" s="2"/>
+      <c r="AM90" s="2"/>
+      <c r="AN90" s="2"/>
+      <c r="AO90" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP90" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ90" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR90" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS90" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT90" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU90" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV90" s="2"/>
+      <c r="AW90" s="2"/>
+      <c r="AX90" s="2"/>
+      <c r="AY90" s="2"/>
+      <c r="AZ90" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA90" s="2"/>
+      <c r="BB90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC90" s="2"/>
+      <c r="BD90" s="2"/>
+    </row>
+    <row r="91" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A91" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M91" s="2">
+        <v>1</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2"/>
+      <c r="V91" s="2"/>
+      <c r="W91" s="2"/>
+      <c r="X91" s="2"/>
+      <c r="Y91" s="2"/>
+      <c r="Z91" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA91" s="2"/>
+      <c r="AB91" s="2"/>
+      <c r="AC91" s="2"/>
+      <c r="AD91" s="2"/>
+      <c r="AE91" s="2"/>
+      <c r="AF91" s="2"/>
+      <c r="AG91" s="2"/>
+      <c r="AH91" s="2"/>
+      <c r="AI91" s="2"/>
+      <c r="AJ91" s="2"/>
+      <c r="AK91" s="2"/>
+      <c r="AL91" s="2"/>
+      <c r="AM91" s="2"/>
+      <c r="AN91" s="2"/>
+      <c r="AO91" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP91" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ91" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR91" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS91" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT91" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU91" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV91" s="2"/>
+      <c r="AW91" s="2"/>
+      <c r="AX91" s="2"/>
+      <c r="AY91" s="2"/>
+      <c r="AZ91" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA91" s="2"/>
+      <c r="BB91" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC91" s="2"/>
+      <c r="BD91" s="2"/>
+    </row>
+    <row r="92" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M92" s="2">
+        <v>1</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2"/>
+      <c r="V92" s="2"/>
+      <c r="W92" s="2"/>
+      <c r="X92" s="2"/>
+      <c r="Y92" s="2"/>
+      <c r="Z92" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA92" s="2"/>
+      <c r="AB92" s="2"/>
+      <c r="AC92" s="2"/>
+      <c r="AD92" s="2"/>
+      <c r="AE92" s="2"/>
+      <c r="AF92" s="2"/>
+      <c r="AG92" s="2"/>
+      <c r="AH92" s="2"/>
+      <c r="AI92" s="2"/>
+      <c r="AJ92" s="2"/>
+      <c r="AK92" s="2"/>
+      <c r="AL92" s="2"/>
+      <c r="AM92" s="2"/>
+      <c r="AN92" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO92" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP92" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AQ92" s="2"/>
+      <c r="AR92" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS92" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT92" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU92" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AV92" s="2"/>
+      <c r="AW92" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX92" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AY92" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ92" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA92" s="2"/>
+      <c r="BB92" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC92" s="2"/>
+      <c r="BD92" s="2"/>
+    </row>
+    <row r="93" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M93" s="2">
+        <v>1</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2"/>
+      <c r="V93" s="2"/>
+      <c r="W93" s="2"/>
+      <c r="X93" s="2"/>
+      <c r="Y93" s="2"/>
+      <c r="Z93" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA93" s="2"/>
+      <c r="AB93" s="2"/>
+      <c r="AC93" s="2"/>
+      <c r="AD93" s="2"/>
+      <c r="AE93" s="2"/>
+      <c r="AF93" s="2"/>
+      <c r="AG93" s="2"/>
+      <c r="AH93" s="2"/>
+      <c r="AI93" s="2"/>
+      <c r="AJ93" s="2"/>
+      <c r="AK93" s="2"/>
+      <c r="AL93" s="2"/>
+      <c r="AM93" s="2"/>
+      <c r="AN93" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO93" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP93" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AQ93" s="2"/>
+      <c r="AR93" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS93" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT93" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU93" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AV93" s="2"/>
+      <c r="AW93" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX93" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AY93" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ93" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA93" s="2"/>
+      <c r="BB93" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC93" s="2"/>
+      <c r="BD93" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FAE872-47C5-4529-8C1E-880EC7DADB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DE877E-2F14-4C21-B4AA-8C3E69D2466C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="224">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -677,6 +677,18 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_119</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_120</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_121</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_122</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_123</t>
   </si>
 </sst>
 </file>
@@ -2383,11 +2395,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BG93"/>
+  <dimension ref="A1:BG97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AT1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BG97" sqref="BG97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11986,6 +11998,410 @@
       <c r="BC93" s="2"/>
       <c r="BD93" s="2"/>
     </row>
+    <row r="94" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A94" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M94" s="2">
+        <v>1</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S94" s="2">
+        <v>20</v>
+      </c>
+      <c r="T94" s="2">
+        <v>50</v>
+      </c>
+      <c r="U94" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V94" s="2"/>
+      <c r="W94" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X94" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y94" s="2"/>
+      <c r="Z94" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA94" s="2"/>
+      <c r="AB94" s="2"/>
+      <c r="AC94" s="2">
+        <v>0.128</v>
+      </c>
+      <c r="AD94" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="AE94" s="2"/>
+      <c r="AF94" s="2"/>
+      <c r="AG94" s="2"/>
+      <c r="AH94" s="2"/>
+      <c r="AI94" s="2"/>
+      <c r="AJ94" s="2"/>
+      <c r="AK94" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL94" s="2"/>
+      <c r="AM94" s="2"/>
+      <c r="AN94" s="2"/>
+      <c r="AO94" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP94" s="2"/>
+      <c r="AQ94" s="2"/>
+      <c r="AR94" s="2"/>
+      <c r="AS94" s="2"/>
+      <c r="AT94" s="2"/>
+      <c r="AU94" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV94" s="2"/>
+      <c r="AW94" s="2"/>
+      <c r="AX94" s="2"/>
+      <c r="AY94" s="2"/>
+      <c r="AZ94" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA94" s="2"/>
+      <c r="BB94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC94" s="2"/>
+      <c r="BD94" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M95" s="2">
+        <v>1</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2"/>
+      <c r="V95" s="2"/>
+      <c r="W95" s="2"/>
+      <c r="X95" s="2"/>
+      <c r="Y95" s="2"/>
+      <c r="Z95" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA95" s="2"/>
+      <c r="AB95" s="2"/>
+      <c r="AC95" s="2"/>
+      <c r="AD95" s="2"/>
+      <c r="AE95" s="2"/>
+      <c r="AF95" s="2"/>
+      <c r="AG95" s="2"/>
+      <c r="AH95" s="2"/>
+      <c r="AI95" s="2"/>
+      <c r="AJ95" s="2"/>
+      <c r="AK95" s="2"/>
+      <c r="AL95" s="2"/>
+      <c r="AM95" s="2"/>
+      <c r="AN95" s="2"/>
+      <c r="AO95" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP95" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ95" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR95" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS95" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT95" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU95" s="2"/>
+      <c r="AV95" s="2"/>
+      <c r="AW95" s="2"/>
+      <c r="AX95" s="2"/>
+      <c r="AY95" s="2"/>
+      <c r="AZ95" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA95" s="2"/>
+      <c r="BB95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC95" s="2"/>
+      <c r="BD95" s="2"/>
+    </row>
+    <row r="96" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A96" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M96" s="2">
+        <v>1</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2"/>
+      <c r="V96" s="2"/>
+      <c r="W96" s="2"/>
+      <c r="X96" s="2"/>
+      <c r="Y96" s="2"/>
+      <c r="Z96" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA96" s="2"/>
+      <c r="AB96" s="2"/>
+      <c r="AC96" s="2"/>
+      <c r="AD96" s="2"/>
+      <c r="AE96" s="2"/>
+      <c r="AF96" s="2"/>
+      <c r="AG96" s="2"/>
+      <c r="AH96" s="2"/>
+      <c r="AI96" s="2"/>
+      <c r="AJ96" s="2"/>
+      <c r="AK96" s="2"/>
+      <c r="AL96" s="2"/>
+      <c r="AM96" s="2"/>
+      <c r="AN96" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO96" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP96" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AQ96" s="2"/>
+      <c r="AR96" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS96" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT96" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU96" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AV96" s="2"/>
+      <c r="AW96" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AX96" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AY96" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ96" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA96" s="2"/>
+      <c r="BB96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC96" s="2"/>
+      <c r="BD96" s="2"/>
+    </row>
+    <row r="97" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A97" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M97" s="2">
+        <v>1</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2"/>
+      <c r="V97" s="2"/>
+      <c r="W97" s="2"/>
+      <c r="X97" s="2"/>
+      <c r="Y97" s="2"/>
+      <c r="Z97" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA97" s="2"/>
+      <c r="AB97" s="2"/>
+      <c r="AC97" s="2"/>
+      <c r="AD97" s="2"/>
+      <c r="AE97" s="2"/>
+      <c r="AF97" s="2"/>
+      <c r="AG97" s="2"/>
+      <c r="AH97" s="2"/>
+      <c r="AI97" s="2"/>
+      <c r="AJ97" s="2"/>
+      <c r="AK97" s="2"/>
+      <c r="AL97" s="2"/>
+      <c r="AM97" s="2"/>
+      <c r="AN97" s="2"/>
+      <c r="AO97" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP97" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AQ97" s="2"/>
+      <c r="AR97" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AS97" s="2">
+        <v>4000</v>
+      </c>
+      <c r="AT97" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU97" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV97" s="7">
+        <v>2</v>
+      </c>
+      <c r="AW97" s="2"/>
+      <c r="AX97" s="2"/>
+      <c r="AY97" s="2"/>
+      <c r="AZ97" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA97" s="2"/>
+      <c r="BB97" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC97" s="2"/>
+      <c r="BD97" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DE877E-2F14-4C21-B4AA-8C3E69D2466C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324B25CC-2A33-4B36-9BE1-8761C6E2EB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NitroXLogin" sheetId="13" r:id="rId1"/>
@@ -1258,9 +1258,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:XFC34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1642,7 +1642,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -2397,7 +2397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
   <dimension ref="A1:BG97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AT1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="BG97" sqref="BG97"/>
     </sheetView>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324B25CC-2A33-4B36-9BE1-8761C6E2EB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DCADEE-6FEE-4849-A232-81686821DB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="222">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -313,12 +313,6 @@
     <t>Instrument</t>
   </si>
   <si>
-    <t>ETH/USDT Perpetual USDT</t>
-  </si>
-  <si>
-    <t>QUANT_BINANCEDM_25</t>
-  </si>
-  <si>
     <t>QA_TestCase_Auto_NitroX_034</t>
   </si>
   <si>
@@ -376,9 +370,6 @@
     <t>QA_TestCase_Auto_NitroX_039</t>
   </si>
   <si>
-    <t>XRP/USDT Perpetual USDT</t>
-  </si>
-  <si>
     <t>QA_TestCase_Auto_NitroX_040</t>
   </si>
   <si>
@@ -689,6 +680,9 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_123</t>
+  </si>
+  <si>
+    <t>XRP/USD Perpetual USD</t>
   </si>
 </sst>
 </file>
@@ -1258,9 +1252,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:XFC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1316,19 +1310,19 @@
         <v>10</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>11</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>12</v>
@@ -1520,7 +1514,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1553,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1586,7 +1580,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>29</v>
@@ -1623,7 +1617,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>29</v>
@@ -1660,7 +1654,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>29</v>
@@ -1699,7 +1693,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>29</v>
@@ -1738,7 +1732,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>29</v>
@@ -1777,7 +1771,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>29</v>
@@ -1816,7 +1810,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>29</v>
@@ -1855,7 +1849,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>29</v>
@@ -1894,7 +1888,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>29</v>
@@ -1931,25 +1925,25 @@
     </row>
     <row r="18" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="I18" s="6">
         <v>25</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>32</v>
@@ -1976,25 +1970,25 @@
     </row>
     <row r="19" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="I19" s="6">
         <v>25</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>32</v>
@@ -2021,34 +2015,34 @@
     </row>
     <row r="20" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="I20" s="6">
         <v>25</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P20" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="S20" s="2">
         <v>1</v>
@@ -2069,34 +2063,34 @@
     </row>
     <row r="21" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="I21" s="6">
         <v>25</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P21" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="S21" s="2">
         <v>1</v>
@@ -2117,25 +2111,25 @@
     </row>
     <row r="22" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="I22" s="6">
         <v>10</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>32</v>
@@ -2143,7 +2137,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="9"/>
       <c r="P22" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="S22" s="2">
         <v>1</v>
@@ -2164,25 +2158,25 @@
     </row>
     <row r="23" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="I23" s="6">
         <v>25</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>37</v>
@@ -2209,25 +2203,25 @@
     </row>
     <row r="24" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="I24" s="6">
         <v>25</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>37</v>
@@ -2254,31 +2248,31 @@
     </row>
     <row r="25" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="I25" s="6">
         <v>25</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>37</v>
       </c>
       <c r="P25" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="S25" s="2">
         <v>1</v>
@@ -2299,31 +2293,31 @@
     </row>
     <row r="26" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="I26" s="6">
         <v>25</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>37</v>
       </c>
       <c r="P26" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="S26" s="2">
         <v>1</v>
@@ -2344,13 +2338,13 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>29</v>
@@ -2397,9 +2391,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
   <dimension ref="A1:BG97"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BG97" sqref="BG97"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2472,10 +2466,10 @@
         <v>10</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>40</v>
@@ -2487,10 +2481,10 @@
         <v>42</v>
       </c>
       <c r="N1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>62</v>
@@ -2508,7 +2502,7 @@
         <v>46</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>47</v>
@@ -2520,10 +2514,10 @@
         <v>49</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA1" s="8" t="s">
         <v>50</v>
@@ -2565,7 +2559,7 @@
         <v>62</v>
       </c>
       <c r="AN1" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AO1" s="8" t="s">
         <v>11</v>
@@ -2574,7 +2568,7 @@
         <v>63</v>
       </c>
       <c r="AQ1" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AR1" s="8" t="s">
         <v>64</v>
@@ -2589,13 +2583,13 @@
         <v>14</v>
       </c>
       <c r="AV1" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AW1" s="8" t="s">
         <v>67</v>
       </c>
       <c r="AX1" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AY1" s="8" t="s">
         <v>43</v>
@@ -2618,13 +2612,13 @@
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -2722,13 +2716,13 @@
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -2826,13 +2820,13 @@
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
@@ -2930,13 +2924,13 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
@@ -3040,7 +3034,7 @@
         <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
@@ -3144,7 +3138,7 @@
         <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>29</v>
@@ -3244,7 +3238,7 @@
         <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>29</v>
@@ -3332,7 +3326,7 @@
         <v>85</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>29</v>
@@ -3420,7 +3414,7 @@
         <v>85</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>29</v>
@@ -3436,13 +3430,13 @@
         <v>71</v>
       </c>
       <c r="L10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="M10" s="2">
-        <v>1</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>32</v>
@@ -3515,7 +3509,7 @@
         <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>29</v>
@@ -3532,13 +3526,13 @@
         <v>71</v>
       </c>
       <c r="L11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="M11" s="2">
-        <v>1</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>77</v>
@@ -3609,16 +3603,16 @@
         <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -3701,22 +3695,22 @@
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -3799,22 +3793,22 @@
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -3897,22 +3891,22 @@
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -3995,18 +3989,18 @@
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -4099,18 +4093,18 @@
     </row>
     <row r="17" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -4203,18 +4197,18 @@
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -4307,18 +4301,18 @@
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -4411,28 +4405,28 @@
     </row>
     <row r="20" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I20" s="6">
         <v>25</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>71</v>
@@ -4467,7 +4461,7 @@
         <v>73</v>
       </c>
       <c r="Y20" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Z20" s="2">
         <v>1200</v>
@@ -4521,28 +4515,28 @@
     </row>
     <row r="21" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I21" s="6">
         <v>25</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>71</v>
@@ -4577,7 +4571,7 @@
         <v>73</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Z21" s="2">
         <v>1</v>
@@ -4631,18 +4625,18 @@
     </row>
     <row r="22" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -4721,18 +4715,18 @@
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -4811,13 +4805,13 @@
     </row>
     <row r="24" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>29</v>
@@ -4826,7 +4820,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -4836,13 +4830,13 @@
         <v>71</v>
       </c>
       <c r="L24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1</v>
+      </c>
+      <c r="N24" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="M24" s="2">
-        <v>1</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>32</v>
@@ -4911,13 +4905,13 @@
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>29</v>
@@ -4926,7 +4920,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -4936,13 +4930,13 @@
         <v>71</v>
       </c>
       <c r="L25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="M25" s="2">
-        <v>1</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>77</v>
@@ -5011,13 +5005,13 @@
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>29</v>
@@ -5026,7 +5020,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -5109,13 +5103,13 @@
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>29</v>
@@ -5124,7 +5118,7 @@
         <v>2</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -5207,13 +5201,13 @@
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>29</v>
@@ -5222,7 +5216,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -5305,13 +5299,13 @@
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>29</v>
@@ -5320,7 +5314,7 @@
         <v>2</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -5403,13 +5397,13 @@
     </row>
     <row r="30" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>29</v>
@@ -5507,13 +5501,13 @@
     </row>
     <row r="31" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>29</v>
@@ -5611,13 +5605,13 @@
     </row>
     <row r="32" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>29</v>
@@ -5715,13 +5709,13 @@
     </row>
     <row r="33" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>29</v>
@@ -5819,13 +5813,13 @@
     </row>
     <row r="34" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>29</v>
@@ -5923,13 +5917,13 @@
     </row>
     <row r="35" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>29</v>
@@ -6027,13 +6021,13 @@
     </row>
     <row r="36" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>29</v>
@@ -6131,13 +6125,13 @@
     </row>
     <row r="37" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>29</v>
@@ -6237,13 +6231,13 @@
     </row>
     <row r="38" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>29</v>
@@ -6343,13 +6337,13 @@
     </row>
     <row r="39" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>29</v>
@@ -6435,13 +6429,13 @@
     </row>
     <row r="40" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>29</v>
@@ -6527,13 +6521,13 @@
     </row>
     <row r="41" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>29</v>
@@ -6627,13 +6621,13 @@
     </row>
     <row r="42" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>29</v>
@@ -6727,13 +6721,13 @@
     </row>
     <row r="43" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>29</v>
@@ -6833,13 +6827,13 @@
     </row>
     <row r="44" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>29</v>
@@ -6925,13 +6919,13 @@
     </row>
     <row r="45" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>29</v>
@@ -7025,13 +7019,13 @@
     </row>
     <row r="46" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>29</v>
@@ -7047,13 +7041,13 @@
         <v>71</v>
       </c>
       <c r="L46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M46" s="2">
+        <v>1</v>
+      </c>
+      <c r="N46" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="M46" s="2">
-        <v>1</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="O46" s="2" t="s">
         <v>32</v>
@@ -7122,13 +7116,13 @@
     </row>
     <row r="47" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>29</v>
@@ -7137,7 +7131,7 @@
         <v>2</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -7228,13 +7222,13 @@
     </row>
     <row r="48" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>29</v>
@@ -7243,7 +7237,7 @@
         <v>2</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -7334,13 +7328,13 @@
     </row>
     <row r="49" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>29</v>
@@ -7349,7 +7343,7 @@
         <v>2</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -7440,13 +7434,13 @@
     </row>
     <row r="50" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>29</v>
@@ -7455,7 +7449,7 @@
         <v>2</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -7546,13 +7540,13 @@
     </row>
     <row r="51" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>29</v>
@@ -7561,7 +7555,7 @@
         <v>2</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -7652,13 +7646,13 @@
     </row>
     <row r="52" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>29</v>
@@ -7667,7 +7661,7 @@
         <v>2</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -7760,13 +7754,13 @@
     </row>
     <row r="53" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>29</v>
@@ -7775,7 +7769,7 @@
         <v>2</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -7866,13 +7860,13 @@
     </row>
     <row r="54" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>29</v>
@@ -7881,7 +7875,7 @@
         <v>2</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -7974,13 +7968,13 @@
     </row>
     <row r="55" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>29</v>
@@ -7989,7 +7983,7 @@
         <v>2</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -8082,13 +8076,13 @@
     </row>
     <row r="56" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>29</v>
@@ -8097,7 +8091,7 @@
         <v>2</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -8178,13 +8172,13 @@
     </row>
     <row r="57" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>29</v>
@@ -8193,7 +8187,7 @@
         <v>2</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -8274,13 +8268,13 @@
     </row>
     <row r="58" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>29</v>
@@ -8289,7 +8283,7 @@
         <v>2</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -8376,13 +8370,13 @@
     </row>
     <row r="59" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>29</v>
@@ -8391,7 +8385,7 @@
         <v>2</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -8478,13 +8472,13 @@
     </row>
     <row r="60" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>29</v>
@@ -8493,7 +8487,7 @@
         <v>2</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -8586,13 +8580,13 @@
     </row>
     <row r="61" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>29</v>
@@ -8601,7 +8595,7 @@
         <v>2</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -8680,13 +8674,13 @@
     </row>
     <row r="62" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>29</v>
@@ -8695,7 +8689,7 @@
         <v>2</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -8782,13 +8776,13 @@
     </row>
     <row r="63" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>29</v>
@@ -8797,7 +8791,7 @@
         <v>2</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -8807,13 +8801,13 @@
         <v>71</v>
       </c>
       <c r="L63" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M63" s="2">
+        <v>1</v>
+      </c>
+      <c r="N63" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="M63" s="2">
-        <v>1</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>32</v>
@@ -8882,13 +8876,13 @@
     </row>
     <row r="64" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>29</v>
@@ -8986,13 +8980,13 @@
     </row>
     <row r="65" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>29</v>
@@ -9090,13 +9084,13 @@
     </row>
     <row r="66" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>29</v>
@@ -9194,13 +9188,13 @@
     </row>
     <row r="67" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>29</v>
@@ -9298,13 +9292,13 @@
     </row>
     <row r="68" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>29</v>
@@ -9402,13 +9396,13 @@
     </row>
     <row r="69" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>29</v>
@@ -9506,13 +9500,13 @@
     </row>
     <row r="70" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>29</v>
@@ -9610,13 +9604,13 @@
     </row>
     <row r="71" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>29</v>
@@ -9625,7 +9619,7 @@
         <v>2</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -9718,13 +9712,13 @@
     </row>
     <row r="72" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>29</v>
@@ -9733,7 +9727,7 @@
         <v>2</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -9826,13 +9820,13 @@
     </row>
     <row r="73" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>29</v>
@@ -9841,7 +9835,7 @@
         <v>2</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -9926,13 +9920,13 @@
     </row>
     <row r="74" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>29</v>
@@ -9941,7 +9935,7 @@
         <v>2</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -10026,13 +10020,13 @@
     </row>
     <row r="75" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>29</v>
@@ -10041,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
@@ -10132,13 +10126,13 @@
     </row>
     <row r="76" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>29</v>
@@ -10147,7 +10141,7 @@
         <v>2</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -10238,13 +10232,13 @@
     </row>
     <row r="77" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>29</v>
@@ -10253,7 +10247,7 @@
         <v>2</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -10346,13 +10340,13 @@
     </row>
     <row r="78" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>29</v>
@@ -10361,7 +10355,7 @@
         <v>2</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -10440,13 +10434,13 @@
     </row>
     <row r="79" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>29</v>
@@ -10455,7 +10449,7 @@
         <v>2</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -10542,13 +10536,13 @@
     </row>
     <row r="80" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>29</v>
@@ -10557,7 +10551,7 @@
         <v>2</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -10567,13 +10561,13 @@
         <v>71</v>
       </c>
       <c r="L80" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M80" s="2">
+        <v>1</v>
+      </c>
+      <c r="N80" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="M80" s="2">
-        <v>1</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>32</v>
@@ -10642,13 +10636,13 @@
     </row>
     <row r="81" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>29</v>
@@ -10657,7 +10651,7 @@
         <v>2</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -10750,13 +10744,13 @@
     </row>
     <row r="82" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>29</v>
@@ -10765,7 +10759,7 @@
         <v>2</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -10858,13 +10852,13 @@
     </row>
     <row r="83" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>29</v>
@@ -10873,7 +10867,7 @@
         <v>2</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -10964,13 +10958,13 @@
     </row>
     <row r="84" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>29</v>
@@ -10979,7 +10973,7 @@
         <v>2</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -11070,13 +11064,13 @@
     </row>
     <row r="85" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>29</v>
@@ -11085,7 +11079,7 @@
         <v>2</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
@@ -11176,13 +11170,13 @@
     </row>
     <row r="86" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>29</v>
@@ -11191,7 +11185,7 @@
         <v>2</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -11282,13 +11276,13 @@
     </row>
     <row r="87" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>29</v>
@@ -11297,7 +11291,7 @@
         <v>2</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
@@ -11388,13 +11382,13 @@
     </row>
     <row r="88" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>29</v>
@@ -11403,7 +11397,7 @@
         <v>2</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -11496,13 +11490,13 @@
     </row>
     <row r="89" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>29</v>
@@ -11511,7 +11505,7 @@
         <v>2</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
@@ -11604,13 +11598,13 @@
     </row>
     <row r="90" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>29</v>
@@ -11619,7 +11613,7 @@
         <v>2</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
@@ -11700,13 +11694,13 @@
     </row>
     <row r="91" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>29</v>
@@ -11715,7 +11709,7 @@
         <v>2</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
@@ -11796,13 +11790,13 @@
     </row>
     <row r="92" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>29</v>
@@ -11811,7 +11805,7 @@
         <v>2</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -11898,13 +11892,13 @@
     </row>
     <row r="93" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>29</v>
@@ -11913,7 +11907,7 @@
         <v>2</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
@@ -12000,13 +11994,13 @@
     </row>
     <row r="94" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>29</v>
@@ -12015,7 +12009,7 @@
         <v>2</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -12108,13 +12102,13 @@
     </row>
     <row r="95" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>29</v>
@@ -12123,7 +12117,7 @@
         <v>2</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
@@ -12202,13 +12196,13 @@
     </row>
     <row r="96" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>29</v>
@@ -12217,7 +12211,7 @@
         <v>2</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -12304,13 +12298,13 @@
     </row>
     <row r="97" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>29</v>
@@ -12319,7 +12313,7 @@
         <v>2</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
@@ -12329,13 +12323,13 @@
         <v>71</v>
       </c>
       <c r="L97" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M97" s="2">
+        <v>1</v>
+      </c>
+      <c r="N97" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="M97" s="2">
-        <v>1</v>
-      </c>
-      <c r="N97" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="O97" s="2" t="s">
         <v>32</v>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DCADEE-6FEE-4849-A232-81686821DB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042D11D8-6BD1-43A5-9A85-CFAB835C5D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NitroXLogin" sheetId="13" r:id="rId1"/>
@@ -1252,9 +1252,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:XFC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G22" sqref="G22"/>
+      <selection pane="topRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2391,9 +2391,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
   <dimension ref="A1:BG97"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AR13" sqref="AR13:AS15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3086,10 +3086,10 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="AD6" s="2">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
@@ -3188,10 +3188,10 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2">
-        <v>3100</v>
+        <v>4000</v>
       </c>
       <c r="AD7" s="2">
-        <v>3900</v>
+        <v>5000</v>
       </c>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
@@ -3295,10 +3295,10 @@
       </c>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="AS8" s="2">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="AT8" s="2">
         <v>1</v>
@@ -3383,10 +3383,10 @@
       </c>
       <c r="AQ9" s="2"/>
       <c r="AR9" s="2">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="AS9" s="2">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="AT9" s="2">
         <v>1</v>
@@ -3474,10 +3474,10 @@
       </c>
       <c r="AQ10" s="2"/>
       <c r="AR10" s="2">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="AS10" s="2">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="AT10" s="2">
         <v>1</v>
@@ -3570,10 +3570,10 @@
       </c>
       <c r="AQ11" s="2"/>
       <c r="AR11" s="2">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="AS11" s="2">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="AT11" s="2">
         <v>1</v>
@@ -3664,10 +3664,10 @@
       </c>
       <c r="AQ12" s="2"/>
       <c r="AR12" s="2">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="AS12" s="2">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="AT12" s="2">
         <v>1</v>
@@ -3762,10 +3762,10 @@
       </c>
       <c r="AQ13" s="2"/>
       <c r="AR13" s="2">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="AS13" s="2">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="AT13" s="2">
         <v>1</v>
@@ -3860,10 +3860,10 @@
       </c>
       <c r="AQ14" s="2"/>
       <c r="AR14" s="2">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="AS14" s="2">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="AT14" s="2">
         <v>1</v>
@@ -3958,10 +3958,10 @@
       </c>
       <c r="AQ15" s="2"/>
       <c r="AR15" s="2">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="AS15" s="2">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="AT15" s="2">
         <v>1</v>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042D11D8-6BD1-43A5-9A85-CFAB835C5D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933B7CF7-4DBB-436C-B682-E552AEC363DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2392,8 +2392,8 @@
   <dimension ref="A1:BG97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR13" sqref="AR13:AS15"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3089,7 +3089,7 @@
         <v>4000</v>
       </c>
       <c r="AD6" s="2">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
@@ -3191,7 +3191,7 @@
         <v>4000</v>
       </c>
       <c r="AD7" s="2">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
@@ -3298,7 +3298,7 @@
         <v>4000</v>
       </c>
       <c r="AS8" s="2">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="AT8" s="2">
         <v>1</v>
@@ -3386,7 +3386,7 @@
         <v>4000</v>
       </c>
       <c r="AS9" s="2">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="AT9" s="2">
         <v>1</v>
@@ -3477,7 +3477,7 @@
         <v>4000</v>
       </c>
       <c r="AS10" s="2">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="AT10" s="2">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         <v>4000</v>
       </c>
       <c r="AS11" s="2">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="AT11" s="2">
         <v>1</v>
@@ -3603,7 +3603,7 @@
         <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>203</v>
+        <v>109</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>169</v>
@@ -3667,7 +3667,7 @@
         <v>4000</v>
       </c>
       <c r="AS12" s="2">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="AT12" s="2">
         <v>1</v>
@@ -3701,7 +3701,7 @@
         <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>203</v>
+        <v>109</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>169</v>
@@ -3765,7 +3765,7 @@
         <v>4000</v>
       </c>
       <c r="AS13" s="2">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="AT13" s="2">
         <v>1</v>
@@ -3799,7 +3799,7 @@
         <v>85</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>203</v>
+        <v>109</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>169</v>
@@ -3863,7 +3863,7 @@
         <v>4000</v>
       </c>
       <c r="AS14" s="2">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="AT14" s="2">
         <v>1</v>
@@ -3897,7 +3897,7 @@
         <v>85</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>203</v>
+        <v>109</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>169</v>
@@ -3961,7 +3961,7 @@
         <v>4000</v>
       </c>
       <c r="AS15" s="2">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="AT15" s="2">
         <v>1</v>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933B7CF7-4DBB-436C-B682-E552AEC363DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41542FC0-6662-4F94-98B2-F2117362C7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="221">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -524,9 +524,6 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_077</t>
-  </si>
-  <si>
-    <t>XRP</t>
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_079</t>
@@ -783,7 +780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -800,7 +797,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
@@ -1931,10 +1927,10 @@
         <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>99</v>
@@ -1976,10 +1972,10 @@
         <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>99</v>
@@ -2021,10 +2017,10 @@
         <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>99</v>
@@ -2069,10 +2065,10 @@
         <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>99</v>
@@ -2117,10 +2113,10 @@
         <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>99</v>
@@ -2134,7 +2130,7 @@
       <c r="K22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L22" s="10"/>
+      <c r="L22"/>
       <c r="M22" s="9"/>
       <c r="P22" s="2">
         <v>1</v>
@@ -2164,10 +2160,10 @@
         <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>99</v>
@@ -2209,10 +2205,10 @@
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>99</v>
@@ -2254,10 +2250,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>99</v>
@@ -2299,10 +2295,10 @@
         <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>99</v>
@@ -2393,7 +2389,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K9" sqref="K9"/>
+      <selection pane="topRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2881,7 +2877,7 @@
         <v>3000</v>
       </c>
       <c r="AD4" s="2">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
@@ -2985,7 +2981,7 @@
         <v>3000</v>
       </c>
       <c r="AD5" s="2">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
@@ -3086,7 +3082,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="AD6" s="2">
         <v>6000</v>
@@ -3188,7 +3184,7 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="AD7" s="2">
         <v>6000</v>
@@ -3295,7 +3291,7 @@
       </c>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="AS8" s="2">
         <v>6000</v>
@@ -3383,7 +3379,7 @@
       </c>
       <c r="AQ9" s="2"/>
       <c r="AR9" s="2">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="AS9" s="2">
         <v>6000</v>
@@ -3474,7 +3470,7 @@
       </c>
       <c r="AQ10" s="2"/>
       <c r="AR10" s="2">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="AS10" s="2">
         <v>6000</v>
@@ -3570,7 +3566,7 @@
       </c>
       <c r="AQ11" s="2"/>
       <c r="AR11" s="2">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="AS11" s="2">
         <v>6000</v>
@@ -3606,13 +3602,13 @@
         <v>109</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -3664,7 +3660,7 @@
       </c>
       <c r="AQ12" s="2"/>
       <c r="AR12" s="2">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="AS12" s="2">
         <v>6000</v>
@@ -3676,10 +3672,10 @@
         <v>0.01</v>
       </c>
       <c r="AV12" s="2"/>
-      <c r="AW12" s="11">
+      <c r="AW12" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AX12" s="11"/>
+      <c r="AX12" s="10"/>
       <c r="AY12" s="2" t="s">
         <v>85</v>
       </c>
@@ -3704,13 +3700,13 @@
         <v>109</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -3762,7 +3758,7 @@
       </c>
       <c r="AQ13" s="2"/>
       <c r="AR13" s="2">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="AS13" s="2">
         <v>6000</v>
@@ -3774,10 +3770,10 @@
         <v>0.01</v>
       </c>
       <c r="AV13" s="2"/>
-      <c r="AW13" s="11">
+      <c r="AW13" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AX13" s="11"/>
+      <c r="AX13" s="10"/>
       <c r="AY13" s="2" t="s">
         <v>85</v>
       </c>
@@ -3802,13 +3798,13 @@
         <v>109</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -3860,7 +3856,7 @@
       </c>
       <c r="AQ14" s="2"/>
       <c r="AR14" s="2">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="AS14" s="2">
         <v>6000</v>
@@ -3875,7 +3871,7 @@
       <c r="AW14" s="7">
         <v>28</v>
       </c>
-      <c r="AX14" s="11"/>
+      <c r="AX14" s="10"/>
       <c r="AY14" s="2" t="s">
         <v>85</v>
       </c>
@@ -3900,13 +3896,13 @@
         <v>109</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -3958,7 +3954,7 @@
       </c>
       <c r="AQ15" s="2"/>
       <c r="AR15" s="2">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="AS15" s="2">
         <v>6000</v>
@@ -3970,10 +3966,10 @@
         <v>0.01</v>
       </c>
       <c r="AV15" s="2"/>
-      <c r="AW15" s="12">
+      <c r="AW15" s="11">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AX15" s="12"/>
+      <c r="AX15" s="11"/>
       <c r="AY15" s="2" t="s">
         <v>85</v>
       </c>
@@ -3989,18 +3985,18 @@
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -4093,18 +4089,18 @@
     </row>
     <row r="17" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -4197,18 +4193,18 @@
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -4301,18 +4297,18 @@
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -4411,12 +4407,12 @@
         <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
@@ -4521,12 +4517,12 @@
         <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
@@ -4631,12 +4627,12 @@
         <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -4721,12 +4717,12 @@
         <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -4811,7 +4807,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>29</v>
@@ -4820,7 +4816,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -4911,7 +4907,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>29</v>
@@ -4920,7 +4916,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -5005,13 +5001,13 @@
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>29</v>
@@ -5020,7 +5016,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -5084,10 +5080,10 @@
         <v>0.01</v>
       </c>
       <c r="AV26" s="2"/>
-      <c r="AW26" s="11">
+      <c r="AW26" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AX26" s="11"/>
+      <c r="AX26" s="10"/>
       <c r="AY26" s="2" t="s">
         <v>85</v>
       </c>
@@ -5103,13 +5099,13 @@
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>29</v>
@@ -5118,7 +5114,7 @@
         <v>2</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -5182,10 +5178,10 @@
         <v>0.01</v>
       </c>
       <c r="AV27" s="2"/>
-      <c r="AW27" s="11">
+      <c r="AW27" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AX27" s="11"/>
+      <c r="AX27" s="10"/>
       <c r="AY27" s="2" t="s">
         <v>85</v>
       </c>
@@ -5201,13 +5197,13 @@
     </row>
     <row r="28" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>29</v>
@@ -5216,7 +5212,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -5280,10 +5276,10 @@
         <v>0.01</v>
       </c>
       <c r="AV28" s="2"/>
-      <c r="AW28" s="11">
+      <c r="AW28" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AX28" s="11"/>
+      <c r="AX28" s="10"/>
       <c r="AY28" s="2" t="s">
         <v>85</v>
       </c>
@@ -5299,13 +5295,13 @@
     </row>
     <row r="29" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>29</v>
@@ -5314,7 +5310,7 @@
         <v>2</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -5378,10 +5374,10 @@
         <v>0.01</v>
       </c>
       <c r="AV29" s="2"/>
-      <c r="AW29" s="11">
+      <c r="AW29" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AX29" s="11"/>
+      <c r="AX29" s="10"/>
       <c r="AY29" s="2" t="s">
         <v>85</v>
       </c>
@@ -6600,10 +6596,10 @@
         <v>0.01</v>
       </c>
       <c r="AV41" s="2"/>
-      <c r="AW41" s="11">
+      <c r="AW41" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AX41" s="11">
+      <c r="AX41" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AY41" s="2" t="s">
@@ -6621,7 +6617,7 @@
     </row>
     <row r="42" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>85</v>
@@ -6700,10 +6696,10 @@
         <v>0.01</v>
       </c>
       <c r="AV42" s="2"/>
-      <c r="AW42" s="11">
+      <c r="AW42" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AX42" s="11">
+      <c r="AX42" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AY42" s="2" t="s">
@@ -6998,10 +6994,10 @@
         <v>0.01</v>
       </c>
       <c r="AV45" s="2"/>
-      <c r="AW45" s="11">
+      <c r="AW45" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AX45" s="11">
+      <c r="AX45" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AY45" s="2" t="s">
@@ -7122,7 +7118,7 @@
         <v>23</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>29</v>
@@ -7131,7 +7127,7 @@
         <v>2</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -7228,7 +7224,7 @@
         <v>23</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>29</v>
@@ -7237,7 +7233,7 @@
         <v>2</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -7334,7 +7330,7 @@
         <v>23</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>29</v>
@@ -7343,7 +7339,7 @@
         <v>2</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -7434,13 +7430,13 @@
     </row>
     <row r="50" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>29</v>
@@ -7449,7 +7445,7 @@
         <v>2</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -7546,7 +7542,7 @@
         <v>23</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>29</v>
@@ -7555,7 +7551,7 @@
         <v>2</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -7646,13 +7642,13 @@
     </row>
     <row r="52" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>29</v>
@@ -7661,7 +7657,7 @@
         <v>2</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -7754,13 +7750,13 @@
     </row>
     <row r="53" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>29</v>
@@ -7769,7 +7765,7 @@
         <v>2</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -7860,13 +7856,13 @@
     </row>
     <row r="54" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>29</v>
@@ -7875,7 +7871,7 @@
         <v>2</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -7968,13 +7964,13 @@
     </row>
     <row r="55" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>29</v>
@@ -7983,7 +7979,7 @@
         <v>2</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -8076,13 +8072,13 @@
     </row>
     <row r="56" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>29</v>
@@ -8091,7 +8087,7 @@
         <v>2</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -8172,13 +8168,13 @@
     </row>
     <row r="57" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>29</v>
@@ -8187,7 +8183,7 @@
         <v>2</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -8268,13 +8264,13 @@
     </row>
     <row r="58" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>29</v>
@@ -8283,7 +8279,7 @@
         <v>2</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -8349,10 +8345,10 @@
         <v>0.01</v>
       </c>
       <c r="AV58" s="2"/>
-      <c r="AW58" s="11">
+      <c r="AW58" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AX58" s="11">
+      <c r="AX58" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AY58" s="2" t="s">
@@ -8370,13 +8366,13 @@
     </row>
     <row r="59" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>29</v>
@@ -8385,7 +8381,7 @@
         <v>2</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -8451,10 +8447,10 @@
         <v>0.01</v>
       </c>
       <c r="AV59" s="2"/>
-      <c r="AW59" s="11">
+      <c r="AW59" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AX59" s="11">
+      <c r="AX59" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AY59" s="2" t="s">
@@ -8472,13 +8468,13 @@
     </row>
     <row r="60" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>29</v>
@@ -8487,7 +8483,7 @@
         <v>2</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -8580,13 +8576,13 @@
     </row>
     <row r="61" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>29</v>
@@ -8595,7 +8591,7 @@
         <v>2</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -8674,13 +8670,13 @@
     </row>
     <row r="62" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>29</v>
@@ -8689,7 +8685,7 @@
         <v>2</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -8755,10 +8751,10 @@
         <v>0.01</v>
       </c>
       <c r="AV62" s="2"/>
-      <c r="AW62" s="11">
+      <c r="AW62" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AX62" s="11">
+      <c r="AX62" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AY62" s="2" t="s">
@@ -8776,13 +8772,13 @@
     </row>
     <row r="63" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>29</v>
@@ -8791,7 +8787,7 @@
         <v>2</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -9604,13 +9600,13 @@
     </row>
     <row r="71" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>29</v>
@@ -9619,7 +9615,7 @@
         <v>2</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -9712,13 +9708,13 @@
     </row>
     <row r="72" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>29</v>
@@ -9727,7 +9723,7 @@
         <v>2</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -9820,13 +9816,13 @@
     </row>
     <row r="73" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>29</v>
@@ -9835,7 +9831,7 @@
         <v>2</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -9920,13 +9916,13 @@
     </row>
     <row r="74" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>29</v>
@@ -9935,7 +9931,7 @@
         <v>2</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -10020,13 +10016,13 @@
     </row>
     <row r="75" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>29</v>
@@ -10035,7 +10031,7 @@
         <v>2</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
@@ -10105,10 +10101,10 @@
         <v>0.01</v>
       </c>
       <c r="AV75" s="2"/>
-      <c r="AW75" s="11">
+      <c r="AW75" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AX75" s="11">
+      <c r="AX75" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AY75" s="2" t="s">
@@ -10126,13 +10122,13 @@
     </row>
     <row r="76" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>29</v>
@@ -10141,7 +10137,7 @@
         <v>2</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -10211,10 +10207,10 @@
         <v>0.01</v>
       </c>
       <c r="AV76" s="2"/>
-      <c r="AW76" s="11">
+      <c r="AW76" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AX76" s="11">
+      <c r="AX76" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AY76" s="2" t="s">
@@ -10232,13 +10228,13 @@
     </row>
     <row r="77" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>29</v>
@@ -10247,7 +10243,7 @@
         <v>2</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -10340,13 +10336,13 @@
     </row>
     <row r="78" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>29</v>
@@ -10355,7 +10351,7 @@
         <v>2</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -10434,13 +10430,13 @@
     </row>
     <row r="79" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>29</v>
@@ -10449,7 +10445,7 @@
         <v>2</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -10515,10 +10511,10 @@
         <v>0.01</v>
       </c>
       <c r="AV79" s="2"/>
-      <c r="AW79" s="11">
+      <c r="AW79" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AX79" s="11">
+      <c r="AX79" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AY79" s="2" t="s">
@@ -10536,13 +10532,13 @@
     </row>
     <row r="80" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>29</v>
@@ -10551,7 +10547,7 @@
         <v>2</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -10636,13 +10632,13 @@
     </row>
     <row r="81" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>29</v>
@@ -10651,7 +10647,7 @@
         <v>2</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -10744,13 +10740,13 @@
     </row>
     <row r="82" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>29</v>
@@ -10759,7 +10755,7 @@
         <v>2</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -10852,13 +10848,13 @@
     </row>
     <row r="83" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>29</v>
@@ -10867,7 +10863,7 @@
         <v>2</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -10958,13 +10954,13 @@
     </row>
     <row r="84" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>29</v>
@@ -10973,7 +10969,7 @@
         <v>2</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -11064,13 +11060,13 @@
     </row>
     <row r="85" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>29</v>
@@ -11079,7 +11075,7 @@
         <v>2</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
@@ -11170,13 +11166,13 @@
     </row>
     <row r="86" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>29</v>
@@ -11185,7 +11181,7 @@
         <v>2</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -11276,13 +11272,13 @@
     </row>
     <row r="87" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>29</v>
@@ -11291,7 +11287,7 @@
         <v>2</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
@@ -11382,13 +11378,13 @@
     </row>
     <row r="88" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>29</v>
@@ -11397,7 +11393,7 @@
         <v>2</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -11490,13 +11486,13 @@
     </row>
     <row r="89" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>29</v>
@@ -11505,7 +11501,7 @@
         <v>2</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
@@ -11598,13 +11594,13 @@
     </row>
     <row r="90" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>29</v>
@@ -11613,7 +11609,7 @@
         <v>2</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
@@ -11694,13 +11690,13 @@
     </row>
     <row r="91" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>29</v>
@@ -11709,7 +11705,7 @@
         <v>2</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
@@ -11790,13 +11786,13 @@
     </row>
     <row r="92" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>29</v>
@@ -11805,7 +11801,7 @@
         <v>2</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -11871,10 +11867,10 @@
         <v>0.01</v>
       </c>
       <c r="AV92" s="2"/>
-      <c r="AW92" s="11">
+      <c r="AW92" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AX92" s="11">
+      <c r="AX92" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AY92" s="2" t="s">
@@ -11892,13 +11888,13 @@
     </row>
     <row r="93" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>29</v>
@@ -11907,7 +11903,7 @@
         <v>2</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
@@ -11973,10 +11969,10 @@
         <v>0.01</v>
       </c>
       <c r="AV93" s="2"/>
-      <c r="AW93" s="11">
+      <c r="AW93" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AX93" s="11">
+      <c r="AX93" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AY93" s="2" t="s">
@@ -11994,13 +11990,13 @@
     </row>
     <row r="94" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>29</v>
@@ -12009,7 +12005,7 @@
         <v>2</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -12102,13 +12098,13 @@
     </row>
     <row r="95" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>29</v>
@@ -12117,7 +12113,7 @@
         <v>2</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
@@ -12196,13 +12192,13 @@
     </row>
     <row r="96" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>29</v>
@@ -12211,7 +12207,7 @@
         <v>2</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -12277,10 +12273,10 @@
         <v>0.01</v>
       </c>
       <c r="AV96" s="2"/>
-      <c r="AW96" s="11">
+      <c r="AW96" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="AX96" s="11">
+      <c r="AX96" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AY96" s="2" t="s">
@@ -12298,13 +12294,13 @@
     </row>
     <row r="97" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>29</v>
@@ -12313,7 +12309,7 @@
         <v>2</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41542FC0-6662-4F94-98B2-F2117362C7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43D087C-89DE-4AE8-BF84-270B6406C83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1248,7 +1248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:XFC34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B21" sqref="B21"/>
     </sheetView>
@@ -2388,8 +2388,8 @@
   <dimension ref="A1:BG97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H13" sqref="H13"/>
+      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AY10" sqref="AY10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43D087C-89DE-4AE8-BF84-270B6406C83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A18FA3-77EC-457B-986C-53E819BB2ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="223">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -680,6 +680,12 @@
   </si>
   <si>
     <t>XRP/USD Perpetual USD</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_124</t>
+  </si>
+  <si>
+    <t>participation_bot</t>
   </si>
 </sst>
 </file>
@@ -2385,11 +2391,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BG97"/>
+  <dimension ref="A1:BG98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AY10" sqref="AY10"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12392,6 +12398,110 @@
       <c r="BC97" s="2"/>
       <c r="BD97" s="2"/>
     </row>
+    <row r="98" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A98" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M98" s="2">
+        <v>1</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S98" s="2">
+        <v>20</v>
+      </c>
+      <c r="T98" s="2">
+        <v>50</v>
+      </c>
+      <c r="U98" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V98" s="2"/>
+      <c r="W98" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X98" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y98" s="2"/>
+      <c r="Z98" s="2"/>
+      <c r="AA98" s="2"/>
+      <c r="AB98" s="2"/>
+      <c r="AC98" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD98" s="2">
+        <v>6000</v>
+      </c>
+      <c r="AE98" s="2"/>
+      <c r="AF98" s="2"/>
+      <c r="AG98" s="2"/>
+      <c r="AH98" s="2"/>
+      <c r="AI98" s="2"/>
+      <c r="AJ98" s="2"/>
+      <c r="AK98" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL98" s="2"/>
+      <c r="AM98" s="2"/>
+      <c r="AN98" s="2"/>
+      <c r="AO98" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP98" s="2"/>
+      <c r="AQ98" s="2"/>
+      <c r="AR98" s="2"/>
+      <c r="AS98" s="2"/>
+      <c r="AT98" s="2"/>
+      <c r="AU98" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV98" s="2"/>
+      <c r="AW98" s="2"/>
+      <c r="AX98" s="2"/>
+      <c r="AY98" s="2"/>
+      <c r="AZ98" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA98" s="2"/>
+      <c r="BB98" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC98" s="2"/>
+      <c r="BD98" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A18FA3-77EC-457B-986C-53E819BB2ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815EFB0D-7DB6-4464-9292-1EE7DAF37C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="232">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -686,6 +686,33 @@
   </si>
   <si>
     <t>participation_bot</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_125</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_126</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_127</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_128</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_129</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_130</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_131</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_132</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_133</t>
   </si>
 </sst>
 </file>
@@ -2391,11 +2418,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BG98"/>
+  <dimension ref="A1:BG107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H96" sqref="H96"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AI110" sqref="AI110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12502,6 +12529,954 @@
         <v>75</v>
       </c>
     </row>
+    <row r="99" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M99" s="2">
+        <v>1</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S99" s="2">
+        <v>20</v>
+      </c>
+      <c r="T99" s="2">
+        <v>50</v>
+      </c>
+      <c r="U99" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V99" s="2"/>
+      <c r="W99" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X99" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y99" s="2"/>
+      <c r="Z99" s="2"/>
+      <c r="AA99" s="2"/>
+      <c r="AB99" s="2"/>
+      <c r="AC99" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD99" s="2">
+        <v>6000</v>
+      </c>
+      <c r="AE99" s="2"/>
+      <c r="AF99" s="2"/>
+      <c r="AG99" s="2"/>
+      <c r="AH99" s="2"/>
+      <c r="AI99" s="2"/>
+      <c r="AJ99" s="2"/>
+      <c r="AK99" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL99" s="2"/>
+      <c r="AM99" s="2"/>
+      <c r="AN99" s="2"/>
+      <c r="AO99" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP99" s="2"/>
+      <c r="AQ99" s="2"/>
+      <c r="AR99" s="2"/>
+      <c r="AS99" s="2"/>
+      <c r="AT99" s="2"/>
+      <c r="AU99" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV99" s="2"/>
+      <c r="AW99" s="2"/>
+      <c r="AX99" s="2"/>
+      <c r="AY99" s="2"/>
+      <c r="AZ99" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA99" s="2"/>
+      <c r="BB99" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC99" s="2"/>
+      <c r="BD99" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A100" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M100" s="2">
+        <v>1</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S100" s="2">
+        <v>20</v>
+      </c>
+      <c r="T100" s="2">
+        <v>50</v>
+      </c>
+      <c r="U100" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V100" s="2"/>
+      <c r="W100" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X100" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y100" s="2"/>
+      <c r="Z100" s="2"/>
+      <c r="AA100" s="2"/>
+      <c r="AB100" s="2"/>
+      <c r="AC100" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD100" s="2">
+        <v>6000</v>
+      </c>
+      <c r="AE100" s="2"/>
+      <c r="AF100" s="2"/>
+      <c r="AG100" s="2"/>
+      <c r="AH100" s="2"/>
+      <c r="AI100" s="2"/>
+      <c r="AJ100" s="2"/>
+      <c r="AK100" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL100" s="2"/>
+      <c r="AM100" s="2"/>
+      <c r="AN100" s="2"/>
+      <c r="AO100" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP100" s="2"/>
+      <c r="AQ100" s="2"/>
+      <c r="AR100" s="2"/>
+      <c r="AS100" s="2"/>
+      <c r="AT100" s="2"/>
+      <c r="AU100" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV100" s="2"/>
+      <c r="AW100" s="2"/>
+      <c r="AX100" s="2"/>
+      <c r="AY100" s="2"/>
+      <c r="AZ100" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA100" s="2"/>
+      <c r="BB100" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC100" s="2"/>
+      <c r="BD100" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A101" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M101" s="2">
+        <v>1</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S101" s="2">
+        <v>20</v>
+      </c>
+      <c r="T101" s="2">
+        <v>50</v>
+      </c>
+      <c r="U101" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V101" s="2"/>
+      <c r="W101" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X101" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y101" s="2"/>
+      <c r="Z101" s="2"/>
+      <c r="AA101" s="2"/>
+      <c r="AB101" s="2"/>
+      <c r="AC101" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD101" s="2">
+        <v>6000</v>
+      </c>
+      <c r="AE101" s="2"/>
+      <c r="AF101" s="2"/>
+      <c r="AG101" s="2"/>
+      <c r="AH101" s="2"/>
+      <c r="AI101" s="2"/>
+      <c r="AJ101" s="2"/>
+      <c r="AK101" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL101" s="2"/>
+      <c r="AM101" s="2"/>
+      <c r="AN101" s="2"/>
+      <c r="AO101" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP101" s="2"/>
+      <c r="AQ101" s="2"/>
+      <c r="AR101" s="2"/>
+      <c r="AS101" s="2"/>
+      <c r="AT101" s="2"/>
+      <c r="AU101" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV101" s="2"/>
+      <c r="AW101" s="2"/>
+      <c r="AX101" s="2"/>
+      <c r="AY101" s="2"/>
+      <c r="AZ101" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA101" s="2"/>
+      <c r="BB101" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC101" s="2"/>
+      <c r="BD101" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A102" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M102" s="2">
+        <v>1</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
+      <c r="R102" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S102" s="2">
+        <v>20</v>
+      </c>
+      <c r="T102" s="2">
+        <v>50</v>
+      </c>
+      <c r="U102" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V102" s="2"/>
+      <c r="W102" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X102" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y102" s="2"/>
+      <c r="Z102" s="2"/>
+      <c r="AA102" s="2"/>
+      <c r="AB102" s="2"/>
+      <c r="AC102" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD102" s="2">
+        <v>6000</v>
+      </c>
+      <c r="AE102" s="2"/>
+      <c r="AF102" s="2"/>
+      <c r="AG102" s="2"/>
+      <c r="AH102" s="2"/>
+      <c r="AI102" s="2"/>
+      <c r="AJ102" s="2"/>
+      <c r="AK102" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL102" s="2"/>
+      <c r="AM102" s="2"/>
+      <c r="AN102" s="2"/>
+      <c r="AO102" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP102" s="2"/>
+      <c r="AQ102" s="2"/>
+      <c r="AR102" s="2"/>
+      <c r="AS102" s="2"/>
+      <c r="AT102" s="2"/>
+      <c r="AU102" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV102" s="2"/>
+      <c r="AW102" s="2"/>
+      <c r="AX102" s="2"/>
+      <c r="AY102" s="2"/>
+      <c r="AZ102" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA102" s="2"/>
+      <c r="BB102" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC102" s="2"/>
+      <c r="BD102" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A103" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M103" s="2">
+        <v>1</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S103" s="2">
+        <v>20</v>
+      </c>
+      <c r="T103" s="2">
+        <v>50</v>
+      </c>
+      <c r="U103" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V103" s="2"/>
+      <c r="W103" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X103" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y103" s="2"/>
+      <c r="Z103" s="2"/>
+      <c r="AA103" s="2"/>
+      <c r="AB103" s="2"/>
+      <c r="AC103" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD103" s="2">
+        <v>6000</v>
+      </c>
+      <c r="AE103" s="2"/>
+      <c r="AF103" s="2"/>
+      <c r="AG103" s="2"/>
+      <c r="AH103" s="2"/>
+      <c r="AI103" s="2"/>
+      <c r="AJ103" s="2"/>
+      <c r="AK103" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL103" s="2"/>
+      <c r="AM103" s="2"/>
+      <c r="AN103" s="2"/>
+      <c r="AO103" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP103" s="2"/>
+      <c r="AQ103" s="2"/>
+      <c r="AR103" s="2"/>
+      <c r="AS103" s="2"/>
+      <c r="AT103" s="2"/>
+      <c r="AU103" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV103" s="2"/>
+      <c r="AW103" s="2"/>
+      <c r="AX103" s="2"/>
+      <c r="AY103" s="2"/>
+      <c r="AZ103" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA103" s="2"/>
+      <c r="BB103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC103" s="2"/>
+      <c r="BD103" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A104" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M104" s="2">
+        <v>1</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="2"/>
+      <c r="R104" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S104" s="2">
+        <v>20</v>
+      </c>
+      <c r="T104" s="2">
+        <v>50</v>
+      </c>
+      <c r="U104" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V104" s="2"/>
+      <c r="W104" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X104" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y104" s="2"/>
+      <c r="Z104" s="2"/>
+      <c r="AA104" s="2"/>
+      <c r="AB104" s="2"/>
+      <c r="AC104" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD104" s="2">
+        <v>6000</v>
+      </c>
+      <c r="AE104" s="2"/>
+      <c r="AF104" s="2"/>
+      <c r="AG104" s="2"/>
+      <c r="AH104" s="2"/>
+      <c r="AI104" s="2"/>
+      <c r="AJ104" s="2"/>
+      <c r="AK104" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL104" s="2"/>
+      <c r="AM104" s="2"/>
+      <c r="AN104" s="2"/>
+      <c r="AO104" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP104" s="2"/>
+      <c r="AQ104" s="2">
+        <v>3</v>
+      </c>
+      <c r="AR104" s="2"/>
+      <c r="AS104" s="2"/>
+      <c r="AT104" s="2"/>
+      <c r="AU104" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV104" s="2"/>
+      <c r="AW104" s="2"/>
+      <c r="AX104" s="2"/>
+      <c r="AY104" s="2"/>
+      <c r="AZ104" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA104" s="2"/>
+      <c r="BB104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC104" s="2"/>
+      <c r="BD104" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A105" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M105" s="2">
+        <v>1</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S105" s="2">
+        <v>20</v>
+      </c>
+      <c r="T105" s="2">
+        <v>50</v>
+      </c>
+      <c r="U105" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V105" s="2"/>
+      <c r="W105" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X105" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y105" s="2"/>
+      <c r="Z105" s="2"/>
+      <c r="AA105" s="2"/>
+      <c r="AB105" s="2"/>
+      <c r="AC105" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD105" s="2">
+        <v>6000</v>
+      </c>
+      <c r="AE105" s="2"/>
+      <c r="AF105" s="2"/>
+      <c r="AG105" s="2"/>
+      <c r="AH105" s="2"/>
+      <c r="AI105" s="2"/>
+      <c r="AJ105" s="2"/>
+      <c r="AK105" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL105" s="2"/>
+      <c r="AM105" s="2"/>
+      <c r="AN105" s="2"/>
+      <c r="AO105" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP105" s="2"/>
+      <c r="AQ105" s="2"/>
+      <c r="AR105" s="2"/>
+      <c r="AS105" s="2"/>
+      <c r="AT105" s="2"/>
+      <c r="AU105" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV105" s="2"/>
+      <c r="AW105" s="2"/>
+      <c r="AX105" s="2"/>
+      <c r="AY105" s="2"/>
+      <c r="AZ105" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA105" s="2"/>
+      <c r="BB105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC105" s="2"/>
+      <c r="BD105" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="106" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A106" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M106" s="2">
+        <v>1</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S106" s="2">
+        <v>20</v>
+      </c>
+      <c r="T106" s="2">
+        <v>50</v>
+      </c>
+      <c r="U106" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V106" s="2"/>
+      <c r="W106" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X106" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y106" s="2"/>
+      <c r="Z106" s="2"/>
+      <c r="AA106" s="2"/>
+      <c r="AB106" s="2"/>
+      <c r="AC106" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD106" s="2">
+        <v>6000</v>
+      </c>
+      <c r="AE106" s="2"/>
+      <c r="AF106" s="2"/>
+      <c r="AG106" s="2"/>
+      <c r="AH106" s="2"/>
+      <c r="AI106" s="2"/>
+      <c r="AJ106" s="2"/>
+      <c r="AK106" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL106" s="2"/>
+      <c r="AM106" s="2"/>
+      <c r="AN106" s="2"/>
+      <c r="AO106" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP106" s="2"/>
+      <c r="AQ106" s="2"/>
+      <c r="AR106" s="2"/>
+      <c r="AS106" s="2"/>
+      <c r="AT106" s="2"/>
+      <c r="AU106" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV106" s="2"/>
+      <c r="AW106" s="2"/>
+      <c r="AX106" s="2"/>
+      <c r="AY106" s="2"/>
+      <c r="AZ106" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA106" s="2"/>
+      <c r="BB106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC106" s="2"/>
+      <c r="BD106" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A107" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M107" s="2">
+        <v>1</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+      <c r="R107" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S107" s="2">
+        <v>20</v>
+      </c>
+      <c r="T107" s="2">
+        <v>50</v>
+      </c>
+      <c r="U107" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="V107" s="2"/>
+      <c r="W107" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="X107" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y107" s="2"/>
+      <c r="Z107" s="2"/>
+      <c r="AA107" s="2"/>
+      <c r="AB107" s="2"/>
+      <c r="AC107" s="2">
+        <v>3000</v>
+      </c>
+      <c r="AD107" s="2">
+        <v>6000</v>
+      </c>
+      <c r="AE107" s="2"/>
+      <c r="AF107" s="2"/>
+      <c r="AG107" s="2"/>
+      <c r="AH107" s="2"/>
+      <c r="AI107" s="2"/>
+      <c r="AJ107" s="2"/>
+      <c r="AK107" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL107" s="2"/>
+      <c r="AM107" s="2"/>
+      <c r="AN107" s="2"/>
+      <c r="AO107" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP107" s="2"/>
+      <c r="AQ107" s="2"/>
+      <c r="AR107" s="2"/>
+      <c r="AS107" s="2"/>
+      <c r="AT107" s="2"/>
+      <c r="AU107" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV107" s="2"/>
+      <c r="AW107" s="2"/>
+      <c r="AX107" s="2"/>
+      <c r="AY107" s="2"/>
+      <c r="AZ107" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA107" s="2"/>
+      <c r="BB107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC107" s="2"/>
+      <c r="BD107" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815EFB0D-7DB6-4464-9292-1EE7DAF37C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1050B0-B38F-4287-A82E-78408FEE73B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NitroXLogin" sheetId="13" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="234">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -713,6 +713,12 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_133</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_140</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_141</t>
   </si>
 </sst>
 </file>
@@ -813,7 +819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -832,6 +838,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1281,9 +1288,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
   <dimension ref="A1:XFC34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B21" sqref="B21"/>
+      <selection pane="topRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2372,7 +2379,7 @@
       <c r="B27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="12" t="s">
         <v>110</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -2402,6 +2409,80 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
     </row>
@@ -2409,10 +2490,9 @@
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" xr:uid="{FD3BAB66-20EF-4340-AAA8-8DC0A130EAC4}"/>
     <hyperlink ref="C8:C17" r:id="rId2" display="Automation_OrderBook@Tinyex" xr:uid="{AA208809-3E4A-405C-823F-E40F535E6767}"/>
-    <hyperlink ref="C27" r:id="rId3" xr:uid="{09B5D5BE-8887-4E65-BD2C-23B629D5AD27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2420,7 +2500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
   <dimension ref="A1:BG107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AI110" sqref="AI110"/>
     </sheetView>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2D633E-7F7C-48F6-8CB6-9FF945749041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DDA6B8-F51D-4356-9105-88DB82A90419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NitroXLogin" sheetId="13" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="249">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -746,6 +746,24 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_146</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_134</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_135</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_136</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_137</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_138</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_139</t>
   </si>
 </sst>
 </file>
@@ -1304,9 +1322,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E763A6C0-A0DE-42F1-A4CC-B0EEDE6F7213}">
-  <dimension ref="A1:XFD34"/>
+  <dimension ref="A1:AE34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="N35" sqref="N35"/>
     </sheetView>
@@ -2825,11 +2843,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
-  <dimension ref="A1:BG107"/>
+  <dimension ref="A1:BG113"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B107" sqref="B107:F107"/>
+      <selection pane="topRight" activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13884,6 +13902,630 @@
         <v>75</v>
       </c>
     </row>
+    <row r="108" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M108" s="1">
+        <v>1</v>
+      </c>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S108" s="1">
+        <v>20</v>
+      </c>
+      <c r="T108" s="1">
+        <v>50</v>
+      </c>
+      <c r="U108" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="V108" s="1"/>
+      <c r="W108" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="X108" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y108" s="1"/>
+      <c r="Z108" s="1"/>
+      <c r="AA108" s="1"/>
+      <c r="AB108" s="1"/>
+      <c r="AC108" s="1">
+        <v>3000</v>
+      </c>
+      <c r="AD108" s="1">
+        <v>6000</v>
+      </c>
+      <c r="AE108" s="1"/>
+      <c r="AF108" s="1"/>
+      <c r="AG108" s="1"/>
+      <c r="AH108" s="1"/>
+      <c r="AI108" s="1"/>
+      <c r="AJ108" s="1"/>
+      <c r="AK108" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL108" s="1"/>
+      <c r="AM108" s="1"/>
+      <c r="AN108" s="1"/>
+      <c r="AO108" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP108" s="1"/>
+      <c r="AQ108" s="1"/>
+      <c r="AR108" s="1"/>
+      <c r="AS108" s="1"/>
+      <c r="AT108" s="1"/>
+      <c r="AU108" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV108" s="1"/>
+      <c r="AW108" s="1"/>
+      <c r="AX108" s="1"/>
+      <c r="AY108" s="1"/>
+      <c r="AZ108" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA108" s="1"/>
+      <c r="BB108" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC108" s="1"/>
+      <c r="BD108" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M109" s="1">
+        <v>1</v>
+      </c>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S109" s="1">
+        <v>20</v>
+      </c>
+      <c r="T109" s="1">
+        <v>50</v>
+      </c>
+      <c r="U109" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="V109" s="1"/>
+      <c r="W109" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="X109" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y109" s="1"/>
+      <c r="Z109" s="1"/>
+      <c r="AA109" s="1"/>
+      <c r="AB109" s="1"/>
+      <c r="AC109" s="1">
+        <v>3000</v>
+      </c>
+      <c r="AD109" s="1">
+        <v>6000</v>
+      </c>
+      <c r="AE109" s="1"/>
+      <c r="AF109" s="1"/>
+      <c r="AG109" s="1"/>
+      <c r="AH109" s="1"/>
+      <c r="AI109" s="1"/>
+      <c r="AJ109" s="1"/>
+      <c r="AK109" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL109" s="1"/>
+      <c r="AM109" s="1"/>
+      <c r="AN109" s="1"/>
+      <c r="AO109" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP109" s="1"/>
+      <c r="AQ109" s="1"/>
+      <c r="AR109" s="1"/>
+      <c r="AS109" s="1"/>
+      <c r="AT109" s="1"/>
+      <c r="AU109" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV109" s="1"/>
+      <c r="AW109" s="1"/>
+      <c r="AX109" s="1"/>
+      <c r="AY109" s="1"/>
+      <c r="AZ109" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA109" s="1"/>
+      <c r="BB109" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC109" s="1"/>
+      <c r="BD109" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="110" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M110" s="1">
+        <v>1</v>
+      </c>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S110" s="1">
+        <v>20</v>
+      </c>
+      <c r="T110" s="1">
+        <v>50</v>
+      </c>
+      <c r="U110" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="V110" s="1"/>
+      <c r="W110" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="X110" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y110" s="1"/>
+      <c r="Z110" s="1"/>
+      <c r="AA110" s="1"/>
+      <c r="AB110" s="1"/>
+      <c r="AC110" s="1">
+        <v>3000</v>
+      </c>
+      <c r="AD110" s="1">
+        <v>6000</v>
+      </c>
+      <c r="AE110" s="1"/>
+      <c r="AF110" s="1"/>
+      <c r="AG110" s="1"/>
+      <c r="AH110" s="1"/>
+      <c r="AI110" s="1"/>
+      <c r="AJ110" s="1"/>
+      <c r="AK110" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL110" s="1"/>
+      <c r="AM110" s="1"/>
+      <c r="AN110" s="1"/>
+      <c r="AO110" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP110" s="1"/>
+      <c r="AQ110" s="1"/>
+      <c r="AR110" s="1"/>
+      <c r="AS110" s="1"/>
+      <c r="AT110" s="1"/>
+      <c r="AU110" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV110" s="1"/>
+      <c r="AW110" s="1"/>
+      <c r="AX110" s="1"/>
+      <c r="AY110" s="1"/>
+      <c r="AZ110" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA110" s="1"/>
+      <c r="BB110" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC110" s="1"/>
+      <c r="BD110" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M111" s="1">
+        <v>1</v>
+      </c>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S111" s="1">
+        <v>20</v>
+      </c>
+      <c r="T111" s="1">
+        <v>50</v>
+      </c>
+      <c r="U111" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="V111" s="1"/>
+      <c r="W111" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="X111" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y111" s="1"/>
+      <c r="Z111" s="1"/>
+      <c r="AA111" s="1"/>
+      <c r="AB111" s="1"/>
+      <c r="AC111" s="1">
+        <v>3000</v>
+      </c>
+      <c r="AD111" s="1">
+        <v>6000</v>
+      </c>
+      <c r="AE111" s="1"/>
+      <c r="AF111" s="1"/>
+      <c r="AG111" s="1"/>
+      <c r="AH111" s="1"/>
+      <c r="AI111" s="1"/>
+      <c r="AJ111" s="1"/>
+      <c r="AK111" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL111" s="1"/>
+      <c r="AM111" s="1"/>
+      <c r="AN111" s="1"/>
+      <c r="AO111" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP111" s="1"/>
+      <c r="AQ111" s="1"/>
+      <c r="AR111" s="1"/>
+      <c r="AS111" s="1"/>
+      <c r="AT111" s="1"/>
+      <c r="AU111" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV111" s="1"/>
+      <c r="AW111" s="1"/>
+      <c r="AX111" s="1"/>
+      <c r="AY111" s="1"/>
+      <c r="AZ111" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA111" s="1"/>
+      <c r="BB111" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC111" s="1"/>
+      <c r="BD111" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="112" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M112" s="1">
+        <v>1</v>
+      </c>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S112" s="1">
+        <v>20</v>
+      </c>
+      <c r="T112" s="1">
+        <v>50</v>
+      </c>
+      <c r="U112" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="V112" s="1"/>
+      <c r="W112" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="X112" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y112" s="1"/>
+      <c r="Z112" s="1"/>
+      <c r="AA112" s="1"/>
+      <c r="AB112" s="1"/>
+      <c r="AC112" s="1">
+        <v>3000</v>
+      </c>
+      <c r="AD112" s="1">
+        <v>6000</v>
+      </c>
+      <c r="AE112" s="1"/>
+      <c r="AF112" s="1"/>
+      <c r="AG112" s="1"/>
+      <c r="AH112" s="1"/>
+      <c r="AI112" s="1"/>
+      <c r="AJ112" s="1"/>
+      <c r="AK112" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL112" s="1"/>
+      <c r="AM112" s="1"/>
+      <c r="AN112" s="1"/>
+      <c r="AO112" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP112" s="1"/>
+      <c r="AQ112" s="1"/>
+      <c r="AR112" s="1"/>
+      <c r="AS112" s="1"/>
+      <c r="AT112" s="1"/>
+      <c r="AU112" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV112" s="1"/>
+      <c r="AW112" s="1"/>
+      <c r="AX112" s="1"/>
+      <c r="AY112" s="1"/>
+      <c r="AZ112" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA112" s="1"/>
+      <c r="BB112" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC112" s="1"/>
+      <c r="BD112" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="113" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M113" s="1">
+        <v>1</v>
+      </c>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S113" s="1">
+        <v>20</v>
+      </c>
+      <c r="T113" s="1">
+        <v>50</v>
+      </c>
+      <c r="U113" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="V113" s="1"/>
+      <c r="W113" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="X113" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y113" s="1"/>
+      <c r="Z113" s="1"/>
+      <c r="AA113" s="1"/>
+      <c r="AB113" s="1"/>
+      <c r="AC113" s="1">
+        <v>3000</v>
+      </c>
+      <c r="AD113" s="1">
+        <v>6000</v>
+      </c>
+      <c r="AE113" s="1"/>
+      <c r="AF113" s="1"/>
+      <c r="AG113" s="1"/>
+      <c r="AH113" s="1"/>
+      <c r="AI113" s="1"/>
+      <c r="AJ113" s="1"/>
+      <c r="AK113" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL113" s="1"/>
+      <c r="AM113" s="1"/>
+      <c r="AN113" s="1"/>
+      <c r="AO113" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP113" s="1"/>
+      <c r="AQ113" s="1"/>
+      <c r="AR113" s="1"/>
+      <c r="AS113" s="1"/>
+      <c r="AT113" s="1"/>
+      <c r="AU113" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV113" s="1"/>
+      <c r="AW113" s="1"/>
+      <c r="AX113" s="1"/>
+      <c r="AY113" s="1"/>
+      <c r="AZ113" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA113" s="1"/>
+      <c r="BB113" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC113" s="1"/>
+      <c r="BD113" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DDA6B8-F51D-4356-9105-88DB82A90419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B07064-8417-45D9-BE88-0F84D0BC27FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="249">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -2845,9 +2845,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
   <dimension ref="A1:BG113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H114" sqref="H114"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AQ98" sqref="AQ98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13247,7 +13247,9 @@
         <v>77</v>
       </c>
       <c r="AP101" s="1"/>
-      <c r="AQ101" s="1"/>
+      <c r="AQ101" s="1">
+        <v>5</v>
+      </c>
       <c r="AR101" s="1"/>
       <c r="AS101" s="1"/>
       <c r="AT101" s="1"/>
@@ -13351,7 +13353,9 @@
         <v>32</v>
       </c>
       <c r="AP102" s="1"/>
-      <c r="AQ102" s="1"/>
+      <c r="AQ102" s="1">
+        <v>5</v>
+      </c>
       <c r="AR102" s="1"/>
       <c r="AS102" s="1"/>
       <c r="AT102" s="1"/>
@@ -13455,7 +13459,9 @@
         <v>77</v>
       </c>
       <c r="AP103" s="1"/>
-      <c r="AQ103" s="1"/>
+      <c r="AQ103" s="1">
+        <v>5</v>
+      </c>
       <c r="AR103" s="1"/>
       <c r="AS103" s="1"/>
       <c r="AT103" s="1"/>
@@ -13560,7 +13566,7 @@
       </c>
       <c r="AP104" s="1"/>
       <c r="AQ104" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR104" s="1"/>
       <c r="AS104" s="1"/>
@@ -13667,7 +13673,9 @@
         <v>32</v>
       </c>
       <c r="AP105" s="1"/>
-      <c r="AQ105" s="1"/>
+      <c r="AQ105" s="1">
+        <v>5</v>
+      </c>
       <c r="AR105" s="1"/>
       <c r="AS105" s="1"/>
       <c r="AT105" s="1"/>
@@ -13773,7 +13781,9 @@
         <v>32</v>
       </c>
       <c r="AP106" s="1"/>
-      <c r="AQ106" s="1"/>
+      <c r="AQ106" s="1">
+        <v>5</v>
+      </c>
       <c r="AR106" s="1"/>
       <c r="AS106" s="1"/>
       <c r="AT106" s="1"/>
@@ -13879,7 +13889,9 @@
         <v>32</v>
       </c>
       <c r="AP107" s="1"/>
-      <c r="AQ107" s="1"/>
+      <c r="AQ107" s="1">
+        <v>5</v>
+      </c>
       <c r="AR107" s="1"/>
       <c r="AS107" s="1"/>
       <c r="AT107" s="1"/>
@@ -13983,7 +13995,9 @@
         <v>32</v>
       </c>
       <c r="AP108" s="1"/>
-      <c r="AQ108" s="1"/>
+      <c r="AQ108" s="1">
+        <v>5</v>
+      </c>
       <c r="AR108" s="1"/>
       <c r="AS108" s="1"/>
       <c r="AT108" s="1"/>
@@ -14087,7 +14101,9 @@
         <v>77</v>
       </c>
       <c r="AP109" s="1"/>
-      <c r="AQ109" s="1"/>
+      <c r="AQ109" s="1">
+        <v>5</v>
+      </c>
       <c r="AR109" s="1"/>
       <c r="AS109" s="1"/>
       <c r="AT109" s="1"/>
@@ -14191,7 +14207,9 @@
         <v>32</v>
       </c>
       <c r="AP110" s="1"/>
-      <c r="AQ110" s="1"/>
+      <c r="AQ110" s="1">
+        <v>5</v>
+      </c>
       <c r="AR110" s="1"/>
       <c r="AS110" s="1"/>
       <c r="AT110" s="1"/>
@@ -14295,7 +14313,9 @@
         <v>77</v>
       </c>
       <c r="AP111" s="1"/>
-      <c r="AQ111" s="1"/>
+      <c r="AQ111" s="1">
+        <v>5</v>
+      </c>
       <c r="AR111" s="1"/>
       <c r="AS111" s="1"/>
       <c r="AT111" s="1"/>
@@ -14399,7 +14419,9 @@
         <v>32</v>
       </c>
       <c r="AP112" s="1"/>
-      <c r="AQ112" s="1"/>
+      <c r="AQ112" s="1">
+        <v>5</v>
+      </c>
       <c r="AR112" s="1"/>
       <c r="AS112" s="1"/>
       <c r="AT112" s="1"/>
@@ -14427,7 +14449,7 @@
         <v>248</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>202</v>
@@ -14438,7 +14460,9 @@
       <c r="E113" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F113" s="1"/>
+      <c r="F113" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="5"/>
@@ -14503,7 +14527,9 @@
         <v>77</v>
       </c>
       <c r="AP113" s="1"/>
-      <c r="AQ113" s="1"/>
+      <c r="AQ113" s="1">
+        <v>6</v>
+      </c>
       <c r="AR113" s="1"/>
       <c r="AS113" s="1"/>
       <c r="AT113" s="1"/>

--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B07064-8417-45D9-BE88-0F84D0BC27FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D788A4-FB9A-4AAA-8985-FD7735B8B2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NitroXLogin" sheetId="13" r:id="rId1"/>
     <sheet name="NitroXBuySell" sheetId="11" r:id="rId2"/>
     <sheet name="NitroXBots" sheetId="12" r:id="rId3"/>
+    <sheet name="OptionPricer" sheetId="14" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="268">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -764,16 +765,74 @@
   </si>
   <si>
     <t>QA_TestCase_Auto_NitroX_139</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>SpotRef</t>
+  </si>
+  <si>
+    <t>BTC</t>
+  </si>
+  <si>
+    <t>Strikeup</t>
+  </si>
+  <si>
+    <t>Strikedown</t>
+  </si>
+  <si>
+    <t>Notionalup</t>
+  </si>
+  <si>
+    <t>Notionaldown</t>
+  </si>
+  <si>
+    <t>Spreadup</t>
+  </si>
+  <si>
+    <t>Spreaddown</t>
+  </si>
+  <si>
+    <t>Manualvolup</t>
+  </si>
+  <si>
+    <t>Manualvoldown</t>
+  </si>
+  <si>
+    <t>Expdate</t>
+  </si>
+  <si>
+    <t>CALL_RR</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_148</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_150</t>
+  </si>
+  <si>
+    <t>CALL_SPREAD</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_152</t>
+  </si>
+  <si>
+    <t>PUT_RR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="173" formatCode="[$-14009]yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -857,7 +916,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -875,6 +934,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2845,9 +2907,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E976D-0C3E-49F0-8D65-884140C53BC0}">
   <dimension ref="A1:BG113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AQ98" sqref="AQ98"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BA1" sqref="BA1:BB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14557,4 +14619,209 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700E5F23-74EF-43A5-B292-FA0E4522385D}">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" customWidth="1"/>
+    <col min="4" max="4" width="23.54296875" customWidth="1"/>
+    <col min="13" max="13" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="11">
+        <v>2</v>
+      </c>
+      <c r="E2" s="12">
+        <v>100</v>
+      </c>
+      <c r="F2" s="12">
+        <v>200</v>
+      </c>
+      <c r="G2" s="12">
+        <v>2</v>
+      </c>
+      <c r="H2" s="12">
+        <v>2</v>
+      </c>
+      <c r="I2" s="12">
+        <v>5</v>
+      </c>
+      <c r="J2" s="12">
+        <v>5</v>
+      </c>
+      <c r="K2" s="12">
+        <v>3</v>
+      </c>
+      <c r="L2" s="12">
+        <v>3</v>
+      </c>
+      <c r="M2" s="13">
+        <v>44845</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" s="11">
+        <v>2</v>
+      </c>
+      <c r="E3" s="12">
+        <v>100</v>
+      </c>
+      <c r="F3" s="12">
+        <v>200</v>
+      </c>
+      <c r="G3" s="12">
+        <v>2</v>
+      </c>
+      <c r="H3" s="12">
+        <v>2</v>
+      </c>
+      <c r="I3" s="12">
+        <v>5</v>
+      </c>
+      <c r="J3" s="12">
+        <v>5</v>
+      </c>
+      <c r="K3" s="12">
+        <v>3</v>
+      </c>
+      <c r="L3" s="12">
+        <v>3</v>
+      </c>
+      <c r="M3" s="13">
+        <v>44845</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" s="11">
+        <v>2</v>
+      </c>
+      <c r="E4" s="12">
+        <v>100</v>
+      </c>
+      <c r="F4" s="12">
+        <v>200</v>
+      </c>
+      <c r="G4" s="12">
+        <v>2</v>
+      </c>
+      <c r="H4" s="12">
+        <v>2</v>
+      </c>
+      <c r="I4" s="12">
+        <v>5</v>
+      </c>
+      <c r="J4" s="12">
+        <v>5</v>
+      </c>
+      <c r="K4" s="12">
+        <v>3</v>
+      </c>
+      <c r="L4" s="12">
+        <v>3</v>
+      </c>
+      <c r="M4" s="13">
+        <v>44845</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/resources/testData/NitroX.xlsx
+++ b/src/test/resources/testData/NitroX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D788A4-FB9A-4AAA-8985-FD7735B8B2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48785FC2-7F91-4EBB-AE5D-8B00E3D3E3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="524" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="275">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -822,6 +822,27 @@
   </si>
   <si>
     <t>PUT_RR</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_154</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_156</t>
+  </si>
+  <si>
+    <t>QA_TestCase_Auto_NitroX_158</t>
+  </si>
+  <si>
+    <t>PUT_SPREAD</t>
+  </si>
+  <si>
+    <t>STRADDLE</t>
+  </si>
+  <si>
+    <t>STRANGLE</t>
   </si>
 </sst>
 </file>
@@ -832,7 +853,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="173" formatCode="[$-14009]yyyy/mm/dd;@"/>
+    <numFmt numFmtId="167" formatCode="[$-14009]yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -936,7 +957,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14623,10 +14644,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700E5F23-74EF-43A5-B292-FA0E4522385D}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14638,7 +14659,7 @@
     <col min="13" max="13" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -14684,8 +14705,11 @@
       <c r="O1" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P1" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>263</v>
       </c>
@@ -14729,8 +14753,11 @@
       <c r="O2" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>264</v>
       </c>
@@ -14774,8 +14801,11 @@
       <c r="O3" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>266</v>
       </c>
@@ -14818,6 +14848,153 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>100</v>
+      </c>
+      <c r="F5" s="12">
+        <v>200</v>
+      </c>
+      <c r="G5" s="12">
+        <v>2</v>
+      </c>
+      <c r="H5" s="12">
+        <v>2</v>
+      </c>
+      <c r="I5" s="12">
+        <v>5</v>
+      </c>
+      <c r="J5" s="12">
+        <v>5</v>
+      </c>
+      <c r="K5" s="12">
+        <v>3</v>
+      </c>
+      <c r="L5" s="12">
+        <v>3</v>
+      </c>
+      <c r="M5" s="13">
+        <v>44845</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="11">
+        <v>2</v>
+      </c>
+      <c r="E6" s="12">
+        <v>100</v>
+      </c>
+      <c r="F6" s="12">
+        <v>200</v>
+      </c>
+      <c r="G6" s="12">
+        <v>2</v>
+      </c>
+      <c r="H6" s="12">
+        <v>2</v>
+      </c>
+      <c r="I6" s="12">
+        <v>5</v>
+      </c>
+      <c r="J6" s="12">
+        <v>5</v>
+      </c>
+      <c r="K6" s="12">
+        <v>3</v>
+      </c>
+      <c r="L6" s="12">
+        <v>3</v>
+      </c>
+      <c r="M6" s="13">
+        <v>44845</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="11">
+        <v>2</v>
+      </c>
+      <c r="E7" s="12">
+        <v>100</v>
+      </c>
+      <c r="F7" s="12">
+        <v>200</v>
+      </c>
+      <c r="G7" s="12">
+        <v>2</v>
+      </c>
+      <c r="H7" s="12">
+        <v>2</v>
+      </c>
+      <c r="I7" s="12">
+        <v>5</v>
+      </c>
+      <c r="J7" s="12">
+        <v>5</v>
+      </c>
+      <c r="K7" s="12">
+        <v>3</v>
+      </c>
+      <c r="L7" s="12">
+        <v>3</v>
+      </c>
+      <c r="M7" s="13">
+        <v>44845</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
